--- a/economicPart/calculation/смета.xlsx
+++ b/economicPart/calculation/смета.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplom\ASK_Diplom\economicPart\calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67570C34-9E35-4F10-973B-1989F2859BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCD074-8453-40FD-B235-C5D120437DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2936,74 +2936,35 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3031,18 +2992,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3062,63 +3062,122 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="35" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3144,92 +3203,25 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3237,6 +3229,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3493,8 +3493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="D290" sqref="D290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3517,77 +3517,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="265" t="s">
+      <c r="C1" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="265" t="s">
+      <c r="D1" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="266" t="s">
+      <c r="E1" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="254" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="254" t="s">
+      <c r="L1" s="237" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="257"/>
+      <c r="M1" s="240"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="255"/>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="248" t="s">
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="266" t="s">
+      <c r="F2" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="248" t="s">
+      <c r="G2" s="225"/>
+      <c r="H2" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="254" t="s">
+      <c r="I2" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="254" t="s">
+      <c r="J2" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="258"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="241"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="249"/>
+      <c r="A3" s="239"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="249"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="259"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
+      <c r="M3" s="242"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4">
@@ -3628,29 +3628,29 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickTop="1">
-      <c r="A5" s="260" t="s">
+      <c r="A5" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="261"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
-      <c r="E5" s="261"/>
-      <c r="F5" s="261"/>
-      <c r="G5" s="261"/>
-      <c r="H5" s="261"/>
-      <c r="I5" s="261"/>
-      <c r="J5" s="261"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="262"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="244"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+      <c r="H5" s="244"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="245"/>
     </row>
     <row r="6" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A6" s="263">
+      <c r="A6" s="246">
         <v>1</v>
       </c>
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="264" t="s">
+      <c r="C6" s="247" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="148" t="s">
@@ -3676,9 +3676,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A7" s="222"/>
-      <c r="B7" s="222"/>
-      <c r="C7" s="222"/>
+      <c r="A7" s="227"/>
+      <c r="B7" s="227"/>
+      <c r="C7" s="227"/>
       <c r="D7" s="125">
         <v>15.34</v>
       </c>
@@ -3704,13 +3704,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A8" s="229">
+      <c r="A8" s="260">
         <v>2</v>
       </c>
-      <c r="B8" s="229" t="s">
+      <c r="B8" s="260" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="236" t="s">
+      <c r="C8" s="226" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="148" t="s">
@@ -3735,9 +3735,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="222"/>
-      <c r="B9" s="222"/>
-      <c r="C9" s="222"/>
+      <c r="A9" s="227"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="227"/>
       <c r="D9" s="125">
         <v>557.76</v>
       </c>
@@ -3763,13 +3763,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A10" s="229">
+      <c r="A10" s="260">
         <v>3</v>
       </c>
-      <c r="B10" s="229" t="s">
+      <c r="B10" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="236" t="s">
+      <c r="C10" s="226" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="149" t="s">
@@ -3798,9 +3798,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A11" s="222"/>
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
+      <c r="A11" s="227"/>
+      <c r="B11" s="227"/>
+      <c r="C11" s="227"/>
       <c r="D11" s="125">
         <v>14.4</v>
       </c>
@@ -3832,13 +3832,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="69" customHeight="1">
-      <c r="A12" s="229">
+      <c r="A12" s="260">
         <v>4</v>
       </c>
-      <c r="B12" s="229" t="s">
+      <c r="B12" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="236" t="s">
+      <c r="C12" s="226" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="150" t="s">
@@ -3867,9 +3867,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A13" s="221"/>
-      <c r="B13" s="250"/>
-      <c r="C13" s="250"/>
+      <c r="A13" s="233"/>
+      <c r="B13" s="261"/>
+      <c r="C13" s="261"/>
       <c r="D13" s="126">
         <v>0.61</v>
       </c>
@@ -3901,11 +3901,11 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="36" customHeight="1">
-      <c r="A14" s="221"/>
-      <c r="B14" s="269" t="s">
+      <c r="A14" s="233"/>
+      <c r="B14" s="262" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="264" t="s">
+      <c r="C14" s="247" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="151" t="s">
@@ -3929,9 +3929,9 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="18.75">
-      <c r="A15" s="222"/>
-      <c r="B15" s="270"/>
-      <c r="C15" s="222"/>
+      <c r="A15" s="227"/>
+      <c r="B15" s="263"/>
+      <c r="C15" s="227"/>
       <c r="D15" s="10">
         <f>0.03*D13</f>
         <v>1.83E-2</v>
@@ -3955,13 +3955,13 @@
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A16" s="229">
+      <c r="A16" s="260">
         <v>5</v>
       </c>
-      <c r="B16" s="229" t="s">
+      <c r="B16" s="260" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="236" t="s">
+      <c r="C16" s="226" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="150" t="s">
@@ -3984,9 +3984,9 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="222"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
+      <c r="A17" s="227"/>
+      <c r="B17" s="227"/>
+      <c r="C17" s="227"/>
       <c r="D17" s="127">
         <f>'[1]объемы работ'!$D$8</f>
         <v>6.0648774000000003</v>
@@ -4010,13 +4010,13 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="60.75" customHeight="1">
-      <c r="A18" s="229">
+      <c r="A18" s="260">
         <v>6</v>
       </c>
-      <c r="B18" s="229" t="s">
+      <c r="B18" s="260" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="236" t="s">
+      <c r="C18" s="226" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="150" t="s">
@@ -4041,9 +4041,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75">
-      <c r="A19" s="222"/>
-      <c r="B19" s="222"/>
-      <c r="C19" s="222"/>
+      <c r="A19" s="227"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
       <c r="D19" s="127">
         <v>13.97</v>
       </c>
@@ -4069,13 +4069,13 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A20" s="229">
+      <c r="A20" s="260">
         <v>7</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="260" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="236" t="s">
+      <c r="C20" s="226" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="150" t="s">
@@ -4098,9 +4098,9 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="222"/>
-      <c r="B21" s="222"/>
-      <c r="C21" s="222"/>
+      <c r="A21" s="227"/>
+      <c r="B21" s="227"/>
+      <c r="C21" s="227"/>
       <c r="D21" s="127">
         <v>7.35</v>
       </c>
@@ -4123,13 +4123,13 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="37.5" customHeight="1">
-      <c r="A22" s="229">
+      <c r="A22" s="260">
         <v>8</v>
       </c>
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="260" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="236" t="s">
+      <c r="C22" s="226" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="152" t="s">
@@ -4158,9 +4158,9 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="222"/>
-      <c r="B23" s="222"/>
-      <c r="C23" s="222"/>
+      <c r="A23" s="227"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
       <c r="D23" s="127">
         <v>147.1</v>
       </c>
@@ -4192,11 +4192,11 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="240" t="s">
+      <c r="A24" s="228" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="241"/>
-      <c r="C24" s="242"/>
+      <c r="B24" s="229"/>
+      <c r="C24" s="230"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14">
         <f>E23+E21+E17+E13+E11</f>
@@ -4232,11 +4232,11 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="237" t="s">
+      <c r="A25" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="238"/>
-      <c r="C25" s="239"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="236"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -4251,11 +4251,11 @@
       <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="237" t="s">
+      <c r="A26" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="238"/>
-      <c r="C26" s="239"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="236"/>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -4270,11 +4270,11 @@
       <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="237" t="s">
+      <c r="A27" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="238"/>
-      <c r="C27" s="239"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="236"/>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -4289,11 +4289,11 @@
       <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="238"/>
-      <c r="C28" s="239"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="236"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -4308,11 +4308,11 @@
       <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="233" t="s">
+      <c r="A29" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="234"/>
-      <c r="C29" s="235"/>
+      <c r="B29" s="221"/>
+      <c r="C29" s="222"/>
       <c r="D29" s="19"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -4327,29 +4327,29 @@
       <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="230" t="s">
+      <c r="A30" s="266" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="231"/>
-      <c r="C30" s="231"/>
-      <c r="D30" s="231"/>
-      <c r="E30" s="231"/>
-      <c r="F30" s="231"/>
-      <c r="G30" s="231"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="231"/>
-      <c r="L30" s="232"/>
+      <c r="B30" s="267"/>
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="267"/>
+      <c r="I30" s="267"/>
+      <c r="J30" s="267"/>
+      <c r="K30" s="267"/>
+      <c r="L30" s="268"/>
     </row>
     <row r="31" spans="1:12" s="124" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A31" s="247">
+      <c r="A31" s="258">
         <v>1</v>
       </c>
-      <c r="B31" s="243" t="s">
+      <c r="B31" s="269" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="245" t="s">
+      <c r="C31" s="271" t="s">
         <v>281</v>
       </c>
       <c r="D31" s="134" t="s">
@@ -4378,9 +4378,9 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="124" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A32" s="228"/>
-      <c r="B32" s="244"/>
-      <c r="C32" s="246"/>
+      <c r="A32" s="232"/>
+      <c r="B32" s="270"/>
+      <c r="C32" s="272"/>
       <c r="D32" s="136">
         <v>0.22</v>
       </c>
@@ -4412,7 +4412,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="124" customFormat="1" ht="30">
-      <c r="A33" s="228"/>
+      <c r="A33" s="232"/>
       <c r="B33" s="160" t="s">
         <v>257</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="L33" s="136"/>
     </row>
     <row r="34" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="228"/>
+      <c r="A34" s="232"/>
       <c r="B34" s="159"/>
       <c r="C34" s="139"/>
       <c r="D34" s="135">
@@ -4466,7 +4466,7 @@
       <c r="L34" s="136"/>
     </row>
     <row r="35" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="228"/>
+      <c r="A35" s="232"/>
       <c r="B35" s="160" t="s">
         <v>258</v>
       </c>
@@ -4494,7 +4494,7 @@
       <c r="L35" s="162"/>
     </row>
     <row r="36" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="228"/>
+      <c r="A36" s="232"/>
       <c r="B36" s="159"/>
       <c r="C36" s="145"/>
       <c r="D36" s="135">
@@ -4519,8 +4519,8 @@
       <c r="K36" s="136"/>
       <c r="L36" s="136"/>
     </row>
-    <row r="37" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A37" s="228"/>
+    <row r="37" spans="1:12" s="124" customFormat="1" ht="30">
+      <c r="A37" s="232"/>
       <c r="B37" s="160" t="s">
         <v>41</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="L37" s="162"/>
     </row>
     <row r="38" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="228"/>
+      <c r="A38" s="232"/>
       <c r="B38" s="159"/>
       <c r="C38" s="145"/>
       <c r="D38" s="135">
@@ -4574,7 +4574,7 @@
       <c r="L38" s="136"/>
     </row>
     <row r="39" spans="1:12" s="124" customFormat="1" ht="30">
-      <c r="A39" s="228"/>
+      <c r="A39" s="232"/>
       <c r="B39" s="160" t="s">
         <v>260</v>
       </c>
@@ -4602,7 +4602,7 @@
       <c r="L39" s="162"/>
     </row>
     <row r="40" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="228"/>
+      <c r="A40" s="232"/>
       <c r="B40" s="159"/>
       <c r="C40" s="145"/>
       <c r="D40" s="135">
@@ -4628,7 +4628,7 @@
       <c r="L40" s="136"/>
     </row>
     <row r="41" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="228"/>
+      <c r="A41" s="232"/>
       <c r="B41" s="161" t="s">
         <v>44</v>
       </c>
@@ -4656,7 +4656,7 @@
       <c r="L41" s="162"/>
     </row>
     <row r="42" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="228"/>
+      <c r="A42" s="232"/>
       <c r="B42" s="159"/>
       <c r="C42" s="145"/>
       <c r="D42" s="135">
@@ -4682,7 +4682,7 @@
       <c r="L42" s="136"/>
     </row>
     <row r="43" spans="1:12" s="124" customFormat="1" ht="45">
-      <c r="A43" s="228"/>
+      <c r="A43" s="232"/>
       <c r="B43" s="160" t="s">
         <v>262</v>
       </c>
@@ -4710,7 +4710,7 @@
       <c r="L43" s="162"/>
     </row>
     <row r="44" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="228"/>
+      <c r="A44" s="232"/>
       <c r="B44" s="159"/>
       <c r="C44" s="145"/>
       <c r="D44" s="135">
@@ -4735,8 +4735,8 @@
       <c r="K44" s="136"/>
       <c r="L44" s="136"/>
     </row>
-    <row r="45" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A45" s="228"/>
+    <row r="45" spans="1:12" s="124" customFormat="1" ht="15.75">
+      <c r="A45" s="232"/>
       <c r="B45" s="160" t="s">
         <v>270</v>
       </c>
@@ -4765,7 +4765,7 @@
       <c r="L45" s="162"/>
     </row>
     <row r="46" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="228"/>
+      <c r="A46" s="232"/>
       <c r="B46" s="159"/>
       <c r="C46" s="155"/>
       <c r="D46" s="139">
@@ -4790,8 +4790,8 @@
       <c r="K46" s="136"/>
       <c r="L46" s="136"/>
     </row>
-    <row r="47" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A47" s="228"/>
+    <row r="47" spans="1:12" s="124" customFormat="1" ht="15.75">
+      <c r="A47" s="232"/>
       <c r="B47" s="160" t="s">
         <v>274</v>
       </c>
@@ -4819,7 +4819,7 @@
       <c r="L47" s="162"/>
     </row>
     <row r="48" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A48" s="228"/>
+      <c r="A48" s="232"/>
       <c r="B48" s="159"/>
       <c r="C48" s="155"/>
       <c r="D48" s="139">
@@ -4845,7 +4845,7 @@
       <c r="L48" s="136"/>
     </row>
     <row r="49" spans="1:12" s="124" customFormat="1" ht="30">
-      <c r="A49" s="228"/>
+      <c r="A49" s="232"/>
       <c r="B49" s="160" t="s">
         <v>273</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="L49" s="162"/>
     </row>
     <row r="50" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="228"/>
+      <c r="A50" s="232"/>
       <c r="B50" s="159"/>
       <c r="C50" s="158"/>
       <c r="D50" s="135">
@@ -4899,7 +4899,7 @@
       <c r="L50" s="136"/>
     </row>
     <row r="51" spans="1:12" s="124" customFormat="1" ht="45">
-      <c r="A51" s="228"/>
+      <c r="A51" s="232"/>
       <c r="B51" s="160" t="s">
         <v>272</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="L51" s="164"/>
     </row>
     <row r="52" spans="1:12" s="124" customFormat="1" ht="15.75">
-      <c r="A52" s="228"/>
+      <c r="A52" s="232"/>
       <c r="B52" s="159"/>
       <c r="C52" s="155"/>
       <c r="D52" s="142">
@@ -4953,7 +4953,7 @@
       <c r="L52" s="165"/>
     </row>
     <row r="53" spans="1:12" s="124" customFormat="1" ht="30">
-      <c r="A53" s="228"/>
+      <c r="A53" s="232"/>
       <c r="B53" s="160" t="s">
         <v>276</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="L53" s="165"/>
     </row>
     <row r="54" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="222"/>
+      <c r="A54" s="227"/>
       <c r="B54" s="143"/>
       <c r="C54" s="144"/>
       <c r="D54" s="143">
@@ -5008,13 +5008,13 @@
       <c r="L54" s="166"/>
     </row>
     <row r="55" spans="1:12" s="124" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A55" s="227">
+      <c r="A55" s="259">
         <v>2</v>
       </c>
-      <c r="B55" s="223" t="s">
+      <c r="B55" s="264" t="s">
         <v>289</v>
       </c>
-      <c r="C55" s="225" t="s">
+      <c r="C55" s="256" t="s">
         <v>288</v>
       </c>
       <c r="D55" s="134" t="str">
@@ -5044,9 +5044,9 @@
       </c>
     </row>
     <row r="56" spans="1:12" s="124" customFormat="1" ht="46.15" customHeight="1">
-      <c r="A56" s="221"/>
-      <c r="B56" s="224"/>
-      <c r="C56" s="226"/>
+      <c r="A56" s="233"/>
+      <c r="B56" s="265"/>
+      <c r="C56" s="257"/>
       <c r="D56" s="136">
         <v>0.62</v>
       </c>
@@ -5078,7 +5078,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A57" s="228"/>
+      <c r="A57" s="232"/>
       <c r="B57" s="160" t="s">
         <v>257</v>
       </c>
@@ -5106,7 +5106,7 @@
       <c r="L57" s="136"/>
     </row>
     <row r="58" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="228"/>
+      <c r="A58" s="232"/>
       <c r="B58" s="159"/>
       <c r="C58" s="159"/>
       <c r="D58" s="139">
@@ -5132,7 +5132,7 @@
       <c r="L58" s="136"/>
     </row>
     <row r="59" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A59" s="228"/>
+      <c r="A59" s="232"/>
       <c r="B59" s="160" t="s">
         <v>258</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="L59" s="162"/>
     </row>
     <row r="60" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A60" s="228"/>
+      <c r="A60" s="232"/>
       <c r="B60" s="159"/>
       <c r="C60" s="171"/>
       <c r="D60" s="139">
@@ -5186,7 +5186,7 @@
       <c r="L60" s="136"/>
     </row>
     <row r="61" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="228"/>
+      <c r="A61" s="232"/>
       <c r="B61" s="160" t="s">
         <v>41</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="L61" s="162"/>
     </row>
     <row r="62" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="228"/>
+      <c r="A62" s="232"/>
       <c r="B62" s="159"/>
       <c r="C62" s="171"/>
       <c r="D62" s="139">
@@ -5240,7 +5240,7 @@
       <c r="L62" s="136"/>
     </row>
     <row r="63" spans="1:12" s="124" customFormat="1" ht="31.5">
-      <c r="A63" s="228"/>
+      <c r="A63" s="232"/>
       <c r="B63" s="160" t="s">
         <v>260</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="L63" s="162"/>
     </row>
     <row r="64" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A64" s="228"/>
+      <c r="A64" s="232"/>
       <c r="B64" s="159"/>
       <c r="C64" s="171"/>
       <c r="D64" s="139">
@@ -5294,7 +5294,7 @@
       <c r="L64" s="136"/>
     </row>
     <row r="65" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A65" s="228"/>
+      <c r="A65" s="232"/>
       <c r="B65" s="161" t="s">
         <v>44</v>
       </c>
@@ -5322,7 +5322,7 @@
       <c r="L65" s="162"/>
     </row>
     <row r="66" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A66" s="228"/>
+      <c r="A66" s="232"/>
       <c r="B66" s="159"/>
       <c r="C66" s="171"/>
       <c r="D66" s="139">
@@ -5348,7 +5348,7 @@
       <c r="L66" s="136"/>
     </row>
     <row r="67" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A67" s="228"/>
+      <c r="A67" s="232"/>
       <c r="B67" s="160" t="s">
         <v>262</v>
       </c>
@@ -5376,7 +5376,7 @@
       <c r="L67" s="162"/>
     </row>
     <row r="68" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="228"/>
+      <c r="A68" s="232"/>
       <c r="B68" s="159"/>
       <c r="C68" s="171"/>
       <c r="D68" s="139">
@@ -5402,7 +5402,7 @@
       <c r="L68" s="136"/>
     </row>
     <row r="69" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="228"/>
+      <c r="A69" s="232"/>
       <c r="B69" s="160" t="s">
         <v>270</v>
       </c>
@@ -5431,7 +5431,7 @@
       <c r="L69" s="162"/>
     </row>
     <row r="70" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A70" s="228"/>
+      <c r="A70" s="232"/>
       <c r="B70" s="159"/>
       <c r="C70" s="171"/>
       <c r="D70" s="139">
@@ -5457,7 +5457,7 @@
       <c r="L70" s="136"/>
     </row>
     <row r="71" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A71" s="228"/>
+      <c r="A71" s="232"/>
       <c r="B71" s="160" t="s">
         <v>274</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="L71" s="162"/>
     </row>
     <row r="72" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="228"/>
+      <c r="A72" s="232"/>
       <c r="B72" s="159"/>
       <c r="C72" s="171"/>
       <c r="D72" s="139">
@@ -5511,7 +5511,7 @@
       <c r="L72" s="136"/>
     </row>
     <row r="73" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A73" s="228"/>
+      <c r="A73" s="232"/>
       <c r="B73" s="160" t="s">
         <v>273</v>
       </c>
@@ -5539,7 +5539,7 @@
       <c r="L73" s="162"/>
     </row>
     <row r="74" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="228"/>
+      <c r="A74" s="232"/>
       <c r="B74" s="159"/>
       <c r="C74" s="171"/>
       <c r="D74" s="139">
@@ -5564,7 +5564,7 @@
       <c r="L74" s="136"/>
     </row>
     <row r="75" spans="1:12" s="124" customFormat="1" ht="63">
-      <c r="A75" s="228"/>
+      <c r="A75" s="232"/>
       <c r="B75" s="160" t="s">
         <v>272</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="L75" s="164"/>
     </row>
     <row r="76" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A76" s="228"/>
+      <c r="A76" s="232"/>
       <c r="B76" s="159"/>
       <c r="C76" s="171"/>
       <c r="D76" s="175">
@@ -5618,7 +5618,7 @@
       <c r="L76" s="165"/>
     </row>
     <row r="77" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A77" s="228"/>
+      <c r="A77" s="232"/>
       <c r="B77" s="160" t="s">
         <v>276</v>
       </c>
@@ -5647,7 +5647,7 @@
       <c r="L77" s="165"/>
     </row>
     <row r="78" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A78" s="222"/>
+      <c r="A78" s="227"/>
       <c r="B78" s="143"/>
       <c r="C78" s="144"/>
       <c r="D78" s="143">
@@ -5673,13 +5673,13 @@
       <c r="L78" s="166"/>
     </row>
     <row r="79" spans="1:12" s="124" customFormat="1" ht="33" customHeight="1">
-      <c r="A79" s="227">
+      <c r="A79" s="259">
         <v>3</v>
       </c>
-      <c r="B79" s="223" t="s">
+      <c r="B79" s="264" t="s">
         <v>290</v>
       </c>
-      <c r="C79" s="225" t="s">
+      <c r="C79" s="256" t="s">
         <v>291</v>
       </c>
       <c r="D79" s="134" t="str">
@@ -5709,9 +5709,9 @@
       </c>
     </row>
     <row r="80" spans="1:12" s="124" customFormat="1" ht="34.9" customHeight="1">
-      <c r="A80" s="221"/>
-      <c r="B80" s="224"/>
-      <c r="C80" s="226"/>
+      <c r="A80" s="233"/>
+      <c r="B80" s="265"/>
+      <c r="C80" s="257"/>
       <c r="D80" s="136">
         <v>0.12</v>
       </c>
@@ -5743,7 +5743,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" s="124" customFormat="1" ht="31.5">
-      <c r="A81" s="228"/>
+      <c r="A81" s="232"/>
       <c r="B81" s="160" t="s">
         <v>257</v>
       </c>
@@ -5771,7 +5771,7 @@
       <c r="L81" s="136"/>
     </row>
     <row r="82" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="228"/>
+      <c r="A82" s="232"/>
       <c r="B82" s="159"/>
       <c r="C82" s="159"/>
       <c r="D82" s="139">
@@ -5797,7 +5797,7 @@
       <c r="L82" s="136"/>
     </row>
     <row r="83" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="228"/>
+      <c r="A83" s="232"/>
       <c r="B83" s="160" t="s">
         <v>258</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="L83" s="162"/>
     </row>
     <row r="84" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="228"/>
+      <c r="A84" s="232"/>
       <c r="B84" s="159"/>
       <c r="C84" s="171"/>
       <c r="D84" s="139">
@@ -5851,7 +5851,7 @@
       <c r="L84" s="136"/>
     </row>
     <row r="85" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="228"/>
+      <c r="A85" s="232"/>
       <c r="B85" s="160" t="s">
         <v>41</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="L85" s="162"/>
     </row>
     <row r="86" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A86" s="228"/>
+      <c r="A86" s="232"/>
       <c r="B86" s="159"/>
       <c r="C86" s="171"/>
       <c r="D86" s="139">
@@ -5905,7 +5905,7 @@
       <c r="L86" s="136"/>
     </row>
     <row r="87" spans="1:12" s="124" customFormat="1" ht="31.5">
-      <c r="A87" s="228"/>
+      <c r="A87" s="232"/>
       <c r="B87" s="160" t="s">
         <v>260</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="L87" s="162"/>
     </row>
     <row r="88" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A88" s="228"/>
+      <c r="A88" s="232"/>
       <c r="B88" s="159"/>
       <c r="C88" s="171"/>
       <c r="D88" s="139">
@@ -5959,7 +5959,7 @@
       <c r="L88" s="136"/>
     </row>
     <row r="89" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A89" s="228"/>
+      <c r="A89" s="232"/>
       <c r="B89" s="161" t="s">
         <v>44</v>
       </c>
@@ -5987,7 +5987,7 @@
       <c r="L89" s="162"/>
     </row>
     <row r="90" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A90" s="228"/>
+      <c r="A90" s="232"/>
       <c r="B90" s="159"/>
       <c r="C90" s="171"/>
       <c r="D90" s="139">
@@ -6013,7 +6013,7 @@
       <c r="L90" s="136"/>
     </row>
     <row r="91" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A91" s="228"/>
+      <c r="A91" s="232"/>
       <c r="B91" s="160" t="s">
         <v>262</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="L91" s="162"/>
     </row>
     <row r="92" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A92" s="228"/>
+      <c r="A92" s="232"/>
       <c r="B92" s="159"/>
       <c r="C92" s="171"/>
       <c r="D92" s="139">
@@ -6067,7 +6067,7 @@
       <c r="L92" s="136"/>
     </row>
     <row r="93" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="228"/>
+      <c r="A93" s="232"/>
       <c r="B93" s="160" t="s">
         <v>270</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="L93" s="162"/>
     </row>
     <row r="94" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A94" s="228"/>
+      <c r="A94" s="232"/>
       <c r="B94" s="159"/>
       <c r="C94" s="171"/>
       <c r="D94" s="139">
@@ -6122,7 +6122,7 @@
       <c r="L94" s="136"/>
     </row>
     <row r="95" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A95" s="228"/>
+      <c r="A95" s="232"/>
       <c r="B95" s="160" t="s">
         <v>274</v>
       </c>
@@ -6150,7 +6150,7 @@
       <c r="L95" s="162"/>
     </row>
     <row r="96" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A96" s="228"/>
+      <c r="A96" s="232"/>
       <c r="B96" s="159"/>
       <c r="C96" s="171"/>
       <c r="D96" s="139">
@@ -6176,7 +6176,7 @@
       <c r="L96" s="136"/>
     </row>
     <row r="97" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A97" s="228"/>
+      <c r="A97" s="232"/>
       <c r="B97" s="160" t="s">
         <v>273</v>
       </c>
@@ -6204,7 +6204,7 @@
       <c r="L97" s="162"/>
     </row>
     <row r="98" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A98" s="228"/>
+      <c r="A98" s="232"/>
       <c r="B98" s="159"/>
       <c r="C98" s="171"/>
       <c r="D98" s="139">
@@ -6229,7 +6229,7 @@
       <c r="L98" s="136"/>
     </row>
     <row r="99" spans="1:12" s="124" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A99" s="228"/>
+      <c r="A99" s="232"/>
       <c r="B99" s="160" t="s">
         <v>272</v>
       </c>
@@ -6258,7 +6258,7 @@
       <c r="L99" s="164"/>
     </row>
     <row r="100" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A100" s="228"/>
+      <c r="A100" s="232"/>
       <c r="B100" s="159"/>
       <c r="C100" s="171"/>
       <c r="D100" s="175">
@@ -6283,7 +6283,7 @@
       <c r="L100" s="165"/>
     </row>
     <row r="101" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A101" s="228"/>
+      <c r="A101" s="232"/>
       <c r="B101" s="160" t="s">
         <v>276</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="L101" s="165"/>
     </row>
     <row r="102" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A102" s="222"/>
+      <c r="A102" s="227"/>
       <c r="B102" s="143"/>
       <c r="C102" s="144"/>
       <c r="D102" s="143">
@@ -6338,13 +6338,13 @@
       <c r="L102" s="166"/>
     </row>
     <row r="103" spans="1:12" s="124" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A103" s="227">
+      <c r="A103" s="259">
         <v>4</v>
       </c>
-      <c r="B103" s="223" t="s">
+      <c r="B103" s="264" t="s">
         <v>292</v>
       </c>
-      <c r="C103" s="225" t="s">
+      <c r="C103" s="256" t="s">
         <v>293</v>
       </c>
       <c r="D103" s="134" t="s">
@@ -6373,9 +6373,9 @@
       </c>
     </row>
     <row r="104" spans="1:12" s="124" customFormat="1" ht="33" customHeight="1">
-      <c r="A104" s="221"/>
-      <c r="B104" s="224"/>
-      <c r="C104" s="226"/>
+      <c r="A104" s="233"/>
+      <c r="B104" s="265"/>
+      <c r="C104" s="257"/>
       <c r="D104" s="136">
         <v>2.39</v>
       </c>
@@ -6407,7 +6407,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" s="124" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A105" s="228"/>
+      <c r="A105" s="232"/>
       <c r="B105" s="160" t="s">
         <v>257</v>
       </c>
@@ -6435,7 +6435,7 @@
       <c r="L105" s="136"/>
     </row>
     <row r="106" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A106" s="228"/>
+      <c r="A106" s="232"/>
       <c r="B106" s="159"/>
       <c r="C106" s="159"/>
       <c r="D106" s="139">
@@ -6461,7 +6461,7 @@
       <c r="L106" s="136"/>
     </row>
     <row r="107" spans="1:12" s="124" customFormat="1" ht="15.75">
-      <c r="A107" s="228"/>
+      <c r="A107" s="232"/>
       <c r="B107" s="160" t="s">
         <v>258</v>
       </c>
@@ -6489,7 +6489,7 @@
       <c r="L107" s="162"/>
     </row>
     <row r="108" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A108" s="228"/>
+      <c r="A108" s="232"/>
       <c r="B108" s="159"/>
       <c r="C108" s="171"/>
       <c r="D108" s="139">
@@ -6515,7 +6515,7 @@
       <c r="L108" s="136"/>
     </row>
     <row r="109" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A109" s="228"/>
+      <c r="A109" s="232"/>
       <c r="B109" s="160" t="s">
         <v>41</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="L109" s="162"/>
     </row>
     <row r="110" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A110" s="228"/>
+      <c r="A110" s="232"/>
       <c r="B110" s="159"/>
       <c r="C110" s="171"/>
       <c r="D110" s="139">
@@ -6569,7 +6569,7 @@
       <c r="L110" s="136"/>
     </row>
     <row r="111" spans="1:12" s="124" customFormat="1" ht="31.5">
-      <c r="A111" s="228"/>
+      <c r="A111" s="232"/>
       <c r="B111" s="160" t="s">
         <v>260</v>
       </c>
@@ -6597,7 +6597,7 @@
       <c r="L111" s="162"/>
     </row>
     <row r="112" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A112" s="228"/>
+      <c r="A112" s="232"/>
       <c r="B112" s="159"/>
       <c r="C112" s="171"/>
       <c r="D112" s="139">
@@ -6623,7 +6623,7 @@
       <c r="L112" s="136"/>
     </row>
     <row r="113" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A113" s="228"/>
+      <c r="A113" s="232"/>
       <c r="B113" s="161" t="s">
         <v>44</v>
       </c>
@@ -6651,7 +6651,7 @@
       <c r="L113" s="162"/>
     </row>
     <row r="114" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A114" s="228"/>
+      <c r="A114" s="232"/>
       <c r="B114" s="159"/>
       <c r="C114" s="171"/>
       <c r="D114" s="139">
@@ -6677,7 +6677,7 @@
       <c r="L114" s="136"/>
     </row>
     <row r="115" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A115" s="228"/>
+      <c r="A115" s="232"/>
       <c r="B115" s="160" t="s">
         <v>262</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="L115" s="162"/>
     </row>
     <row r="116" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A116" s="228"/>
+      <c r="A116" s="232"/>
       <c r="B116" s="159"/>
       <c r="C116" s="171"/>
       <c r="D116" s="139">
@@ -6731,7 +6731,7 @@
       <c r="L116" s="136"/>
     </row>
     <row r="117" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A117" s="228"/>
+      <c r="A117" s="232"/>
       <c r="B117" s="160" t="s">
         <v>270</v>
       </c>
@@ -6760,7 +6760,7 @@
       <c r="L117" s="162"/>
     </row>
     <row r="118" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A118" s="228"/>
+      <c r="A118" s="232"/>
       <c r="B118" s="159"/>
       <c r="C118" s="171"/>
       <c r="D118" s="139">
@@ -6786,7 +6786,7 @@
       <c r="L118" s="136"/>
     </row>
     <row r="119" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A119" s="228"/>
+      <c r="A119" s="232"/>
       <c r="B119" s="160" t="s">
         <v>274</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="L119" s="162"/>
     </row>
     <row r="120" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A120" s="228"/>
+      <c r="A120" s="232"/>
       <c r="B120" s="159"/>
       <c r="C120" s="171"/>
       <c r="D120" s="139">
@@ -6840,7 +6840,7 @@
       <c r="L120" s="136"/>
     </row>
     <row r="121" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A121" s="228"/>
+      <c r="A121" s="232"/>
       <c r="B121" s="160" t="s">
         <v>273</v>
       </c>
@@ -6868,7 +6868,7 @@
       <c r="L121" s="162"/>
     </row>
     <row r="122" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A122" s="228"/>
+      <c r="A122" s="232"/>
       <c r="B122" s="159"/>
       <c r="C122" s="171"/>
       <c r="D122" s="139">
@@ -6893,7 +6893,7 @@
       <c r="L122" s="136"/>
     </row>
     <row r="123" spans="1:12" s="124" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A123" s="228"/>
+      <c r="A123" s="232"/>
       <c r="B123" s="160" t="s">
         <v>272</v>
       </c>
@@ -6922,7 +6922,7 @@
       <c r="L123" s="164"/>
     </row>
     <row r="124" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A124" s="228"/>
+      <c r="A124" s="232"/>
       <c r="B124" s="159"/>
       <c r="C124" s="171"/>
       <c r="D124" s="175">
@@ -6947,7 +6947,7 @@
       <c r="L124" s="165"/>
     </row>
     <row r="125" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A125" s="228"/>
+      <c r="A125" s="232"/>
       <c r="B125" s="160" t="s">
         <v>276</v>
       </c>
@@ -6976,7 +6976,7 @@
       <c r="L125" s="165"/>
     </row>
     <row r="126" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A126" s="222"/>
+      <c r="A126" s="227"/>
       <c r="B126" s="143"/>
       <c r="C126" s="144"/>
       <c r="D126" s="143">
@@ -7002,13 +7002,13 @@
       <c r="L126" s="166"/>
     </row>
     <row r="127" spans="1:12" s="124" customFormat="1" ht="36" customHeight="1">
-      <c r="A127" s="227">
+      <c r="A127" s="259">
         <v>5</v>
       </c>
-      <c r="B127" s="223" t="s">
+      <c r="B127" s="264" t="s">
         <v>294</v>
       </c>
-      <c r="C127" s="225" t="s">
+      <c r="C127" s="256" t="s">
         <v>295</v>
       </c>
       <c r="D127" s="134" t="s">
@@ -7037,9 +7037,9 @@
       </c>
     </row>
     <row r="128" spans="1:12" s="124" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A128" s="221"/>
-      <c r="B128" s="224"/>
-      <c r="C128" s="226"/>
+      <c r="A128" s="233"/>
+      <c r="B128" s="265"/>
+      <c r="C128" s="257"/>
       <c r="D128" s="136">
         <v>10.58</v>
       </c>
@@ -7071,7 +7071,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" s="124" customFormat="1" ht="35.450000000000003" customHeight="1">
-      <c r="A129" s="228"/>
+      <c r="A129" s="232"/>
       <c r="B129" s="160" t="s">
         <v>257</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="L129" s="136"/>
     </row>
     <row r="130" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A130" s="228"/>
+      <c r="A130" s="232"/>
       <c r="B130" s="159"/>
       <c r="C130" s="159"/>
       <c r="D130" s="139">
@@ -7125,7 +7125,7 @@
       <c r="L130" s="136"/>
     </row>
     <row r="131" spans="1:12" s="124" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A131" s="228"/>
+      <c r="A131" s="232"/>
       <c r="B131" s="160" t="s">
         <v>258</v>
       </c>
@@ -7153,7 +7153,7 @@
       <c r="L131" s="162"/>
     </row>
     <row r="132" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A132" s="228"/>
+      <c r="A132" s="232"/>
       <c r="B132" s="159"/>
       <c r="C132" s="171"/>
       <c r="D132" s="139">
@@ -7179,7 +7179,7 @@
       <c r="L132" s="136"/>
     </row>
     <row r="133" spans="1:12" s="124" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A133" s="228"/>
+      <c r="A133" s="232"/>
       <c r="B133" s="160" t="s">
         <v>41</v>
       </c>
@@ -7207,7 +7207,7 @@
       <c r="L133" s="162"/>
     </row>
     <row r="134" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A134" s="228"/>
+      <c r="A134" s="232"/>
       <c r="B134" s="159"/>
       <c r="C134" s="171"/>
       <c r="D134" s="139">
@@ -7233,7 +7233,7 @@
       <c r="L134" s="136"/>
     </row>
     <row r="135" spans="1:12" s="124" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A135" s="228"/>
+      <c r="A135" s="232"/>
       <c r="B135" s="160" t="s">
         <v>260</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="L135" s="162"/>
     </row>
     <row r="136" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A136" s="228"/>
+      <c r="A136" s="232"/>
       <c r="B136" s="159"/>
       <c r="C136" s="171"/>
       <c r="D136" s="139">
@@ -7287,7 +7287,7 @@
       <c r="L136" s="136"/>
     </row>
     <row r="137" spans="1:12" s="124" customFormat="1" ht="37.9" customHeight="1">
-      <c r="A137" s="228"/>
+      <c r="A137" s="232"/>
       <c r="B137" s="160" t="s">
         <v>266</v>
       </c>
@@ -7315,7 +7315,7 @@
       <c r="L137" s="162"/>
     </row>
     <row r="138" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A138" s="228"/>
+      <c r="A138" s="232"/>
       <c r="B138" s="159"/>
       <c r="C138" s="171"/>
       <c r="D138" s="139">
@@ -7341,7 +7341,7 @@
       <c r="L138" s="136"/>
     </row>
     <row r="139" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A139" s="228"/>
+      <c r="A139" s="232"/>
       <c r="B139" s="161" t="s">
         <v>44</v>
       </c>
@@ -7369,7 +7369,7 @@
       <c r="L139" s="162"/>
     </row>
     <row r="140" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A140" s="228"/>
+      <c r="A140" s="232"/>
       <c r="B140" s="159"/>
       <c r="C140" s="171"/>
       <c r="D140" s="139">
@@ -7395,7 +7395,7 @@
       <c r="L140" s="136"/>
     </row>
     <row r="141" spans="1:12" s="124" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A141" s="228"/>
+      <c r="A141" s="232"/>
       <c r="B141" s="160" t="s">
         <v>262</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="L141" s="162"/>
     </row>
     <row r="142" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A142" s="228"/>
+      <c r="A142" s="232"/>
       <c r="B142" s="159"/>
       <c r="C142" s="171"/>
       <c r="D142" s="139">
@@ -7449,7 +7449,7 @@
       <c r="L142" s="136"/>
     </row>
     <row r="143" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A143" s="228"/>
+      <c r="A143" s="232"/>
       <c r="B143" s="160" t="s">
         <v>270</v>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="L143" s="162"/>
     </row>
     <row r="144" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A144" s="228"/>
+      <c r="A144" s="232"/>
       <c r="B144" s="159"/>
       <c r="C144" s="171"/>
       <c r="D144" s="139">
@@ -7504,7 +7504,7 @@
       <c r="L144" s="136"/>
     </row>
     <row r="145" spans="1:12" s="124" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A145" s="228"/>
+      <c r="A145" s="232"/>
       <c r="B145" s="160" t="s">
         <v>274</v>
       </c>
@@ -7532,7 +7532,7 @@
       <c r="L145" s="162"/>
     </row>
     <row r="146" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A146" s="228"/>
+      <c r="A146" s="232"/>
       <c r="B146" s="159"/>
       <c r="C146" s="171"/>
       <c r="D146" s="139">
@@ -7558,7 +7558,7 @@
       <c r="L146" s="136"/>
     </row>
     <row r="147" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A147" s="228"/>
+      <c r="A147" s="232"/>
       <c r="B147" s="160" t="s">
         <v>273</v>
       </c>
@@ -7587,7 +7587,7 @@
       <c r="L147" s="162"/>
     </row>
     <row r="148" spans="1:12" s="124" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A148" s="228"/>
+      <c r="A148" s="232"/>
       <c r="B148" s="159"/>
       <c r="C148" s="171"/>
       <c r="D148" s="139">
@@ -7612,7 +7612,7 @@
       <c r="L148" s="136"/>
     </row>
     <row r="149" spans="1:12" s="124" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A149" s="228"/>
+      <c r="A149" s="232"/>
       <c r="B149" s="160" t="s">
         <v>272</v>
       </c>
@@ -7641,7 +7641,7 @@
       <c r="L149" s="164"/>
     </row>
     <row r="150" spans="1:12" s="124" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A150" s="228"/>
+      <c r="A150" s="232"/>
       <c r="B150" s="159"/>
       <c r="C150" s="171"/>
       <c r="D150" s="175">
@@ -7666,7 +7666,7 @@
       <c r="L150" s="165"/>
     </row>
     <row r="151" spans="1:12" s="124" customFormat="1" ht="47.25">
-      <c r="A151" s="228"/>
+      <c r="A151" s="232"/>
       <c r="B151" s="160" t="s">
         <v>276</v>
       </c>
@@ -7695,7 +7695,7 @@
       <c r="L151" s="165"/>
     </row>
     <row r="152" spans="1:12" s="124" customFormat="1" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A152" s="222"/>
+      <c r="A152" s="227"/>
       <c r="B152" s="143"/>
       <c r="C152" s="144"/>
       <c r="D152" s="143">
@@ -7721,7 +7721,7 @@
       <c r="L152" s="166"/>
     </row>
     <row r="153" spans="1:12" s="133" customFormat="1" ht="71.25">
-      <c r="A153" s="220">
+      <c r="A153" s="253">
         <v>6</v>
       </c>
       <c r="B153" s="185" t="s">
@@ -7756,7 +7756,7 @@
       </c>
     </row>
     <row r="154" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A154" s="221"/>
+      <c r="A154" s="233"/>
       <c r="B154" s="135"/>
       <c r="C154" s="135"/>
       <c r="D154" s="136">
@@ -7790,7 +7790,7 @@
       </c>
     </row>
     <row r="155" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A155" s="221"/>
+      <c r="A155" s="233"/>
       <c r="B155" s="178" t="s">
         <v>48</v>
       </c>
@@ -7818,7 +7818,7 @@
       <c r="L155" s="136"/>
     </row>
     <row r="156" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A156" s="221"/>
+      <c r="A156" s="233"/>
       <c r="B156" s="170"/>
       <c r="C156" s="179"/>
       <c r="D156" s="135">
@@ -7844,7 +7844,7 @@
       <c r="L156" s="136"/>
     </row>
     <row r="157" spans="1:12" s="133" customFormat="1" ht="31.5">
-      <c r="A157" s="221"/>
+      <c r="A157" s="233"/>
       <c r="B157" s="178" t="s">
         <v>50</v>
       </c>
@@ -7872,7 +7872,7 @@
       <c r="L157" s="136"/>
     </row>
     <row r="158" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A158" s="221"/>
+      <c r="A158" s="233"/>
       <c r="B158" s="170"/>
       <c r="C158" s="179"/>
       <c r="D158" s="135">
@@ -7898,7 +7898,7 @@
       <c r="L158" s="136"/>
     </row>
     <row r="159" spans="1:12" s="133" customFormat="1" ht="47.25">
-      <c r="A159" s="221"/>
+      <c r="A159" s="233"/>
       <c r="B159" s="178" t="s">
         <v>52</v>
       </c>
@@ -7926,7 +7926,7 @@
       <c r="L159" s="136"/>
     </row>
     <row r="160" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A160" s="221"/>
+      <c r="A160" s="233"/>
       <c r="B160" s="170"/>
       <c r="C160" s="179"/>
       <c r="D160" s="135">
@@ -7952,7 +7952,7 @@
       <c r="L160" s="136"/>
     </row>
     <row r="161" spans="1:12" s="133" customFormat="1" ht="94.5">
-      <c r="A161" s="221"/>
+      <c r="A161" s="233"/>
       <c r="B161" s="178" t="s">
         <v>54</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="L161" s="136"/>
     </row>
     <row r="162" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A162" s="221"/>
+      <c r="A162" s="233"/>
       <c r="B162" s="170"/>
       <c r="C162" s="179"/>
       <c r="D162" s="135">
@@ -8006,7 +8006,7 @@
       <c r="L162" s="136"/>
     </row>
     <row r="163" spans="1:12" s="133" customFormat="1" ht="31.5">
-      <c r="A163" s="221"/>
+      <c r="A163" s="233"/>
       <c r="B163" s="178" t="s">
         <v>56</v>
       </c>
@@ -8034,7 +8034,7 @@
       <c r="L163" s="136"/>
     </row>
     <row r="164" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A164" s="221"/>
+      <c r="A164" s="233"/>
       <c r="B164" s="170"/>
       <c r="C164" s="179"/>
       <c r="D164" s="135">
@@ -8060,7 +8060,7 @@
       <c r="L164" s="136"/>
     </row>
     <row r="165" spans="1:12" s="133" customFormat="1" ht="63">
-      <c r="A165" s="221"/>
+      <c r="A165" s="233"/>
       <c r="B165" s="178" t="s">
         <v>58</v>
       </c>
@@ -8088,7 +8088,7 @@
       <c r="L165" s="136"/>
     </row>
     <row r="166" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A166" s="221"/>
+      <c r="A166" s="233"/>
       <c r="B166" s="170"/>
       <c r="C166" s="170"/>
       <c r="D166" s="135">
@@ -8114,7 +8114,7 @@
       <c r="L166" s="136"/>
     </row>
     <row r="167" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A167" s="221"/>
+      <c r="A167" s="233"/>
       <c r="B167" s="180" t="s">
         <v>60</v>
       </c>
@@ -8143,7 +8143,7 @@
       <c r="L167" s="168"/>
     </row>
     <row r="168" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A168" s="222"/>
+      <c r="A168" s="227"/>
       <c r="B168" s="176"/>
       <c r="C168" s="176"/>
       <c r="D168" s="176">
@@ -8169,7 +8169,7 @@
       <c r="L168" s="177"/>
     </row>
     <row r="169" spans="1:12" s="133" customFormat="1" ht="71.25">
-      <c r="A169" s="220">
+      <c r="A169" s="253">
         <v>7</v>
       </c>
       <c r="B169" s="184" t="s">
@@ -8204,7 +8204,7 @@
       </c>
     </row>
     <row r="170" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A170" s="221"/>
+      <c r="A170" s="233"/>
       <c r="B170" s="135"/>
       <c r="C170" s="135"/>
       <c r="D170" s="136">
@@ -8238,7 +8238,7 @@
       </c>
     </row>
     <row r="171" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A171" s="221"/>
+      <c r="A171" s="233"/>
       <c r="B171" s="178" t="s">
         <v>48</v>
       </c>
@@ -8266,7 +8266,7 @@
       <c r="L171" s="136"/>
     </row>
     <row r="172" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A172" s="221"/>
+      <c r="A172" s="233"/>
       <c r="B172" s="170"/>
       <c r="C172" s="179"/>
       <c r="D172" s="135">
@@ -8292,7 +8292,7 @@
       <c r="L172" s="136"/>
     </row>
     <row r="173" spans="1:12" s="133" customFormat="1" ht="31.5">
-      <c r="A173" s="221"/>
+      <c r="A173" s="233"/>
       <c r="B173" s="178" t="s">
         <v>50</v>
       </c>
@@ -8320,7 +8320,7 @@
       <c r="L173" s="136"/>
     </row>
     <row r="174" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A174" s="221"/>
+      <c r="A174" s="233"/>
       <c r="B174" s="170"/>
       <c r="C174" s="179"/>
       <c r="D174" s="135">
@@ -8346,7 +8346,7 @@
       <c r="L174" s="136"/>
     </row>
     <row r="175" spans="1:12" s="133" customFormat="1" ht="47.25">
-      <c r="A175" s="221"/>
+      <c r="A175" s="233"/>
       <c r="B175" s="178" t="s">
         <v>52</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="L175" s="136"/>
     </row>
     <row r="176" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A176" s="221"/>
+      <c r="A176" s="233"/>
       <c r="B176" s="170"/>
       <c r="C176" s="179"/>
       <c r="D176" s="135">
@@ -8400,7 +8400,7 @@
       <c r="L176" s="136"/>
     </row>
     <row r="177" spans="1:12" s="133" customFormat="1" ht="94.5">
-      <c r="A177" s="221"/>
+      <c r="A177" s="233"/>
       <c r="B177" s="178" t="s">
         <v>54</v>
       </c>
@@ -8428,7 +8428,7 @@
       <c r="L177" s="136"/>
     </row>
     <row r="178" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A178" s="221"/>
+      <c r="A178" s="233"/>
       <c r="B178" s="170"/>
       <c r="C178" s="179"/>
       <c r="D178" s="135">
@@ -8454,7 +8454,7 @@
       <c r="L178" s="136"/>
     </row>
     <row r="179" spans="1:12" s="133" customFormat="1" ht="31.5">
-      <c r="A179" s="221"/>
+      <c r="A179" s="233"/>
       <c r="B179" s="178" t="s">
         <v>56</v>
       </c>
@@ -8482,7 +8482,7 @@
       <c r="L179" s="136"/>
     </row>
     <row r="180" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A180" s="221"/>
+      <c r="A180" s="233"/>
       <c r="B180" s="170"/>
       <c r="C180" s="179"/>
       <c r="D180" s="135">
@@ -8508,7 +8508,7 @@
       <c r="L180" s="136"/>
     </row>
     <row r="181" spans="1:12" s="133" customFormat="1" ht="63">
-      <c r="A181" s="221"/>
+      <c r="A181" s="233"/>
       <c r="B181" s="178" t="s">
         <v>58</v>
       </c>
@@ -8536,7 +8536,7 @@
       <c r="L181" s="136"/>
     </row>
     <row r="182" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A182" s="221"/>
+      <c r="A182" s="233"/>
       <c r="B182" s="170"/>
       <c r="C182" s="170"/>
       <c r="D182" s="135">
@@ -8562,7 +8562,7 @@
       <c r="L182" s="136"/>
     </row>
     <row r="183" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A183" s="221"/>
+      <c r="A183" s="233"/>
       <c r="B183" s="180" t="s">
         <v>60</v>
       </c>
@@ -8591,7 +8591,7 @@
       <c r="L183" s="168"/>
     </row>
     <row r="184" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A184" s="222"/>
+      <c r="A184" s="227"/>
       <c r="B184" s="176"/>
       <c r="C184" s="176"/>
       <c r="D184" s="176">
@@ -8617,7 +8617,7 @@
       <c r="L184" s="177"/>
     </row>
     <row r="185" spans="1:12" s="133" customFormat="1" ht="71.25">
-      <c r="A185" s="220">
+      <c r="A185" s="253">
         <v>8</v>
       </c>
       <c r="B185" s="185" t="s">
@@ -8652,7 +8652,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A186" s="221"/>
+      <c r="A186" s="233"/>
       <c r="B186" s="135"/>
       <c r="C186" s="135"/>
       <c r="D186" s="136">
@@ -8687,7 +8687,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" s="133" customFormat="1" ht="15.75">
-      <c r="A187" s="221"/>
+      <c r="A187" s="233"/>
       <c r="B187" s="178" t="s">
         <v>48</v>
       </c>
@@ -8715,7 +8715,7 @@
       <c r="L187" s="136"/>
     </row>
     <row r="188" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A188" s="221"/>
+      <c r="A188" s="233"/>
       <c r="B188" s="170"/>
       <c r="C188" s="179"/>
       <c r="D188" s="135">
@@ -8741,7 +8741,7 @@
       <c r="L188" s="136"/>
     </row>
     <row r="189" spans="1:12" s="133" customFormat="1" ht="31.5">
-      <c r="A189" s="221"/>
+      <c r="A189" s="233"/>
       <c r="B189" s="178" t="s">
         <v>50</v>
       </c>
@@ -8769,7 +8769,7 @@
       <c r="L189" s="136"/>
     </row>
     <row r="190" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A190" s="221"/>
+      <c r="A190" s="233"/>
       <c r="B190" s="170"/>
       <c r="C190" s="179"/>
       <c r="D190" s="135">
@@ -8795,7 +8795,7 @@
       <c r="L190" s="136"/>
     </row>
     <row r="191" spans="1:12" s="133" customFormat="1" ht="47.25">
-      <c r="A191" s="221"/>
+      <c r="A191" s="233"/>
       <c r="B191" s="178" t="s">
         <v>52</v>
       </c>
@@ -8823,7 +8823,7 @@
       <c r="L191" s="136"/>
     </row>
     <row r="192" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A192" s="221"/>
+      <c r="A192" s="233"/>
       <c r="B192" s="170"/>
       <c r="C192" s="179"/>
       <c r="D192" s="135">
@@ -8849,7 +8849,7 @@
       <c r="L192" s="136"/>
     </row>
     <row r="193" spans="1:12" s="133" customFormat="1" ht="94.5">
-      <c r="A193" s="221"/>
+      <c r="A193" s="233"/>
       <c r="B193" s="178" t="s">
         <v>54</v>
       </c>
@@ -8877,7 +8877,7 @@
       <c r="L193" s="136"/>
     </row>
     <row r="194" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A194" s="221"/>
+      <c r="A194" s="233"/>
       <c r="B194" s="170"/>
       <c r="C194" s="179"/>
       <c r="D194" s="135">
@@ -8903,7 +8903,7 @@
       <c r="L194" s="136"/>
     </row>
     <row r="195" spans="1:12" s="133" customFormat="1" ht="31.5">
-      <c r="A195" s="221"/>
+      <c r="A195" s="233"/>
       <c r="B195" s="178" t="s">
         <v>56</v>
       </c>
@@ -8931,7 +8931,7 @@
       <c r="L195" s="136"/>
     </row>
     <row r="196" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A196" s="221"/>
+      <c r="A196" s="233"/>
       <c r="B196" s="170"/>
       <c r="C196" s="179"/>
       <c r="D196" s="135">
@@ -8957,7 +8957,7 @@
       <c r="L196" s="136"/>
     </row>
     <row r="197" spans="1:12" s="133" customFormat="1" ht="63">
-      <c r="A197" s="221"/>
+      <c r="A197" s="233"/>
       <c r="B197" s="178" t="s">
         <v>58</v>
       </c>
@@ -8985,7 +8985,7 @@
       <c r="L197" s="136"/>
     </row>
     <row r="198" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A198" s="221"/>
+      <c r="A198" s="233"/>
       <c r="B198" s="170"/>
       <c r="C198" s="170"/>
       <c r="D198" s="135">
@@ -9011,7 +9011,7 @@
       <c r="L198" s="136"/>
     </row>
     <row r="199" spans="1:12" s="133" customFormat="1" ht="15.75">
-      <c r="A199" s="221"/>
+      <c r="A199" s="233"/>
       <c r="B199" s="180" t="s">
         <v>60</v>
       </c>
@@ -9040,7 +9040,7 @@
       <c r="L199" s="168"/>
     </row>
     <row r="200" spans="1:12" s="133" customFormat="1" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A200" s="222"/>
+      <c r="A200" s="227"/>
       <c r="B200" s="146"/>
       <c r="C200" s="146"/>
       <c r="D200" s="146">
@@ -9066,7 +9066,7 @@
       <c r="L200" s="168"/>
     </row>
     <row r="201" spans="1:12" ht="71.25">
-      <c r="A201" s="220">
+      <c r="A201" s="253">
         <v>8</v>
       </c>
       <c r="B201" s="183" t="s">
@@ -9101,7 +9101,7 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A202" s="221"/>
+      <c r="A202" s="233"/>
       <c r="B202" s="135"/>
       <c r="C202" s="135"/>
       <c r="D202" s="136">
@@ -9135,7 +9135,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A203" s="221"/>
+      <c r="A203" s="233"/>
       <c r="B203" s="178" t="s">
         <v>48</v>
       </c>
@@ -9163,7 +9163,7 @@
       <c r="L203" s="136"/>
     </row>
     <row r="204" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A204" s="221"/>
+      <c r="A204" s="233"/>
       <c r="B204" s="170"/>
       <c r="C204" s="179"/>
       <c r="D204" s="135">
@@ -9189,7 +9189,7 @@
       <c r="L204" s="136"/>
     </row>
     <row r="205" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A205" s="221"/>
+      <c r="A205" s="233"/>
       <c r="B205" s="178" t="s">
         <v>50</v>
       </c>
@@ -9217,7 +9217,7 @@
       <c r="L205" s="136"/>
     </row>
     <row r="206" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A206" s="221"/>
+      <c r="A206" s="233"/>
       <c r="B206" s="170"/>
       <c r="C206" s="179"/>
       <c r="D206" s="135">
@@ -9243,7 +9243,7 @@
       <c r="L206" s="136"/>
     </row>
     <row r="207" spans="1:12" ht="47.25">
-      <c r="A207" s="221"/>
+      <c r="A207" s="233"/>
       <c r="B207" s="178" t="s">
         <v>52</v>
       </c>
@@ -9271,7 +9271,7 @@
       <c r="L207" s="136"/>
     </row>
     <row r="208" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A208" s="221"/>
+      <c r="A208" s="233"/>
       <c r="B208" s="170"/>
       <c r="C208" s="179"/>
       <c r="D208" s="135">
@@ -9297,7 +9297,7 @@
       <c r="L208" s="136"/>
     </row>
     <row r="209" spans="1:16" ht="94.5">
-      <c r="A209" s="221"/>
+      <c r="A209" s="233"/>
       <c r="B209" s="178" t="s">
         <v>54</v>
       </c>
@@ -9325,7 +9325,7 @@
       <c r="L209" s="136"/>
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A210" s="221"/>
+      <c r="A210" s="233"/>
       <c r="B210" s="170"/>
       <c r="C210" s="179"/>
       <c r="D210" s="135">
@@ -9351,7 +9351,7 @@
       <c r="L210" s="136"/>
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A211" s="221"/>
+      <c r="A211" s="233"/>
       <c r="B211" s="178" t="s">
         <v>56</v>
       </c>
@@ -9379,7 +9379,7 @@
       <c r="L211" s="136"/>
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A212" s="221"/>
+      <c r="A212" s="233"/>
       <c r="B212" s="170"/>
       <c r="C212" s="179"/>
       <c r="D212" s="135">
@@ -9405,7 +9405,7 @@
       <c r="L212" s="136"/>
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A213" s="221"/>
+      <c r="A213" s="233"/>
       <c r="B213" s="178" t="s">
         <v>58</v>
       </c>
@@ -9433,7 +9433,7 @@
       <c r="L213" s="136"/>
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A214" s="221"/>
+      <c r="A214" s="233"/>
       <c r="B214" s="170"/>
       <c r="C214" s="170"/>
       <c r="D214" s="135">
@@ -9459,7 +9459,7 @@
       <c r="L214" s="136"/>
     </row>
     <row r="215" spans="1:16" ht="24" customHeight="1">
-      <c r="A215" s="221"/>
+      <c r="A215" s="233"/>
       <c r="B215" s="180" t="s">
         <v>60</v>
       </c>
@@ -9492,7 +9492,7 @@
       </c>
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A216" s="222"/>
+      <c r="A216" s="227"/>
       <c r="B216" s="146"/>
       <c r="C216" s="146"/>
       <c r="D216" s="146">
@@ -9522,11 +9522,11 @@
       </c>
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A217" s="240" t="s">
+      <c r="A217" s="228" t="s">
         <v>33</v>
       </c>
-      <c r="B217" s="241"/>
-      <c r="C217" s="242"/>
+      <c r="B217" s="229"/>
+      <c r="C217" s="230"/>
       <c r="D217" s="13"/>
       <c r="E217" s="112">
         <f>E202+E186+E170+E154+E128+E104+E80+E56+E32</f>
@@ -9562,11 +9562,11 @@
       </c>
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A218" s="237" t="s">
+      <c r="A218" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B218" s="238"/>
-      <c r="C218" s="239"/>
+      <c r="B218" s="235"/>
+      <c r="C218" s="236"/>
       <c r="D218" s="16"/>
       <c r="E218" s="17"/>
       <c r="F218" s="17"/>
@@ -9584,11 +9584,11 @@
       </c>
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A219" s="237" t="s">
+      <c r="A219" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="B219" s="238"/>
-      <c r="C219" s="239"/>
+      <c r="B219" s="235"/>
+      <c r="C219" s="236"/>
       <c r="D219" s="16"/>
       <c r="E219" s="17"/>
       <c r="F219" s="17"/>
@@ -9603,11 +9603,11 @@
       <c r="L219" s="18"/>
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A220" s="237" t="s">
+      <c r="A220" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="B220" s="238"/>
-      <c r="C220" s="239"/>
+      <c r="B220" s="235"/>
+      <c r="C220" s="236"/>
       <c r="D220" s="16"/>
       <c r="E220" s="17"/>
       <c r="F220" s="17"/>
@@ -9622,11 +9622,11 @@
       <c r="L220" s="18"/>
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A221" s="237" t="s">
+      <c r="A221" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="B221" s="238"/>
-      <c r="C221" s="239"/>
+      <c r="B221" s="235"/>
+      <c r="C221" s="236"/>
       <c r="D221" s="16"/>
       <c r="E221" s="17"/>
       <c r="F221" s="17"/>
@@ -9641,11 +9641,11 @@
       <c r="L221" s="18"/>
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A222" s="233" t="s">
+      <c r="A222" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="B222" s="234"/>
-      <c r="C222" s="235"/>
+      <c r="B222" s="221"/>
+      <c r="C222" s="222"/>
       <c r="D222" s="19"/>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
@@ -9660,23 +9660,23 @@
       <c r="L222" s="21"/>
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A223" s="271" t="s">
+      <c r="A223" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="B223" s="267"/>
-      <c r="C223" s="267"/>
-      <c r="D223" s="267"/>
-      <c r="E223" s="267"/>
-      <c r="F223" s="267"/>
-      <c r="G223" s="267"/>
-      <c r="H223" s="267"/>
-      <c r="I223" s="267"/>
-      <c r="J223" s="267"/>
-      <c r="K223" s="267"/>
-      <c r="L223" s="268"/>
+      <c r="B223" s="224"/>
+      <c r="C223" s="224"/>
+      <c r="D223" s="224"/>
+      <c r="E223" s="224"/>
+      <c r="F223" s="224"/>
+      <c r="G223" s="224"/>
+      <c r="H223" s="224"/>
+      <c r="I223" s="224"/>
+      <c r="J223" s="224"/>
+      <c r="K223" s="224"/>
+      <c r="L223" s="225"/>
     </row>
     <row r="224" spans="1:16" s="133" customFormat="1" ht="100.5">
-      <c r="A224" s="220">
+      <c r="A224" s="253">
         <v>2</v>
       </c>
       <c r="B224" s="23" t="s">
@@ -9711,7 +9711,7 @@
       </c>
     </row>
     <row r="225" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A225" s="221"/>
+      <c r="A225" s="233"/>
       <c r="B225" s="22"/>
       <c r="C225" s="22"/>
       <c r="D225" s="22">
@@ -9745,7 +9745,7 @@
       </c>
     </row>
     <row r="226" spans="1:12" s="133" customFormat="1" ht="24.75">
-      <c r="A226" s="221"/>
+      <c r="A226" s="233"/>
       <c r="B226" s="25" t="s">
         <v>67</v>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="L226" s="22"/>
     </row>
     <row r="227" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A227" s="221"/>
+      <c r="A227" s="233"/>
       <c r="B227" s="22"/>
       <c r="C227" s="30"/>
       <c r="D227" s="22">
@@ -9799,7 +9799,7 @@
       <c r="L227" s="22"/>
     </row>
     <row r="228" spans="1:12" s="133" customFormat="1" ht="24.75">
-      <c r="A228" s="221"/>
+      <c r="A228" s="233"/>
       <c r="B228" s="25" t="s">
         <v>41</v>
       </c>
@@ -9827,7 +9827,7 @@
       <c r="L228" s="22"/>
     </row>
     <row r="229" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A229" s="221"/>
+      <c r="A229" s="233"/>
       <c r="B229" s="22"/>
       <c r="C229" s="30"/>
       <c r="D229" s="22">
@@ -9853,7 +9853,7 @@
       <c r="L229" s="22"/>
     </row>
     <row r="230" spans="1:12" s="133" customFormat="1">
-      <c r="A230" s="221"/>
+      <c r="A230" s="233"/>
       <c r="B230" s="25" t="s">
         <v>69</v>
       </c>
@@ -9881,7 +9881,7 @@
       <c r="L230" s="22"/>
     </row>
     <row r="231" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A231" s="221"/>
+      <c r="A231" s="233"/>
       <c r="B231" s="22"/>
       <c r="C231" s="30"/>
       <c r="D231" s="22">
@@ -9906,8 +9906,8 @@
       <c r="K231" s="22"/>
       <c r="L231" s="22"/>
     </row>
-    <row r="232" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A232" s="221"/>
+    <row r="232" spans="1:12" s="133" customFormat="1" ht="24.75">
+      <c r="A232" s="233"/>
       <c r="B232" s="25" t="s">
         <v>71</v>
       </c>
@@ -9935,7 +9935,7 @@
       <c r="L232" s="22"/>
     </row>
     <row r="233" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A233" s="221"/>
+      <c r="A233" s="233"/>
       <c r="B233" s="22"/>
       <c r="C233" s="30"/>
       <c r="D233" s="22">
@@ -9960,8 +9960,8 @@
       <c r="K233" s="22"/>
       <c r="L233" s="22"/>
     </row>
-    <row r="234" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A234" s="221"/>
+    <row r="234" spans="1:12" s="133" customFormat="1" ht="60.75">
+      <c r="A234" s="233"/>
       <c r="B234" s="25" t="s">
         <v>73</v>
       </c>
@@ -9989,7 +9989,7 @@
       <c r="L234" s="22"/>
     </row>
     <row r="235" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A235" s="221"/>
+      <c r="A235" s="233"/>
       <c r="B235" s="22"/>
       <c r="C235" s="30"/>
       <c r="D235" s="22">
@@ -10014,8 +10014,8 @@
       <c r="K235" s="22"/>
       <c r="L235" s="22"/>
     </row>
-    <row r="236" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A236" s="221"/>
+    <row r="236" spans="1:12" s="133" customFormat="1" ht="48.75">
+      <c r="A236" s="233"/>
       <c r="B236" s="25" t="s">
         <v>75</v>
       </c>
@@ -10043,33 +10043,33 @@
       <c r="L236" s="22"/>
     </row>
     <row r="237" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A237" s="221"/>
+      <c r="A237" s="233"/>
       <c r="B237" s="22"/>
       <c r="C237" s="30"/>
       <c r="D237" s="22">
-        <f>0.04*D225</f>
-        <v>0.13400000000000001</v>
+        <f>ROUNDUP(D225/4,0)</f>
+        <v>1</v>
       </c>
       <c r="E237" s="22"/>
       <c r="F237" s="22"/>
       <c r="G237" s="22"/>
       <c r="H237" s="22">
         <f t="shared" ref="H237:J237" si="122">H236*$D237</f>
-        <v>1.5356400000000001</v>
+        <v>11.46</v>
       </c>
       <c r="I237" s="22">
         <f t="shared" si="122"/>
-        <v>0.10810905600000001</v>
+        <v>0.80678400000000006</v>
       </c>
       <c r="J237" s="22">
         <f t="shared" si="122"/>
-        <v>1.6437490560000003</v>
+        <v>12.266784000000001</v>
       </c>
       <c r="K237" s="22"/>
       <c r="L237" s="22"/>
     </row>
-    <row r="238" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A238" s="221"/>
+    <row r="238" spans="1:12" s="133" customFormat="1" ht="24.75">
+      <c r="A238" s="233"/>
       <c r="B238" s="25" t="s">
         <v>77</v>
       </c>
@@ -10097,33 +10097,33 @@
       <c r="L238" s="22"/>
     </row>
     <row r="239" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A239" s="221"/>
+      <c r="A239" s="233"/>
       <c r="B239" s="22"/>
       <c r="C239" s="30"/>
       <c r="D239" s="22">
         <f>D237</f>
-        <v>0.13400000000000001</v>
+        <v>1</v>
       </c>
       <c r="E239" s="22"/>
       <c r="F239" s="22"/>
       <c r="G239" s="22"/>
       <c r="H239" s="22">
         <f t="shared" ref="H239:J239" si="123">H238*$D239</f>
-        <v>1.78756</v>
+        <v>13.34</v>
       </c>
       <c r="I239" s="22">
         <f t="shared" si="123"/>
-        <v>0.12584422400000003</v>
+        <v>0.93913600000000008</v>
       </c>
       <c r="J239" s="22">
         <f t="shared" si="123"/>
-        <v>1.913404224</v>
+        <v>14.279135999999999</v>
       </c>
       <c r="K239" s="22"/>
       <c r="L239" s="22"/>
     </row>
-    <row r="240" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A240" s="221"/>
+    <row r="240" spans="1:12" s="133" customFormat="1">
+      <c r="A240" s="233"/>
       <c r="B240" s="25" t="s">
         <v>44</v>
       </c>
@@ -10151,7 +10151,7 @@
       <c r="L240" s="22"/>
     </row>
     <row r="241" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A241" s="221"/>
+      <c r="A241" s="233"/>
       <c r="B241" s="22"/>
       <c r="C241" s="22"/>
       <c r="D241" s="22">
@@ -10177,7 +10177,7 @@
       <c r="L241" s="22"/>
     </row>
     <row r="242" spans="1:12" s="133" customFormat="1">
-      <c r="A242" s="221"/>
+      <c r="A242" s="233"/>
       <c r="B242" s="31" t="s">
         <v>79</v>
       </c>
@@ -10206,7 +10206,7 @@
       <c r="L242" s="26"/>
     </row>
     <row r="243" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A243" s="221"/>
+      <c r="A243" s="233"/>
       <c r="B243" s="26"/>
       <c r="C243" s="26"/>
       <c r="D243" s="26">
@@ -10231,7 +10231,7 @@
       <c r="L243" s="26"/>
     </row>
     <row r="244" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A244" s="221"/>
+      <c r="A244" s="233"/>
       <c r="B244" s="24" t="s">
         <v>81</v>
       </c>
@@ -10260,7 +10260,7 @@
       <c r="L244" s="26"/>
     </row>
     <row r="245" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A245" s="221"/>
+      <c r="A245" s="233"/>
       <c r="B245" s="26"/>
       <c r="C245" s="26"/>
       <c r="D245" s="26">
@@ -10285,7 +10285,7 @@
       <c r="L245" s="26"/>
     </row>
     <row r="246" spans="1:12" s="133" customFormat="1">
-      <c r="A246" s="221"/>
+      <c r="A246" s="233"/>
       <c r="B246" s="33" t="s">
         <v>83</v>
       </c>
@@ -10314,7 +10314,7 @@
       <c r="L246" s="26"/>
     </row>
     <row r="247" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A247" s="221"/>
+      <c r="A247" s="233"/>
       <c r="B247" s="26"/>
       <c r="C247" s="26"/>
       <c r="D247" s="26">
@@ -10339,7 +10339,7 @@
       <c r="L247" s="26"/>
     </row>
     <row r="248" spans="1:12" s="133" customFormat="1" ht="26.25">
-      <c r="A248" s="221"/>
+      <c r="A248" s="233"/>
       <c r="B248" s="33" t="s">
         <v>85</v>
       </c>
@@ -10368,7 +10368,7 @@
       <c r="L248" s="26"/>
     </row>
     <row r="249" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A249" s="221"/>
+      <c r="A249" s="233"/>
       <c r="B249" s="26"/>
       <c r="C249" s="26"/>
       <c r="D249" s="26">
@@ -10394,7 +10394,7 @@
       <c r="L249" s="26"/>
     </row>
     <row r="250" spans="1:12" s="133" customFormat="1" ht="26.25">
-      <c r="A250" s="221"/>
+      <c r="A250" s="233"/>
       <c r="B250" s="24" t="s">
         <v>87</v>
       </c>
@@ -10423,7 +10423,7 @@
       <c r="L250" s="26"/>
     </row>
     <row r="251" spans="1:12" s="133" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A251" s="222"/>
+      <c r="A251" s="227"/>
       <c r="B251" s="206"/>
       <c r="C251" s="206"/>
       <c r="D251" s="206">
@@ -10448,7 +10448,7 @@
       <c r="L251" s="206"/>
     </row>
     <row r="252" spans="1:12" ht="57">
-      <c r="A252" s="272">
+      <c r="A252" s="231">
         <v>2</v>
       </c>
       <c r="B252" s="203" t="s">
@@ -10483,7 +10483,7 @@
       </c>
     </row>
     <row r="253" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A253" s="228"/>
+      <c r="A253" s="232"/>
       <c r="B253" s="130"/>
       <c r="C253" s="130"/>
       <c r="D253" s="129">
@@ -10517,7 +10517,7 @@
       </c>
     </row>
     <row r="254" spans="1:12" ht="44.25" customHeight="1">
-      <c r="A254" s="228"/>
+      <c r="A254" s="232"/>
       <c r="B254" s="194" t="s">
         <v>67</v>
       </c>
@@ -10545,7 +10545,7 @@
       <c r="L254" s="22"/>
     </row>
     <row r="255" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A255" s="228"/>
+      <c r="A255" s="232"/>
       <c r="B255" s="142"/>
       <c r="C255" s="138"/>
       <c r="D255" s="129">
@@ -10571,7 +10571,7 @@
       <c r="L255" s="22"/>
     </row>
     <row r="256" spans="1:12" ht="26.45" customHeight="1">
-      <c r="A256" s="228"/>
+      <c r="A256" s="232"/>
       <c r="B256" s="194" t="s">
         <v>41</v>
       </c>
@@ -10599,7 +10599,7 @@
       <c r="L256" s="22"/>
     </row>
     <row r="257" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A257" s="228"/>
+      <c r="A257" s="232"/>
       <c r="B257" s="142"/>
       <c r="C257" s="138"/>
       <c r="D257" s="129">
@@ -10625,7 +10625,7 @@
       <c r="L257" s="22"/>
     </row>
     <row r="258" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A258" s="228"/>
+      <c r="A258" s="232"/>
       <c r="B258" s="194" t="s">
         <v>69</v>
       </c>
@@ -10653,7 +10653,7 @@
       <c r="L258" s="22"/>
     </row>
     <row r="259" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A259" s="228"/>
+      <c r="A259" s="232"/>
       <c r="B259" s="142"/>
       <c r="C259" s="138"/>
       <c r="D259" s="129">
@@ -10679,7 +10679,7 @@
       <c r="L259" s="22"/>
     </row>
     <row r="260" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A260" s="228"/>
+      <c r="A260" s="232"/>
       <c r="B260" s="194" t="s">
         <v>71</v>
       </c>
@@ -10707,7 +10707,7 @@
       <c r="L260" s="22"/>
     </row>
     <row r="261" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A261" s="228"/>
+      <c r="A261" s="232"/>
       <c r="B261" s="142"/>
       <c r="C261" s="138"/>
       <c r="D261" s="129">
@@ -10733,7 +10733,7 @@
       <c r="L261" s="22"/>
     </row>
     <row r="262" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A262" s="228"/>
+      <c r="A262" s="232"/>
       <c r="B262" s="194" t="s">
         <v>73</v>
       </c>
@@ -10761,7 +10761,7 @@
       <c r="L262" s="22"/>
     </row>
     <row r="263" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A263" s="228"/>
+      <c r="A263" s="232"/>
       <c r="B263" s="142"/>
       <c r="C263" s="138"/>
       <c r="D263" s="129">
@@ -10787,7 +10787,7 @@
       <c r="L263" s="22"/>
     </row>
     <row r="264" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A264" s="228"/>
+      <c r="A264" s="232"/>
       <c r="B264" s="194" t="s">
         <v>75</v>
       </c>
@@ -10815,33 +10815,33 @@
       <c r="L264" s="22"/>
     </row>
     <row r="265" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A265" s="228"/>
+      <c r="A265" s="232"/>
       <c r="B265" s="142"/>
       <c r="C265" s="138"/>
       <c r="D265" s="129">
-        <f>0.04*D253</f>
-        <v>0.42320000000000002</v>
+        <f>D237</f>
+        <v>1</v>
       </c>
       <c r="E265" s="22"/>
       <c r="F265" s="22"/>
       <c r="G265" s="22"/>
       <c r="H265" s="22">
         <f t="shared" ref="H265:J265" si="137">H264*$D265</f>
-        <v>4.8498720000000004</v>
+        <v>11.46</v>
       </c>
       <c r="I265" s="22">
         <f t="shared" si="137"/>
-        <v>0.34143098880000006</v>
+        <v>0.80678400000000006</v>
       </c>
       <c r="J265" s="22">
         <f t="shared" si="137"/>
-        <v>5.1913029888000004</v>
+        <v>12.266784000000001</v>
       </c>
       <c r="K265" s="22"/>
       <c r="L265" s="22"/>
     </row>
     <row r="266" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A266" s="228"/>
+      <c r="A266" s="232"/>
       <c r="B266" s="194" t="s">
         <v>77</v>
       </c>
@@ -10869,33 +10869,33 @@
       <c r="L266" s="22"/>
     </row>
     <row r="267" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A267" s="228"/>
+      <c r="A267" s="232"/>
       <c r="B267" s="142"/>
       <c r="C267" s="138"/>
       <c r="D267" s="129">
         <f>D265</f>
-        <v>0.42320000000000002</v>
+        <v>1</v>
       </c>
       <c r="E267" s="22"/>
       <c r="F267" s="22"/>
       <c r="G267" s="22"/>
       <c r="H267" s="22">
         <f t="shared" ref="H267:J267" si="138">H266*$D267</f>
-        <v>5.6454880000000003</v>
+        <v>13.34</v>
       </c>
       <c r="I267" s="22">
         <f t="shared" si="138"/>
-        <v>0.39744235520000004</v>
+        <v>0.93913600000000008</v>
       </c>
       <c r="J267" s="22">
         <f t="shared" si="138"/>
-        <v>6.0429303552000002</v>
+        <v>14.279135999999999</v>
       </c>
       <c r="K267" s="22"/>
       <c r="L267" s="22"/>
     </row>
     <row r="268" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A268" s="228"/>
+      <c r="A268" s="232"/>
       <c r="B268" s="194" t="s">
         <v>44</v>
       </c>
@@ -10923,7 +10923,7 @@
       <c r="L268" s="22"/>
     </row>
     <row r="269" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A269" s="228"/>
+      <c r="A269" s="232"/>
       <c r="B269" s="142"/>
       <c r="C269" s="142"/>
       <c r="D269" s="129">
@@ -10949,7 +10949,7 @@
       <c r="L269" s="22"/>
     </row>
     <row r="270" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A270" s="228"/>
+      <c r="A270" s="232"/>
       <c r="B270" s="195" t="s">
         <v>79</v>
       </c>
@@ -10978,7 +10978,7 @@
       <c r="L270" s="26"/>
     </row>
     <row r="271" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A271" s="228"/>
+      <c r="A271" s="232"/>
       <c r="B271" s="195"/>
       <c r="C271" s="195"/>
       <c r="D271" s="192">
@@ -11003,7 +11003,7 @@
       <c r="L271" s="26"/>
     </row>
     <row r="272" spans="1:12" ht="45">
-      <c r="A272" s="228"/>
+      <c r="A272" s="232"/>
       <c r="B272" s="142" t="s">
         <v>81</v>
       </c>
@@ -11032,7 +11032,7 @@
       <c r="L272" s="26"/>
     </row>
     <row r="273" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A273" s="228"/>
+      <c r="A273" s="232"/>
       <c r="B273" s="195"/>
       <c r="C273" s="195"/>
       <c r="D273" s="192">
@@ -11057,7 +11057,7 @@
       <c r="L273" s="26"/>
     </row>
     <row r="274" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A274" s="228"/>
+      <c r="A274" s="232"/>
       <c r="B274" s="195" t="s">
         <v>83</v>
       </c>
@@ -11086,7 +11086,7 @@
       <c r="L274" s="26"/>
     </row>
     <row r="275" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A275" s="228"/>
+      <c r="A275" s="232"/>
       <c r="B275" s="195"/>
       <c r="C275" s="195"/>
       <c r="D275" s="192">
@@ -11111,7 +11111,7 @@
       <c r="L275" s="26"/>
     </row>
     <row r="276" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A276" s="228"/>
+      <c r="A276" s="232"/>
       <c r="B276" s="195" t="s">
         <v>85</v>
       </c>
@@ -11140,7 +11140,7 @@
       <c r="L276" s="26"/>
     </row>
     <row r="277" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A277" s="221"/>
+      <c r="A277" s="233"/>
       <c r="B277" s="193"/>
       <c r="C277" s="193"/>
       <c r="D277" s="26">
@@ -11166,7 +11166,7 @@
       <c r="L277" s="26"/>
     </row>
     <row r="278" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A278" s="221"/>
+      <c r="A278" s="233"/>
       <c r="B278" s="190" t="s">
         <v>87</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="L278" s="26"/>
     </row>
     <row r="279" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A279" s="222"/>
+      <c r="A279" s="227"/>
       <c r="B279" s="26"/>
       <c r="C279" s="26"/>
       <c r="D279" s="26">
@@ -11220,11 +11220,11 @@
       <c r="L279" s="26"/>
     </row>
     <row r="280" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A280" s="240" t="s">
+      <c r="A280" s="228" t="s">
         <v>33</v>
       </c>
-      <c r="B280" s="241"/>
-      <c r="C280" s="242"/>
+      <c r="B280" s="229"/>
+      <c r="C280" s="230"/>
       <c r="D280" s="13"/>
       <c r="E280" s="112">
         <f>E225+E253</f>
@@ -11240,15 +11240,15 @@
       </c>
       <c r="H280" s="112">
         <f>H255+H257+H259+H261+H263+H265+H267+H269+H271+H273+H275+H277+H279+H251+H249+H247+H245+H243+H241+H239+H237+H235+H233+H231+H229+H227</f>
-        <v>1238.8263100827801</v>
+        <v>1274.6077500827801</v>
       </c>
       <c r="I280" s="112">
         <f t="shared" ref="I280:J280" si="146">I255+I257+I259+I261+I263+I265+I267+I269+I271+I273+I275+I277+I279+I251+I249+I247+I245+I243+I241+I239+I237+I235+I233+I231+I229+I227</f>
-        <v>781.98694476867706</v>
+        <v>784.50595814467704</v>
       </c>
       <c r="J280" s="112">
         <f t="shared" si="146"/>
-        <v>2020.8132548514575</v>
+        <v>2059.1137082274572</v>
       </c>
       <c r="K280" s="112">
         <f>K225+K253</f>
@@ -11260,11 +11260,11 @@
       </c>
     </row>
     <row r="281" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A281" s="237" t="s">
+      <c r="A281" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B281" s="238"/>
-      <c r="C281" s="239"/>
+      <c r="B281" s="235"/>
+      <c r="C281" s="236"/>
       <c r="D281" s="16"/>
       <c r="E281" s="113"/>
       <c r="F281" s="113"/>
@@ -11279,11 +11279,11 @@
       <c r="L281" s="114"/>
     </row>
     <row r="282" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A282" s="237" t="s">
+      <c r="A282" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="B282" s="238"/>
-      <c r="C282" s="239"/>
+      <c r="B282" s="235"/>
+      <c r="C282" s="236"/>
       <c r="D282" s="16"/>
       <c r="E282" s="113"/>
       <c r="F282" s="113"/>
@@ -11298,11 +11298,11 @@
       <c r="L282" s="114"/>
     </row>
     <row r="283" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A283" s="237" t="s">
+      <c r="A283" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="B283" s="238"/>
-      <c r="C283" s="239"/>
+      <c r="B283" s="235"/>
+      <c r="C283" s="236"/>
       <c r="D283" s="16"/>
       <c r="E283" s="113"/>
       <c r="F283" s="113"/>
@@ -11311,17 +11311,17 @@
       <c r="I283" s="113"/>
       <c r="J283" s="113">
         <f>J280+J281+J282</f>
-        <v>28217.556893531459</v>
+        <v>28255.857346907458</v>
       </c>
       <c r="K283" s="113"/>
       <c r="L283" s="114"/>
     </row>
     <row r="284" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A284" s="237" t="s">
+      <c r="A284" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="B284" s="238"/>
-      <c r="C284" s="239"/>
+      <c r="B284" s="235"/>
+      <c r="C284" s="236"/>
       <c r="D284" s="16"/>
       <c r="E284" s="113"/>
       <c r="F284" s="113"/>
@@ -11336,11 +11336,11 @@
       <c r="L284" s="114"/>
     </row>
     <row r="285" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A285" s="233" t="s">
+      <c r="A285" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="B285" s="234"/>
-      <c r="C285" s="235"/>
+      <c r="B285" s="221"/>
+      <c r="C285" s="222"/>
       <c r="D285" s="19"/>
       <c r="E285" s="115"/>
       <c r="F285" s="115"/>
@@ -11355,23 +11355,23 @@
       <c r="L285" s="116"/>
     </row>
     <row r="286" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A286" s="271" t="s">
+      <c r="A286" s="223" t="s">
         <v>89</v>
       </c>
-      <c r="B286" s="267"/>
-      <c r="C286" s="267"/>
-      <c r="D286" s="267"/>
-      <c r="E286" s="267"/>
-      <c r="F286" s="267"/>
-      <c r="G286" s="267"/>
-      <c r="H286" s="267"/>
-      <c r="I286" s="267"/>
-      <c r="J286" s="267"/>
-      <c r="K286" s="267"/>
-      <c r="L286" s="268"/>
+      <c r="B286" s="224"/>
+      <c r="C286" s="224"/>
+      <c r="D286" s="224"/>
+      <c r="E286" s="224"/>
+      <c r="F286" s="224"/>
+      <c r="G286" s="224"/>
+      <c r="H286" s="224"/>
+      <c r="I286" s="224"/>
+      <c r="J286" s="224"/>
+      <c r="K286" s="224"/>
+      <c r="L286" s="225"/>
     </row>
     <row r="287" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A287" s="220">
+      <c r="A287" s="253">
         <v>1</v>
       </c>
       <c r="B287" s="23" t="s">
@@ -11406,7 +11406,7 @@
       </c>
     </row>
     <row r="288" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A288" s="221"/>
+      <c r="A288" s="233"/>
       <c r="B288" s="22"/>
       <c r="C288" s="22"/>
       <c r="D288" s="123">
@@ -11440,7 +11440,7 @@
       </c>
     </row>
     <row r="289" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A289" s="221"/>
+      <c r="A289" s="233"/>
       <c r="B289" s="36" t="s">
         <v>92</v>
       </c>
@@ -11468,7 +11468,7 @@
       <c r="L289" s="22"/>
     </row>
     <row r="290" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A290" s="221"/>
+      <c r="A290" s="233"/>
       <c r="B290" s="22"/>
       <c r="C290" s="22"/>
       <c r="D290" s="122">
@@ -11494,7 +11494,7 @@
       <c r="L290" s="22"/>
     </row>
     <row r="291" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A291" s="221"/>
+      <c r="A291" s="233"/>
       <c r="B291" s="36" t="s">
         <v>44</v>
       </c>
@@ -11522,7 +11522,7 @@
       <c r="L291" s="22"/>
     </row>
     <row r="292" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A292" s="222"/>
+      <c r="A292" s="227"/>
       <c r="B292" s="22"/>
       <c r="C292" s="22"/>
       <c r="D292" s="22">
@@ -11548,11 +11548,11 @@
       <c r="L292" s="22"/>
     </row>
     <row r="293" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A293" s="240" t="s">
+      <c r="A293" s="228" t="s">
         <v>33</v>
       </c>
-      <c r="B293" s="241"/>
-      <c r="C293" s="242"/>
+      <c r="B293" s="229"/>
+      <c r="C293" s="230"/>
       <c r="D293" s="13"/>
       <c r="E293" s="112">
         <f t="shared" ref="E293:G293" si="151">E288</f>
@@ -11588,11 +11588,11 @@
       </c>
     </row>
     <row r="294" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A294" s="237" t="s">
+      <c r="A294" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B294" s="238"/>
-      <c r="C294" s="239"/>
+      <c r="B294" s="235"/>
+      <c r="C294" s="236"/>
       <c r="D294" s="16"/>
       <c r="E294" s="17"/>
       <c r="F294" s="17"/>
@@ -11607,11 +11607,11 @@
       <c r="L294" s="18"/>
     </row>
     <row r="295" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A295" s="237" t="s">
+      <c r="A295" s="234" t="s">
         <v>35</v>
       </c>
-      <c r="B295" s="238"/>
-      <c r="C295" s="239"/>
+      <c r="B295" s="235"/>
+      <c r="C295" s="236"/>
       <c r="D295" s="16"/>
       <c r="E295" s="17"/>
       <c r="F295" s="17"/>
@@ -11626,11 +11626,11 @@
       <c r="L295" s="18"/>
     </row>
     <row r="296" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A296" s="237" t="s">
+      <c r="A296" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="B296" s="238"/>
-      <c r="C296" s="239"/>
+      <c r="B296" s="235"/>
+      <c r="C296" s="236"/>
       <c r="D296" s="16"/>
       <c r="E296" s="17"/>
       <c r="F296" s="17"/>
@@ -11645,11 +11645,11 @@
       <c r="L296" s="18"/>
     </row>
     <row r="297" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A297" s="237" t="s">
+      <c r="A297" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="B297" s="238"/>
-      <c r="C297" s="239"/>
+      <c r="B297" s="235"/>
+      <c r="C297" s="236"/>
       <c r="D297" s="16"/>
       <c r="E297" s="17"/>
       <c r="F297" s="17"/>
@@ -11664,11 +11664,11 @@
       <c r="L297" s="18"/>
     </row>
     <row r="298" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A298" s="233" t="s">
+      <c r="A298" s="220" t="s">
         <v>37</v>
       </c>
-      <c r="B298" s="234"/>
-      <c r="C298" s="235"/>
+      <c r="B298" s="221"/>
+      <c r="C298" s="222"/>
       <c r="D298" s="19"/>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
@@ -11688,11 +11688,11 @@
     <row r="302" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="303" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="304" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A304" s="252" t="s">
+      <c r="A304" s="254" t="s">
         <v>33</v>
       </c>
-      <c r="B304" s="241"/>
-      <c r="C304" s="242"/>
+      <c r="B304" s="229"/>
+      <c r="C304" s="230"/>
       <c r="D304" s="38"/>
       <c r="E304" s="117">
         <f t="shared" ref="E304:J304" si="153">E293+E280+E217+E24</f>
@@ -11708,15 +11708,15 @@
       </c>
       <c r="H304" s="117">
         <f t="shared" si="153"/>
-        <v>1161617.8276963695</v>
+        <v>1161653.6091363695</v>
       </c>
       <c r="I304" s="117">
         <f t="shared" si="153"/>
-        <v>82472.668642363278</v>
+        <v>82475.187655739268</v>
       </c>
       <c r="J304" s="117">
         <f t="shared" si="153"/>
-        <v>1349213.9288854627</v>
+        <v>1349252.2293388387</v>
       </c>
       <c r="K304" s="117">
         <f>K293+K280+K217+K24+520</f>
@@ -11728,11 +11728,11 @@
       </c>
     </row>
     <row r="305" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A305" s="253" t="s">
+      <c r="A305" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="B305" s="238"/>
-      <c r="C305" s="239"/>
+      <c r="B305" s="235"/>
+      <c r="C305" s="236"/>
       <c r="D305" s="39"/>
       <c r="E305" s="118"/>
       <c r="F305" s="118"/>
@@ -11747,11 +11747,11 @@
       <c r="L305" s="119"/>
     </row>
     <row r="306" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A306" s="253" t="s">
+      <c r="A306" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="B306" s="238"/>
-      <c r="C306" s="239"/>
+      <c r="B306" s="235"/>
+      <c r="C306" s="236"/>
       <c r="D306" s="39"/>
       <c r="E306" s="118"/>
       <c r="F306" s="118"/>
@@ -11766,11 +11766,11 @@
       <c r="L306" s="119"/>
     </row>
     <row r="307" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A307" s="253" t="s">
+      <c r="A307" s="255" t="s">
         <v>36</v>
       </c>
-      <c r="B307" s="238"/>
-      <c r="C307" s="239"/>
+      <c r="B307" s="235"/>
+      <c r="C307" s="236"/>
       <c r="D307" s="39"/>
       <c r="E307" s="118"/>
       <c r="F307" s="118"/>
@@ -11779,17 +11779,17 @@
       <c r="I307" s="118"/>
       <c r="J307" s="118">
         <f>J304+J305+J306</f>
-        <v>1609168.5316440153</v>
+        <v>1609206.8320973914</v>
       </c>
       <c r="K307" s="118"/>
       <c r="L307" s="119"/>
     </row>
     <row r="308" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A308" s="253" t="s">
+      <c r="A308" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="B308" s="238"/>
-      <c r="C308" s="239"/>
+      <c r="B308" s="235"/>
+      <c r="C308" s="236"/>
       <c r="D308" s="39"/>
       <c r="E308" s="118"/>
       <c r="F308" s="118"/>
@@ -11804,11 +11804,11 @@
       <c r="L308" s="119"/>
     </row>
     <row r="309" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A309" s="251" t="s">
+      <c r="A309" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="B309" s="234"/>
-      <c r="C309" s="235"/>
+      <c r="B309" s="221"/>
+      <c r="C309" s="222"/>
       <c r="D309" s="40"/>
       <c r="E309" s="120"/>
       <c r="F309" s="120"/>
@@ -12690,18 +12690,62 @@
     <row r="1170" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A222:C222"/>
-    <mergeCell ref="A223:L223"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A286:L286"/>
-    <mergeCell ref="A252:A279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A201:A216"/>
+    <mergeCell ref="A103:A126"/>
+    <mergeCell ref="A127:A152"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A79:A102"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A287:A292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A5:L5"/>
@@ -12718,56 +12762,21 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A287:A292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="A286:L286"/>
+    <mergeCell ref="A252:A279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
+    <mergeCell ref="A222:C222"/>
+    <mergeCell ref="A223:L223"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A285:C285"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="A31:A54"/>
     <mergeCell ref="A55:A78"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A79:A102"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="A153:A168"/>
     <mergeCell ref="A169:A184"/>
@@ -12776,15 +12785,6 @@
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="A218:C218"/>
     <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A201:A216"/>
-    <mergeCell ref="A103:A126"/>
-    <mergeCell ref="A127:A152"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="B103:B104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12842,7 +12842,7 @@
       </c>
       <c r="D3" s="45">
         <f>смета!J27*100/смета!$J$307</f>
-        <v>8.6627881923469321</v>
+        <v>8.6625820108240532</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18">
@@ -12852,11 +12852,11 @@
       <c r="B4" s="274"/>
       <c r="C4" s="46">
         <f>смета!J280</f>
-        <v>2020.8132548514575</v>
+        <v>2059.1137082274572</v>
       </c>
       <c r="D4" s="45">
         <f>смета!J283*100/смета!$J$307</f>
-        <v>1.7535488880523187</v>
+        <v>1.7558872348360359</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18">
@@ -12870,7 +12870,7 @@
       </c>
       <c r="D5" s="45">
         <f>смета!J220*100/смета!$J$307</f>
-        <v>87.231631422338836</v>
+        <v>87.229555237372708</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18">
@@ -12884,7 +12884,7 @@
       </c>
       <c r="D6" s="45">
         <f>смета!J296*100/смета!$J$307</f>
-        <v>2.3520314972619207</v>
+        <v>2.351975516967217</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="D8" s="48">
         <f>SUM(D3:D6)</f>
-        <v>100</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13923,30 +13923,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="331" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="308" t="s">
+      <c r="B1" s="332"/>
+      <c r="C1" s="331" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="232"/>
-      <c r="E1" s="315" t="s">
+      <c r="D1" s="268"/>
+      <c r="E1" s="338" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="268"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="225"/>
     </row>
     <row r="2" spans="1:11" ht="47.25">
-      <c r="A2" s="310"/>
-      <c r="B2" s="311"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="316" t="s">
+      <c r="A2" s="333"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="333"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="339" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="49" t="s">
@@ -13958,10 +13958,10 @@
       <c r="H2" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="316" t="s">
+      <c r="I2" s="339" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="316" t="s">
+      <c r="J2" s="339" t="s">
         <v>107</v>
       </c>
       <c r="K2" s="52" t="s">
@@ -13969,11 +13969,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="31.5">
-      <c r="A3" s="289"/>
-      <c r="B3" s="312"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="256"/>
+      <c r="A3" s="319"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="239"/>
       <c r="F3" s="49" t="s">
         <v>109</v>
       </c>
@@ -13983,18 +13983,18 @@
       <c r="H3" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
       <c r="K3" s="52" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="317">
+      <c r="A4" s="340">
         <v>1</v>
       </c>
       <c r="B4" s="277"/>
-      <c r="C4" s="318">
+      <c r="C4" s="341">
         <v>2</v>
       </c>
       <c r="D4" s="277"/>
@@ -14021,157 +14021,157 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25">
-      <c r="A5" s="319" t="s">
+      <c r="A5" s="342" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="267"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
-      <c r="I5" s="267"/>
-      <c r="J5" s="267"/>
-      <c r="K5" s="268"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="225"/>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="320" t="s">
+      <c r="A6" s="322" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="288"/>
-      <c r="C6" s="321" t="s">
+      <c r="B6" s="312"/>
+      <c r="C6" s="323" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="288"/>
-      <c r="E6" s="322">
+      <c r="D6" s="312"/>
+      <c r="E6" s="324">
         <f>K6*12.8/100</f>
-        <v>1.0298678602521698</v>
+        <v>1.0298923725423306</v>
       </c>
       <c r="F6" s="56">
         <f>K6*3.6/100</f>
-        <v>0.28965033569592274</v>
+        <v>0.28965722977753044</v>
       </c>
       <c r="G6" s="56">
         <f>K6*42.2/100</f>
-        <v>3.3953456017688723</v>
+        <v>3.3954264157254954</v>
       </c>
       <c r="H6" s="56">
         <f>K6*14.1/100</f>
-        <v>1.1344638148090307</v>
-      </c>
-      <c r="I6" s="322"/>
-      <c r="J6" s="322"/>
+        <v>1.1344908166286607</v>
+      </c>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
       <c r="K6" s="57">
         <f>K11*0.5/100</f>
-        <v>8.0458426582200762</v>
+        <v>8.0460341604869559</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="289"/>
-      <c r="B7" s="290"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="290"/>
-      <c r="E7" s="222"/>
+      <c r="A7" s="319"/>
+      <c r="B7" s="313"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="313"/>
+      <c r="E7" s="227"/>
       <c r="F7" s="58">
         <f>K6*1.26/100</f>
-        <v>0.10137761749357295</v>
+        <v>0.10138003042213564</v>
       </c>
       <c r="G7" s="58">
         <f>K6*3.9/100</f>
-        <v>0.31378786367058298</v>
+        <v>0.31379533225899126</v>
       </c>
       <c r="H7" s="58">
         <f>K6*23.4/100</f>
-        <v>1.8827271820234979</v>
-      </c>
-      <c r="I7" s="222"/>
-      <c r="J7" s="222"/>
+        <v>1.8827719935539475</v>
+      </c>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
       <c r="K7" s="59">
         <f>K12*2/100</f>
         <v>629.34161163203999</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="320"/>
-      <c r="B8" s="288"/>
-      <c r="C8" s="321" t="s">
+      <c r="A8" s="322"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="323" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="288"/>
-      <c r="E8" s="322">
+      <c r="D8" s="312"/>
+      <c r="E8" s="324">
         <f t="shared" ref="E8:H8" si="0">E6</f>
-        <v>1.0298678602521698</v>
+        <v>1.0298923725423306</v>
       </c>
       <c r="F8" s="56">
         <f t="shared" si="0"/>
-        <v>0.28965033569592274</v>
+        <v>0.28965722977753044</v>
       </c>
       <c r="G8" s="56">
         <f t="shared" si="0"/>
-        <v>3.3953456017688723</v>
+        <v>3.3954264157254954</v>
       </c>
       <c r="H8" s="56">
         <f t="shared" si="0"/>
-        <v>1.1344638148090307</v>
-      </c>
-      <c r="I8" s="322"/>
-      <c r="J8" s="322"/>
+        <v>1.1344908166286607</v>
+      </c>
+      <c r="I8" s="324"/>
+      <c r="J8" s="324"/>
       <c r="K8" s="57">
         <f t="shared" ref="K8:K9" si="1">K6</f>
-        <v>8.0458426582200762</v>
+        <v>8.0460341604869559</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="289"/>
-      <c r="B9" s="290"/>
-      <c r="C9" s="270"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="222"/>
+      <c r="A9" s="319"/>
+      <c r="B9" s="313"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="313"/>
+      <c r="E9" s="227"/>
       <c r="F9" s="58">
         <f t="shared" ref="F9:H9" si="2">F7</f>
-        <v>0.10137761749357295</v>
+        <v>0.10138003042213564</v>
       </c>
       <c r="G9" s="58">
         <f t="shared" si="2"/>
-        <v>0.31378786367058298</v>
+        <v>0.31379533225899126</v>
       </c>
       <c r="H9" s="58">
         <f t="shared" si="2"/>
-        <v>1.8827271820234979</v>
-      </c>
-      <c r="I9" s="222"/>
-      <c r="J9" s="222"/>
+        <v>1.8827719935539475</v>
+      </c>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
       <c r="K9" s="59">
         <f t="shared" si="1"/>
         <v>629.34161163203999</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25">
-      <c r="A10" s="324" t="s">
+      <c r="A10" s="325" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="325"/>
-      <c r="C10" s="325"/>
-      <c r="D10" s="325"/>
-      <c r="E10" s="325"/>
-      <c r="F10" s="325"/>
-      <c r="G10" s="325"/>
-      <c r="H10" s="325"/>
-      <c r="I10" s="325"/>
-      <c r="J10" s="325"/>
-      <c r="K10" s="326"/>
+      <c r="B10" s="326"/>
+      <c r="C10" s="326"/>
+      <c r="D10" s="326"/>
+      <c r="E10" s="326"/>
+      <c r="F10" s="326"/>
+      <c r="G10" s="326"/>
+      <c r="H10" s="326"/>
+      <c r="I10" s="326"/>
+      <c r="J10" s="326"/>
+      <c r="K10" s="327"/>
     </row>
     <row r="11" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A11" s="327" t="s">
+      <c r="A11" s="328" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="288"/>
+      <c r="B11" s="312"/>
       <c r="C11" s="329" t="s">
         <v>312</v>
       </c>
-      <c r="D11" s="288"/>
-      <c r="E11" s="323">
+      <c r="D11" s="312"/>
+      <c r="E11" s="330">
         <f>смета!E304/1000</f>
         <v>159.85742968272996</v>
       </c>
@@ -14181,52 +14181,52 @@
       </c>
       <c r="G11" s="60">
         <f>смета!H304/1000</f>
-        <v>1161.6178276963694</v>
+        <v>1161.6536091363696</v>
       </c>
       <c r="H11" s="60">
         <f>смета!J305/1000</f>
         <v>123.46877017486037</v>
       </c>
-      <c r="I11" s="323"/>
-      <c r="J11" s="323"/>
+      <c r="I11" s="330"/>
+      <c r="J11" s="330"/>
       <c r="K11" s="61">
         <f>смета!J307/1000</f>
-        <v>1609.1685316440153</v>
+        <v>1609.2068320973913</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
-      <c r="A12" s="289"/>
-      <c r="B12" s="290"/>
-      <c r="C12" s="270"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="222"/>
+      <c r="A12" s="319"/>
+      <c r="B12" s="313"/>
+      <c r="C12" s="263"/>
+      <c r="D12" s="313"/>
+      <c r="E12" s="227"/>
       <c r="F12" s="62">
         <f>смета!G304/1000</f>
         <v>54.945580363999994</v>
       </c>
       <c r="G12" s="62">
         <f>смета!I304/1000</f>
-        <v>82.472668642363274</v>
+        <v>82.475187655739262</v>
       </c>
       <c r="H12" s="62">
         <f>смета!J306/1000</f>
         <v>136.48583258369223</v>
       </c>
-      <c r="I12" s="222"/>
-      <c r="J12" s="222"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="227"/>
       <c r="K12" s="63">
         <f>смета!J308+смета!J309</f>
         <v>31467.080581602</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="287"/>
-      <c r="B13" s="288"/>
-      <c r="C13" s="291" t="s">
+      <c r="A13" s="318"/>
+      <c r="B13" s="312"/>
+      <c r="C13" s="311" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="288"/>
-      <c r="E13" s="286">
+      <c r="D13" s="312"/>
+      <c r="E13" s="314">
         <f t="shared" ref="E13:H13" si="3">E11</f>
         <v>159.85742968272996</v>
       </c>
@@ -14236,69 +14236,69 @@
       </c>
       <c r="G13" s="64">
         <f t="shared" si="3"/>
-        <v>1161.6178276963694</v>
+        <v>1161.6536091363696</v>
       </c>
       <c r="H13" s="64">
         <f t="shared" si="3"/>
         <v>123.46877017486037</v>
       </c>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
+      <c r="I13" s="314"/>
+      <c r="J13" s="314"/>
       <c r="K13" s="65">
         <f t="shared" ref="K13" si="4">K11</f>
-        <v>1609.1685316440153</v>
+        <v>1609.2068320973913</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="289"/>
-      <c r="B14" s="290"/>
-      <c r="C14" s="270"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="222"/>
+      <c r="A14" s="319"/>
+      <c r="B14" s="313"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="313"/>
+      <c r="E14" s="227"/>
       <c r="F14" s="66">
         <f t="shared" ref="F14:H14" si="5">F12</f>
         <v>54.945580363999994</v>
       </c>
       <c r="G14" s="66">
         <f t="shared" si="5"/>
-        <v>82.472668642363274</v>
+        <v>82.475187655739262</v>
       </c>
       <c r="H14" s="66">
         <f t="shared" si="5"/>
         <v>136.48583258369223</v>
       </c>
-      <c r="I14" s="222"/>
-      <c r="J14" s="222"/>
+      <c r="I14" s="227"/>
+      <c r="J14" s="227"/>
       <c r="K14" s="67">
         <f>K12</f>
         <v>31467.080581602</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25">
-      <c r="A15" s="328" t="s">
+      <c r="A15" s="310" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="267"/>
-      <c r="I15" s="267"/>
-      <c r="J15" s="267"/>
-      <c r="K15" s="268"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="225"/>
     </row>
     <row r="16" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A16" s="287" t="s">
+      <c r="A16" s="318" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="288"/>
-      <c r="C16" s="291" t="s">
+      <c r="B16" s="312"/>
+      <c r="C16" s="311" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="288"/>
-      <c r="E16" s="286">
+      <c r="D16" s="312"/>
+      <c r="E16" s="314">
         <f>E11*12.8%</f>
         <v>20.461750999389434</v>
       </c>
@@ -14308,52 +14308,52 @@
       </c>
       <c r="G16" s="64">
         <f>G11*42.2%</f>
-        <v>490.20272328786797</v>
+        <v>490.21782305554802</v>
       </c>
       <c r="H16" s="64">
         <f>H11*14.1%</f>
         <v>17.40909659465531</v>
       </c>
-      <c r="I16" s="286"/>
-      <c r="J16" s="286"/>
+      <c r="I16" s="314"/>
+      <c r="J16" s="314"/>
       <c r="K16" s="65">
         <f t="shared" ref="K16:K17" si="6">K11*5/100</f>
-        <v>80.458426582200758</v>
+        <v>80.460341604869569</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="98.25" customHeight="1">
-      <c r="A17" s="289"/>
-      <c r="B17" s="290"/>
-      <c r="C17" s="270"/>
-      <c r="D17" s="290"/>
-      <c r="E17" s="222"/>
+      <c r="A17" s="319"/>
+      <c r="B17" s="313"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="313"/>
+      <c r="E17" s="227"/>
       <c r="F17" s="66">
         <f>F12*1.26%</f>
         <v>0.69231431258639997</v>
       </c>
       <c r="G17" s="66">
         <f>G12*3.9%</f>
-        <v>3.2164340770521678</v>
+        <v>3.2165323185738313</v>
       </c>
       <c r="H17" s="66">
         <f>H12*23.4%</f>
         <v>31.937684824583979</v>
       </c>
-      <c r="I17" s="222"/>
-      <c r="J17" s="222"/>
+      <c r="I17" s="227"/>
+      <c r="J17" s="227"/>
       <c r="K17" s="67">
         <f t="shared" si="6"/>
         <v>1573.3540290801</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="287"/>
-      <c r="B18" s="288"/>
-      <c r="C18" s="291" t="s">
+      <c r="A18" s="318"/>
+      <c r="B18" s="312"/>
+      <c r="C18" s="311" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="288"/>
-      <c r="E18" s="286">
+      <c r="D18" s="312"/>
+      <c r="E18" s="314">
         <f t="shared" ref="E18:H18" si="7">E16</f>
         <v>20.461750999389434</v>
       </c>
@@ -14363,1407 +14363,1407 @@
       </c>
       <c r="G18" s="64">
         <f t="shared" si="7"/>
-        <v>490.20272328786797</v>
+        <v>490.21782305554802</v>
       </c>
       <c r="H18" s="64">
         <f t="shared" si="7"/>
         <v>17.40909659465531</v>
       </c>
-      <c r="I18" s="286"/>
-      <c r="J18" s="286"/>
+      <c r="I18" s="314"/>
+      <c r="J18" s="314"/>
       <c r="K18" s="65">
         <f t="shared" ref="K18:K19" si="8">K16</f>
-        <v>80.458426582200758</v>
+        <v>80.460341604869569</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="289"/>
-      <c r="B19" s="290"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="290"/>
-      <c r="E19" s="222"/>
+      <c r="A19" s="319"/>
+      <c r="B19" s="313"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="313"/>
+      <c r="E19" s="227"/>
       <c r="F19" s="66">
         <f t="shared" ref="F19:H19" si="9">F17</f>
         <v>0.69231431258639997</v>
       </c>
       <c r="G19" s="66">
         <f t="shared" si="9"/>
-        <v>3.2164340770521678</v>
+        <v>3.2165323185738313</v>
       </c>
       <c r="H19" s="66">
         <f t="shared" si="9"/>
         <v>31.937684824583979</v>
       </c>
-      <c r="I19" s="222"/>
-      <c r="J19" s="222"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="227"/>
       <c r="K19" s="67">
         <f t="shared" si="8"/>
         <v>1573.3540290801</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25">
-      <c r="A20" s="328" t="s">
+      <c r="A20" s="310" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="267"/>
-      <c r="C20" s="267"/>
-      <c r="D20" s="267"/>
-      <c r="E20" s="267"/>
-      <c r="F20" s="267"/>
-      <c r="G20" s="267"/>
-      <c r="H20" s="267"/>
-      <c r="I20" s="267"/>
-      <c r="J20" s="267"/>
-      <c r="K20" s="268"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="225"/>
     </row>
     <row r="21" spans="1:11" ht="45" customHeight="1">
-      <c r="A21" s="287" t="s">
+      <c r="A21" s="318" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="288"/>
-      <c r="C21" s="291" t="s">
+      <c r="B21" s="312"/>
+      <c r="C21" s="311" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="288"/>
-      <c r="E21" s="286">
+      <c r="D21" s="312"/>
+      <c r="E21" s="314">
         <f>K21*12.8/100</f>
-        <v>8.2389428820173585</v>
+        <v>8.2391389803386446</v>
       </c>
       <c r="F21" s="64">
         <f>K21*3.6/100</f>
-        <v>2.317202685567382</v>
+        <v>2.3172578382202436</v>
       </c>
       <c r="G21" s="64">
         <f>K21*42.2/100</f>
-        <v>27.162764814150979</v>
+        <v>27.163411325803963</v>
       </c>
       <c r="H21" s="64">
         <f>K21*14.1/100</f>
-        <v>9.0757105184722455</v>
-      </c>
-      <c r="I21" s="286"/>
-      <c r="J21" s="286"/>
+        <v>9.0759265330292855</v>
+      </c>
+      <c r="I21" s="314"/>
+      <c r="J21" s="314"/>
       <c r="K21" s="65">
         <f t="shared" ref="K21:K22" si="10">4/100*K11</f>
-        <v>64.366741265760609</v>
+        <v>64.368273283895647</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A22" s="289"/>
-      <c r="B22" s="290"/>
-      <c r="C22" s="270"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="222"/>
+      <c r="A22" s="319"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="313"/>
+      <c r="E22" s="227"/>
       <c r="F22" s="66">
         <f>K21*1.26/100</f>
-        <v>0.8110209399485836</v>
+        <v>0.81104024337708513</v>
       </c>
       <c r="G22" s="66">
         <f>K21*3.9/100</f>
-        <v>2.5103029093646638</v>
+        <v>2.51036265807193</v>
       </c>
       <c r="H22" s="66">
         <f>K21*23.4/100</f>
-        <v>15.061817456187983</v>
-      </c>
-      <c r="I22" s="222"/>
-      <c r="J22" s="222"/>
+        <v>15.06217594843158</v>
+      </c>
+      <c r="I22" s="227"/>
+      <c r="J22" s="227"/>
       <c r="K22" s="67">
         <f t="shared" si="10"/>
         <v>1258.68322326408</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="287"/>
-      <c r="B23" s="288"/>
-      <c r="C23" s="291" t="s">
+      <c r="A23" s="318"/>
+      <c r="B23" s="312"/>
+      <c r="C23" s="311" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="288"/>
-      <c r="E23" s="286">
+      <c r="D23" s="312"/>
+      <c r="E23" s="314">
         <f t="shared" ref="E23:H23" si="11">E21</f>
-        <v>8.2389428820173585</v>
+        <v>8.2391389803386446</v>
       </c>
       <c r="F23" s="64">
         <f t="shared" si="11"/>
-        <v>2.317202685567382</v>
+        <v>2.3172578382202436</v>
       </c>
       <c r="G23" s="64">
         <f t="shared" si="11"/>
-        <v>27.162764814150979</v>
+        <v>27.163411325803963</v>
       </c>
       <c r="H23" s="64">
         <f t="shared" si="11"/>
-        <v>9.0757105184722455</v>
-      </c>
-      <c r="I23" s="286"/>
-      <c r="J23" s="286"/>
+        <v>9.0759265330292855</v>
+      </c>
+      <c r="I23" s="314"/>
+      <c r="J23" s="314"/>
       <c r="K23" s="65">
         <f t="shared" ref="K23:K24" si="12">K21</f>
-        <v>64.366741265760609</v>
+        <v>64.368273283895647</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="289"/>
-      <c r="B24" s="290"/>
-      <c r="C24" s="270"/>
-      <c r="D24" s="290"/>
-      <c r="E24" s="222"/>
+      <c r="A24" s="319"/>
+      <c r="B24" s="313"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="313"/>
+      <c r="E24" s="227"/>
       <c r="F24" s="66">
         <f t="shared" ref="F24:H24" si="13">F22</f>
-        <v>0.8110209399485836</v>
+        <v>0.81104024337708513</v>
       </c>
       <c r="G24" s="66">
         <f t="shared" si="13"/>
-        <v>2.5103029093646638</v>
+        <v>2.51036265807193</v>
       </c>
       <c r="H24" s="66">
         <f t="shared" si="13"/>
-        <v>15.061817456187983</v>
-      </c>
-      <c r="I24" s="222"/>
-      <c r="J24" s="222"/>
+        <v>15.06217594843158</v>
+      </c>
+      <c r="I24" s="227"/>
+      <c r="J24" s="227"/>
       <c r="K24" s="67">
         <f t="shared" si="12"/>
         <v>1258.68322326408</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="287"/>
-      <c r="B25" s="288"/>
-      <c r="C25" s="291" t="s">
+      <c r="A25" s="318"/>
+      <c r="B25" s="312"/>
+      <c r="C25" s="311" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="288"/>
-      <c r="E25" s="286">
+      <c r="D25" s="312"/>
+      <c r="E25" s="314">
         <f t="shared" ref="E25:H25" si="14">E23+E18+E13+E8</f>
-        <v>189.58799142438892</v>
+        <v>189.58821203500037</v>
       </c>
       <c r="F25" s="64">
         <f t="shared" si="14"/>
-        <v>262.35160937363128</v>
+        <v>262.35167142036573</v>
       </c>
       <c r="G25" s="64">
         <f t="shared" si="14"/>
-        <v>1682.3786614001574</v>
+        <v>1682.4302699334471</v>
       </c>
       <c r="H25" s="64">
         <f t="shared" si="14"/>
-        <v>151.08804110279695</v>
-      </c>
-      <c r="I25" s="286"/>
-      <c r="J25" s="286"/>
+        <v>151.08828411917364</v>
+      </c>
+      <c r="I25" s="314"/>
+      <c r="J25" s="314"/>
       <c r="K25" s="64">
         <f t="shared" ref="K25" si="15">K23+K18+K13+K8</f>
-        <v>1762.0395421501969</v>
+        <v>1762.0814811466435</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="289"/>
-      <c r="B26" s="290"/>
-      <c r="C26" s="270"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="222"/>
+      <c r="A26" s="319"/>
+      <c r="B26" s="313"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="313"/>
+      <c r="E26" s="227"/>
       <c r="F26" s="64">
         <f t="shared" ref="F26:H26" si="16">F24+F19+F14+F9</f>
-        <v>56.550293234028551</v>
+        <v>56.550314950385612</v>
       </c>
       <c r="G26" s="64">
         <f t="shared" si="16"/>
-        <v>88.513193492450696</v>
+        <v>88.515877964644019</v>
       </c>
       <c r="H26" s="64">
         <f t="shared" si="16"/>
-        <v>185.36806204648769</v>
-      </c>
-      <c r="I26" s="222"/>
-      <c r="J26" s="222"/>
+        <v>185.36846535026172</v>
+      </c>
+      <c r="I26" s="227"/>
+      <c r="J26" s="227"/>
       <c r="K26" s="64">
         <f>K24+K19+K14+K9</f>
         <v>34928.459445578213</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="307" t="s">
+      <c r="A27" s="347" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="267"/>
-      <c r="C27" s="267"/>
-      <c r="D27" s="267"/>
-      <c r="E27" s="267"/>
-      <c r="F27" s="267"/>
-      <c r="G27" s="267"/>
-      <c r="H27" s="267"/>
-      <c r="I27" s="267"/>
-      <c r="J27" s="267"/>
-      <c r="K27" s="268"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="225"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="299" t="s">
+      <c r="A28" s="343" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="300"/>
-      <c r="C28" s="301" t="s">
+      <c r="B28" s="344"/>
+      <c r="C28" s="345" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="300"/>
-      <c r="E28" s="285">
+      <c r="D28" s="344"/>
+      <c r="E28" s="346">
         <f>K28*0.3/100</f>
-        <v>4.5781720946465647E-2</v>
+        <v>4.5781766019281786E-2</v>
       </c>
       <c r="F28" s="68">
         <f>K28*0.1/100</f>
-        <v>1.5260573648821883E-2</v>
+        <v>1.5260588673093932E-2</v>
       </c>
       <c r="G28" s="68">
         <f>K28*0.6</f>
-        <v>9.1563441892931294</v>
+        <v>9.1563532038563569</v>
       </c>
       <c r="H28" s="68"/>
-      <c r="I28" s="285"/>
-      <c r="J28" s="285"/>
+      <c r="I28" s="346"/>
+      <c r="J28" s="346"/>
       <c r="K28" s="68">
         <f>(E25+F26)*6.2/100</f>
-        <v>15.260573648821882</v>
+        <v>15.260588673093929</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="297"/>
+      <c r="A29" s="285"/>
       <c r="B29" s="281"/>
-      <c r="C29" s="297"/>
+      <c r="C29" s="285"/>
       <c r="D29" s="281"/>
-      <c r="E29" s="250"/>
+      <c r="E29" s="261"/>
       <c r="F29" s="69">
         <f>F28*0.2</f>
-        <v>3.0521147297643768E-3</v>
+        <v>3.0521177346187864E-3</v>
       </c>
       <c r="G29" s="69"/>
       <c r="H29" s="69"/>
-      <c r="I29" s="250"/>
-      <c r="J29" s="250"/>
+      <c r="I29" s="261"/>
+      <c r="J29" s="261"/>
       <c r="K29" s="69">
         <f>K28*0.031</f>
-        <v>0.47307778311347837</v>
+        <v>0.47307824886591182</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="298"/>
-      <c r="B30" s="296"/>
-      <c r="C30" s="298" t="s">
+      <c r="A30" s="288"/>
+      <c r="B30" s="284"/>
+      <c r="C30" s="288" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="296"/>
-      <c r="E30" s="283"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="316"/>
       <c r="F30" s="69">
         <f>K28*15%</f>
-        <v>2.2890860473232824</v>
+        <v>2.2890883009640892</v>
       </c>
       <c r="G30" s="69"/>
       <c r="H30" s="69"/>
-      <c r="I30" s="283"/>
-      <c r="J30" s="283"/>
+      <c r="I30" s="316"/>
+      <c r="J30" s="316"/>
       <c r="K30" s="69">
         <f>K28*15%</f>
-        <v>2.2890860473232824</v>
+        <v>2.2890883009640892</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="228"/>
-      <c r="B31" s="305"/>
-      <c r="C31" s="228"/>
-      <c r="D31" s="305"/>
-      <c r="E31" s="284"/>
+      <c r="A31" s="232"/>
+      <c r="B31" s="315"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="315"/>
+      <c r="E31" s="317"/>
       <c r="F31" s="70"/>
       <c r="G31" s="70"/>
       <c r="H31" s="70"/>
-      <c r="I31" s="284"/>
-      <c r="J31" s="284"/>
+      <c r="I31" s="317"/>
+      <c r="J31" s="317"/>
       <c r="K31" s="70"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="287"/>
-      <c r="B32" s="288"/>
-      <c r="C32" s="291" t="s">
+      <c r="A32" s="318"/>
+      <c r="B32" s="312"/>
+      <c r="C32" s="311" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="288"/>
-      <c r="E32" s="286">
+      <c r="D32" s="312"/>
+      <c r="E32" s="314">
         <f>E28</f>
-        <v>4.5781720946465647E-2</v>
+        <v>4.5781766019281786E-2</v>
       </c>
       <c r="F32" s="64">
         <f>F28+F30</f>
-        <v>2.3043466209721042</v>
+        <v>2.3043488896371831</v>
       </c>
       <c r="G32" s="64">
         <f>G28</f>
-        <v>9.1563441892931294</v>
+        <v>9.1563532038563569</v>
       </c>
       <c r="H32" s="64"/>
-      <c r="I32" s="286"/>
-      <c r="J32" s="286"/>
+      <c r="I32" s="314"/>
+      <c r="J32" s="314"/>
       <c r="K32" s="65">
         <f>K28+K30</f>
-        <v>17.549659696145163</v>
+        <v>17.54967697405802</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="289"/>
-      <c r="B33" s="290"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="222"/>
+      <c r="A33" s="319"/>
+      <c r="B33" s="313"/>
+      <c r="C33" s="263"/>
+      <c r="D33" s="313"/>
+      <c r="E33" s="227"/>
       <c r="F33" s="66">
         <f>F29</f>
-        <v>3.0521147297643768E-3</v>
+        <v>3.0521177346187864E-3</v>
       </c>
       <c r="G33" s="66"/>
       <c r="H33" s="66"/>
-      <c r="I33" s="222"/>
-      <c r="J33" s="222"/>
+      <c r="I33" s="227"/>
+      <c r="J33" s="227"/>
       <c r="K33" s="67">
         <f>K29</f>
-        <v>0.47307778311347837</v>
+        <v>0.47307824886591182</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="287"/>
-      <c r="B34" s="288"/>
-      <c r="C34" s="291" t="s">
+      <c r="A34" s="318"/>
+      <c r="B34" s="312"/>
+      <c r="C34" s="311" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="288"/>
-      <c r="E34" s="286">
+      <c r="D34" s="312"/>
+      <c r="E34" s="314">
         <f t="shared" ref="E34:H34" si="17">E32+E25</f>
-        <v>189.6337731453354</v>
+        <v>189.63399380101964</v>
       </c>
       <c r="F34" s="64">
         <f t="shared" si="17"/>
-        <v>264.6559559946034</v>
+        <v>264.65602031000293</v>
       </c>
       <c r="G34" s="64">
         <f t="shared" si="17"/>
-        <v>1691.5350055894505</v>
+        <v>1691.5866231373034</v>
       </c>
       <c r="H34" s="64">
         <f t="shared" si="17"/>
-        <v>151.08804110279695</v>
-      </c>
-      <c r="I34" s="286"/>
-      <c r="J34" s="286"/>
+        <v>151.08828411917364</v>
+      </c>
+      <c r="I34" s="314"/>
+      <c r="J34" s="314"/>
       <c r="K34" s="65">
         <f>K32+K25</f>
-        <v>1779.5892018463421</v>
+        <v>1779.6311581207015</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="289"/>
-      <c r="B35" s="290"/>
-      <c r="C35" s="270"/>
-      <c r="D35" s="290"/>
-      <c r="E35" s="222"/>
+      <c r="A35" s="319"/>
+      <c r="B35" s="313"/>
+      <c r="C35" s="263"/>
+      <c r="D35" s="313"/>
+      <c r="E35" s="227"/>
       <c r="F35" s="66">
         <f t="shared" ref="F35:H35" si="18">F26+F33</f>
-        <v>56.553345348758313</v>
+        <v>56.553367068120231</v>
       </c>
       <c r="G35" s="66">
         <f t="shared" si="18"/>
-        <v>88.513193492450696</v>
+        <v>88.515877964644019</v>
       </c>
       <c r="H35" s="66">
         <f t="shared" si="18"/>
-        <v>185.36806204648769</v>
-      </c>
-      <c r="I35" s="222"/>
-      <c r="J35" s="222"/>
+        <v>185.36846535026172</v>
+      </c>
+      <c r="I35" s="227"/>
+      <c r="J35" s="227"/>
       <c r="K35" s="67">
         <f>K26+K33</f>
-        <v>34928.932523361327</v>
+        <v>34928.932523827076</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="292" t="s">
+      <c r="A36" s="320" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="293"/>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
-      <c r="E36" s="293"/>
-      <c r="F36" s="293"/>
-      <c r="G36" s="293"/>
-      <c r="H36" s="293"/>
-      <c r="I36" s="293"/>
-      <c r="J36" s="293"/>
-      <c r="K36" s="294"/>
+      <c r="B36" s="321"/>
+      <c r="C36" s="321"/>
+      <c r="D36" s="321"/>
+      <c r="E36" s="321"/>
+      <c r="F36" s="321"/>
+      <c r="G36" s="321"/>
+      <c r="H36" s="321"/>
+      <c r="I36" s="321"/>
+      <c r="J36" s="321"/>
+      <c r="K36" s="296"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="295" t="s">
+      <c r="A37" s="290" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="296"/>
-      <c r="C37" s="298" t="s">
+      <c r="B37" s="284"/>
+      <c r="C37" s="288" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="296"/>
-      <c r="E37" s="283">
+      <c r="D37" s="284"/>
+      <c r="E37" s="316">
         <f>K37*0.458</f>
-        <v>4.3773577137251483</v>
+        <v>4.3773620233018828</v>
       </c>
       <c r="F37" s="69">
         <f>K37*0.405</f>
-        <v>3.8708075852809718</v>
+        <v>3.870811396151228</v>
       </c>
       <c r="G37" s="69">
         <f>K37*0.137</f>
-        <v>1.3093842942802301</v>
+        <v>1.3093855833894279</v>
       </c>
       <c r="H37" s="69"/>
-      <c r="I37" s="283"/>
-      <c r="J37" s="283"/>
+      <c r="I37" s="316"/>
+      <c r="J37" s="316"/>
       <c r="K37" s="69">
         <f>(E25+F26)*3.53/100*1.1</f>
-        <v>9.5575495932863497</v>
+        <v>9.5575590028425381</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="297"/>
+      <c r="A38" s="285"/>
       <c r="B38" s="281"/>
-      <c r="C38" s="297"/>
+      <c r="C38" s="285"/>
       <c r="D38" s="281"/>
-      <c r="E38" s="250"/>
+      <c r="E38" s="261"/>
       <c r="F38" s="69">
         <f>K37*0.14</f>
-        <v>1.338056943060089</v>
+        <v>1.3380582603979554</v>
       </c>
       <c r="G38" s="69"/>
       <c r="H38" s="69"/>
-      <c r="I38" s="250"/>
-      <c r="J38" s="250"/>
+      <c r="I38" s="261"/>
+      <c r="J38" s="261"/>
       <c r="K38" s="69">
         <f>K37</f>
-        <v>9.5575495932863497</v>
+        <v>9.5575590028425381</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="295" t="s">
+      <c r="A39" s="290" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="296"/>
-      <c r="C39" s="298" t="s">
+      <c r="B39" s="284"/>
+      <c r="C39" s="288" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="296"/>
-      <c r="E39" s="283"/>
+      <c r="D39" s="284"/>
+      <c r="E39" s="316"/>
       <c r="F39" s="69"/>
       <c r="G39" s="69"/>
       <c r="H39" s="69"/>
-      <c r="I39" s="283"/>
-      <c r="J39" s="283">
+      <c r="I39" s="316"/>
+      <c r="J39" s="316">
         <f>K39</f>
-        <v>83.687016783861949</v>
+        <v>83.687099175031236</v>
       </c>
       <c r="K39" s="69">
         <f>(E25+F26)*34%</f>
-        <v>83.687016783861949</v>
+        <v>83.687099175031236</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="297"/>
+      <c r="A40" s="285"/>
       <c r="B40" s="281"/>
-      <c r="C40" s="297"/>
+      <c r="C40" s="285"/>
       <c r="D40" s="281"/>
-      <c r="E40" s="250"/>
+      <c r="E40" s="261"/>
       <c r="F40" s="69"/>
       <c r="G40" s="69"/>
       <c r="H40" s="69"/>
-      <c r="I40" s="250"/>
-      <c r="J40" s="250"/>
+      <c r="I40" s="261"/>
+      <c r="J40" s="261"/>
       <c r="K40" s="69"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="295" t="s">
+      <c r="A41" s="290" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="296"/>
-      <c r="C41" s="298" t="s">
+      <c r="B41" s="284"/>
+      <c r="C41" s="288" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="296"/>
-      <c r="E41" s="283"/>
+      <c r="D41" s="284"/>
+      <c r="E41" s="316"/>
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="283"/>
-      <c r="J41" s="283">
+      <c r="I41" s="316"/>
+      <c r="J41" s="316">
         <f>K41</f>
-        <v>5.4455429576498062</v>
+        <v>5.4456713438493463</v>
       </c>
       <c r="K41" s="69">
         <f>K34*0.306%</f>
-        <v>5.4455429576498062</v>
+        <v>5.4456713438493463</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="228"/>
-      <c r="B42" s="305"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="305"/>
-      <c r="E42" s="284"/>
+      <c r="A42" s="232"/>
+      <c r="B42" s="315"/>
+      <c r="C42" s="232"/>
+      <c r="D42" s="315"/>
+      <c r="E42" s="317"/>
       <c r="F42" s="70"/>
       <c r="G42" s="70"/>
       <c r="H42" s="70"/>
-      <c r="I42" s="284"/>
-      <c r="J42" s="284"/>
+      <c r="I42" s="317"/>
+      <c r="J42" s="317"/>
       <c r="K42" s="70"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="287"/>
-      <c r="B43" s="288"/>
-      <c r="C43" s="291" t="s">
+      <c r="A43" s="318"/>
+      <c r="B43" s="312"/>
+      <c r="C43" s="311" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="288"/>
-      <c r="E43" s="286">
+      <c r="D43" s="312"/>
+      <c r="E43" s="314">
         <f t="shared" ref="E43:G43" si="19">E37</f>
-        <v>4.3773577137251483</v>
+        <v>4.3773620233018828</v>
       </c>
       <c r="F43" s="64">
         <f t="shared" si="19"/>
-        <v>3.8708075852809718</v>
+        <v>3.870811396151228</v>
       </c>
       <c r="G43" s="64">
         <f t="shared" si="19"/>
-        <v>1.3093842942802301</v>
+        <v>1.3093855833894279</v>
       </c>
       <c r="H43" s="64"/>
-      <c r="I43" s="286"/>
-      <c r="J43" s="286">
+      <c r="I43" s="314"/>
+      <c r="J43" s="314">
         <f>J41+J39</f>
-        <v>89.132559741511756</v>
+        <v>89.132770518880577</v>
       </c>
       <c r="K43" s="65">
         <f>K37+K39+K41</f>
-        <v>98.690109334798109</v>
+        <v>98.690329521723115</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="289"/>
-      <c r="B44" s="290"/>
-      <c r="C44" s="270"/>
-      <c r="D44" s="290"/>
-      <c r="E44" s="222"/>
+      <c r="A44" s="319"/>
+      <c r="B44" s="313"/>
+      <c r="C44" s="263"/>
+      <c r="D44" s="313"/>
+      <c r="E44" s="227"/>
       <c r="F44" s="66">
         <f>F38</f>
-        <v>1.338056943060089</v>
+        <v>1.3380582603979554</v>
       </c>
       <c r="G44" s="66"/>
       <c r="H44" s="66"/>
-      <c r="I44" s="222"/>
-      <c r="J44" s="222"/>
+      <c r="I44" s="227"/>
+      <c r="J44" s="227"/>
       <c r="K44" s="67">
         <f>K38</f>
-        <v>9.5575495932863497</v>
+        <v>9.5575590028425381</v>
       </c>
       <c r="L44" s="71">
         <f>K44/8</f>
-        <v>1.1946936991607937</v>
+        <v>1.1946948753553173</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="287"/>
-      <c r="B45" s="288"/>
-      <c r="C45" s="291" t="s">
+      <c r="A45" s="318"/>
+      <c r="B45" s="312"/>
+      <c r="C45" s="311" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="288"/>
-      <c r="E45" s="286">
+      <c r="D45" s="312"/>
+      <c r="E45" s="314">
         <f t="shared" ref="E45:F45" si="20">E43+E34</f>
-        <v>194.01113085906056</v>
+        <v>194.01135582432153</v>
       </c>
       <c r="F45" s="64">
         <f t="shared" si="20"/>
-        <v>268.5267635798844</v>
+        <v>268.52683170615416</v>
       </c>
       <c r="G45" s="64">
         <f>G34+G43</f>
-        <v>1692.8443898837309</v>
+        <v>1692.8960087206929</v>
       </c>
       <c r="H45" s="64">
         <f>H34</f>
-        <v>151.08804110279695</v>
-      </c>
-      <c r="I45" s="286"/>
-      <c r="J45" s="286">
+        <v>151.08828411917364</v>
+      </c>
+      <c r="I45" s="314"/>
+      <c r="J45" s="314">
         <f>J43</f>
-        <v>89.132559741511756</v>
+        <v>89.132770518880577</v>
       </c>
       <c r="K45" s="65">
         <f t="shared" ref="K45" si="21">K43+K34</f>
-        <v>1878.2793111811402</v>
+        <v>1878.3214876424245</v>
       </c>
       <c r="L45" s="72">
         <f>K45-J45</f>
-        <v>1789.1467514396284</v>
+        <v>1789.1887171235439</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="289"/>
-      <c r="B46" s="290"/>
-      <c r="C46" s="270"/>
-      <c r="D46" s="290"/>
-      <c r="E46" s="222"/>
+      <c r="A46" s="319"/>
+      <c r="B46" s="313"/>
+      <c r="C46" s="263"/>
+      <c r="D46" s="313"/>
+      <c r="E46" s="227"/>
       <c r="F46" s="66">
         <f>F44+F35</f>
-        <v>57.891402291818402</v>
+        <v>57.891425328518189</v>
       </c>
       <c r="G46" s="66">
         <f t="shared" ref="G46:H46" si="22">G35</f>
-        <v>88.513193492450696</v>
+        <v>88.515877964644019</v>
       </c>
       <c r="H46" s="66">
         <f t="shared" si="22"/>
-        <v>185.36806204648769</v>
-      </c>
-      <c r="I46" s="222"/>
-      <c r="J46" s="222"/>
+        <v>185.36846535026172</v>
+      </c>
+      <c r="I46" s="227"/>
+      <c r="J46" s="227"/>
       <c r="K46" s="67">
         <f>K44+K35</f>
-        <v>34938.490072954613</v>
+        <v>34938.490082829921</v>
       </c>
       <c r="L46" s="71">
         <f>K46/8</f>
-        <v>4367.3112591193267</v>
+        <v>4367.3112603537402</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="292" t="s">
+      <c r="A47" s="320" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="293"/>
-      <c r="C47" s="293"/>
-      <c r="D47" s="293"/>
-      <c r="E47" s="293"/>
-      <c r="F47" s="293"/>
-      <c r="G47" s="293"/>
-      <c r="H47" s="293"/>
-      <c r="I47" s="293"/>
-      <c r="J47" s="293"/>
-      <c r="K47" s="294"/>
+      <c r="B47" s="321"/>
+      <c r="C47" s="321"/>
+      <c r="D47" s="321"/>
+      <c r="E47" s="321"/>
+      <c r="F47" s="321"/>
+      <c r="G47" s="321"/>
+      <c r="H47" s="321"/>
+      <c r="I47" s="321"/>
+      <c r="J47" s="321"/>
+      <c r="K47" s="296"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="295" t="s">
+      <c r="A48" s="290" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="296"/>
-      <c r="C48" s="298" t="s">
+      <c r="B48" s="284"/>
+      <c r="C48" s="288" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="296"/>
-      <c r="E48" s="283"/>
+      <c r="D48" s="284"/>
+      <c r="E48" s="316"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
-      <c r="I48" s="283"/>
-      <c r="J48" s="283">
+      <c r="I48" s="316"/>
+      <c r="J48" s="316">
         <f>K48</f>
-        <v>33.809027601260524</v>
+        <v>33.809786777563644</v>
       </c>
       <c r="K48" s="69">
         <f>K45*1.8%</f>
-        <v>33.809027601260524</v>
+        <v>33.809786777563644</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A49" s="297"/>
+      <c r="A49" s="285"/>
       <c r="B49" s="281"/>
-      <c r="C49" s="297"/>
+      <c r="C49" s="285"/>
       <c r="D49" s="281"/>
-      <c r="E49" s="250"/>
+      <c r="E49" s="261"/>
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
-      <c r="I49" s="250"/>
-      <c r="J49" s="250"/>
+      <c r="I49" s="261"/>
+      <c r="J49" s="261"/>
       <c r="K49" s="69"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="295" t="s">
+      <c r="A50" s="290" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="296"/>
-      <c r="C50" s="298" t="s">
+      <c r="B50" s="284"/>
+      <c r="C50" s="288" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="296"/>
-      <c r="E50" s="283"/>
+      <c r="D50" s="284"/>
+      <c r="E50" s="316"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
-      <c r="I50" s="283"/>
-      <c r="J50" s="283">
+      <c r="I50" s="316"/>
+      <c r="J50" s="316">
         <f>K50</f>
-        <v>2.4473054904498248</v>
+        <v>2.4473552448075639</v>
       </c>
       <c r="K50" s="69">
         <f>((E45+F45+F46+H45+H46+J45+G45+G46)-(E8+F8+F9+H8+H9+G8+G9))*0.09%</f>
-        <v>2.4473054904498248</v>
+        <v>2.4473552448075639</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="297"/>
+      <c r="A51" s="285"/>
       <c r="B51" s="281"/>
-      <c r="C51" s="297"/>
+      <c r="C51" s="285"/>
       <c r="D51" s="281"/>
-      <c r="E51" s="250"/>
+      <c r="E51" s="261"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
-      <c r="I51" s="250"/>
-      <c r="J51" s="250"/>
+      <c r="I51" s="261"/>
+      <c r="J51" s="261"/>
       <c r="K51" s="69"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="295" t="s">
+      <c r="A52" s="290" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="296"/>
-      <c r="C52" s="298" t="s">
+      <c r="B52" s="284"/>
+      <c r="C52" s="288" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="296"/>
-      <c r="E52" s="283"/>
+      <c r="D52" s="284"/>
+      <c r="E52" s="316"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="69"/>
-      <c r="I52" s="283"/>
-      <c r="J52" s="283">
+      <c r="I52" s="316"/>
+      <c r="J52" s="316">
         <f>K52</f>
-        <v>5.2764859665124586</v>
+        <v>5.2765964980275335</v>
       </c>
       <c r="K52" s="69">
         <f>(E45+F45+F46+G45+G46+H45+H46)*0.2%</f>
-        <v>5.2764859665124586</v>
+        <v>5.2765964980275335</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="297"/>
+      <c r="A53" s="285"/>
       <c r="B53" s="281"/>
-      <c r="C53" s="297"/>
+      <c r="C53" s="285"/>
       <c r="D53" s="281"/>
-      <c r="E53" s="250"/>
+      <c r="E53" s="261"/>
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="69"/>
-      <c r="I53" s="250"/>
-      <c r="J53" s="250"/>
+      <c r="I53" s="261"/>
+      <c r="J53" s="261"/>
       <c r="K53" s="69"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="295" t="s">
+      <c r="A54" s="290" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="296"/>
-      <c r="C54" s="298" t="s">
+      <c r="B54" s="284"/>
+      <c r="C54" s="288" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="296"/>
-      <c r="E54" s="283"/>
+      <c r="D54" s="284"/>
+      <c r="E54" s="316"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
       <c r="H54" s="69"/>
-      <c r="I54" s="283"/>
-      <c r="J54" s="283">
+      <c r="I54" s="316"/>
+      <c r="J54" s="316">
         <f>K54</f>
-        <v>93.913965559057019</v>
+        <v>93.916074382121224</v>
       </c>
       <c r="K54" s="69">
         <f>K45*5%</f>
-        <v>93.913965559057019</v>
+        <v>93.916074382121224</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="297"/>
+      <c r="A55" s="285"/>
       <c r="B55" s="281"/>
-      <c r="C55" s="297"/>
+      <c r="C55" s="285"/>
       <c r="D55" s="281"/>
-      <c r="E55" s="250"/>
+      <c r="E55" s="261"/>
       <c r="F55" s="69"/>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
-      <c r="I55" s="250"/>
-      <c r="J55" s="250"/>
+      <c r="I55" s="261"/>
+      <c r="J55" s="261"/>
       <c r="K55" s="69"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="295" t="s">
+      <c r="A56" s="290" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="296"/>
-      <c r="C56" s="298" t="s">
+      <c r="B56" s="284"/>
+      <c r="C56" s="288" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="296"/>
-      <c r="E56" s="283"/>
+      <c r="D56" s="284"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
       <c r="H56" s="69"/>
-      <c r="I56" s="283"/>
-      <c r="J56" s="283">
+      <c r="I56" s="316"/>
+      <c r="J56" s="316">
         <f>K56</f>
-        <v>15.026234489449124</v>
+        <v>15.026571901139397</v>
       </c>
       <c r="K56" s="69">
         <f>K54*16%</f>
-        <v>15.026234489449124</v>
+        <v>15.026571901139397</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A57" s="228"/>
-      <c r="B57" s="305"/>
-      <c r="C57" s="228"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="284"/>
+      <c r="A57" s="232"/>
+      <c r="B57" s="315"/>
+      <c r="C57" s="232"/>
+      <c r="D57" s="315"/>
+      <c r="E57" s="317"/>
       <c r="F57" s="70"/>
       <c r="G57" s="70"/>
       <c r="H57" s="70"/>
-      <c r="I57" s="284"/>
-      <c r="J57" s="284"/>
+      <c r="I57" s="317"/>
+      <c r="J57" s="317"/>
       <c r="K57" s="70"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A58" s="302" t="s">
+      <c r="A58" s="287" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="296"/>
-      <c r="C58" s="298" t="s">
+      <c r="B58" s="284"/>
+      <c r="C58" s="288" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="296"/>
-      <c r="E58" s="283"/>
+      <c r="D58" s="284"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="69"/>
       <c r="G58" s="69"/>
       <c r="H58" s="69"/>
-      <c r="I58" s="283"/>
-      <c r="J58" s="283">
+      <c r="I58" s="316"/>
+      <c r="J58" s="316">
         <f>K58</f>
-        <v>4.0808879146455466</v>
+        <v>4.0809709348925995</v>
       </c>
       <c r="K58" s="69">
         <f>0.15/100*(E34+F34+F35+G34+G35+H34+H35+K39+K37)</f>
-        <v>4.0808879146455466</v>
+        <v>4.0809709348925995</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A59" s="297"/>
+      <c r="A59" s="285"/>
       <c r="B59" s="281"/>
-      <c r="C59" s="297"/>
+      <c r="C59" s="285"/>
       <c r="D59" s="281"/>
-      <c r="E59" s="250"/>
+      <c r="E59" s="261"/>
       <c r="F59" s="69"/>
       <c r="G59" s="69"/>
       <c r="H59" s="69"/>
-      <c r="I59" s="250"/>
-      <c r="J59" s="250"/>
+      <c r="I59" s="261"/>
+      <c r="J59" s="261"/>
       <c r="K59" s="69"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A60" s="303" t="s">
+      <c r="A60" s="348" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="300"/>
-      <c r="C60" s="301" t="s">
+      <c r="B60" s="344"/>
+      <c r="C60" s="345" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="300"/>
-      <c r="E60" s="285"/>
+      <c r="D60" s="344"/>
+      <c r="E60" s="346"/>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
       <c r="H60" s="68"/>
-      <c r="I60" s="285"/>
-      <c r="J60" s="285">
+      <c r="I60" s="346"/>
+      <c r="J60" s="346">
         <f>J56+J54+J52+J50+J48+J58</f>
-        <v>154.5539070213745</v>
+        <v>154.55735573855196</v>
       </c>
       <c r="K60" s="73">
         <f>K48+K50+K52+K54+K56+K58</f>
-        <v>154.5539070213745</v>
+        <v>154.55735573855196</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A61" s="289"/>
-      <c r="B61" s="290"/>
-      <c r="C61" s="270"/>
-      <c r="D61" s="290"/>
-      <c r="E61" s="222"/>
+      <c r="A61" s="319"/>
+      <c r="B61" s="313"/>
+      <c r="C61" s="263"/>
+      <c r="D61" s="313"/>
+      <c r="E61" s="227"/>
       <c r="F61" s="66"/>
       <c r="G61" s="66"/>
       <c r="H61" s="66"/>
-      <c r="I61" s="222"/>
-      <c r="J61" s="222"/>
+      <c r="I61" s="227"/>
+      <c r="J61" s="227"/>
       <c r="K61" s="67"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A62" s="304" t="s">
+      <c r="A62" s="349" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="288"/>
-      <c r="C62" s="291" t="s">
+      <c r="B62" s="312"/>
+      <c r="C62" s="311" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="288"/>
-      <c r="E62" s="286">
+      <c r="D62" s="312"/>
+      <c r="E62" s="314">
         <f t="shared" ref="E62:H62" si="23">E45</f>
-        <v>194.01113085906056</v>
+        <v>194.01135582432153</v>
       </c>
       <c r="F62" s="64">
         <f t="shared" si="23"/>
-        <v>268.5267635798844</v>
+        <v>268.52683170615416</v>
       </c>
       <c r="G62" s="64">
         <f t="shared" si="23"/>
-        <v>1692.8443898837309</v>
+        <v>1692.8960087206929</v>
       </c>
       <c r="H62" s="64">
         <f t="shared" si="23"/>
-        <v>151.08804110279695</v>
-      </c>
-      <c r="I62" s="286"/>
-      <c r="J62" s="286">
+        <v>151.08828411917364</v>
+      </c>
+      <c r="I62" s="314"/>
+      <c r="J62" s="314">
         <f t="shared" ref="J62:K62" si="24">J60+J45</f>
-        <v>243.68646676288625</v>
+        <v>243.69012625743255</v>
       </c>
       <c r="K62" s="65">
         <f t="shared" si="24"/>
-        <v>2032.8332182025147</v>
+        <v>2032.8788433809764</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A63" s="289"/>
-      <c r="B63" s="290"/>
-      <c r="C63" s="270"/>
-      <c r="D63" s="290"/>
-      <c r="E63" s="222"/>
+      <c r="A63" s="319"/>
+      <c r="B63" s="313"/>
+      <c r="C63" s="263"/>
+      <c r="D63" s="313"/>
+      <c r="E63" s="227"/>
       <c r="F63" s="66">
         <f t="shared" ref="F63:H63" si="25">F46</f>
-        <v>57.891402291818402</v>
+        <v>57.891425328518189</v>
       </c>
       <c r="G63" s="66">
         <f t="shared" si="25"/>
-        <v>88.513193492450696</v>
+        <v>88.515877964644019</v>
       </c>
       <c r="H63" s="66">
         <f t="shared" si="25"/>
-        <v>185.36806204648769</v>
-      </c>
-      <c r="I63" s="222"/>
-      <c r="J63" s="222"/>
+        <v>185.36846535026172</v>
+      </c>
+      <c r="I63" s="227"/>
+      <c r="J63" s="227"/>
       <c r="K63" s="67">
         <f>K46</f>
-        <v>34938.490072954613</v>
+        <v>34938.490082829921</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A64" s="299" t="s">
+      <c r="A64" s="343" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="300"/>
-      <c r="C64" s="301" t="s">
+      <c r="B64" s="344"/>
+      <c r="C64" s="345" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="300"/>
-      <c r="E64" s="285">
+      <c r="D64" s="344"/>
+      <c r="E64" s="346">
         <f t="shared" ref="E64:H64" si="26">E62*1.5%</f>
-        <v>2.9101669628859081</v>
+        <v>2.9101703373648227</v>
       </c>
       <c r="F64" s="68">
         <f t="shared" si="26"/>
-        <v>4.0279014536982656</v>
+        <v>4.0279024755923123</v>
       </c>
       <c r="G64" s="68">
         <f t="shared" si="26"/>
-        <v>25.392665848255962</v>
+        <v>25.393440130810394</v>
       </c>
       <c r="H64" s="68">
         <f t="shared" si="26"/>
-        <v>2.2663206165419543</v>
-      </c>
-      <c r="I64" s="285"/>
-      <c r="J64" s="285">
+        <v>2.2663242617876045</v>
+      </c>
+      <c r="I64" s="346"/>
+      <c r="J64" s="346">
         <f t="shared" ref="J64:K64" si="27">J62*1.5%</f>
-        <v>3.6552970014432935</v>
+        <v>3.655351893861488</v>
       </c>
       <c r="K64" s="68">
         <f t="shared" si="27"/>
-        <v>30.492498273037718</v>
+        <v>30.493182650714644</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="297"/>
+      <c r="A65" s="285"/>
       <c r="B65" s="281"/>
-      <c r="C65" s="297"/>
+      <c r="C65" s="285"/>
       <c r="D65" s="281"/>
-      <c r="E65" s="250"/>
+      <c r="E65" s="261"/>
       <c r="F65" s="69">
         <f t="shared" ref="F65:H65" si="28">F63*1.5%</f>
-        <v>0.86837103437727603</v>
+        <v>0.8683713799277728</v>
       </c>
       <c r="G65" s="69">
         <f t="shared" si="28"/>
-        <v>1.3276979023867603</v>
+        <v>1.3277381694696602</v>
       </c>
       <c r="H65" s="69">
         <f t="shared" si="28"/>
-        <v>2.7805209306973153</v>
-      </c>
-      <c r="I65" s="250"/>
-      <c r="J65" s="250"/>
+        <v>2.7805269802539256</v>
+      </c>
+      <c r="I65" s="261"/>
+      <c r="J65" s="261"/>
       <c r="K65" s="69">
         <f>K63*1.5%</f>
-        <v>524.07735109431917</v>
+        <v>524.0773512424488</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A66" s="302"/>
-      <c r="B66" s="296"/>
-      <c r="C66" s="298" t="s">
+      <c r="A66" s="287"/>
+      <c r="B66" s="284"/>
+      <c r="C66" s="288" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="296"/>
-      <c r="E66" s="282">
+      <c r="D66" s="284"/>
+      <c r="E66" s="289">
         <f t="shared" ref="E66:H66" si="29">E64+E62</f>
-        <v>196.92129782194647</v>
+        <v>196.92152616168636</v>
       </c>
       <c r="F66" s="74">
         <f t="shared" si="29"/>
-        <v>272.55466503358269</v>
+        <v>272.55473418174648</v>
       </c>
       <c r="G66" s="74">
         <f t="shared" si="29"/>
-        <v>1718.2370557319869</v>
+        <v>1718.2894488515033</v>
       </c>
       <c r="H66" s="74">
         <f t="shared" si="29"/>
-        <v>153.3543617193389</v>
-      </c>
-      <c r="I66" s="282"/>
-      <c r="J66" s="282">
+        <v>153.35460838096125</v>
+      </c>
+      <c r="I66" s="289"/>
+      <c r="J66" s="289">
         <f t="shared" ref="J66:K66" si="30">J64+J62</f>
-        <v>247.34176376432956</v>
+        <v>247.34547815129403</v>
       </c>
       <c r="K66" s="74">
         <f t="shared" si="30"/>
-        <v>2063.3257164755523</v>
+        <v>2063.3720260316909</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A67" s="297"/>
+      <c r="A67" s="285"/>
       <c r="B67" s="281"/>
-      <c r="C67" s="297"/>
+      <c r="C67" s="285"/>
       <c r="D67" s="281"/>
-      <c r="E67" s="250"/>
+      <c r="E67" s="261"/>
       <c r="F67" s="74">
         <f t="shared" ref="F67:H67" si="31">F65+F63</f>
-        <v>58.759773326195678</v>
+        <v>58.759796708445961</v>
       </c>
       <c r="G67" s="74">
         <f t="shared" si="31"/>
-        <v>89.840891394837456</v>
+        <v>89.843616134113674</v>
       </c>
       <c r="H67" s="74">
         <f t="shared" si="31"/>
-        <v>188.14858297718501</v>
-      </c>
-      <c r="I67" s="250"/>
-      <c r="J67" s="250"/>
+        <v>188.14899233051565</v>
+      </c>
+      <c r="I67" s="261"/>
+      <c r="J67" s="261"/>
       <c r="K67" s="74">
         <f>K65+K63</f>
-        <v>35462.567424048932</v>
+        <v>35462.567434072371</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="302"/>
-      <c r="B68" s="296"/>
-      <c r="C68" s="298" t="s">
+      <c r="A68" s="287"/>
+      <c r="B68" s="284"/>
+      <c r="C68" s="288" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="296"/>
-      <c r="E68" s="282">
+      <c r="D68" s="284"/>
+      <c r="E68" s="289">
         <f t="shared" ref="E68:H68" si="32">E66</f>
-        <v>196.92129782194647</v>
+        <v>196.92152616168636</v>
       </c>
       <c r="F68" s="74">
         <f t="shared" si="32"/>
-        <v>272.55466503358269</v>
+        <v>272.55473418174648</v>
       </c>
       <c r="G68" s="74">
         <f t="shared" si="32"/>
-        <v>1718.2370557319869</v>
+        <v>1718.2894488515033</v>
       </c>
       <c r="H68" s="74">
         <f t="shared" si="32"/>
-        <v>153.3543617193389</v>
-      </c>
-      <c r="I68" s="282"/>
-      <c r="J68" s="282">
+        <v>153.35460838096125</v>
+      </c>
+      <c r="I68" s="289"/>
+      <c r="J68" s="289">
         <f t="shared" ref="J68:K68" si="33">J66</f>
-        <v>247.34176376432956</v>
+        <v>247.34547815129403</v>
       </c>
       <c r="K68" s="74">
         <f t="shared" si="33"/>
-        <v>2063.3257164755523</v>
+        <v>2063.3720260316909</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A69" s="297"/>
+      <c r="A69" s="285"/>
       <c r="B69" s="281"/>
-      <c r="C69" s="297"/>
+      <c r="C69" s="285"/>
       <c r="D69" s="281"/>
-      <c r="E69" s="250"/>
+      <c r="E69" s="261"/>
       <c r="F69" s="74">
         <f t="shared" ref="F69:H69" si="34">F67</f>
-        <v>58.759773326195678</v>
+        <v>58.759796708445961</v>
       </c>
       <c r="G69" s="74">
         <f t="shared" si="34"/>
-        <v>89.840891394837456</v>
+        <v>89.843616134113674</v>
       </c>
       <c r="H69" s="74">
         <f t="shared" si="34"/>
-        <v>188.14858297718501</v>
-      </c>
-      <c r="I69" s="250"/>
-      <c r="J69" s="250"/>
+        <v>188.14899233051565</v>
+      </c>
+      <c r="I69" s="261"/>
+      <c r="J69" s="261"/>
       <c r="K69" s="74">
         <f>K67</f>
-        <v>35462.567424048932</v>
+        <v>35462.567434072371</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="295" t="s">
+      <c r="A70" s="290" t="s">
         <v>164</v>
       </c>
-      <c r="B70" s="296"/>
-      <c r="C70" s="298" t="s">
+      <c r="B70" s="284"/>
+      <c r="C70" s="288" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="296"/>
-      <c r="E70" s="282"/>
+      <c r="D70" s="284"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="74"/>
       <c r="G70" s="74"/>
       <c r="H70" s="74"/>
-      <c r="I70" s="282"/>
-      <c r="J70" s="282">
+      <c r="I70" s="289"/>
+      <c r="J70" s="289">
         <f>K70</f>
-        <v>31.351294248668182</v>
+        <v>31.351997710647993</v>
       </c>
       <c r="K70" s="74">
         <f>F87</f>
-        <v>31.351294248668182</v>
+        <v>31.351997710647993</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A71" s="297"/>
+      <c r="A71" s="285"/>
       <c r="B71" s="281"/>
-      <c r="C71" s="297"/>
+      <c r="C71" s="285"/>
       <c r="D71" s="281"/>
-      <c r="E71" s="250"/>
+      <c r="E71" s="261"/>
       <c r="F71" s="74"/>
       <c r="G71" s="74"/>
       <c r="H71" s="74"/>
-      <c r="I71" s="250"/>
-      <c r="J71" s="250"/>
+      <c r="I71" s="261"/>
+      <c r="J71" s="261"/>
       <c r="K71" s="74"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A72" s="295"/>
-      <c r="B72" s="296"/>
-      <c r="C72" s="298" t="s">
+      <c r="A72" s="290"/>
+      <c r="B72" s="284"/>
+      <c r="C72" s="288" t="s">
         <v>166</v>
       </c>
-      <c r="D72" s="296"/>
-      <c r="E72" s="282">
+      <c r="D72" s="284"/>
+      <c r="E72" s="289">
         <f t="shared" ref="E72:H72" si="35">E68</f>
-        <v>196.92129782194647</v>
+        <v>196.92152616168636</v>
       </c>
       <c r="F72" s="74">
         <f t="shared" si="35"/>
-        <v>272.55466503358269</v>
+        <v>272.55473418174648</v>
       </c>
       <c r="G72" s="74">
         <f t="shared" si="35"/>
-        <v>1718.2370557319869</v>
+        <v>1718.2894488515033</v>
       </c>
       <c r="H72" s="74">
         <f t="shared" si="35"/>
-        <v>153.3543617193389</v>
-      </c>
-      <c r="I72" s="282"/>
-      <c r="J72" s="282">
+        <v>153.35460838096125</v>
+      </c>
+      <c r="I72" s="289"/>
+      <c r="J72" s="289">
         <f t="shared" ref="J72:K72" si="36">J70+J68</f>
-        <v>278.69305801299777</v>
+        <v>278.69747586194205</v>
       </c>
       <c r="K72" s="74">
         <f t="shared" si="36"/>
-        <v>2094.6770107242205</v>
+        <v>2094.7240237423389</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="297"/>
+      <c r="A73" s="285"/>
       <c r="B73" s="281"/>
-      <c r="C73" s="297"/>
+      <c r="C73" s="285"/>
       <c r="D73" s="281"/>
-      <c r="E73" s="250"/>
+      <c r="E73" s="261"/>
       <c r="F73" s="74">
         <f t="shared" ref="F73:H73" si="37">F69</f>
-        <v>58.759773326195678</v>
+        <v>58.759796708445961</v>
       </c>
       <c r="G73" s="74">
         <f t="shared" si="37"/>
-        <v>89.840891394837456</v>
+        <v>89.843616134113674</v>
       </c>
       <c r="H73" s="74">
         <f t="shared" si="37"/>
-        <v>188.14858297718501</v>
-      </c>
-      <c r="I73" s="250"/>
-      <c r="J73" s="250"/>
+        <v>188.14899233051565</v>
+      </c>
+      <c r="I73" s="261"/>
+      <c r="J73" s="261"/>
       <c r="K73" s="74">
         <f>K69</f>
-        <v>35462.567424048932</v>
+        <v>35462.567434072371</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="295" t="s">
+      <c r="A74" s="290" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="296"/>
-      <c r="C74" s="298" t="s">
+      <c r="B74" s="284"/>
+      <c r="C74" s="288" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="296"/>
-      <c r="E74" s="282"/>
+      <c r="D74" s="284"/>
+      <c r="E74" s="289"/>
       <c r="F74" s="74"/>
       <c r="G74" s="74"/>
       <c r="H74" s="74"/>
-      <c r="I74" s="282"/>
-      <c r="J74" s="282">
+      <c r="I74" s="289"/>
+      <c r="J74" s="289">
         <f>L109</f>
-        <v>36.982527669404448</v>
+        <v>36.983357485293993</v>
       </c>
       <c r="K74" s="74">
         <f>J74</f>
-        <v>36.982527669404448</v>
+        <v>36.983357485293993</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="297"/>
+      <c r="A75" s="285"/>
       <c r="B75" s="281"/>
-      <c r="C75" s="297"/>
+      <c r="C75" s="285"/>
       <c r="D75" s="281"/>
-      <c r="E75" s="250"/>
+      <c r="E75" s="261"/>
       <c r="F75" s="74"/>
       <c r="G75" s="74"/>
       <c r="H75" s="74"/>
-      <c r="I75" s="250"/>
-      <c r="J75" s="250"/>
+      <c r="I75" s="261"/>
+      <c r="J75" s="261"/>
       <c r="K75" s="74"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A76" s="340"/>
-      <c r="B76" s="296"/>
-      <c r="C76" s="348" t="s">
+      <c r="A76" s="293"/>
+      <c r="B76" s="284"/>
+      <c r="C76" s="283" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="296"/>
-      <c r="E76" s="306">
+      <c r="D76" s="284"/>
+      <c r="E76" s="286">
         <f t="shared" ref="E76:H76" si="38">E66</f>
-        <v>196.92129782194647</v>
+        <v>196.92152616168636</v>
       </c>
       <c r="F76" s="75">
         <f t="shared" si="38"/>
-        <v>272.55466503358269</v>
+        <v>272.55473418174648</v>
       </c>
       <c r="G76" s="75">
         <f t="shared" si="38"/>
-        <v>1718.2370557319869</v>
+        <v>1718.2894488515033</v>
       </c>
       <c r="H76" s="75">
         <f t="shared" si="38"/>
-        <v>153.3543617193389</v>
-      </c>
-      <c r="I76" s="306"/>
-      <c r="J76" s="306">
+        <v>153.35460838096125</v>
+      </c>
+      <c r="I76" s="286"/>
+      <c r="J76" s="286">
         <f>J74+J72</f>
-        <v>315.67558568240224</v>
+        <v>315.68083334723605</v>
       </c>
       <c r="K76" s="75">
         <f>K72+K74</f>
-        <v>2131.6595383936251</v>
+        <v>2131.7073812276331</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A77" s="297"/>
+      <c r="A77" s="285"/>
       <c r="B77" s="281"/>
-      <c r="C77" s="297"/>
+      <c r="C77" s="285"/>
       <c r="D77" s="281"/>
-      <c r="E77" s="250"/>
+      <c r="E77" s="261"/>
       <c r="F77" s="75">
         <f t="shared" ref="F77:H77" si="39">F67</f>
-        <v>58.759773326195678</v>
+        <v>58.759796708445961</v>
       </c>
       <c r="G77" s="75">
         <f t="shared" si="39"/>
-        <v>89.840891394837456</v>
+        <v>89.843616134113674</v>
       </c>
       <c r="H77" s="75">
         <f t="shared" si="39"/>
-        <v>188.14858297718501</v>
-      </c>
-      <c r="I77" s="250"/>
-      <c r="J77" s="250"/>
+        <v>188.14899233051565</v>
+      </c>
+      <c r="I77" s="261"/>
+      <c r="J77" s="261"/>
       <c r="K77" s="75">
         <f>K67</f>
-        <v>35462.567424048932</v>
+        <v>35462.567434072371</v>
       </c>
       <c r="L77" s="76">
         <f>E76+F77+K43</f>
-        <v>354.37118048294025</v>
+        <v>354.37165239185543</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A78" s="295" t="s">
+      <c r="A78" s="290" t="s">
         <v>170</v>
       </c>
-      <c r="B78" s="296"/>
-      <c r="C78" s="298" t="s">
+      <c r="B78" s="284"/>
+      <c r="C78" s="288" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="296"/>
-      <c r="E78" s="282"/>
+      <c r="D78" s="284"/>
+      <c r="E78" s="289"/>
       <c r="F78" s="74"/>
       <c r="G78" s="74"/>
       <c r="H78" s="74"/>
-      <c r="I78" s="282"/>
-      <c r="J78" s="282">
+      <c r="I78" s="289"/>
+      <c r="J78" s="289">
         <f>F30</f>
-        <v>2.2890860473232824</v>
+        <v>2.2890883009640892</v>
       </c>
       <c r="K78" s="74">
         <f>J78</f>
-        <v>2.2890860473232824</v>
+        <v>2.2890883009640892</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A79" s="297"/>
+      <c r="A79" s="285"/>
       <c r="B79" s="281"/>
-      <c r="C79" s="297"/>
+      <c r="C79" s="285"/>
       <c r="D79" s="281"/>
-      <c r="E79" s="250"/>
+      <c r="E79" s="261"/>
       <c r="F79" s="74"/>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
-      <c r="I79" s="250"/>
-      <c r="J79" s="250"/>
+      <c r="I79" s="261"/>
+      <c r="J79" s="261"/>
       <c r="K79" s="74"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1"/>
@@ -15774,284 +15774,284 @@
     <row r="85" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="86" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="87" spans="1:12" ht="60.6" customHeight="1">
-      <c r="A87" s="346" t="s">
+      <c r="A87" s="291" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="238"/>
-      <c r="C87" s="238"/>
-      <c r="D87" s="238"/>
+      <c r="B87" s="235"/>
+      <c r="C87" s="235"/>
+      <c r="D87" s="235"/>
       <c r="E87" s="274"/>
-      <c r="F87" s="347">
+      <c r="F87" s="299">
         <f>F101-F100</f>
-        <v>31.351294248668182</v>
-      </c>
-      <c r="G87" s="238"/>
-      <c r="H87" s="238"/>
-      <c r="I87" s="238"/>
-      <c r="J87" s="238"/>
+        <v>31.351997710647993</v>
+      </c>
+      <c r="G87" s="235"/>
+      <c r="H87" s="235"/>
+      <c r="I87" s="235"/>
+      <c r="J87" s="235"/>
       <c r="K87" s="274"/>
       <c r="L87" s="71"/>
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A88" s="341" t="s">
+      <c r="A88" s="282" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="238"/>
-      <c r="C88" s="238"/>
-      <c r="D88" s="238"/>
+      <c r="B88" s="235"/>
+      <c r="C88" s="235"/>
+      <c r="D88" s="235"/>
       <c r="E88" s="274"/>
-      <c r="F88" s="330"/>
-      <c r="G88" s="238"/>
-      <c r="H88" s="238"/>
-      <c r="I88" s="238"/>
-      <c r="J88" s="238"/>
+      <c r="F88" s="300"/>
+      <c r="G88" s="235"/>
+      <c r="H88" s="235"/>
+      <c r="I88" s="235"/>
+      <c r="J88" s="235"/>
       <c r="K88" s="274"/>
       <c r="L88" s="71"/>
     </row>
     <row r="89" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A89" s="341" t="s">
+      <c r="A89" s="282" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="238"/>
-      <c r="C89" s="238"/>
-      <c r="D89" s="238"/>
+      <c r="B89" s="235"/>
+      <c r="C89" s="235"/>
+      <c r="D89" s="235"/>
       <c r="E89" s="274"/>
-      <c r="F89" s="330" t="s">
+      <c r="F89" s="300" t="s">
         <v>175</v>
       </c>
-      <c r="G89" s="238"/>
-      <c r="H89" s="238"/>
-      <c r="I89" s="238"/>
-      <c r="J89" s="238"/>
+      <c r="G89" s="235"/>
+      <c r="H89" s="235"/>
+      <c r="I89" s="235"/>
+      <c r="J89" s="235"/>
       <c r="K89" s="274"/>
       <c r="L89" s="71"/>
     </row>
     <row r="90" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A90" s="341" t="s">
+      <c r="A90" s="282" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="238"/>
-      <c r="C90" s="238"/>
-      <c r="D90" s="238"/>
+      <c r="B90" s="235"/>
+      <c r="C90" s="235"/>
+      <c r="D90" s="235"/>
       <c r="E90" s="274"/>
-      <c r="F90" s="330" t="s">
+      <c r="F90" s="300" t="s">
         <v>177</v>
       </c>
-      <c r="G90" s="238"/>
-      <c r="H90" s="238"/>
-      <c r="I90" s="238"/>
-      <c r="J90" s="238"/>
+      <c r="G90" s="235"/>
+      <c r="H90" s="235"/>
+      <c r="I90" s="235"/>
+      <c r="J90" s="235"/>
       <c r="K90" s="274"/>
       <c r="L90" s="71"/>
     </row>
     <row r="91" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A91" s="341" t="s">
+      <c r="A91" s="282" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="238"/>
-      <c r="C91" s="238"/>
-      <c r="D91" s="238"/>
+      <c r="B91" s="235"/>
+      <c r="C91" s="235"/>
+      <c r="D91" s="235"/>
       <c r="E91" s="274"/>
-      <c r="F91" s="331">
+      <c r="F91" s="301">
         <v>43833</v>
       </c>
-      <c r="G91" s="238"/>
-      <c r="H91" s="238"/>
-      <c r="I91" s="238"/>
-      <c r="J91" s="238"/>
+      <c r="G91" s="235"/>
+      <c r="H91" s="235"/>
+      <c r="I91" s="235"/>
+      <c r="J91" s="235"/>
       <c r="K91" s="274"/>
       <c r="L91" s="71"/>
     </row>
     <row r="92" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A92" s="341" t="s">
+      <c r="A92" s="282" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="238"/>
-      <c r="C92" s="238"/>
-      <c r="D92" s="238"/>
+      <c r="B92" s="235"/>
+      <c r="C92" s="235"/>
+      <c r="D92" s="235"/>
       <c r="E92" s="274"/>
-      <c r="F92" s="333" t="s">
+      <c r="F92" s="303" t="s">
         <v>254</v>
       </c>
-      <c r="G92" s="334"/>
-      <c r="H92" s="334"/>
-      <c r="I92" s="334"/>
-      <c r="J92" s="334"/>
-      <c r="K92" s="335"/>
+      <c r="G92" s="304"/>
+      <c r="H92" s="304"/>
+      <c r="I92" s="304"/>
+      <c r="J92" s="304"/>
+      <c r="K92" s="305"/>
       <c r="L92" s="71"/>
     </row>
     <row r="93" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A93" s="341" t="s">
+      <c r="A93" s="282" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="238"/>
-      <c r="C93" s="238"/>
-      <c r="D93" s="238"/>
+      <c r="B93" s="235"/>
+      <c r="C93" s="235"/>
+      <c r="D93" s="235"/>
       <c r="E93" s="274"/>
-      <c r="F93" s="333" t="s">
+      <c r="F93" s="303" t="s">
         <v>255</v>
       </c>
-      <c r="G93" s="336"/>
-      <c r="H93" s="336"/>
-      <c r="I93" s="336"/>
-      <c r="J93" s="336"/>
-      <c r="K93" s="337"/>
+      <c r="G93" s="306"/>
+      <c r="H93" s="306"/>
+      <c r="I93" s="306"/>
+      <c r="J93" s="306"/>
+      <c r="K93" s="307"/>
       <c r="L93" s="71"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A94" s="341" t="s">
+      <c r="A94" s="282" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="238"/>
-      <c r="C94" s="238"/>
-      <c r="D94" s="238"/>
+      <c r="B94" s="235"/>
+      <c r="C94" s="235"/>
+      <c r="D94" s="235"/>
       <c r="E94" s="274"/>
-      <c r="F94" s="332">
+      <c r="F94" s="302">
         <v>13934</v>
       </c>
-      <c r="G94" s="238"/>
-      <c r="H94" s="238"/>
-      <c r="I94" s="238"/>
-      <c r="J94" s="238"/>
+      <c r="G94" s="235"/>
+      <c r="H94" s="235"/>
+      <c r="I94" s="235"/>
+      <c r="J94" s="235"/>
       <c r="K94" s="274"/>
       <c r="L94" s="71"/>
     </row>
     <row r="95" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A95" s="341" t="s">
+      <c r="A95" s="282" t="s">
         <v>182</v>
       </c>
-      <c r="B95" s="238"/>
-      <c r="C95" s="238"/>
-      <c r="D95" s="238"/>
+      <c r="B95" s="235"/>
+      <c r="C95" s="235"/>
+      <c r="D95" s="235"/>
       <c r="E95" s="274"/>
-      <c r="F95" s="338" t="s">
+      <c r="F95" s="308" t="s">
         <v>311</v>
       </c>
-      <c r="G95" s="238"/>
-      <c r="H95" s="238"/>
-      <c r="I95" s="238"/>
-      <c r="J95" s="238"/>
+      <c r="G95" s="235"/>
+      <c r="H95" s="235"/>
+      <c r="I95" s="235"/>
+      <c r="J95" s="235"/>
       <c r="K95" s="274"/>
       <c r="L95" s="71"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A96" s="349" t="s">
+      <c r="A96" s="292" t="s">
         <v>183</v>
       </c>
-      <c r="B96" s="238"/>
-      <c r="C96" s="238"/>
-      <c r="D96" s="238"/>
+      <c r="B96" s="235"/>
+      <c r="C96" s="235"/>
+      <c r="D96" s="235"/>
       <c r="E96" s="274"/>
-      <c r="F96" s="339" t="s">
+      <c r="F96" s="309" t="s">
         <v>184</v>
       </c>
-      <c r="G96" s="238"/>
-      <c r="H96" s="238"/>
-      <c r="I96" s="238"/>
-      <c r="J96" s="238"/>
+      <c r="G96" s="235"/>
+      <c r="H96" s="235"/>
+      <c r="I96" s="235"/>
+      <c r="J96" s="235"/>
       <c r="K96" s="274"/>
       <c r="L96" s="71"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A97" s="341" t="s">
+      <c r="A97" s="282" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="238"/>
-      <c r="C97" s="238"/>
-      <c r="D97" s="238"/>
+      <c r="B97" s="235"/>
+      <c r="C97" s="235"/>
+      <c r="D97" s="235"/>
       <c r="E97" s="274"/>
-      <c r="F97" s="332">
+      <c r="F97" s="302">
         <f>K66</f>
-        <v>2063.3257164755523</v>
-      </c>
-      <c r="G97" s="238"/>
-      <c r="H97" s="238"/>
-      <c r="I97" s="238"/>
-      <c r="J97" s="238"/>
+        <v>2063.3720260316909</v>
+      </c>
+      <c r="G97" s="235"/>
+      <c r="H97" s="235"/>
+      <c r="I97" s="235"/>
+      <c r="J97" s="235"/>
       <c r="K97" s="274"/>
       <c r="L97" s="71"/>
     </row>
     <row r="98" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A98" s="341" t="s">
+      <c r="A98" s="282" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="238"/>
-      <c r="C98" s="238"/>
-      <c r="D98" s="238"/>
+      <c r="B98" s="235"/>
+      <c r="C98" s="235"/>
+      <c r="D98" s="235"/>
       <c r="E98" s="274"/>
-      <c r="F98" s="332">
+      <c r="F98" s="302">
         <f>K54</f>
-        <v>93.913965559057019</v>
-      </c>
-      <c r="G98" s="238"/>
-      <c r="H98" s="238"/>
-      <c r="I98" s="238"/>
-      <c r="J98" s="238"/>
+        <v>93.916074382121224</v>
+      </c>
+      <c r="G98" s="235"/>
+      <c r="H98" s="235"/>
+      <c r="I98" s="235"/>
+      <c r="J98" s="235"/>
       <c r="K98" s="274"/>
       <c r="L98" s="71"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A99" s="341" t="s">
+      <c r="A99" s="282" t="s">
         <v>187</v>
       </c>
-      <c r="B99" s="238"/>
-      <c r="C99" s="238"/>
-      <c r="D99" s="238"/>
+      <c r="B99" s="235"/>
+      <c r="C99" s="235"/>
+      <c r="D99" s="235"/>
       <c r="E99" s="274"/>
-      <c r="F99" s="332">
+      <c r="F99" s="302">
         <f>K8</f>
-        <v>8.0458426582200762</v>
-      </c>
-      <c r="G99" s="238"/>
-      <c r="H99" s="238"/>
-      <c r="I99" s="238"/>
-      <c r="J99" s="238"/>
+        <v>8.0460341604869559</v>
+      </c>
+      <c r="G99" s="235"/>
+      <c r="H99" s="235"/>
+      <c r="I99" s="235"/>
+      <c r="J99" s="235"/>
       <c r="K99" s="274"/>
       <c r="L99" s="71"/>
     </row>
     <row r="100" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A100" s="341" t="s">
+      <c r="A100" s="282" t="s">
         <v>188</v>
       </c>
-      <c r="B100" s="238"/>
-      <c r="C100" s="238"/>
-      <c r="D100" s="238"/>
+      <c r="B100" s="235"/>
+      <c r="C100" s="235"/>
+      <c r="D100" s="235"/>
       <c r="E100" s="274"/>
-      <c r="F100" s="332">
+      <c r="F100" s="302">
         <f>F97-F98-F99</f>
-        <v>1961.3659082582751</v>
-      </c>
-      <c r="G100" s="238"/>
-      <c r="H100" s="238"/>
-      <c r="I100" s="238"/>
-      <c r="J100" s="238"/>
+        <v>1961.4099174890828</v>
+      </c>
+      <c r="G100" s="235"/>
+      <c r="H100" s="235"/>
+      <c r="I100" s="235"/>
+      <c r="J100" s="235"/>
       <c r="K100" s="274"/>
       <c r="L100" s="71"/>
     </row>
     <row r="101" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A101" s="342" t="s">
+      <c r="A101" s="294" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="238"/>
-      <c r="C101" s="238"/>
-      <c r="D101" s="238"/>
+      <c r="B101" s="235"/>
+      <c r="C101" s="235"/>
+      <c r="D101" s="235"/>
       <c r="E101" s="274"/>
-      <c r="F101" s="345">
+      <c r="F101" s="298">
         <f>F100*POWER(C104,3)</f>
-        <v>1992.7172025069433</v>
-      </c>
-      <c r="G101" s="238"/>
-      <c r="H101" s="238"/>
-      <c r="I101" s="238"/>
-      <c r="J101" s="238"/>
+        <v>1992.7619151997308</v>
+      </c>
+      <c r="G101" s="235"/>
+      <c r="H101" s="235"/>
+      <c r="I101" s="235"/>
+      <c r="J101" s="235"/>
       <c r="K101" s="274"/>
       <c r="L101" s="71"/>
     </row>
     <row r="102" spans="1:12" ht="60">
-      <c r="A102" s="343" t="s">
+      <c r="A102" s="295" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="294"/>
+      <c r="B102" s="296"/>
       <c r="C102" s="77" t="s">
         <v>191</v>
       </c>
@@ -16080,47 +16080,47 @@
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="344" t="s">
+      <c r="A103" s="297" t="s">
         <v>195</v>
       </c>
       <c r="B103" s="274"/>
       <c r="C103" s="80">
         <f>L103*C107/100</f>
-        <v>199.27172025069433</v>
+        <v>199.27619151997308</v>
       </c>
       <c r="D103" s="80">
         <f>L103*D107/100</f>
-        <v>697.4510208774301</v>
+        <v>697.4666703199058</v>
       </c>
       <c r="E103" s="80">
         <f>$L$103*E107/100</f>
-        <v>199.27172025069433</v>
+        <v>199.27619151997308</v>
       </c>
       <c r="F103" s="80">
         <f t="shared" ref="F103:H103" si="40">$L$103*F107/100</f>
-        <v>259.05323632590262</v>
+        <v>259.05904897596503</v>
       </c>
       <c r="G103" s="80">
         <f t="shared" si="40"/>
-        <v>259.05323632590262</v>
+        <v>259.05904897596503</v>
       </c>
       <c r="H103" s="80">
         <f t="shared" si="40"/>
-        <v>259.05323632590262</v>
+        <v>259.05904897596503</v>
       </c>
       <c r="I103" s="80">
         <f>$L$103*I107/100</f>
-        <v>119.5630321504166</v>
+        <v>119.56571491198385</v>
       </c>
       <c r="J103" s="80"/>
       <c r="K103" s="80"/>
       <c r="L103" s="80">
         <f>F101</f>
-        <v>1992.7172025069433</v>
+        <v>1992.7619151997308</v>
       </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="344" t="s">
+      <c r="A104" s="297" t="s">
         <v>196</v>
       </c>
       <c r="B104" s="274"/>
@@ -16150,7 +16150,7 @@
       <c r="L104" s="84"/>
     </row>
     <row r="105" spans="1:12" ht="64.900000000000006" customHeight="1">
-      <c r="A105" s="344" t="s">
+      <c r="A105" s="297" t="s">
         <v>197</v>
       </c>
       <c r="B105" s="274"/>
@@ -16200,7 +16200,7 @@
       <c r="L106" s="90"/>
     </row>
     <row r="107" spans="1:12" ht="48.6" customHeight="1">
-      <c r="A107" s="346" t="s">
+      <c r="A107" s="291" t="s">
         <v>198</v>
       </c>
       <c r="B107" s="274"/>
@@ -16230,72 +16230,72 @@
       <c r="L107" s="91"/>
     </row>
     <row r="108" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A108" s="341" t="s">
+      <c r="A108" s="282" t="s">
         <v>199</v>
       </c>
       <c r="B108" s="274"/>
       <c r="C108" s="80">
         <f t="shared" ref="C108:I108" si="42">(C103*C105)-C103</f>
-        <v>1.0561401173287095</v>
+        <v>1.0561638150558679</v>
       </c>
       <c r="D108" s="80">
         <f t="shared" si="42"/>
-        <v>7.4125722204773865</v>
+        <v>7.4127385441604474</v>
       </c>
       <c r="E108" s="80">
         <f>(E103*E105)-E103</f>
-        <v>3.1852426468275041</v>
+        <v>3.1853141174685504</v>
       </c>
       <c r="F108" s="81">
         <f>(F103*F105)-F103</f>
-        <v>5.5357439152396637</v>
+        <v>5.5358681265511223</v>
       </c>
       <c r="G108" s="81">
         <f t="shared" si="42"/>
-        <v>6.9380655105177311</v>
+        <v>6.9382211871944151</v>
       </c>
       <c r="H108" s="81">
         <f t="shared" si="42"/>
-        <v>8.3478194102507928</v>
+        <v>8.3480067190591853</v>
       </c>
       <c r="I108" s="81">
         <f t="shared" si="42"/>
-        <v>4.5069438487626599</v>
+        <v>4.5070449758044049</v>
       </c>
       <c r="J108" s="80"/>
       <c r="K108" s="80"/>
       <c r="L108" s="91"/>
     </row>
     <row r="109" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A109" s="341" t="s">
+      <c r="A109" s="282" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="238"/>
-      <c r="C109" s="238"/>
-      <c r="D109" s="238"/>
-      <c r="E109" s="238"/>
-      <c r="F109" s="238"/>
-      <c r="G109" s="238"/>
-      <c r="H109" s="238"/>
-      <c r="I109" s="238"/>
-      <c r="J109" s="238"/>
+      <c r="B109" s="235"/>
+      <c r="C109" s="235"/>
+      <c r="D109" s="235"/>
+      <c r="E109" s="235"/>
+      <c r="F109" s="235"/>
+      <c r="G109" s="235"/>
+      <c r="H109" s="235"/>
+      <c r="I109" s="235"/>
+      <c r="J109" s="235"/>
       <c r="K109" s="274"/>
       <c r="L109" s="93">
         <f>C108+D108+E108+F108+G108+H108+I108+J108+K108</f>
-        <v>36.982527669404448</v>
+        <v>36.983357485293993</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A110" s="341"/>
-      <c r="B110" s="238"/>
-      <c r="C110" s="238"/>
-      <c r="D110" s="238"/>
-      <c r="E110" s="238"/>
-      <c r="F110" s="238"/>
-      <c r="G110" s="238"/>
-      <c r="H110" s="238"/>
-      <c r="I110" s="238"/>
-      <c r="J110" s="238"/>
+      <c r="A110" s="282"/>
+      <c r="B110" s="235"/>
+      <c r="C110" s="235"/>
+      <c r="D110" s="235"/>
+      <c r="E110" s="235"/>
+      <c r="F110" s="235"/>
+      <c r="G110" s="235"/>
+      <c r="H110" s="235"/>
+      <c r="I110" s="235"/>
+      <c r="J110" s="235"/>
       <c r="K110" s="274"/>
       <c r="L110" s="91"/>
     </row>
@@ -17196,6 +17196,205 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="223">
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="F88:K88"/>
+    <mergeCell ref="F89:K89"/>
+    <mergeCell ref="F90:K90"/>
+    <mergeCell ref="F91:K91"/>
+    <mergeCell ref="F99:K99"/>
+    <mergeCell ref="F100:K100"/>
+    <mergeCell ref="F92:K92"/>
+    <mergeCell ref="F93:K93"/>
+    <mergeCell ref="F94:K94"/>
+    <mergeCell ref="F95:K95"/>
+    <mergeCell ref="F96:K96"/>
+    <mergeCell ref="F97:K97"/>
+    <mergeCell ref="F98:K98"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="A78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A110:K110"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="F101:K101"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:K109"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="F87:K87"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="C76:D77"/>
@@ -17220,205 +17419,6 @@
     <mergeCell ref="A96:E96"/>
     <mergeCell ref="A72:B73"/>
     <mergeCell ref="C72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:B75"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="A78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A110:K110"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="F101:K101"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:K109"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="F87:K87"/>
-    <mergeCell ref="F88:K88"/>
-    <mergeCell ref="F89:K89"/>
-    <mergeCell ref="F90:K90"/>
-    <mergeCell ref="F91:K91"/>
-    <mergeCell ref="F99:K99"/>
-    <mergeCell ref="F100:K100"/>
-    <mergeCell ref="F92:K92"/>
-    <mergeCell ref="F93:K93"/>
-    <mergeCell ref="F94:K94"/>
-    <mergeCell ref="F95:K95"/>
-    <mergeCell ref="F96:K96"/>
-    <mergeCell ref="F97:K97"/>
-    <mergeCell ref="F98:K98"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17450,74 +17450,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="133" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="265" t="s">
+      <c r="B1" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="265" t="s">
+      <c r="C1" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="265" t="s">
+      <c r="D1" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="266" t="s">
+      <c r="E1" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="254" t="s">
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="254" t="s">
+      <c r="L1" s="237" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="133" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="255"/>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="248" t="s">
+      <c r="A2" s="238"/>
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="266" t="s">
+      <c r="F2" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="268"/>
-      <c r="H2" s="248" t="s">
+      <c r="G2" s="225"/>
+      <c r="H2" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="254" t="s">
+      <c r="I2" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="254" t="s">
+      <c r="J2" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
     </row>
     <row r="3" spans="1:12" s="133" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="249"/>
+      <c r="A3" s="239"/>
+      <c r="B3" s="239"/>
+      <c r="C3" s="239"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="251"/>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="249"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="239"/>
+      <c r="J3" s="239"/>
+      <c r="K3" s="239"/>
+      <c r="L3" s="239"/>
     </row>
     <row r="4" spans="1:12" s="133" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="4">
@@ -17558,13 +17558,13 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A5" s="227">
+      <c r="A5" s="259">
         <v>5</v>
       </c>
-      <c r="B5" s="223" t="s">
+      <c r="B5" s="264" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="225" t="s">
+      <c r="C5" s="256" t="s">
         <v>295</v>
       </c>
       <c r="D5" s="134" t="s">
@@ -17593,9 +17593,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A6" s="221"/>
-      <c r="B6" s="224"/>
-      <c r="C6" s="226"/>
+      <c r="A6" s="233"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="257"/>
       <c r="D6" s="136">
         <v>10.58</v>
       </c>
@@ -17627,7 +17627,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="31.5">
-      <c r="A7" s="228"/>
+      <c r="A7" s="232"/>
       <c r="B7" s="160" t="s">
         <v>257</v>
       </c>
@@ -17655,7 +17655,7 @@
       <c r="L7" s="136"/>
     </row>
     <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="228"/>
+      <c r="A8" s="232"/>
       <c r="B8" s="159"/>
       <c r="C8" s="159"/>
       <c r="D8" s="139">
@@ -17681,7 +17681,7 @@
       <c r="L8" s="136"/>
     </row>
     <row r="9" spans="1:12" ht="45" customHeight="1">
-      <c r="A9" s="228"/>
+      <c r="A9" s="232"/>
       <c r="B9" s="160" t="s">
         <v>258</v>
       </c>
@@ -17709,7 +17709,7 @@
       <c r="L9" s="162"/>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A10" s="228"/>
+      <c r="A10" s="232"/>
       <c r="B10" s="159"/>
       <c r="C10" s="171"/>
       <c r="D10" s="139">
@@ -17735,7 +17735,7 @@
       <c r="L10" s="136"/>
     </row>
     <row r="11" spans="1:12" ht="31.5">
-      <c r="A11" s="228"/>
+      <c r="A11" s="232"/>
       <c r="B11" s="160" t="s">
         <v>41</v>
       </c>
@@ -17763,7 +17763,7 @@
       <c r="L11" s="162"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="228"/>
+      <c r="A12" s="232"/>
       <c r="B12" s="159"/>
       <c r="C12" s="171"/>
       <c r="D12" s="139">
@@ -17789,7 +17789,7 @@
       <c r="L12" s="136"/>
     </row>
     <row r="13" spans="1:12" ht="31.5">
-      <c r="A13" s="228"/>
+      <c r="A13" s="232"/>
       <c r="B13" s="160" t="s">
         <v>260</v>
       </c>
@@ -17817,7 +17817,7 @@
       <c r="L13" s="162"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="228"/>
+      <c r="A14" s="232"/>
       <c r="B14" s="159"/>
       <c r="C14" s="171"/>
       <c r="D14" s="139">
@@ -17843,7 +17843,7 @@
       <c r="L14" s="136"/>
     </row>
     <row r="15" spans="1:12" ht="31.5">
-      <c r="A15" s="228"/>
+      <c r="A15" s="232"/>
       <c r="B15" s="160" t="s">
         <v>266</v>
       </c>
@@ -17871,7 +17871,7 @@
       <c r="L15" s="162"/>
     </row>
     <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="228"/>
+      <c r="A16" s="232"/>
       <c r="B16" s="159"/>
       <c r="C16" s="171"/>
       <c r="D16" s="139">
@@ -17897,7 +17897,7 @@
       <c r="L16" s="136"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="228"/>
+      <c r="A17" s="232"/>
       <c r="B17" s="161" t="s">
         <v>44</v>
       </c>
@@ -17925,7 +17925,7 @@
       <c r="L17" s="162"/>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="228"/>
+      <c r="A18" s="232"/>
       <c r="B18" s="159"/>
       <c r="C18" s="171"/>
       <c r="D18" s="139">
@@ -17951,7 +17951,7 @@
       <c r="L18" s="136"/>
     </row>
     <row r="19" spans="1:12" ht="47.25">
-      <c r="A19" s="228"/>
+      <c r="A19" s="232"/>
       <c r="B19" s="160" t="s">
         <v>262</v>
       </c>
@@ -17979,7 +17979,7 @@
       <c r="L19" s="162"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="228"/>
+      <c r="A20" s="232"/>
       <c r="B20" s="159"/>
       <c r="C20" s="171"/>
       <c r="D20" s="139">
@@ -18005,7 +18005,7 @@
       <c r="L20" s="136"/>
     </row>
     <row r="21" spans="1:12" ht="31.5">
-      <c r="A21" s="228"/>
+      <c r="A21" s="232"/>
       <c r="B21" s="160" t="s">
         <v>270</v>
       </c>
@@ -18034,7 +18034,7 @@
       <c r="L21" s="162"/>
     </row>
     <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="228"/>
+      <c r="A22" s="232"/>
       <c r="B22" s="159"/>
       <c r="C22" s="171"/>
       <c r="D22" s="139">
@@ -18060,7 +18060,7 @@
       <c r="L22" s="136"/>
     </row>
     <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="228"/>
+      <c r="A23" s="232"/>
       <c r="B23" s="160" t="s">
         <v>274</v>
       </c>
@@ -18088,7 +18088,7 @@
       <c r="L23" s="162"/>
     </row>
     <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="228"/>
+      <c r="A24" s="232"/>
       <c r="B24" s="159"/>
       <c r="C24" s="171"/>
       <c r="D24" s="139">
@@ -18114,7 +18114,7 @@
       <c r="L24" s="136"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="228"/>
+      <c r="A25" s="232"/>
       <c r="B25" s="160" t="s">
         <v>273</v>
       </c>
@@ -18143,7 +18143,7 @@
       <c r="L25" s="162"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="228"/>
+      <c r="A26" s="232"/>
       <c r="B26" s="159"/>
       <c r="C26" s="171"/>
       <c r="D26" s="139">
@@ -18168,7 +18168,7 @@
       <c r="L26" s="136"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="228"/>
+      <c r="A27" s="232"/>
       <c r="B27" s="160" t="s">
         <v>272</v>
       </c>
@@ -18197,7 +18197,7 @@
       <c r="L27" s="164"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="228"/>
+      <c r="A28" s="232"/>
       <c r="B28" s="159"/>
       <c r="C28" s="171"/>
       <c r="D28" s="175">
@@ -18222,7 +18222,7 @@
       <c r="L28" s="165"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="228"/>
+      <c r="A29" s="232"/>
       <c r="B29" s="160" t="s">
         <v>276</v>
       </c>
@@ -18251,7 +18251,7 @@
       <c r="L29" s="165"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="284"/>
+      <c r="A30" s="317"/>
       <c r="B30" s="141"/>
       <c r="C30" s="208"/>
       <c r="D30" s="141">
@@ -18277,11 +18277,11 @@
       <c r="L30" s="164"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="354" t="s">
+      <c r="A31" s="350" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="355"/>
-      <c r="C31" s="355"/>
+      <c r="B31" s="351"/>
+      <c r="C31" s="351"/>
       <c r="D31" s="209"/>
       <c r="E31" s="209">
         <f>E6</f>
@@ -18317,11 +18317,11 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="356" t="s">
+      <c r="A32" s="352" t="s">
         <v>313</v>
       </c>
-      <c r="B32" s="351"/>
-      <c r="C32" s="351"/>
+      <c r="B32" s="353"/>
+      <c r="C32" s="353"/>
       <c r="D32" s="211"/>
       <c r="E32" s="212">
         <f>E5</f>
@@ -18357,11 +18357,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="350" t="s">
+      <c r="A33" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="351"/>
-      <c r="C33" s="351"/>
+      <c r="B33" s="353"/>
+      <c r="C33" s="353"/>
       <c r="D33" s="211"/>
       <c r="E33" s="211"/>
       <c r="F33" s="211"/>
@@ -18376,11 +18376,11 @@
       <c r="L33" s="215"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="350" t="s">
+      <c r="A34" s="354" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="351"/>
-      <c r="C34" s="351"/>
+      <c r="B34" s="353"/>
+      <c r="C34" s="353"/>
       <c r="D34" s="211"/>
       <c r="E34" s="211"/>
       <c r="F34" s="211"/>
@@ -18395,11 +18395,11 @@
       <c r="L34" s="215"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="350" t="s">
+      <c r="A35" s="354" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="351"/>
-      <c r="C35" s="351"/>
+      <c r="B35" s="353"/>
+      <c r="C35" s="353"/>
       <c r="D35" s="211"/>
       <c r="E35" s="211"/>
       <c r="F35" s="211"/>
@@ -18414,11 +18414,11 @@
       <c r="L35" s="215"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="350" t="s">
+      <c r="A36" s="354" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="351"/>
-      <c r="C36" s="351"/>
+      <c r="B36" s="353"/>
+      <c r="C36" s="353"/>
       <c r="D36" s="211"/>
       <c r="E36" s="211"/>
       <c r="F36" s="211"/>
@@ -18433,11 +18433,11 @@
       <c r="L36" s="215"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="352" t="s">
+      <c r="A37" s="355" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="353"/>
-      <c r="C37" s="353"/>
+      <c r="B37" s="356"/>
+      <c r="C37" s="356"/>
       <c r="D37" s="216"/>
       <c r="E37" s="216"/>
       <c r="F37" s="216"/>
@@ -18480,74 +18480,74 @@
       <c r="L39" s="97"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="254" t="s">
+      <c r="A40" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="265" t="s">
+      <c r="B40" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="265" t="s">
+      <c r="C40" s="248" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="265" t="s">
+      <c r="D40" s="248" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="266" t="s">
+      <c r="E40" s="249" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="267"/>
-      <c r="G40" s="267"/>
-      <c r="H40" s="267"/>
-      <c r="I40" s="267"/>
-      <c r="J40" s="268"/>
-      <c r="K40" s="254" t="s">
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="225"/>
+      <c r="K40" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="254" t="s">
+      <c r="L40" s="237" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="255"/>
-      <c r="B41" s="255"/>
-      <c r="C41" s="255"/>
-      <c r="D41" s="255"/>
-      <c r="E41" s="248" t="s">
+      <c r="A41" s="238"/>
+      <c r="B41" s="238"/>
+      <c r="C41" s="238"/>
+      <c r="D41" s="238"/>
+      <c r="E41" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="266" t="s">
+      <c r="F41" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="268"/>
-      <c r="H41" s="248" t="s">
+      <c r="G41" s="225"/>
+      <c r="H41" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="254" t="s">
+      <c r="I41" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="254" t="s">
+      <c r="J41" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="255"/>
-      <c r="L41" s="255"/>
+      <c r="K41" s="238"/>
+      <c r="L41" s="238"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="256"/>
-      <c r="B42" s="256"/>
-      <c r="C42" s="256"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="249"/>
+      <c r="A42" s="239"/>
+      <c r="B42" s="239"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="239"/>
+      <c r="E42" s="251"/>
       <c r="F42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="249"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="256"/>
-      <c r="L42" s="256"/>
+      <c r="H42" s="251"/>
+      <c r="I42" s="239"/>
+      <c r="J42" s="239"/>
+      <c r="K42" s="239"/>
+      <c r="L42" s="239"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="4">
@@ -18588,13 +18588,13 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A44" s="227">
+      <c r="A44" s="259">
         <v>5</v>
       </c>
-      <c r="B44" s="223" t="s">
+      <c r="B44" s="264" t="s">
         <v>294</v>
       </c>
-      <c r="C44" s="225" t="s">
+      <c r="C44" s="256" t="s">
         <v>295</v>
       </c>
       <c r="D44" s="134" t="s">
@@ -18623,9 +18623,9 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A45" s="221"/>
-      <c r="B45" s="224"/>
-      <c r="C45" s="226"/>
+      <c r="A45" s="233"/>
+      <c r="B45" s="265"/>
+      <c r="C45" s="257"/>
       <c r="D45" s="136">
         <v>10.58</v>
       </c>
@@ -18657,7 +18657,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="228"/>
+      <c r="A46" s="232"/>
       <c r="B46" s="160" t="s">
         <v>257</v>
       </c>
@@ -18685,7 +18685,7 @@
       <c r="L46" s="136"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="228"/>
+      <c r="A47" s="232"/>
       <c r="B47" s="159"/>
       <c r="C47" s="159"/>
       <c r="D47" s="139">
@@ -18711,7 +18711,7 @@
       <c r="L47" s="136"/>
     </row>
     <row r="48" spans="1:12" ht="34.15" customHeight="1">
-      <c r="A48" s="228"/>
+      <c r="A48" s="232"/>
       <c r="B48" s="160" t="s">
         <v>258</v>
       </c>
@@ -18739,7 +18739,7 @@
       <c r="L48" s="162"/>
     </row>
     <row r="49" spans="1:12" ht="43.15" customHeight="1">
-      <c r="A49" s="228"/>
+      <c r="A49" s="232"/>
       <c r="B49" s="159"/>
       <c r="C49" s="171"/>
       <c r="D49" s="139">
@@ -18765,7 +18765,7 @@
       <c r="L49" s="136"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A50" s="228"/>
+      <c r="A50" s="232"/>
       <c r="B50" s="160" t="s">
         <v>41</v>
       </c>
@@ -18793,7 +18793,7 @@
       <c r="L50" s="162"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A51" s="228"/>
+      <c r="A51" s="232"/>
       <c r="B51" s="159"/>
       <c r="C51" s="171"/>
       <c r="D51" s="139">
@@ -18819,7 +18819,7 @@
       <c r="L51" s="136"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="228"/>
+      <c r="A52" s="232"/>
       <c r="B52" s="160" t="s">
         <v>260</v>
       </c>
@@ -18847,7 +18847,7 @@
       <c r="L52" s="162"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A53" s="228"/>
+      <c r="A53" s="232"/>
       <c r="B53" s="159"/>
       <c r="C53" s="171"/>
       <c r="D53" s="139">
@@ -18873,7 +18873,7 @@
       <c r="L53" s="136"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A54" s="228"/>
+      <c r="A54" s="232"/>
       <c r="B54" s="160" t="s">
         <v>266</v>
       </c>
@@ -18901,7 +18901,7 @@
       <c r="L54" s="162"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A55" s="228"/>
+      <c r="A55" s="232"/>
       <c r="B55" s="159"/>
       <c r="C55" s="171"/>
       <c r="D55" s="139">
@@ -18927,7 +18927,7 @@
       <c r="L55" s="136"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A56" s="228"/>
+      <c r="A56" s="232"/>
       <c r="B56" s="161" t="s">
         <v>44</v>
       </c>
@@ -18955,7 +18955,7 @@
       <c r="L56" s="162"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A57" s="228"/>
+      <c r="A57" s="232"/>
       <c r="B57" s="159"/>
       <c r="C57" s="171"/>
       <c r="D57" s="139">
@@ -18981,7 +18981,7 @@
       <c r="L57" s="136"/>
     </row>
     <row r="58" spans="1:12" ht="39" customHeight="1">
-      <c r="A58" s="228"/>
+      <c r="A58" s="232"/>
       <c r="B58" s="160" t="s">
         <v>262</v>
       </c>
@@ -19009,7 +19009,7 @@
       <c r="L58" s="162"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A59" s="228"/>
+      <c r="A59" s="232"/>
       <c r="B59" s="159"/>
       <c r="C59" s="171"/>
       <c r="D59" s="139">
@@ -19035,7 +19035,7 @@
       <c r="L59" s="136"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="228"/>
+      <c r="A60" s="232"/>
       <c r="B60" s="160" t="s">
         <v>316</v>
       </c>
@@ -19064,7 +19064,7 @@
       <c r="L60" s="162"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A61" s="228"/>
+      <c r="A61" s="232"/>
       <c r="B61" s="159"/>
       <c r="C61" s="171"/>
       <c r="D61" s="139">
@@ -19090,7 +19090,7 @@
       <c r="L61" s="136"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A62" s="228"/>
+      <c r="A62" s="232"/>
       <c r="B62" s="160" t="s">
         <v>274</v>
       </c>
@@ -19118,7 +19118,7 @@
       <c r="L62" s="162"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A63" s="228"/>
+      <c r="A63" s="232"/>
       <c r="B63" s="159"/>
       <c r="C63" s="171"/>
       <c r="D63" s="139">
@@ -19144,7 +19144,7 @@
       <c r="L63" s="136"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A64" s="228"/>
+      <c r="A64" s="232"/>
       <c r="B64" s="160" t="s">
         <v>273</v>
       </c>
@@ -19173,7 +19173,7 @@
       <c r="L64" s="162"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="228"/>
+      <c r="A65" s="232"/>
       <c r="B65" s="159"/>
       <c r="C65" s="171"/>
       <c r="D65" s="139">
@@ -19198,7 +19198,7 @@
       <c r="L65" s="136"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A66" s="228"/>
+      <c r="A66" s="232"/>
       <c r="B66" s="160" t="s">
         <v>272</v>
       </c>
@@ -19227,7 +19227,7 @@
       <c r="L66" s="164"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A67" s="228"/>
+      <c r="A67" s="232"/>
       <c r="B67" s="159"/>
       <c r="C67" s="171"/>
       <c r="D67" s="175">
@@ -19252,7 +19252,7 @@
       <c r="L67" s="165"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="228"/>
+      <c r="A68" s="232"/>
       <c r="B68" s="160" t="s">
         <v>276</v>
       </c>
@@ -19281,7 +19281,7 @@
       <c r="L68" s="165"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A69" s="284"/>
+      <c r="A69" s="317"/>
       <c r="B69" s="141"/>
       <c r="C69" s="208"/>
       <c r="D69" s="141">
@@ -19307,11 +19307,11 @@
       <c r="L69" s="164"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="354" t="s">
+      <c r="A70" s="350" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="355"/>
-      <c r="C70" s="355"/>
+      <c r="B70" s="351"/>
+      <c r="C70" s="351"/>
       <c r="D70" s="209"/>
       <c r="E70" s="209">
         <f>E45</f>
@@ -19347,11 +19347,11 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A71" s="356" t="s">
+      <c r="A71" s="352" t="s">
         <v>313</v>
       </c>
-      <c r="B71" s="351"/>
-      <c r="C71" s="351"/>
+      <c r="B71" s="353"/>
+      <c r="C71" s="353"/>
       <c r="D71" s="211"/>
       <c r="E71" s="212">
         <f>E44</f>
@@ -19387,11 +19387,11 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A72" s="350" t="s">
+      <c r="A72" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="351"/>
-      <c r="C72" s="351"/>
+      <c r="B72" s="353"/>
+      <c r="C72" s="353"/>
       <c r="D72" s="211"/>
       <c r="E72" s="211"/>
       <c r="F72" s="211"/>
@@ -19406,11 +19406,11 @@
       <c r="L72" s="215"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="350" t="s">
+      <c r="A73" s="354" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="351"/>
-      <c r="C73" s="351"/>
+      <c r="B73" s="353"/>
+      <c r="C73" s="353"/>
       <c r="D73" s="211"/>
       <c r="E73" s="211"/>
       <c r="F73" s="211"/>
@@ -19425,11 +19425,11 @@
       <c r="L73" s="215"/>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="350" t="s">
+      <c r="A74" s="354" t="s">
         <v>202</v>
       </c>
-      <c r="B74" s="351"/>
-      <c r="C74" s="351"/>
+      <c r="B74" s="353"/>
+      <c r="C74" s="353"/>
       <c r="D74" s="211"/>
       <c r="E74" s="211"/>
       <c r="F74" s="211"/>
@@ -19444,11 +19444,11 @@
       <c r="L74" s="215"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="350" t="s">
+      <c r="A75" s="354" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="351"/>
-      <c r="C75" s="351"/>
+      <c r="B75" s="353"/>
+      <c r="C75" s="353"/>
       <c r="D75" s="211"/>
       <c r="E75" s="211"/>
       <c r="F75" s="211"/>
@@ -19463,11 +19463,11 @@
       <c r="L75" s="215"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="352" t="s">
+      <c r="A76" s="355" t="s">
         <v>204</v>
       </c>
-      <c r="B76" s="353"/>
-      <c r="C76" s="353"/>
+      <c r="B76" s="356"/>
+      <c r="C76" s="356"/>
       <c r="D76" s="216"/>
       <c r="E76" s="216"/>
       <c r="F76" s="216"/>
@@ -19548,19 +19548,19 @@
       </c>
       <c r="F84" s="2">
         <f>0.15*'сводный сметный'!H76*(1-G88/G89)</f>
-        <v>2.0911958416273468</v>
+        <v>2.0911992051949242</v>
       </c>
       <c r="G84" s="2">
         <f>E86+F84</f>
-        <v>170.28631646967696</v>
+        <v>170.28631983324453</v>
       </c>
       <c r="H84" s="2">
         <f>смета!J307/1000</f>
-        <v>1609.1685316440153</v>
+        <v>1609.2068320973913</v>
       </c>
       <c r="I84" s="2">
         <f>G84/H84*100</f>
-        <v>10.58225494229017</v>
+        <v>10.582003284891508</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="15.75" customHeight="1">
@@ -20510,6 +20510,35 @@
     <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A44:A69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A5:A30"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -20525,35 +20554,6 @@
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A44:A69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -20603,7 +20603,7 @@
       </c>
       <c r="D2" s="105">
         <f>'сводный сметный'!K76</f>
-        <v>2131.6595383936251</v>
+        <v>2131.7073812276331</v>
       </c>
       <c r="E2" s="98"/>
     </row>
@@ -20619,7 +20619,7 @@
       </c>
       <c r="D3" s="105">
         <f>'сводный сметный'!L45</f>
-        <v>1789.1467514396284</v>
+        <v>1789.1887171235439</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -20634,7 +20634,7 @@
       </c>
       <c r="D4" s="105">
         <f>'сводный сметный'!K43</f>
-        <v>98.690109334798109</v>
+        <v>98.690329521723115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -20663,7 +20663,7 @@
       </c>
       <c r="D6" s="106">
         <f>D2/D5</f>
-        <v>0.15298259928187349</v>
+        <v>0.15298603281381032</v>
       </c>
       <c r="F6">
         <f>D5/100</f>
@@ -20682,7 +20682,7 @@
       </c>
       <c r="D7" s="106">
         <f>D3/D5</f>
-        <v>0.12840151797327604</v>
+        <v>0.12840452972036343</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -20697,7 +20697,7 @@
       </c>
       <c r="D8" s="105">
         <f>'сводный сметный'!K77/8</f>
-        <v>4432.8209280061164</v>
+        <v>4432.8209292590464</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -20712,7 +20712,7 @@
       </c>
       <c r="D9" s="110">
         <f>D2/D8</f>
-        <v>0.48088104009029886</v>
+        <v>0.48089183281850989</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -20727,7 +20727,7 @@
       </c>
       <c r="D10" s="105">
         <f>'сводный сметный'!L77</f>
-        <v>354.37118048294025</v>
+        <v>354.37165239185543</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -20742,7 +20742,7 @@
       </c>
       <c r="D11" s="109">
         <f>D10/D8-0.003</f>
-        <v>7.6942588757434066E-2</v>
+        <v>7.6942695192762783E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -20785,7 +20785,7 @@
       </c>
       <c r="D14" s="108">
         <f>варианты!I84</f>
-        <v>10.58225494229017</v>
+        <v>10.582003284891508</v>
       </c>
       <c r="E14" s="98"/>
     </row>

--- a/economicPart/calculation/смета.xlsx
+++ b/economicPart/calculation/смета.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\diplom\ASK_Diplom\economicPart\calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ED2E02-A796-403A-A308-27380A6111AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BB171A-3752-42B9-8B55-A7833DAD20B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="смета" sheetId="1" r:id="rId1"/>
@@ -2516,7 +2516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2936,73 +2936,61 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3022,27 +3010,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3062,63 +3068,122 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="35" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3144,92 +3209,25 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="35" fillId="8" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3237,12 +3235,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3499,103 +3501,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="H276" sqref="H276:J279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="18.25" customWidth="1"/>
-    <col min="12" max="12" width="21.625" customWidth="1"/>
-    <col min="13" max="15" width="7.625" customWidth="1"/>
-    <col min="16" max="16" width="9.75" customWidth="1"/>
-    <col min="17" max="23" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="14.59765625" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" customWidth="1"/>
+    <col min="12" max="12" width="21.59765625" customWidth="1"/>
+    <col min="13" max="15" width="7.59765625" customWidth="1"/>
+    <col min="16" max="16" width="9.69921875" customWidth="1"/>
+    <col min="17" max="23" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="253" t="s">
+    <row r="1" spans="1:13" ht="14.4">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="263" t="s">
+      <c r="C1" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="263" t="s">
+      <c r="D1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="264" t="s">
+      <c r="E1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="253" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="253" t="s">
+      <c r="L1" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="256"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="254"/>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="244" t="s">
+      <c r="M1" s="254"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.4">
+      <c r="A2" s="252"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="264" t="s">
+      <c r="F2" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="244" t="s">
+      <c r="G2" s="230"/>
+      <c r="H2" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="253" t="s">
+      <c r="I2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="253" t="s">
+      <c r="J2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="257"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="255"/>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="245"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="255"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.4">
+      <c r="A3" s="253"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="265"/>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="245"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="258"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="H3" s="265"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="256"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.4">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3633,30 +3635,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="19.5" thickTop="1">
-      <c r="A5" s="259" t="s">
+    <row r="5" spans="1:13" ht="18.600000000000001" thickTop="1">
+      <c r="A5" s="257" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="260"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="260"/>
-      <c r="K5" s="260"/>
-      <c r="L5" s="261"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="259"/>
     </row>
     <row r="6" spans="1:13" ht="44.25" customHeight="1">
-      <c r="A6" s="262">
+      <c r="A6" s="260">
         <v>1</v>
       </c>
-      <c r="B6" s="262" t="s">
+      <c r="B6" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="249" t="s">
+      <c r="C6" s="261" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="147" t="s">
@@ -3682,9 +3684,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="49.5" customHeight="1" thickBot="1">
-      <c r="A7" s="227"/>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
+      <c r="A7" s="232"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="124">
         <v>15.34</v>
       </c>
@@ -3710,13 +3712,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="36.75" customHeight="1">
-      <c r="A8" s="234">
+      <c r="A8" s="269">
         <v>2</v>
       </c>
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="269" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="235" t="s">
+      <c r="C8" s="231" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="147" t="s">
@@ -3740,10 +3742,10 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75">
-      <c r="A9" s="227"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="227"/>
+    <row r="9" spans="1:13" ht="18">
+      <c r="A9" s="232"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="124">
         <v>557.76</v>
       </c>
@@ -3769,13 +3771,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="49.5" customHeight="1">
-      <c r="A10" s="234">
+      <c r="A10" s="269">
         <v>3</v>
       </c>
-      <c r="B10" s="234" t="s">
+      <c r="B10" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="235" t="s">
+      <c r="C10" s="231" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="148" t="s">
@@ -3804,9 +3806,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A11" s="227"/>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
+      <c r="A11" s="232"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="124">
         <v>14.4</v>
       </c>
@@ -3838,13 +3840,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="69" customHeight="1">
-      <c r="A12" s="234">
+      <c r="A12" s="269">
         <v>4</v>
       </c>
-      <c r="B12" s="234" t="s">
+      <c r="B12" s="269" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="235" t="s">
+      <c r="C12" s="231" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="149" t="s">
@@ -3873,9 +3875,9 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" customHeight="1">
-      <c r="A13" s="226"/>
-      <c r="B13" s="246"/>
-      <c r="C13" s="246"/>
+      <c r="A13" s="241"/>
+      <c r="B13" s="270"/>
+      <c r="C13" s="270"/>
       <c r="D13" s="125">
         <v>0.61</v>
       </c>
@@ -3893,7 +3895,7 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="358">
+      <c r="J13" s="221">
         <f t="shared" ref="J13:L13" si="3">J12*$D$13</f>
         <v>841.56820000000005</v>
       </c>
@@ -3907,11 +3909,11 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="36" customHeight="1">
-      <c r="A14" s="226"/>
-      <c r="B14" s="247" t="s">
+      <c r="A14" s="241"/>
+      <c r="B14" s="271" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="249" t="s">
+      <c r="C14" s="261" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="150" t="s">
@@ -3927,17 +3929,17 @@
         <f>H14*0.0704</f>
         <v>0.73427200000000004</v>
       </c>
-      <c r="J14" s="358">
+      <c r="J14" s="221">
         <f>I14+H14</f>
         <v>11.164272</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75">
-      <c r="A15" s="227"/>
-      <c r="B15" s="248"/>
-      <c r="C15" s="227"/>
+    <row r="15" spans="1:13" ht="18">
+      <c r="A15" s="232"/>
+      <c r="B15" s="272"/>
+      <c r="C15" s="232"/>
       <c r="D15" s="10">
         <f>0.03*D13</f>
         <v>1.83E-2</v>
@@ -3945,7 +3947,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="357">
+      <c r="H15" s="220">
         <f t="shared" ref="H15:J15" si="4">H14*$D$15</f>
         <v>0.19086900000000001</v>
       </c>
@@ -3953,7 +3955,7 @@
         <f t="shared" si="4"/>
         <v>1.3437177600000001E-2</v>
       </c>
-      <c r="J15" s="357">
+      <c r="J15" s="220">
         <f t="shared" si="4"/>
         <v>0.2043061776</v>
       </c>
@@ -3961,13 +3963,13 @@
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="48.75" customHeight="1">
-      <c r="A16" s="234">
+      <c r="A16" s="269">
         <v>5</v>
       </c>
-      <c r="B16" s="234" t="s">
+      <c r="B16" s="269" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="235" t="s">
+      <c r="C16" s="231" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="149" t="s">
@@ -3989,10 +3991,10 @@
       </c>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75">
-      <c r="A17" s="227"/>
-      <c r="B17" s="227"/>
-      <c r="C17" s="227"/>
+    <row r="17" spans="1:12" ht="18">
+      <c r="A17" s="232"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="232"/>
       <c r="D17" s="126">
         <f>'[1]объемы работ'!$D$8</f>
         <v>6.0648774000000003</v>
@@ -4005,7 +4007,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="356">
+      <c r="J17" s="219">
         <f t="shared" ref="J17:K17" si="5">J16*$D$17</f>
         <v>4966.8313467300004</v>
       </c>
@@ -4016,13 +4018,13 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="60.75" customHeight="1">
-      <c r="A18" s="234">
+      <c r="A18" s="269">
         <v>6</v>
       </c>
-      <c r="B18" s="234" t="s">
+      <c r="B18" s="269" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="235" t="s">
+      <c r="C18" s="231" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="149" t="s">
@@ -4046,10 +4048,10 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18.75">
-      <c r="A19" s="227"/>
-      <c r="B19" s="227"/>
-      <c r="C19" s="227"/>
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19" s="232"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="232"/>
       <c r="D19" s="126">
         <v>13.97</v>
       </c>
@@ -4064,24 +4066,24 @@
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="356">
+      <c r="J19" s="219">
         <f>J18*$D$19</f>
         <v>3453.9428000000003</v>
       </c>
       <c r="K19" s="11"/>
-      <c r="L19" s="356">
+      <c r="L19" s="219">
         <f>L18*$D$19</f>
         <v>112.17909999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A20" s="234">
+      <c r="A20" s="269">
         <v>7</v>
       </c>
-      <c r="B20" s="234" t="s">
+      <c r="B20" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="235" t="s">
+      <c r="C20" s="231" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="149" t="s">
@@ -4104,9 +4106,9 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="227"/>
-      <c r="B21" s="227"/>
-      <c r="C21" s="227"/>
+      <c r="A21" s="232"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="232"/>
       <c r="D21" s="126">
         <v>7.35</v>
       </c>
@@ -4122,20 +4124,20 @@
         <f>J20*D21</f>
         <v>4513.9290000000001</v>
       </c>
-      <c r="K21" s="356">
+      <c r="K21" s="219">
         <f>K20*D21</f>
         <v>756.38849999999991</v>
       </c>
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="37.5" customHeight="1">
-      <c r="A22" s="234">
+      <c r="A22" s="269">
         <v>8</v>
       </c>
-      <c r="B22" s="234" t="s">
+      <c r="B22" s="269" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="235" t="s">
+      <c r="C22" s="231" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="151" t="s">
@@ -4164,9 +4166,9 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="227"/>
-      <c r="B23" s="227"/>
-      <c r="C23" s="227"/>
+      <c r="A23" s="232"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="126">
         <v>147.1</v>
       </c>
@@ -4198,11 +4200,11 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="222" t="s">
+      <c r="A24" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="223"/>
-      <c r="C24" s="224"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="235"/>
       <c r="D24" s="13"/>
       <c r="E24" s="111">
         <f>E23+E21+E17+E13+E11</f>
@@ -4216,11 +4218,11 @@
         <f t="shared" si="9"/>
         <v>18536.933499999996</v>
       </c>
-      <c r="H24" s="360">
+      <c r="H24" s="223">
         <f t="shared" ref="H24:I24" si="10">H15</f>
         <v>0.19086900000000001</v>
       </c>
-      <c r="I24" s="359">
+      <c r="I24" s="222">
         <f t="shared" si="10"/>
         <v>1.3437177600000001E-2</v>
       </c>
@@ -4232,17 +4234,17 @@
         <f>K23+K21+K17+K13+K11+K9+K7+25</f>
         <v>3619.1376256019998</v>
       </c>
-      <c r="L24" s="361">
+      <c r="L24" s="224">
         <f>L23+L21+L17+L13+L11+L9+L7+50</f>
         <v>2604.0284999999994</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="219" t="s">
+      <c r="A25" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="220"/>
-      <c r="C25" s="221"/>
+      <c r="B25" s="248"/>
+      <c r="C25" s="249"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -4257,11 +4259,11 @@
       <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="219" t="s">
+      <c r="A26" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="220"/>
-      <c r="C26" s="221"/>
+      <c r="B26" s="248"/>
+      <c r="C26" s="249"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -4276,11 +4278,11 @@
       <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="219" t="s">
+      <c r="A27" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="220"/>
-      <c r="C27" s="221"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="249"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -4295,11 +4297,11 @@
       <c r="L27" s="17"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="219" t="s">
+      <c r="A28" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="220"/>
-      <c r="C28" s="221"/>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -4314,11 +4316,11 @@
       <c r="L28" s="17"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="239" t="s">
+      <c r="A29" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="240"/>
-      <c r="C29" s="241"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="227"/>
       <c r="D29" s="18"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -4333,29 +4335,29 @@
       <c r="L29" s="20"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="237"/>
-      <c r="C30" s="237"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="237"/>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="237"/>
-      <c r="J30" s="237"/>
-      <c r="K30" s="237"/>
-      <c r="L30" s="238"/>
-    </row>
-    <row r="31" spans="1:12" s="123" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A31" s="269">
+      <c r="B30" s="274"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="274"/>
+      <c r="I30" s="274"/>
+      <c r="J30" s="274"/>
+      <c r="K30" s="274"/>
+      <c r="L30" s="275"/>
+    </row>
+    <row r="31" spans="1:12" s="123" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="A31" s="238">
         <v>1</v>
       </c>
-      <c r="B31" s="242" t="s">
+      <c r="B31" s="276" t="s">
         <v>282</v>
       </c>
-      <c r="C31" s="270" t="s">
+      <c r="C31" s="242" t="s">
         <v>281</v>
       </c>
       <c r="D31" s="133" t="s">
@@ -4384,9 +4386,9 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="123" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A32" s="229"/>
-      <c r="B32" s="243"/>
-      <c r="C32" s="271"/>
+      <c r="A32" s="239"/>
+      <c r="B32" s="277"/>
+      <c r="C32" s="243"/>
       <c r="D32" s="135">
         <v>0.22</v>
       </c>
@@ -4417,8 +4419,8 @@
         <v>25.799399999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="123" customFormat="1" ht="30">
-      <c r="A33" s="229"/>
+    <row r="33" spans="1:12" s="123" customFormat="1" ht="28.8">
+      <c r="A33" s="239"/>
       <c r="B33" s="159" t="s">
         <v>257</v>
       </c>
@@ -4446,7 +4448,7 @@
       <c r="L33" s="135"/>
     </row>
     <row r="34" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A34" s="229"/>
+      <c r="A34" s="239"/>
       <c r="B34" s="158"/>
       <c r="C34" s="138"/>
       <c r="D34" s="134">
@@ -4472,7 +4474,7 @@
       <c r="L34" s="135"/>
     </row>
     <row r="35" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A35" s="229"/>
+      <c r="A35" s="239"/>
       <c r="B35" s="159" t="s">
         <v>258</v>
       </c>
@@ -4500,7 +4502,7 @@
       <c r="L35" s="161"/>
     </row>
     <row r="36" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A36" s="229"/>
+      <c r="A36" s="239"/>
       <c r="B36" s="158"/>
       <c r="C36" s="144"/>
       <c r="D36" s="134">
@@ -4525,8 +4527,8 @@
       <c r="K36" s="135"/>
       <c r="L36" s="135"/>
     </row>
-    <row r="37" spans="1:12" s="123" customFormat="1" ht="30">
-      <c r="A37" s="229"/>
+    <row r="37" spans="1:12" s="123" customFormat="1" ht="28.8">
+      <c r="A37" s="239"/>
       <c r="B37" s="159" t="s">
         <v>41</v>
       </c>
@@ -4554,7 +4556,7 @@
       <c r="L37" s="161"/>
     </row>
     <row r="38" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A38" s="229"/>
+      <c r="A38" s="239"/>
       <c r="B38" s="158"/>
       <c r="C38" s="144"/>
       <c r="D38" s="134">
@@ -4579,8 +4581,8 @@
       <c r="K38" s="135"/>
       <c r="L38" s="135"/>
     </row>
-    <row r="39" spans="1:12" s="123" customFormat="1" ht="30">
-      <c r="A39" s="229"/>
+    <row r="39" spans="1:12" s="123" customFormat="1" ht="28.8">
+      <c r="A39" s="239"/>
       <c r="B39" s="159" t="s">
         <v>260</v>
       </c>
@@ -4608,7 +4610,7 @@
       <c r="L39" s="161"/>
     </row>
     <row r="40" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A40" s="229"/>
+      <c r="A40" s="239"/>
       <c r="B40" s="158"/>
       <c r="C40" s="144"/>
       <c r="D40" s="134">
@@ -4634,7 +4636,7 @@
       <c r="L40" s="135"/>
     </row>
     <row r="41" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="229"/>
+      <c r="A41" s="239"/>
       <c r="B41" s="160" t="s">
         <v>44</v>
       </c>
@@ -4662,7 +4664,7 @@
       <c r="L41" s="161"/>
     </row>
     <row r="42" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A42" s="229"/>
+      <c r="A42" s="239"/>
       <c r="B42" s="158"/>
       <c r="C42" s="144"/>
       <c r="D42" s="134">
@@ -4687,8 +4689,8 @@
       <c r="K42" s="135"/>
       <c r="L42" s="135"/>
     </row>
-    <row r="43" spans="1:12" s="123" customFormat="1" ht="45">
-      <c r="A43" s="229"/>
+    <row r="43" spans="1:12" s="123" customFormat="1" ht="43.2">
+      <c r="A43" s="239"/>
       <c r="B43" s="159" t="s">
         <v>262</v>
       </c>
@@ -4716,7 +4718,7 @@
       <c r="L43" s="161"/>
     </row>
     <row r="44" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="229"/>
+      <c r="A44" s="239"/>
       <c r="B44" s="158"/>
       <c r="C44" s="144"/>
       <c r="D44" s="134">
@@ -4741,8 +4743,8 @@
       <c r="K44" s="135"/>
       <c r="L44" s="135"/>
     </row>
-    <row r="45" spans="1:12" s="123" customFormat="1" ht="15.75">
-      <c r="A45" s="229"/>
+    <row r="45" spans="1:12" s="123" customFormat="1" ht="15.6">
+      <c r="A45" s="239"/>
       <c r="B45" s="159" t="s">
         <v>270</v>
       </c>
@@ -4771,7 +4773,7 @@
       <c r="L45" s="161"/>
     </row>
     <row r="46" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A46" s="229"/>
+      <c r="A46" s="239"/>
       <c r="B46" s="158"/>
       <c r="C46" s="154"/>
       <c r="D46" s="138">
@@ -4796,8 +4798,8 @@
       <c r="K46" s="135"/>
       <c r="L46" s="135"/>
     </row>
-    <row r="47" spans="1:12" s="123" customFormat="1" ht="15.75">
-      <c r="A47" s="229"/>
+    <row r="47" spans="1:12" s="123" customFormat="1" ht="15.6">
+      <c r="A47" s="239"/>
       <c r="B47" s="159" t="s">
         <v>274</v>
       </c>
@@ -4825,7 +4827,7 @@
       <c r="L47" s="161"/>
     </row>
     <row r="48" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A48" s="229"/>
+      <c r="A48" s="239"/>
       <c r="B48" s="158"/>
       <c r="C48" s="154"/>
       <c r="D48" s="138">
@@ -4850,8 +4852,8 @@
       <c r="K48" s="135"/>
       <c r="L48" s="135"/>
     </row>
-    <row r="49" spans="1:12" s="123" customFormat="1" ht="30">
-      <c r="A49" s="229"/>
+    <row r="49" spans="1:12" s="123" customFormat="1" ht="28.8">
+      <c r="A49" s="239"/>
       <c r="B49" s="159" t="s">
         <v>273</v>
       </c>
@@ -4880,7 +4882,7 @@
       <c r="L49" s="161"/>
     </row>
     <row r="50" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A50" s="229"/>
+      <c r="A50" s="239"/>
       <c r="B50" s="158"/>
       <c r="C50" s="157"/>
       <c r="D50" s="134">
@@ -4904,8 +4906,8 @@
       <c r="K50" s="135"/>
       <c r="L50" s="135"/>
     </row>
-    <row r="51" spans="1:12" s="123" customFormat="1" ht="45">
-      <c r="A51" s="229"/>
+    <row r="51" spans="1:12" s="123" customFormat="1" ht="43.2">
+      <c r="A51" s="239"/>
       <c r="B51" s="159" t="s">
         <v>272</v>
       </c>
@@ -4933,8 +4935,8 @@
       <c r="K51" s="163"/>
       <c r="L51" s="163"/>
     </row>
-    <row r="52" spans="1:12" s="123" customFormat="1" ht="15.75">
-      <c r="A52" s="229"/>
+    <row r="52" spans="1:12" s="123" customFormat="1" ht="15.6">
+      <c r="A52" s="239"/>
       <c r="B52" s="158"/>
       <c r="C52" s="154"/>
       <c r="D52" s="141">
@@ -4958,8 +4960,8 @@
       <c r="K52" s="164"/>
       <c r="L52" s="164"/>
     </row>
-    <row r="53" spans="1:12" s="123" customFormat="1" ht="30">
-      <c r="A53" s="229"/>
+    <row r="53" spans="1:12" s="123" customFormat="1" ht="28.8">
+      <c r="A53" s="239"/>
       <c r="B53" s="159" t="s">
         <v>276</v>
       </c>
@@ -4988,7 +4990,7 @@
       <c r="L53" s="164"/>
     </row>
     <row r="54" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="227"/>
+      <c r="A54" s="232"/>
       <c r="B54" s="142"/>
       <c r="C54" s="143"/>
       <c r="D54" s="142">
@@ -5013,14 +5015,14 @@
       <c r="K54" s="165"/>
       <c r="L54" s="165"/>
     </row>
-    <row r="55" spans="1:12" s="123" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A55" s="228">
+    <row r="55" spans="1:12" s="123" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A55" s="240">
         <v>2</v>
       </c>
-      <c r="B55" s="230" t="s">
+      <c r="B55" s="245" t="s">
         <v>289</v>
       </c>
-      <c r="C55" s="232" t="s">
+      <c r="C55" s="236" t="s">
         <v>288</v>
       </c>
       <c r="D55" s="133" t="str">
@@ -5049,10 +5051,10 @@
         <v>117.31</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="123" customFormat="1" ht="46.15" customHeight="1">
-      <c r="A56" s="226"/>
-      <c r="B56" s="231"/>
-      <c r="C56" s="233"/>
+    <row r="56" spans="1:12" s="123" customFormat="1" ht="46.2" customHeight="1">
+      <c r="A56" s="241"/>
+      <c r="B56" s="246"/>
+      <c r="C56" s="237"/>
       <c r="D56" s="135">
         <v>0.62</v>
       </c>
@@ -5084,7 +5086,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A57" s="229"/>
+      <c r="A57" s="239"/>
       <c r="B57" s="159" t="s">
         <v>257</v>
       </c>
@@ -5112,7 +5114,7 @@
       <c r="L57" s="135"/>
     </row>
     <row r="58" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A58" s="229"/>
+      <c r="A58" s="239"/>
       <c r="B58" s="158"/>
       <c r="C58" s="158"/>
       <c r="D58" s="138">
@@ -5138,7 +5140,7 @@
       <c r="L58" s="135"/>
     </row>
     <row r="59" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A59" s="229"/>
+      <c r="A59" s="239"/>
       <c r="B59" s="159" t="s">
         <v>258</v>
       </c>
@@ -5166,7 +5168,7 @@
       <c r="L59" s="161"/>
     </row>
     <row r="60" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A60" s="229"/>
+      <c r="A60" s="239"/>
       <c r="B60" s="158"/>
       <c r="C60" s="170"/>
       <c r="D60" s="138">
@@ -5192,7 +5194,7 @@
       <c r="L60" s="135"/>
     </row>
     <row r="61" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A61" s="229"/>
+      <c r="A61" s="239"/>
       <c r="B61" s="159" t="s">
         <v>41</v>
       </c>
@@ -5220,7 +5222,7 @@
       <c r="L61" s="161"/>
     </row>
     <row r="62" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="229"/>
+      <c r="A62" s="239"/>
       <c r="B62" s="158"/>
       <c r="C62" s="170"/>
       <c r="D62" s="138">
@@ -5245,8 +5247,8 @@
       <c r="K62" s="135"/>
       <c r="L62" s="135"/>
     </row>
-    <row r="63" spans="1:12" s="123" customFormat="1" ht="31.5">
-      <c r="A63" s="229"/>
+    <row r="63" spans="1:12" s="123" customFormat="1" ht="31.2">
+      <c r="A63" s="239"/>
       <c r="B63" s="159" t="s">
         <v>260</v>
       </c>
@@ -5274,7 +5276,7 @@
       <c r="L63" s="161"/>
     </row>
     <row r="64" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A64" s="229"/>
+      <c r="A64" s="239"/>
       <c r="B64" s="158"/>
       <c r="C64" s="170"/>
       <c r="D64" s="138">
@@ -5300,7 +5302,7 @@
       <c r="L64" s="135"/>
     </row>
     <row r="65" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A65" s="229"/>
+      <c r="A65" s="239"/>
       <c r="B65" s="160" t="s">
         <v>44</v>
       </c>
@@ -5328,7 +5330,7 @@
       <c r="L65" s="161"/>
     </row>
     <row r="66" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A66" s="229"/>
+      <c r="A66" s="239"/>
       <c r="B66" s="158"/>
       <c r="C66" s="170"/>
       <c r="D66" s="138">
@@ -5353,8 +5355,8 @@
       <c r="K66" s="135"/>
       <c r="L66" s="135"/>
     </row>
-    <row r="67" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A67" s="229"/>
+    <row r="67" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A67" s="239"/>
       <c r="B67" s="159" t="s">
         <v>262</v>
       </c>
@@ -5382,7 +5384,7 @@
       <c r="L67" s="161"/>
     </row>
     <row r="68" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A68" s="229"/>
+      <c r="A68" s="239"/>
       <c r="B68" s="158"/>
       <c r="C68" s="170"/>
       <c r="D68" s="138">
@@ -5408,7 +5410,7 @@
       <c r="L68" s="135"/>
     </row>
     <row r="69" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A69" s="229"/>
+      <c r="A69" s="239"/>
       <c r="B69" s="159" t="s">
         <v>270</v>
       </c>
@@ -5437,7 +5439,7 @@
       <c r="L69" s="161"/>
     </row>
     <row r="70" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A70" s="229"/>
+      <c r="A70" s="239"/>
       <c r="B70" s="158"/>
       <c r="C70" s="170"/>
       <c r="D70" s="138">
@@ -5463,7 +5465,7 @@
       <c r="L70" s="135"/>
     </row>
     <row r="71" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A71" s="229"/>
+      <c r="A71" s="239"/>
       <c r="B71" s="159" t="s">
         <v>274</v>
       </c>
@@ -5491,7 +5493,7 @@
       <c r="L71" s="161"/>
     </row>
     <row r="72" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="229"/>
+      <c r="A72" s="239"/>
       <c r="B72" s="158"/>
       <c r="C72" s="170"/>
       <c r="D72" s="138">
@@ -5516,8 +5518,8 @@
       <c r="K72" s="135"/>
       <c r="L72" s="135"/>
     </row>
-    <row r="73" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A73" s="229"/>
+    <row r="73" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A73" s="239"/>
       <c r="B73" s="159" t="s">
         <v>273</v>
       </c>
@@ -5545,7 +5547,7 @@
       <c r="L73" s="161"/>
     </row>
     <row r="74" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="229"/>
+      <c r="A74" s="239"/>
       <c r="B74" s="158"/>
       <c r="C74" s="170"/>
       <c r="D74" s="138">
@@ -5569,8 +5571,8 @@
       <c r="K74" s="135"/>
       <c r="L74" s="135"/>
     </row>
-    <row r="75" spans="1:12" s="123" customFormat="1" ht="63">
-      <c r="A75" s="229"/>
+    <row r="75" spans="1:12" s="123" customFormat="1" ht="62.4">
+      <c r="A75" s="239"/>
       <c r="B75" s="159" t="s">
         <v>272</v>
       </c>
@@ -5599,7 +5601,7 @@
       <c r="L75" s="163"/>
     </row>
     <row r="76" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A76" s="229"/>
+      <c r="A76" s="239"/>
       <c r="B76" s="158"/>
       <c r="C76" s="170"/>
       <c r="D76" s="174">
@@ -5623,8 +5625,8 @@
       <c r="K76" s="164"/>
       <c r="L76" s="164"/>
     </row>
-    <row r="77" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A77" s="229"/>
+    <row r="77" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A77" s="239"/>
       <c r="B77" s="159" t="s">
         <v>276</v>
       </c>
@@ -5653,7 +5655,7 @@
       <c r="L77" s="164"/>
     </row>
     <row r="78" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A78" s="227"/>
+      <c r="A78" s="232"/>
       <c r="B78" s="142"/>
       <c r="C78" s="143"/>
       <c r="D78" s="142">
@@ -5679,13 +5681,13 @@
       <c r="L78" s="165"/>
     </row>
     <row r="79" spans="1:12" s="123" customFormat="1" ht="33" customHeight="1">
-      <c r="A79" s="228">
+      <c r="A79" s="240">
         <v>3</v>
       </c>
-      <c r="B79" s="230" t="s">
+      <c r="B79" s="245" t="s">
         <v>290</v>
       </c>
-      <c r="C79" s="232" t="s">
+      <c r="C79" s="236" t="s">
         <v>291</v>
       </c>
       <c r="D79" s="133" t="str">
@@ -5714,10 +5716,10 @@
         <v>117.38</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="123" customFormat="1" ht="34.9" customHeight="1">
-      <c r="A80" s="226"/>
-      <c r="B80" s="231"/>
-      <c r="C80" s="233"/>
+    <row r="80" spans="1:12" s="123" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="A80" s="241"/>
+      <c r="B80" s="246"/>
+      <c r="C80" s="237"/>
       <c r="D80" s="135">
         <v>0.12</v>
       </c>
@@ -5748,8 +5750,8 @@
         <v>14.085599999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="123" customFormat="1" ht="31.5">
-      <c r="A81" s="229"/>
+    <row r="81" spans="1:12" s="123" customFormat="1" ht="31.2">
+      <c r="A81" s="239"/>
       <c r="B81" s="159" t="s">
         <v>257</v>
       </c>
@@ -5777,7 +5779,7 @@
       <c r="L81" s="135"/>
     </row>
     <row r="82" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="229"/>
+      <c r="A82" s="239"/>
       <c r="B82" s="158"/>
       <c r="C82" s="158"/>
       <c r="D82" s="138">
@@ -5803,7 +5805,7 @@
       <c r="L82" s="135"/>
     </row>
     <row r="83" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="229"/>
+      <c r="A83" s="239"/>
       <c r="B83" s="159" t="s">
         <v>258</v>
       </c>
@@ -5831,7 +5833,7 @@
       <c r="L83" s="161"/>
     </row>
     <row r="84" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A84" s="229"/>
+      <c r="A84" s="239"/>
       <c r="B84" s="158"/>
       <c r="C84" s="170"/>
       <c r="D84" s="138">
@@ -5857,7 +5859,7 @@
       <c r="L84" s="135"/>
     </row>
     <row r="85" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="229"/>
+      <c r="A85" s="239"/>
       <c r="B85" s="159" t="s">
         <v>41</v>
       </c>
@@ -5885,7 +5887,7 @@
       <c r="L85" s="161"/>
     </row>
     <row r="86" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A86" s="229"/>
+      <c r="A86" s="239"/>
       <c r="B86" s="158"/>
       <c r="C86" s="170"/>
       <c r="D86" s="138">
@@ -5910,8 +5912,8 @@
       <c r="K86" s="135"/>
       <c r="L86" s="135"/>
     </row>
-    <row r="87" spans="1:12" s="123" customFormat="1" ht="31.5">
-      <c r="A87" s="229"/>
+    <row r="87" spans="1:12" s="123" customFormat="1" ht="31.2">
+      <c r="A87" s="239"/>
       <c r="B87" s="159" t="s">
         <v>260</v>
       </c>
@@ -5939,7 +5941,7 @@
       <c r="L87" s="161"/>
     </row>
     <row r="88" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A88" s="229"/>
+      <c r="A88" s="239"/>
       <c r="B88" s="158"/>
       <c r="C88" s="170"/>
       <c r="D88" s="138">
@@ -5965,7 +5967,7 @@
       <c r="L88" s="135"/>
     </row>
     <row r="89" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A89" s="229"/>
+      <c r="A89" s="239"/>
       <c r="B89" s="160" t="s">
         <v>44</v>
       </c>
@@ -5993,7 +5995,7 @@
       <c r="L89" s="161"/>
     </row>
     <row r="90" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A90" s="229"/>
+      <c r="A90" s="239"/>
       <c r="B90" s="158"/>
       <c r="C90" s="170"/>
       <c r="D90" s="138">
@@ -6018,8 +6020,8 @@
       <c r="K90" s="135"/>
       <c r="L90" s="135"/>
     </row>
-    <row r="91" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A91" s="229"/>
+    <row r="91" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A91" s="239"/>
       <c r="B91" s="159" t="s">
         <v>262</v>
       </c>
@@ -6047,7 +6049,7 @@
       <c r="L91" s="161"/>
     </row>
     <row r="92" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A92" s="229"/>
+      <c r="A92" s="239"/>
       <c r="B92" s="158"/>
       <c r="C92" s="170"/>
       <c r="D92" s="138">
@@ -6073,7 +6075,7 @@
       <c r="L92" s="135"/>
     </row>
     <row r="93" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A93" s="229"/>
+      <c r="A93" s="239"/>
       <c r="B93" s="159" t="s">
         <v>270</v>
       </c>
@@ -6102,7 +6104,7 @@
       <c r="L93" s="161"/>
     </row>
     <row r="94" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A94" s="229"/>
+      <c r="A94" s="239"/>
       <c r="B94" s="158"/>
       <c r="C94" s="170"/>
       <c r="D94" s="138">
@@ -6128,7 +6130,7 @@
       <c r="L94" s="135"/>
     </row>
     <row r="95" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A95" s="229"/>
+      <c r="A95" s="239"/>
       <c r="B95" s="159" t="s">
         <v>274</v>
       </c>
@@ -6156,7 +6158,7 @@
       <c r="L95" s="161"/>
     </row>
     <row r="96" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A96" s="229"/>
+      <c r="A96" s="239"/>
       <c r="B96" s="158"/>
       <c r="C96" s="170"/>
       <c r="D96" s="138">
@@ -6181,8 +6183,8 @@
       <c r="K96" s="135"/>
       <c r="L96" s="135"/>
     </row>
-    <row r="97" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A97" s="229"/>
+    <row r="97" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A97" s="239"/>
       <c r="B97" s="159" t="s">
         <v>273</v>
       </c>
@@ -6210,7 +6212,7 @@
       <c r="L97" s="161"/>
     </row>
     <row r="98" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A98" s="229"/>
+      <c r="A98" s="239"/>
       <c r="B98" s="158"/>
       <c r="C98" s="170"/>
       <c r="D98" s="138">
@@ -6235,7 +6237,7 @@
       <c r="L98" s="135"/>
     </row>
     <row r="99" spans="1:12" s="123" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A99" s="229"/>
+      <c r="A99" s="239"/>
       <c r="B99" s="159" t="s">
         <v>272</v>
       </c>
@@ -6264,7 +6266,7 @@
       <c r="L99" s="163"/>
     </row>
     <row r="100" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A100" s="229"/>
+      <c r="A100" s="239"/>
       <c r="B100" s="158"/>
       <c r="C100" s="170"/>
       <c r="D100" s="174">
@@ -6288,8 +6290,8 @@
       <c r="K100" s="164"/>
       <c r="L100" s="164"/>
     </row>
-    <row r="101" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A101" s="229"/>
+    <row r="101" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A101" s="239"/>
       <c r="B101" s="159" t="s">
         <v>276</v>
       </c>
@@ -6318,7 +6320,7 @@
       <c r="L101" s="164"/>
     </row>
     <row r="102" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A102" s="227"/>
+      <c r="A102" s="232"/>
       <c r="B102" s="142"/>
       <c r="C102" s="143"/>
       <c r="D102" s="142">
@@ -6344,13 +6346,13 @@
       <c r="L102" s="165"/>
     </row>
     <row r="103" spans="1:12" s="123" customFormat="1" ht="33.6" customHeight="1">
-      <c r="A103" s="228">
+      <c r="A103" s="240">
         <v>4</v>
       </c>
-      <c r="B103" s="230" t="s">
+      <c r="B103" s="245" t="s">
         <v>292</v>
       </c>
-      <c r="C103" s="232" t="s">
+      <c r="C103" s="236" t="s">
         <v>293</v>
       </c>
       <c r="D103" s="133" t="s">
@@ -6379,9 +6381,9 @@
       </c>
     </row>
     <row r="104" spans="1:12" s="123" customFormat="1" ht="33" customHeight="1">
-      <c r="A104" s="226"/>
-      <c r="B104" s="231"/>
-      <c r="C104" s="233"/>
+      <c r="A104" s="241"/>
+      <c r="B104" s="246"/>
+      <c r="C104" s="237"/>
       <c r="D104" s="135">
         <v>2.39</v>
       </c>
@@ -6412,8 +6414,8 @@
         <v>280.80110000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="123" customFormat="1" ht="28.9" customHeight="1">
-      <c r="A105" s="229"/>
+    <row r="105" spans="1:12" s="123" customFormat="1" ht="28.95" customHeight="1">
+      <c r="A105" s="239"/>
       <c r="B105" s="159" t="s">
         <v>257</v>
       </c>
@@ -6441,7 +6443,7 @@
       <c r="L105" s="135"/>
     </row>
     <row r="106" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A106" s="229"/>
+      <c r="A106" s="239"/>
       <c r="B106" s="158"/>
       <c r="C106" s="158"/>
       <c r="D106" s="138">
@@ -6466,8 +6468,8 @@
       <c r="K106" s="135"/>
       <c r="L106" s="135"/>
     </row>
-    <row r="107" spans="1:12" s="123" customFormat="1" ht="15.75">
-      <c r="A107" s="229"/>
+    <row r="107" spans="1:12" s="123" customFormat="1" ht="15.6">
+      <c r="A107" s="239"/>
       <c r="B107" s="159" t="s">
         <v>258</v>
       </c>
@@ -6495,7 +6497,7 @@
       <c r="L107" s="161"/>
     </row>
     <row r="108" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A108" s="229"/>
+      <c r="A108" s="239"/>
       <c r="B108" s="158"/>
       <c r="C108" s="170"/>
       <c r="D108" s="138">
@@ -6521,7 +6523,7 @@
       <c r="L108" s="135"/>
     </row>
     <row r="109" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A109" s="229"/>
+      <c r="A109" s="239"/>
       <c r="B109" s="159" t="s">
         <v>41</v>
       </c>
@@ -6549,7 +6551,7 @@
       <c r="L109" s="161"/>
     </row>
     <row r="110" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A110" s="229"/>
+      <c r="A110" s="239"/>
       <c r="B110" s="158"/>
       <c r="C110" s="170"/>
       <c r="D110" s="138">
@@ -6574,8 +6576,8 @@
       <c r="K110" s="135"/>
       <c r="L110" s="135"/>
     </row>
-    <row r="111" spans="1:12" s="123" customFormat="1" ht="31.5">
-      <c r="A111" s="229"/>
+    <row r="111" spans="1:12" s="123" customFormat="1" ht="31.2">
+      <c r="A111" s="239"/>
       <c r="B111" s="159" t="s">
         <v>260</v>
       </c>
@@ -6603,7 +6605,7 @@
       <c r="L111" s="161"/>
     </row>
     <row r="112" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A112" s="229"/>
+      <c r="A112" s="239"/>
       <c r="B112" s="158"/>
       <c r="C112" s="170"/>
       <c r="D112" s="138">
@@ -6629,7 +6631,7 @@
       <c r="L112" s="135"/>
     </row>
     <row r="113" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A113" s="229"/>
+      <c r="A113" s="239"/>
       <c r="B113" s="160" t="s">
         <v>44</v>
       </c>
@@ -6657,7 +6659,7 @@
       <c r="L113" s="161"/>
     </row>
     <row r="114" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A114" s="229"/>
+      <c r="A114" s="239"/>
       <c r="B114" s="158"/>
       <c r="C114" s="170"/>
       <c r="D114" s="138">
@@ -6682,8 +6684,8 @@
       <c r="K114" s="135"/>
       <c r="L114" s="135"/>
     </row>
-    <row r="115" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A115" s="229"/>
+    <row r="115" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A115" s="239"/>
       <c r="B115" s="159" t="s">
         <v>262</v>
       </c>
@@ -6711,7 +6713,7 @@
       <c r="L115" s="161"/>
     </row>
     <row r="116" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A116" s="229"/>
+      <c r="A116" s="239"/>
       <c r="B116" s="158"/>
       <c r="C116" s="170"/>
       <c r="D116" s="138">
@@ -6737,7 +6739,7 @@
       <c r="L116" s="135"/>
     </row>
     <row r="117" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A117" s="229"/>
+      <c r="A117" s="239"/>
       <c r="B117" s="159" t="s">
         <v>270</v>
       </c>
@@ -6766,7 +6768,7 @@
       <c r="L117" s="161"/>
     </row>
     <row r="118" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A118" s="229"/>
+      <c r="A118" s="239"/>
       <c r="B118" s="158"/>
       <c r="C118" s="170"/>
       <c r="D118" s="138">
@@ -6792,7 +6794,7 @@
       <c r="L118" s="135"/>
     </row>
     <row r="119" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A119" s="229"/>
+      <c r="A119" s="239"/>
       <c r="B119" s="159" t="s">
         <v>274</v>
       </c>
@@ -6820,7 +6822,7 @@
       <c r="L119" s="161"/>
     </row>
     <row r="120" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A120" s="229"/>
+      <c r="A120" s="239"/>
       <c r="B120" s="158"/>
       <c r="C120" s="170"/>
       <c r="D120" s="138">
@@ -6845,8 +6847,8 @@
       <c r="K120" s="135"/>
       <c r="L120" s="135"/>
     </row>
-    <row r="121" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A121" s="229"/>
+    <row r="121" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A121" s="239"/>
       <c r="B121" s="159" t="s">
         <v>273</v>
       </c>
@@ -6874,7 +6876,7 @@
       <c r="L121" s="161"/>
     </row>
     <row r="122" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A122" s="229"/>
+      <c r="A122" s="239"/>
       <c r="B122" s="158"/>
       <c r="C122" s="170"/>
       <c r="D122" s="138">
@@ -6899,7 +6901,7 @@
       <c r="L122" s="135"/>
     </row>
     <row r="123" spans="1:12" s="123" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A123" s="229"/>
+      <c r="A123" s="239"/>
       <c r="B123" s="159" t="s">
         <v>272</v>
       </c>
@@ -6928,7 +6930,7 @@
       <c r="L123" s="163"/>
     </row>
     <row r="124" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A124" s="229"/>
+      <c r="A124" s="239"/>
       <c r="B124" s="158"/>
       <c r="C124" s="170"/>
       <c r="D124" s="174">
@@ -6952,8 +6954,8 @@
       <c r="K124" s="164"/>
       <c r="L124" s="164"/>
     </row>
-    <row r="125" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A125" s="229"/>
+    <row r="125" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A125" s="239"/>
       <c r="B125" s="159" t="s">
         <v>276</v>
       </c>
@@ -6982,7 +6984,7 @@
       <c r="L125" s="164"/>
     </row>
     <row r="126" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A126" s="227"/>
+      <c r="A126" s="232"/>
       <c r="B126" s="142"/>
       <c r="C126" s="143"/>
       <c r="D126" s="142">
@@ -7008,13 +7010,13 @@
       <c r="L126" s="165"/>
     </row>
     <row r="127" spans="1:12" s="123" customFormat="1" ht="36" customHeight="1">
-      <c r="A127" s="228">
+      <c r="A127" s="240">
         <v>5</v>
       </c>
-      <c r="B127" s="230" t="s">
+      <c r="B127" s="245" t="s">
         <v>294</v>
       </c>
-      <c r="C127" s="232" t="s">
+      <c r="C127" s="236" t="s">
         <v>295</v>
       </c>
       <c r="D127" s="133" t="s">
@@ -7042,10 +7044,10 @@
         <v>210.34</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="123" customFormat="1" ht="34.15" customHeight="1">
-      <c r="A128" s="226"/>
-      <c r="B128" s="231"/>
-      <c r="C128" s="233"/>
+    <row r="128" spans="1:12" s="123" customFormat="1" ht="34.200000000000003" customHeight="1">
+      <c r="A128" s="241"/>
+      <c r="B128" s="246"/>
+      <c r="C128" s="237"/>
       <c r="D128" s="135">
         <v>10.58</v>
       </c>
@@ -7076,8 +7078,8 @@
         <v>2225.3971999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="123" customFormat="1" ht="35.450000000000003" customHeight="1">
-      <c r="A129" s="229"/>
+    <row r="129" spans="1:12" s="123" customFormat="1" ht="35.4" customHeight="1">
+      <c r="A129" s="239"/>
       <c r="B129" s="159" t="s">
         <v>257</v>
       </c>
@@ -7105,7 +7107,7 @@
       <c r="L129" s="135"/>
     </row>
     <row r="130" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A130" s="229"/>
+      <c r="A130" s="239"/>
       <c r="B130" s="158"/>
       <c r="C130" s="158"/>
       <c r="D130" s="138">
@@ -7131,7 +7133,7 @@
       <c r="L130" s="135"/>
     </row>
     <row r="131" spans="1:12" s="123" customFormat="1" ht="24.6" customHeight="1">
-      <c r="A131" s="229"/>
+      <c r="A131" s="239"/>
       <c r="B131" s="159" t="s">
         <v>258</v>
       </c>
@@ -7159,7 +7161,7 @@
       <c r="L131" s="161"/>
     </row>
     <row r="132" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A132" s="229"/>
+      <c r="A132" s="239"/>
       <c r="B132" s="158"/>
       <c r="C132" s="170"/>
       <c r="D132" s="138">
@@ -7184,8 +7186,8 @@
       <c r="K132" s="135"/>
       <c r="L132" s="135"/>
     </row>
-    <row r="133" spans="1:12" s="123" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A133" s="229"/>
+    <row r="133" spans="1:12" s="123" customFormat="1" ht="29.4" customHeight="1">
+      <c r="A133" s="239"/>
       <c r="B133" s="159" t="s">
         <v>41</v>
       </c>
@@ -7213,7 +7215,7 @@
       <c r="L133" s="161"/>
     </row>
     <row r="134" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A134" s="229"/>
+      <c r="A134" s="239"/>
       <c r="B134" s="158"/>
       <c r="C134" s="170"/>
       <c r="D134" s="138">
@@ -7238,8 +7240,8 @@
       <c r="K134" s="135"/>
       <c r="L134" s="135"/>
     </row>
-    <row r="135" spans="1:12" s="123" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A135" s="229"/>
+    <row r="135" spans="1:12" s="123" customFormat="1" ht="25.2" customHeight="1">
+      <c r="A135" s="239"/>
       <c r="B135" s="159" t="s">
         <v>260</v>
       </c>
@@ -7267,7 +7269,7 @@
       <c r="L135" s="161"/>
     </row>
     <row r="136" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A136" s="229"/>
+      <c r="A136" s="239"/>
       <c r="B136" s="158"/>
       <c r="C136" s="170"/>
       <c r="D136" s="138">
@@ -7292,8 +7294,8 @@
       <c r="K136" s="135"/>
       <c r="L136" s="135"/>
     </row>
-    <row r="137" spans="1:12" s="123" customFormat="1" ht="37.9" customHeight="1">
-      <c r="A137" s="229"/>
+    <row r="137" spans="1:12" s="123" customFormat="1" ht="37.950000000000003" customHeight="1">
+      <c r="A137" s="239"/>
       <c r="B137" s="159" t="s">
         <v>266</v>
       </c>
@@ -7321,7 +7323,7 @@
       <c r="L137" s="161"/>
     </row>
     <row r="138" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A138" s="229"/>
+      <c r="A138" s="239"/>
       <c r="B138" s="158"/>
       <c r="C138" s="170"/>
       <c r="D138" s="138">
@@ -7347,7 +7349,7 @@
       <c r="L138" s="135"/>
     </row>
     <row r="139" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A139" s="229"/>
+      <c r="A139" s="239"/>
       <c r="B139" s="160" t="s">
         <v>44</v>
       </c>
@@ -7375,7 +7377,7 @@
       <c r="L139" s="161"/>
     </row>
     <row r="140" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A140" s="229"/>
+      <c r="A140" s="239"/>
       <c r="B140" s="158"/>
       <c r="C140" s="170"/>
       <c r="D140" s="138">
@@ -7400,8 +7402,8 @@
       <c r="K140" s="135"/>
       <c r="L140" s="135"/>
     </row>
-    <row r="141" spans="1:12" s="123" customFormat="1" ht="31.9" customHeight="1">
-      <c r="A141" s="229"/>
+    <row r="141" spans="1:12" s="123" customFormat="1" ht="31.95" customHeight="1">
+      <c r="A141" s="239"/>
       <c r="B141" s="159" t="s">
         <v>262</v>
       </c>
@@ -7429,7 +7431,7 @@
       <c r="L141" s="161"/>
     </row>
     <row r="142" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A142" s="229"/>
+      <c r="A142" s="239"/>
       <c r="B142" s="158"/>
       <c r="C142" s="170"/>
       <c r="D142" s="138">
@@ -7455,7 +7457,7 @@
       <c r="L142" s="135"/>
     </row>
     <row r="143" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A143" s="229"/>
+      <c r="A143" s="239"/>
       <c r="B143" s="159" t="s">
         <v>270</v>
       </c>
@@ -7484,7 +7486,7 @@
       <c r="L143" s="161"/>
     </row>
     <row r="144" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A144" s="229"/>
+      <c r="A144" s="239"/>
       <c r="B144" s="158"/>
       <c r="C144" s="170"/>
       <c r="D144" s="138">
@@ -7509,8 +7511,8 @@
       <c r="K144" s="135"/>
       <c r="L144" s="135"/>
     </row>
-    <row r="145" spans="1:12" s="123" customFormat="1" ht="29.45" customHeight="1">
-      <c r="A145" s="229"/>
+    <row r="145" spans="1:12" s="123" customFormat="1" ht="29.4" customHeight="1">
+      <c r="A145" s="239"/>
       <c r="B145" s="159" t="s">
         <v>274</v>
       </c>
@@ -7538,7 +7540,7 @@
       <c r="L145" s="161"/>
     </row>
     <row r="146" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A146" s="229"/>
+      <c r="A146" s="239"/>
       <c r="B146" s="158"/>
       <c r="C146" s="170"/>
       <c r="D146" s="138">
@@ -7563,8 +7565,8 @@
       <c r="K146" s="135"/>
       <c r="L146" s="135"/>
     </row>
-    <row r="147" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A147" s="229"/>
+    <row r="147" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A147" s="239"/>
       <c r="B147" s="159" t="s">
         <v>273</v>
       </c>
@@ -7593,7 +7595,7 @@
       <c r="L147" s="161"/>
     </row>
     <row r="148" spans="1:12" s="123" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A148" s="229"/>
+      <c r="A148" s="239"/>
       <c r="B148" s="158"/>
       <c r="C148" s="170"/>
       <c r="D148" s="138">
@@ -7618,7 +7620,7 @@
       <c r="L148" s="135"/>
     </row>
     <row r="149" spans="1:12" s="123" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A149" s="229"/>
+      <c r="A149" s="239"/>
       <c r="B149" s="159" t="s">
         <v>272</v>
       </c>
@@ -7647,7 +7649,7 @@
       <c r="L149" s="163"/>
     </row>
     <row r="150" spans="1:12" s="123" customFormat="1" ht="21.6" customHeight="1">
-      <c r="A150" s="229"/>
+      <c r="A150" s="239"/>
       <c r="B150" s="158"/>
       <c r="C150" s="170"/>
       <c r="D150" s="174">
@@ -7671,8 +7673,8 @@
       <c r="K150" s="164"/>
       <c r="L150" s="164"/>
     </row>
-    <row r="151" spans="1:12" s="123" customFormat="1" ht="47.25">
-      <c r="A151" s="229"/>
+    <row r="151" spans="1:12" s="123" customFormat="1" ht="46.8">
+      <c r="A151" s="239"/>
       <c r="B151" s="159" t="s">
         <v>276</v>
       </c>
@@ -7700,8 +7702,8 @@
       <c r="K151" s="164"/>
       <c r="L151" s="164"/>
     </row>
-    <row r="152" spans="1:12" s="123" customFormat="1" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A152" s="227"/>
+    <row r="152" spans="1:12" s="123" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A152" s="232"/>
       <c r="B152" s="142"/>
       <c r="C152" s="143"/>
       <c r="D152" s="142">
@@ -7726,8 +7728,8 @@
       <c r="K152" s="165"/>
       <c r="L152" s="165"/>
     </row>
-    <row r="153" spans="1:12" s="132" customFormat="1" ht="71.25">
-      <c r="A153" s="225">
+    <row r="153" spans="1:12" s="132" customFormat="1" ht="90">
+      <c r="A153" s="244">
         <v>6</v>
       </c>
       <c r="B153" s="184" t="s">
@@ -7761,8 +7763,8 @@
         <v>40.26</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A154" s="226"/>
+    <row r="154" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A154" s="241"/>
       <c r="B154" s="134"/>
       <c r="C154" s="134"/>
       <c r="D154" s="135">
@@ -7795,8 +7797,8 @@
         <v>8.8571999999999989</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A155" s="226"/>
+    <row r="155" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A155" s="241"/>
       <c r="B155" s="177" t="s">
         <v>48</v>
       </c>
@@ -7823,8 +7825,8 @@
       <c r="K155" s="135"/>
       <c r="L155" s="135"/>
     </row>
-    <row r="156" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A156" s="226"/>
+    <row r="156" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A156" s="241"/>
       <c r="B156" s="169"/>
       <c r="C156" s="178"/>
       <c r="D156" s="134">
@@ -7849,8 +7851,8 @@
       <c r="K156" s="135"/>
       <c r="L156" s="135"/>
     </row>
-    <row r="157" spans="1:12" s="132" customFormat="1" ht="31.5">
-      <c r="A157" s="226"/>
+    <row r="157" spans="1:12" s="132" customFormat="1" ht="31.2">
+      <c r="A157" s="241"/>
       <c r="B157" s="177" t="s">
         <v>50</v>
       </c>
@@ -7877,8 +7879,8 @@
       <c r="K157" s="135"/>
       <c r="L157" s="135"/>
     </row>
-    <row r="158" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A158" s="226"/>
+    <row r="158" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A158" s="241"/>
       <c r="B158" s="169"/>
       <c r="C158" s="178"/>
       <c r="D158" s="134">
@@ -7903,8 +7905,8 @@
       <c r="K158" s="135"/>
       <c r="L158" s="135"/>
     </row>
-    <row r="159" spans="1:12" s="132" customFormat="1" ht="47.25">
-      <c r="A159" s="226"/>
+    <row r="159" spans="1:12" s="132" customFormat="1" ht="46.8">
+      <c r="A159" s="241"/>
       <c r="B159" s="177" t="s">
         <v>52</v>
       </c>
@@ -7931,8 +7933,8 @@
       <c r="K159" s="135"/>
       <c r="L159" s="135"/>
     </row>
-    <row r="160" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A160" s="226"/>
+    <row r="160" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A160" s="241"/>
       <c r="B160" s="169"/>
       <c r="C160" s="178"/>
       <c r="D160" s="134">
@@ -7957,8 +7959,8 @@
       <c r="K160" s="135"/>
       <c r="L160" s="135"/>
     </row>
-    <row r="161" spans="1:12" s="132" customFormat="1" ht="94.5">
-      <c r="A161" s="226"/>
+    <row r="161" spans="1:12" s="132" customFormat="1" ht="93.6">
+      <c r="A161" s="241"/>
       <c r="B161" s="177" t="s">
         <v>54</v>
       </c>
@@ -7985,8 +7987,8 @@
       <c r="K161" s="135"/>
       <c r="L161" s="135"/>
     </row>
-    <row r="162" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A162" s="226"/>
+    <row r="162" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A162" s="241"/>
       <c r="B162" s="169"/>
       <c r="C162" s="178"/>
       <c r="D162" s="134">
@@ -8011,8 +8013,8 @@
       <c r="K162" s="135"/>
       <c r="L162" s="135"/>
     </row>
-    <row r="163" spans="1:12" s="132" customFormat="1" ht="31.5">
-      <c r="A163" s="226"/>
+    <row r="163" spans="1:12" s="132" customFormat="1" ht="31.2">
+      <c r="A163" s="241"/>
       <c r="B163" s="177" t="s">
         <v>56</v>
       </c>
@@ -8039,8 +8041,8 @@
       <c r="K163" s="135"/>
       <c r="L163" s="135"/>
     </row>
-    <row r="164" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A164" s="226"/>
+    <row r="164" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A164" s="241"/>
       <c r="B164" s="169"/>
       <c r="C164" s="178"/>
       <c r="D164" s="134">
@@ -8065,8 +8067,8 @@
       <c r="K164" s="135"/>
       <c r="L164" s="135"/>
     </row>
-    <row r="165" spans="1:12" s="132" customFormat="1" ht="63">
-      <c r="A165" s="226"/>
+    <row r="165" spans="1:12" s="132" customFormat="1" ht="62.4">
+      <c r="A165" s="241"/>
       <c r="B165" s="177" t="s">
         <v>58</v>
       </c>
@@ -8093,8 +8095,8 @@
       <c r="K165" s="135"/>
       <c r="L165" s="135"/>
     </row>
-    <row r="166" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A166" s="226"/>
+    <row r="166" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A166" s="241"/>
       <c r="B166" s="169"/>
       <c r="C166" s="169"/>
       <c r="D166" s="134">
@@ -8119,8 +8121,8 @@
       <c r="K166" s="135"/>
       <c r="L166" s="135"/>
     </row>
-    <row r="167" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A167" s="226"/>
+    <row r="167" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A167" s="241"/>
       <c r="B167" s="179" t="s">
         <v>60</v>
       </c>
@@ -8148,8 +8150,8 @@
       <c r="K167" s="167"/>
       <c r="L167" s="167"/>
     </row>
-    <row r="168" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A168" s="227"/>
+    <row r="168" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A168" s="232"/>
       <c r="B168" s="175"/>
       <c r="C168" s="175"/>
       <c r="D168" s="175">
@@ -8174,8 +8176,8 @@
       <c r="K168" s="176"/>
       <c r="L168" s="176"/>
     </row>
-    <row r="169" spans="1:12" s="132" customFormat="1" ht="71.25">
-      <c r="A169" s="225">
+    <row r="169" spans="1:12" s="132" customFormat="1" ht="90">
+      <c r="A169" s="244">
         <v>7</v>
       </c>
       <c r="B169" s="183" t="s">
@@ -8209,8 +8211,8 @@
         <v>40.590000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A170" s="226"/>
+    <row r="170" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A170" s="241"/>
       <c r="B170" s="134"/>
       <c r="C170" s="134"/>
       <c r="D170" s="135">
@@ -8243,8 +8245,8 @@
         <v>25.165800000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A171" s="226"/>
+    <row r="171" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A171" s="241"/>
       <c r="B171" s="177" t="s">
         <v>48</v>
       </c>
@@ -8271,8 +8273,8 @@
       <c r="K171" s="135"/>
       <c r="L171" s="135"/>
     </row>
-    <row r="172" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A172" s="226"/>
+    <row r="172" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A172" s="241"/>
       <c r="B172" s="169"/>
       <c r="C172" s="178"/>
       <c r="D172" s="134">
@@ -8297,8 +8299,8 @@
       <c r="K172" s="135"/>
       <c r="L172" s="135"/>
     </row>
-    <row r="173" spans="1:12" s="132" customFormat="1" ht="31.5">
-      <c r="A173" s="226"/>
+    <row r="173" spans="1:12" s="132" customFormat="1" ht="31.2">
+      <c r="A173" s="241"/>
       <c r="B173" s="177" t="s">
         <v>50</v>
       </c>
@@ -8325,8 +8327,8 @@
       <c r="K173" s="135"/>
       <c r="L173" s="135"/>
     </row>
-    <row r="174" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A174" s="226"/>
+    <row r="174" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A174" s="241"/>
       <c r="B174" s="169"/>
       <c r="C174" s="178"/>
       <c r="D174" s="134">
@@ -8351,8 +8353,8 @@
       <c r="K174" s="135"/>
       <c r="L174" s="135"/>
     </row>
-    <row r="175" spans="1:12" s="132" customFormat="1" ht="47.25">
-      <c r="A175" s="226"/>
+    <row r="175" spans="1:12" s="132" customFormat="1" ht="46.8">
+      <c r="A175" s="241"/>
       <c r="B175" s="177" t="s">
         <v>52</v>
       </c>
@@ -8379,8 +8381,8 @@
       <c r="K175" s="135"/>
       <c r="L175" s="135"/>
     </row>
-    <row r="176" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A176" s="226"/>
+    <row r="176" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A176" s="241"/>
       <c r="B176" s="169"/>
       <c r="C176" s="178"/>
       <c r="D176" s="134">
@@ -8405,8 +8407,8 @@
       <c r="K176" s="135"/>
       <c r="L176" s="135"/>
     </row>
-    <row r="177" spans="1:12" s="132" customFormat="1" ht="94.5">
-      <c r="A177" s="226"/>
+    <row r="177" spans="1:12" s="132" customFormat="1" ht="93.6">
+      <c r="A177" s="241"/>
       <c r="B177" s="177" t="s">
         <v>54</v>
       </c>
@@ -8433,8 +8435,8 @@
       <c r="K177" s="135"/>
       <c r="L177" s="135"/>
     </row>
-    <row r="178" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A178" s="226"/>
+    <row r="178" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A178" s="241"/>
       <c r="B178" s="169"/>
       <c r="C178" s="178"/>
       <c r="D178" s="134">
@@ -8459,8 +8461,8 @@
       <c r="K178" s="135"/>
       <c r="L178" s="135"/>
     </row>
-    <row r="179" spans="1:12" s="132" customFormat="1" ht="31.5">
-      <c r="A179" s="226"/>
+    <row r="179" spans="1:12" s="132" customFormat="1" ht="31.2">
+      <c r="A179" s="241"/>
       <c r="B179" s="177" t="s">
         <v>56</v>
       </c>
@@ -8487,8 +8489,8 @@
       <c r="K179" s="135"/>
       <c r="L179" s="135"/>
     </row>
-    <row r="180" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A180" s="226"/>
+    <row r="180" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A180" s="241"/>
       <c r="B180" s="169"/>
       <c r="C180" s="178"/>
       <c r="D180" s="134">
@@ -8513,8 +8515,8 @@
       <c r="K180" s="135"/>
       <c r="L180" s="135"/>
     </row>
-    <row r="181" spans="1:12" s="132" customFormat="1" ht="63">
-      <c r="A181" s="226"/>
+    <row r="181" spans="1:12" s="132" customFormat="1" ht="62.4">
+      <c r="A181" s="241"/>
       <c r="B181" s="177" t="s">
         <v>58</v>
       </c>
@@ -8541,8 +8543,8 @@
       <c r="K181" s="135"/>
       <c r="L181" s="135"/>
     </row>
-    <row r="182" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A182" s="226"/>
+    <row r="182" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A182" s="241"/>
       <c r="B182" s="169"/>
       <c r="C182" s="169"/>
       <c r="D182" s="134">
@@ -8567,8 +8569,8 @@
       <c r="K182" s="135"/>
       <c r="L182" s="135"/>
     </row>
-    <row r="183" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A183" s="226"/>
+    <row r="183" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A183" s="241"/>
       <c r="B183" s="179" t="s">
         <v>60</v>
       </c>
@@ -8596,8 +8598,8 @@
       <c r="K183" s="167"/>
       <c r="L183" s="167"/>
     </row>
-    <row r="184" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A184" s="227"/>
+    <row r="184" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A184" s="232"/>
       <c r="B184" s="175"/>
       <c r="C184" s="175"/>
       <c r="D184" s="175">
@@ -8622,8 +8624,8 @@
       <c r="K184" s="176"/>
       <c r="L184" s="176"/>
     </row>
-    <row r="185" spans="1:12" s="132" customFormat="1" ht="71.25">
-      <c r="A185" s="225">
+    <row r="185" spans="1:12" s="132" customFormat="1" ht="90">
+      <c r="A185" s="244">
         <v>8</v>
       </c>
       <c r="B185" s="184" t="s">
@@ -8657,8 +8659,8 @@
         <v>42.34</v>
       </c>
     </row>
-    <row r="186" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A186" s="226"/>
+    <row r="186" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A186" s="241"/>
       <c r="B186" s="134"/>
       <c r="C186" s="134"/>
       <c r="D186" s="135">
@@ -8692,8 +8694,8 @@
         <v>106.205656</v>
       </c>
     </row>
-    <row r="187" spans="1:12" s="132" customFormat="1" ht="15.75">
-      <c r="A187" s="226"/>
+    <row r="187" spans="1:12" s="132" customFormat="1" ht="15.6">
+      <c r="A187" s="241"/>
       <c r="B187" s="177" t="s">
         <v>48</v>
       </c>
@@ -8720,8 +8722,8 @@
       <c r="K187" s="135"/>
       <c r="L187" s="135"/>
     </row>
-    <row r="188" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A188" s="226"/>
+    <row r="188" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A188" s="241"/>
       <c r="B188" s="169"/>
       <c r="C188" s="178"/>
       <c r="D188" s="134">
@@ -8746,8 +8748,8 @@
       <c r="K188" s="135"/>
       <c r="L188" s="135"/>
     </row>
-    <row r="189" spans="1:12" s="132" customFormat="1" ht="31.5">
-      <c r="A189" s="226"/>
+    <row r="189" spans="1:12" s="132" customFormat="1" ht="31.2">
+      <c r="A189" s="241"/>
       <c r="B189" s="177" t="s">
         <v>50</v>
       </c>
@@ -8774,8 +8776,8 @@
       <c r="K189" s="135"/>
       <c r="L189" s="135"/>
     </row>
-    <row r="190" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A190" s="226"/>
+    <row r="190" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A190" s="241"/>
       <c r="B190" s="169"/>
       <c r="C190" s="178"/>
       <c r="D190" s="134">
@@ -8800,8 +8802,8 @@
       <c r="K190" s="135"/>
       <c r="L190" s="135"/>
     </row>
-    <row r="191" spans="1:12" s="132" customFormat="1" ht="47.25">
-      <c r="A191" s="226"/>
+    <row r="191" spans="1:12" s="132" customFormat="1" ht="46.8">
+      <c r="A191" s="241"/>
       <c r="B191" s="177" t="s">
         <v>52</v>
       </c>
@@ -8828,8 +8830,8 @@
       <c r="K191" s="135"/>
       <c r="L191" s="135"/>
     </row>
-    <row r="192" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A192" s="226"/>
+    <row r="192" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A192" s="241"/>
       <c r="B192" s="169"/>
       <c r="C192" s="178"/>
       <c r="D192" s="134">
@@ -8854,8 +8856,8 @@
       <c r="K192" s="135"/>
       <c r="L192" s="135"/>
     </row>
-    <row r="193" spans="1:12" s="132" customFormat="1" ht="94.5">
-      <c r="A193" s="226"/>
+    <row r="193" spans="1:12" s="132" customFormat="1" ht="93.6">
+      <c r="A193" s="241"/>
       <c r="B193" s="177" t="s">
         <v>54</v>
       </c>
@@ -8882,8 +8884,8 @@
       <c r="K193" s="135"/>
       <c r="L193" s="135"/>
     </row>
-    <row r="194" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A194" s="226"/>
+    <row r="194" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A194" s="241"/>
       <c r="B194" s="169"/>
       <c r="C194" s="178"/>
       <c r="D194" s="134">
@@ -8908,8 +8910,8 @@
       <c r="K194" s="135"/>
       <c r="L194" s="135"/>
     </row>
-    <row r="195" spans="1:12" s="132" customFormat="1" ht="31.5">
-      <c r="A195" s="226"/>
+    <row r="195" spans="1:12" s="132" customFormat="1" ht="31.2">
+      <c r="A195" s="241"/>
       <c r="B195" s="177" t="s">
         <v>56</v>
       </c>
@@ -8936,8 +8938,8 @@
       <c r="K195" s="135"/>
       <c r="L195" s="135"/>
     </row>
-    <row r="196" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A196" s="226"/>
+    <row r="196" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A196" s="241"/>
       <c r="B196" s="169"/>
       <c r="C196" s="178"/>
       <c r="D196" s="134">
@@ -8962,8 +8964,8 @@
       <c r="K196" s="135"/>
       <c r="L196" s="135"/>
     </row>
-    <row r="197" spans="1:12" s="132" customFormat="1" ht="63">
-      <c r="A197" s="226"/>
+    <row r="197" spans="1:12" s="132" customFormat="1" ht="62.4">
+      <c r="A197" s="241"/>
       <c r="B197" s="177" t="s">
         <v>58</v>
       </c>
@@ -8990,8 +8992,8 @@
       <c r="K197" s="135"/>
       <c r="L197" s="135"/>
     </row>
-    <row r="198" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1">
-      <c r="A198" s="226"/>
+    <row r="198" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A198" s="241"/>
       <c r="B198" s="169"/>
       <c r="C198" s="169"/>
       <c r="D198" s="134">
@@ -9016,8 +9018,8 @@
       <c r="K198" s="135"/>
       <c r="L198" s="135"/>
     </row>
-    <row r="199" spans="1:12" s="132" customFormat="1" ht="15.75">
-      <c r="A199" s="226"/>
+    <row r="199" spans="1:12" s="132" customFormat="1" ht="15.6">
+      <c r="A199" s="241"/>
       <c r="B199" s="179" t="s">
         <v>60</v>
       </c>
@@ -9045,8 +9047,8 @@
       <c r="K199" s="167"/>
       <c r="L199" s="167"/>
     </row>
-    <row r="200" spans="1:12" s="132" customFormat="1" ht="17.45" customHeight="1" thickBot="1">
-      <c r="A200" s="227"/>
+    <row r="200" spans="1:12" s="132" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A200" s="232"/>
       <c r="B200" s="145"/>
       <c r="C200" s="145"/>
       <c r="D200" s="145">
@@ -9071,8 +9073,8 @@
       <c r="K200" s="167"/>
       <c r="L200" s="167"/>
     </row>
-    <row r="201" spans="1:12" ht="71.25">
-      <c r="A201" s="225">
+    <row r="201" spans="1:12" ht="90">
+      <c r="A201" s="244">
         <v>8</v>
       </c>
       <c r="B201" s="182" t="s">
@@ -9107,7 +9109,7 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A202" s="226"/>
+      <c r="A202" s="241"/>
       <c r="B202" s="134"/>
       <c r="C202" s="134"/>
       <c r="D202" s="135">
@@ -9141,7 +9143,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A203" s="226"/>
+      <c r="A203" s="241"/>
       <c r="B203" s="177" t="s">
         <v>48</v>
       </c>
@@ -9169,7 +9171,7 @@
       <c r="L203" s="135"/>
     </row>
     <row r="204" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A204" s="226"/>
+      <c r="A204" s="241"/>
       <c r="B204" s="169"/>
       <c r="C204" s="178"/>
       <c r="D204" s="134">
@@ -9195,7 +9197,7 @@
       <c r="L204" s="135"/>
     </row>
     <row r="205" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A205" s="226"/>
+      <c r="A205" s="241"/>
       <c r="B205" s="177" t="s">
         <v>50</v>
       </c>
@@ -9223,7 +9225,7 @@
       <c r="L205" s="135"/>
     </row>
     <row r="206" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A206" s="226"/>
+      <c r="A206" s="241"/>
       <c r="B206" s="169"/>
       <c r="C206" s="178"/>
       <c r="D206" s="134">
@@ -9248,8 +9250,8 @@
       <c r="K206" s="135"/>
       <c r="L206" s="135"/>
     </row>
-    <row r="207" spans="1:12" ht="47.25">
-      <c r="A207" s="226"/>
+    <row r="207" spans="1:12" ht="46.8">
+      <c r="A207" s="241"/>
       <c r="B207" s="177" t="s">
         <v>52</v>
       </c>
@@ -9277,7 +9279,7 @@
       <c r="L207" s="135"/>
     </row>
     <row r="208" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A208" s="226"/>
+      <c r="A208" s="241"/>
       <c r="B208" s="169"/>
       <c r="C208" s="178"/>
       <c r="D208" s="134">
@@ -9302,8 +9304,8 @@
       <c r="K208" s="135"/>
       <c r="L208" s="135"/>
     </row>
-    <row r="209" spans="1:16" ht="94.5">
-      <c r="A209" s="226"/>
+    <row r="209" spans="1:16" ht="93.6">
+      <c r="A209" s="241"/>
       <c r="B209" s="177" t="s">
         <v>54</v>
       </c>
@@ -9331,7 +9333,7 @@
       <c r="L209" s="135"/>
     </row>
     <row r="210" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A210" s="226"/>
+      <c r="A210" s="241"/>
       <c r="B210" s="169"/>
       <c r="C210" s="178"/>
       <c r="D210" s="134">
@@ -9357,7 +9359,7 @@
       <c r="L210" s="135"/>
     </row>
     <row r="211" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A211" s="226"/>
+      <c r="A211" s="241"/>
       <c r="B211" s="177" t="s">
         <v>56</v>
       </c>
@@ -9385,7 +9387,7 @@
       <c r="L211" s="135"/>
     </row>
     <row r="212" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A212" s="226"/>
+      <c r="A212" s="241"/>
       <c r="B212" s="169"/>
       <c r="C212" s="178"/>
       <c r="D212" s="134">
@@ -9411,7 +9413,7 @@
       <c r="L212" s="135"/>
     </row>
     <row r="213" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A213" s="226"/>
+      <c r="A213" s="241"/>
       <c r="B213" s="177" t="s">
         <v>58</v>
       </c>
@@ -9439,7 +9441,7 @@
       <c r="L213" s="135"/>
     </row>
     <row r="214" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A214" s="226"/>
+      <c r="A214" s="241"/>
       <c r="B214" s="169"/>
       <c r="C214" s="169"/>
       <c r="D214" s="134">
@@ -9465,7 +9467,7 @@
       <c r="L214" s="135"/>
     </row>
     <row r="215" spans="1:16" ht="24" customHeight="1">
-      <c r="A215" s="226"/>
+      <c r="A215" s="241"/>
       <c r="B215" s="179" t="s">
         <v>60</v>
       </c>
@@ -9498,7 +9500,7 @@
       </c>
     </row>
     <row r="216" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A216" s="227"/>
+      <c r="A216" s="232"/>
       <c r="B216" s="145"/>
       <c r="C216" s="145"/>
       <c r="D216" s="145">
@@ -9528,11 +9530,11 @@
       </c>
     </row>
     <row r="217" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A217" s="222" t="s">
+      <c r="A217" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="B217" s="223"/>
-      <c r="C217" s="224"/>
+      <c r="B217" s="234"/>
+      <c r="C217" s="235"/>
       <c r="D217" s="13"/>
       <c r="E217" s="111">
         <f>E202+E186+E170+E154+E128+E104+E80+E56+E32</f>
@@ -9568,11 +9570,11 @@
       </c>
     </row>
     <row r="218" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A218" s="219" t="s">
+      <c r="A218" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="B218" s="220"/>
-      <c r="C218" s="221"/>
+      <c r="B218" s="248"/>
+      <c r="C218" s="249"/>
       <c r="D218" s="15"/>
       <c r="E218" s="16"/>
       <c r="F218" s="16"/>
@@ -9590,11 +9592,11 @@
       </c>
     </row>
     <row r="219" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A219" s="219" t="s">
+      <c r="A219" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="B219" s="220"/>
-      <c r="C219" s="221"/>
+      <c r="B219" s="248"/>
+      <c r="C219" s="249"/>
       <c r="D219" s="15"/>
       <c r="E219" s="16"/>
       <c r="F219" s="16"/>
@@ -9609,11 +9611,11 @@
       <c r="L219" s="17"/>
     </row>
     <row r="220" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A220" s="219" t="s">
+      <c r="A220" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="B220" s="220"/>
-      <c r="C220" s="221"/>
+      <c r="B220" s="248"/>
+      <c r="C220" s="249"/>
       <c r="D220" s="15"/>
       <c r="E220" s="16"/>
       <c r="F220" s="16"/>
@@ -9628,11 +9630,11 @@
       <c r="L220" s="17"/>
     </row>
     <row r="221" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A221" s="219" t="s">
+      <c r="A221" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="B221" s="220"/>
-      <c r="C221" s="221"/>
+      <c r="B221" s="248"/>
+      <c r="C221" s="249"/>
       <c r="D221" s="15"/>
       <c r="E221" s="16"/>
       <c r="F221" s="16"/>
@@ -9647,11 +9649,11 @@
       <c r="L221" s="17"/>
     </row>
     <row r="222" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A222" s="239" t="s">
+      <c r="A222" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="B222" s="240"/>
-      <c r="C222" s="241"/>
+      <c r="B222" s="226"/>
+      <c r="C222" s="227"/>
       <c r="D222" s="18"/>
       <c r="E222" s="19"/>
       <c r="F222" s="19"/>
@@ -9666,23 +9668,23 @@
       <c r="L222" s="20"/>
     </row>
     <row r="223" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A223" s="267" t="s">
+      <c r="A223" s="228" t="s">
         <v>62</v>
       </c>
-      <c r="B223" s="265"/>
-      <c r="C223" s="265"/>
-      <c r="D223" s="265"/>
-      <c r="E223" s="265"/>
-      <c r="F223" s="265"/>
-      <c r="G223" s="265"/>
-      <c r="H223" s="265"/>
-      <c r="I223" s="265"/>
-      <c r="J223" s="265"/>
-      <c r="K223" s="265"/>
-      <c r="L223" s="266"/>
-    </row>
-    <row r="224" spans="1:16" s="132" customFormat="1" ht="100.5">
-      <c r="A224" s="225">
+      <c r="B223" s="229"/>
+      <c r="C223" s="229"/>
+      <c r="D223" s="229"/>
+      <c r="E223" s="229"/>
+      <c r="F223" s="229"/>
+      <c r="G223" s="229"/>
+      <c r="H223" s="229"/>
+      <c r="I223" s="229"/>
+      <c r="J223" s="229"/>
+      <c r="K223" s="229"/>
+      <c r="L223" s="230"/>
+    </row>
+    <row r="224" spans="1:16" s="132" customFormat="1" ht="97.2">
+      <c r="A224" s="244">
         <v>2</v>
       </c>
       <c r="B224" s="22" t="s">
@@ -9717,7 +9719,7 @@
       </c>
     </row>
     <row r="225" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A225" s="226"/>
+      <c r="A225" s="241"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
       <c r="D225" s="21">
@@ -9750,8 +9752,8 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="132" customFormat="1" ht="24.75">
-      <c r="A226" s="226"/>
+    <row r="226" spans="1:12" s="132" customFormat="1" ht="24">
+      <c r="A226" s="241"/>
       <c r="B226" s="24" t="s">
         <v>67</v>
       </c>
@@ -9764,14 +9766,14 @@
       <c r="E226" s="21"/>
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
-      <c r="H226" s="21">
+      <c r="H226" s="122">
         <v>2940</v>
       </c>
-      <c r="I226" s="21">
+      <c r="I226" s="122">
         <f>H226*0.0704</f>
         <v>206.976</v>
       </c>
-      <c r="J226" s="21">
+      <c r="J226" s="122">
         <f>H226+I226</f>
         <v>3146.9760000000001</v>
       </c>
@@ -9779,7 +9781,7 @@
       <c r="L226" s="21"/>
     </row>
     <row r="227" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A227" s="226"/>
+      <c r="A227" s="241"/>
       <c r="B227" s="21"/>
       <c r="C227" s="29"/>
       <c r="D227" s="21">
@@ -9789,23 +9791,23 @@
       <c r="E227" s="21"/>
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
-      <c r="H227" s="21">
+      <c r="H227" s="122">
         <f t="shared" ref="H227:J227" si="117">H226*$D227</f>
         <v>4.4320500000000003</v>
       </c>
-      <c r="I227" s="21">
+      <c r="I227" s="122">
         <f t="shared" si="117"/>
         <v>0.31201632000000001</v>
       </c>
-      <c r="J227" s="21">
+      <c r="J227" s="122">
         <f t="shared" si="117"/>
         <v>4.7440663199999999</v>
       </c>
       <c r="K227" s="21"/>
       <c r="L227" s="21"/>
     </row>
-    <row r="228" spans="1:12" s="132" customFormat="1" ht="24.75">
-      <c r="A228" s="226"/>
+    <row r="228" spans="1:12" s="132" customFormat="1" ht="24">
+      <c r="A228" s="241"/>
       <c r="B228" s="24" t="s">
         <v>41</v>
       </c>
@@ -9818,14 +9820,14 @@
       <c r="E228" s="21"/>
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
-      <c r="H228" s="21">
+      <c r="H228" s="122">
         <v>2.81</v>
       </c>
-      <c r="I228" s="21">
+      <c r="I228" s="122">
         <f>H228*0.0704</f>
         <v>0.19782400000000003</v>
       </c>
-      <c r="J228" s="21">
+      <c r="J228" s="122">
         <f>H228+I228</f>
         <v>3.0078240000000003</v>
       </c>
@@ -9833,7 +9835,7 @@
       <c r="L228" s="21"/>
     </row>
     <row r="229" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A229" s="226"/>
+      <c r="A229" s="241"/>
       <c r="B229" s="21"/>
       <c r="C229" s="29"/>
       <c r="D229" s="21">
@@ -9843,23 +9845,23 @@
       <c r="E229" s="21"/>
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
-      <c r="H229" s="21">
+      <c r="H229" s="122">
         <f t="shared" ref="H229:J229" si="118">H228*$D229</f>
         <v>9.413500000000001E-2</v>
       </c>
-      <c r="I229" s="21">
+      <c r="I229" s="122">
         <f t="shared" si="118"/>
         <v>6.6271040000000017E-3</v>
       </c>
-      <c r="J229" s="21">
+      <c r="J229" s="122">
         <f t="shared" si="118"/>
         <v>0.10076210400000002</v>
       </c>
       <c r="K229" s="21"/>
       <c r="L229" s="21"/>
     </row>
-    <row r="230" spans="1:12" s="132" customFormat="1">
-      <c r="A230" s="226"/>
+    <row r="230" spans="1:12" s="132" customFormat="1" ht="14.4">
+      <c r="A230" s="241"/>
       <c r="B230" s="24" t="s">
         <v>69</v>
       </c>
@@ -9872,14 +9874,14 @@
       <c r="E230" s="21"/>
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
-      <c r="H230" s="21">
+      <c r="H230" s="122">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I230" s="21">
+      <c r="I230" s="122">
         <f>H230*0.0704</f>
         <v>3.9424000000000008E-2</v>
       </c>
-      <c r="J230" s="21">
+      <c r="J230" s="122">
         <f>H230+I230</f>
         <v>0.59942400000000007</v>
       </c>
@@ -9887,7 +9889,7 @@
       <c r="L230" s="21"/>
     </row>
     <row r="231" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A231" s="226"/>
+      <c r="A231" s="241"/>
       <c r="B231" s="21"/>
       <c r="C231" s="29"/>
       <c r="D231" s="21">
@@ -9897,23 +9899,23 @@
       <c r="E231" s="21"/>
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
-      <c r="H231" s="21">
+      <c r="H231" s="122">
         <f t="shared" ref="H231:J231" si="119">H230*$D231</f>
         <v>9.3800000000000008</v>
       </c>
-      <c r="I231" s="21">
+      <c r="I231" s="122">
         <f t="shared" si="119"/>
         <v>0.66035200000000016</v>
       </c>
-      <c r="J231" s="21">
+      <c r="J231" s="122">
         <f t="shared" si="119"/>
         <v>10.040352</v>
       </c>
       <c r="K231" s="21"/>
       <c r="L231" s="21"/>
     </row>
-    <row r="232" spans="1:12" s="132" customFormat="1" ht="24.75">
-      <c r="A232" s="226"/>
+    <row r="232" spans="1:12" s="132" customFormat="1" ht="24">
+      <c r="A232" s="241"/>
       <c r="B232" s="24" t="s">
         <v>71</v>
       </c>
@@ -9926,14 +9928,14 @@
       <c r="E232" s="21"/>
       <c r="F232" s="21"/>
       <c r="G232" s="21"/>
-      <c r="H232" s="21">
+      <c r="H232" s="122">
         <v>1.2</v>
       </c>
-      <c r="I232" s="21">
+      <c r="I232" s="122">
         <f>H232*0.0704</f>
         <v>8.448E-2</v>
       </c>
-      <c r="J232" s="21">
+      <c r="J232" s="122">
         <f>H232+I232</f>
         <v>1.2844799999999998</v>
       </c>
@@ -9941,7 +9943,7 @@
       <c r="L232" s="21"/>
     </row>
     <row r="233" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A233" s="226"/>
+      <c r="A233" s="241"/>
       <c r="B233" s="21"/>
       <c r="C233" s="29"/>
       <c r="D233" s="21">
@@ -9951,23 +9953,23 @@
       <c r="E233" s="21"/>
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
-      <c r="H233" s="21">
+      <c r="H233" s="122">
         <f t="shared" ref="H233:J233" si="120">H232*$D233</f>
         <v>4.02E-2</v>
       </c>
-      <c r="I233" s="21">
+      <c r="I233" s="122">
         <f t="shared" si="120"/>
         <v>2.83008E-3</v>
       </c>
-      <c r="J233" s="21">
+      <c r="J233" s="122">
         <f t="shared" si="120"/>
         <v>4.3030079999999998E-2</v>
       </c>
       <c r="K233" s="21"/>
       <c r="L233" s="21"/>
     </row>
-    <row r="234" spans="1:12" s="132" customFormat="1" ht="60.75">
-      <c r="A234" s="226"/>
+    <row r="234" spans="1:12" s="132" customFormat="1" ht="58.2">
+      <c r="A234" s="241"/>
       <c r="B234" s="24" t="s">
         <v>73</v>
       </c>
@@ -9980,14 +9982,14 @@
       <c r="E234" s="21"/>
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
-      <c r="H234" s="21">
+      <c r="H234" s="122">
         <v>3.53</v>
       </c>
-      <c r="I234" s="21">
+      <c r="I234" s="122">
         <f>H234*0.0704</f>
         <v>0.24851200000000001</v>
       </c>
-      <c r="J234" s="21">
+      <c r="J234" s="122">
         <f>H234+I234</f>
         <v>3.7785119999999996</v>
       </c>
@@ -9995,7 +9997,7 @@
       <c r="L234" s="21"/>
     </row>
     <row r="235" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A235" s="226"/>
+      <c r="A235" s="241"/>
       <c r="B235" s="21"/>
       <c r="C235" s="29"/>
       <c r="D235" s="21">
@@ -10005,23 +10007,23 @@
       <c r="E235" s="21"/>
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
-      <c r="H235" s="21">
+      <c r="H235" s="122">
         <f t="shared" ref="H235:J235" si="121">H234*$D235</f>
         <v>14.190599999999998</v>
       </c>
-      <c r="I235" s="21">
+      <c r="I235" s="122">
         <f t="shared" si="121"/>
         <v>0.99901823999999995</v>
       </c>
-      <c r="J235" s="21">
+      <c r="J235" s="122">
         <f t="shared" si="121"/>
         <v>15.189618239999996</v>
       </c>
       <c r="K235" s="21"/>
       <c r="L235" s="21"/>
     </row>
-    <row r="236" spans="1:12" s="132" customFormat="1" ht="48.75">
-      <c r="A236" s="226"/>
+    <row r="236" spans="1:12" s="132" customFormat="1" ht="46.8">
+      <c r="A236" s="241"/>
       <c r="B236" s="24" t="s">
         <v>75</v>
       </c>
@@ -10034,14 +10036,14 @@
       <c r="E236" s="21"/>
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
-      <c r="H236" s="21">
+      <c r="H236" s="122">
         <v>11.46</v>
       </c>
-      <c r="I236" s="21">
+      <c r="I236" s="122">
         <f>H236*0.0704</f>
         <v>0.80678400000000006</v>
       </c>
-      <c r="J236" s="21">
+      <c r="J236" s="122">
         <f>H236+I236</f>
         <v>12.266784000000001</v>
       </c>
@@ -10049,7 +10051,7 @@
       <c r="L236" s="21"/>
     </row>
     <row r="237" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A237" s="226"/>
+      <c r="A237" s="241"/>
       <c r="B237" s="21"/>
       <c r="C237" s="29"/>
       <c r="D237" s="21">
@@ -10059,23 +10061,23 @@
       <c r="E237" s="21"/>
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
-      <c r="H237" s="21">
+      <c r="H237" s="122">
         <f t="shared" ref="H237:J237" si="122">H236*$D237</f>
         <v>11.46</v>
       </c>
-      <c r="I237" s="21">
+      <c r="I237" s="122">
         <f t="shared" si="122"/>
         <v>0.80678400000000006</v>
       </c>
-      <c r="J237" s="21">
+      <c r="J237" s="122">
         <f t="shared" si="122"/>
         <v>12.266784000000001</v>
       </c>
       <c r="K237" s="21"/>
       <c r="L237" s="21"/>
     </row>
-    <row r="238" spans="1:12" s="132" customFormat="1" ht="24.75">
-      <c r="A238" s="226"/>
+    <row r="238" spans="1:12" s="132" customFormat="1" ht="24">
+      <c r="A238" s="241"/>
       <c r="B238" s="24" t="s">
         <v>77</v>
       </c>
@@ -10088,14 +10090,14 @@
       <c r="E238" s="21"/>
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
-      <c r="H238" s="21">
+      <c r="H238" s="122">
         <v>13.34</v>
       </c>
-      <c r="I238" s="21">
+      <c r="I238" s="122">
         <f>H238*0.0704</f>
         <v>0.93913600000000008</v>
       </c>
-      <c r="J238" s="21">
+      <c r="J238" s="122">
         <f>H238+I238</f>
         <v>14.279135999999999</v>
       </c>
@@ -10103,7 +10105,7 @@
       <c r="L238" s="21"/>
     </row>
     <row r="239" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A239" s="226"/>
+      <c r="A239" s="241"/>
       <c r="B239" s="21"/>
       <c r="C239" s="29"/>
       <c r="D239" s="21">
@@ -10113,23 +10115,23 @@
       <c r="E239" s="21"/>
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
-      <c r="H239" s="21">
+      <c r="H239" s="122">
         <f t="shared" ref="H239:J239" si="123">H238*$D239</f>
         <v>13.34</v>
       </c>
-      <c r="I239" s="21">
+      <c r="I239" s="122">
         <f t="shared" si="123"/>
         <v>0.93913600000000008</v>
       </c>
-      <c r="J239" s="21">
+      <c r="J239" s="122">
         <f t="shared" si="123"/>
         <v>14.279135999999999</v>
       </c>
       <c r="K239" s="21"/>
       <c r="L239" s="21"/>
     </row>
-    <row r="240" spans="1:12" s="132" customFormat="1">
-      <c r="A240" s="226"/>
+    <row r="240" spans="1:12" s="132" customFormat="1" ht="14.4">
+      <c r="A240" s="241"/>
       <c r="B240" s="24" t="s">
         <v>44</v>
       </c>
@@ -10142,14 +10144,14 @@
       <c r="E240" s="21"/>
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
-      <c r="H240" s="21">
+      <c r="H240" s="122">
         <v>1.26</v>
       </c>
-      <c r="I240" s="21">
+      <c r="I240" s="122">
         <f>H240*0.0704</f>
         <v>8.8704000000000005E-2</v>
       </c>
-      <c r="J240" s="21">
+      <c r="J240" s="122">
         <f>H240+I240</f>
         <v>1.3487040000000001</v>
       </c>
@@ -10157,7 +10159,7 @@
       <c r="L240" s="21"/>
     </row>
     <row r="241" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A241" s="226"/>
+      <c r="A241" s="241"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
       <c r="D241" s="21">
@@ -10167,23 +10169,23 @@
       <c r="E241" s="21"/>
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
-      <c r="H241" s="21">
+      <c r="H241" s="122">
         <f t="shared" ref="H241:J241" si="124">H240*$D241</f>
         <v>4.2210000000000004E-2</v>
       </c>
-      <c r="I241" s="21">
+      <c r="I241" s="122">
         <f t="shared" si="124"/>
         <v>2.9715840000000002E-3</v>
       </c>
-      <c r="J241" s="21">
+      <c r="J241" s="122">
         <f t="shared" si="124"/>
         <v>4.5181584000000004E-2</v>
       </c>
       <c r="K241" s="21"/>
       <c r="L241" s="21"/>
     </row>
-    <row r="242" spans="1:12" s="132" customFormat="1">
-      <c r="A242" s="226"/>
+    <row r="242" spans="1:12" s="132" customFormat="1" ht="14.4">
+      <c r="A242" s="241"/>
       <c r="B242" s="30" t="s">
         <v>79</v>
       </c>
@@ -10196,15 +10198,15 @@
       <c r="E242" s="25"/>
       <c r="F242" s="25"/>
       <c r="G242" s="25"/>
-      <c r="H242" s="25">
+      <c r="H242" s="362">
         <f>(240813-333)*0.001226</f>
         <v>294.82848000000001</v>
       </c>
-      <c r="I242" s="25">
+      <c r="I242" s="362">
         <f>H242*0.704</f>
         <v>207.55924991999998</v>
       </c>
-      <c r="J242" s="25">
+      <c r="J242" s="362">
         <f>H242+I242</f>
         <v>502.38772991999997</v>
       </c>
@@ -10212,7 +10214,7 @@
       <c r="L242" s="25"/>
     </row>
     <row r="243" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A243" s="226"/>
+      <c r="A243" s="241"/>
       <c r="B243" s="25"/>
       <c r="C243" s="25"/>
       <c r="D243" s="25">
@@ -10221,15 +10223,15 @@
       <c r="E243" s="25"/>
       <c r="F243" s="25"/>
       <c r="G243" s="25"/>
-      <c r="H243" s="25">
+      <c r="H243" s="362">
         <f t="shared" ref="H243:J243" si="125">H242*$D243</f>
         <v>294.82848000000001</v>
       </c>
-      <c r="I243" s="25">
+      <c r="I243" s="362">
         <f t="shared" si="125"/>
         <v>207.55924991999998</v>
       </c>
-      <c r="J243" s="25">
+      <c r="J243" s="362">
         <f t="shared" si="125"/>
         <v>502.38772991999997</v>
       </c>
@@ -10237,7 +10239,7 @@
       <c r="L243" s="25"/>
     </row>
     <row r="244" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A244" s="226"/>
+      <c r="A244" s="241"/>
       <c r="B244" s="23" t="s">
         <v>81</v>
       </c>
@@ -10250,15 +10252,15 @@
       <c r="E244" s="25"/>
       <c r="F244" s="25"/>
       <c r="G244" s="25"/>
-      <c r="H244" s="25">
+      <c r="H244" s="362">
         <f>(120161-416)*0.001226</f>
         <v>146.80737000000002</v>
       </c>
-      <c r="I244" s="25">
+      <c r="I244" s="362">
         <f>H244*0.704</f>
         <v>103.35238848</v>
       </c>
-      <c r="J244" s="25">
+      <c r="J244" s="362">
         <f>H244+I244</f>
         <v>250.15975848000002</v>
       </c>
@@ -10266,7 +10268,7 @@
       <c r="L244" s="25"/>
     </row>
     <row r="245" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A245" s="226"/>
+      <c r="A245" s="241"/>
       <c r="B245" s="25"/>
       <c r="C245" s="25"/>
       <c r="D245" s="25">
@@ -10275,23 +10277,23 @@
       <c r="E245" s="25"/>
       <c r="F245" s="25"/>
       <c r="G245" s="25"/>
-      <c r="H245" s="25">
+      <c r="H245" s="362">
         <f t="shared" ref="H245:J245" si="126">H244*$D245</f>
         <v>146.80737000000002</v>
       </c>
-      <c r="I245" s="25">
+      <c r="I245" s="362">
         <f t="shared" si="126"/>
         <v>103.35238848</v>
       </c>
-      <c r="J245" s="25">
+      <c r="J245" s="362">
         <f t="shared" si="126"/>
         <v>250.15975848000002</v>
       </c>
       <c r="K245" s="25"/>
       <c r="L245" s="25"/>
     </row>
-    <row r="246" spans="1:12" s="132" customFormat="1">
-      <c r="A246" s="226"/>
+    <row r="246" spans="1:12" s="132" customFormat="1" ht="14.4">
+      <c r="A246" s="241"/>
       <c r="B246" s="32" t="s">
         <v>83</v>
       </c>
@@ -10304,15 +10306,15 @@
       <c r="E246" s="25"/>
       <c r="F246" s="25"/>
       <c r="G246" s="25"/>
-      <c r="H246" s="25">
+      <c r="H246" s="362">
         <f>(2153-12)*0.001226*1.89</f>
         <v>4.9609967400000006</v>
       </c>
-      <c r="I246" s="25">
+      <c r="I246" s="362">
         <f>H246*0.704</f>
         <v>3.4925417049600003</v>
       </c>
-      <c r="J246" s="25">
+      <c r="J246" s="362">
         <f>H246+I246</f>
         <v>8.4535384449600013</v>
       </c>
@@ -10320,7 +10322,7 @@
       <c r="L246" s="25"/>
     </row>
     <row r="247" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A247" s="226"/>
+      <c r="A247" s="241"/>
       <c r="B247" s="25"/>
       <c r="C247" s="25"/>
       <c r="D247" s="25">
@@ -10329,23 +10331,23 @@
       <c r="E247" s="25"/>
       <c r="F247" s="25"/>
       <c r="G247" s="25"/>
-      <c r="H247" s="25">
+      <c r="H247" s="362">
         <f t="shared" ref="H247:J247" si="127">H246*$D247</f>
         <v>4.9609967400000006</v>
       </c>
-      <c r="I247" s="25">
+      <c r="I247" s="362">
         <f t="shared" si="127"/>
         <v>3.4925417049600003</v>
       </c>
-      <c r="J247" s="25">
+      <c r="J247" s="362">
         <f t="shared" si="127"/>
         <v>8.4535384449600013</v>
       </c>
       <c r="K247" s="25"/>
       <c r="L247" s="25"/>
     </row>
-    <row r="248" spans="1:12" s="132" customFormat="1" ht="26.25">
-      <c r="A248" s="226"/>
+    <row r="248" spans="1:12" s="132" customFormat="1" ht="27">
+      <c r="A248" s="241"/>
       <c r="B248" s="32" t="s">
         <v>85</v>
       </c>
@@ -10358,15 +10360,15 @@
       <c r="E248" s="25"/>
       <c r="F248" s="25"/>
       <c r="G248" s="25"/>
-      <c r="H248" s="25">
+      <c r="H248" s="362">
         <f>(2450-5)*0.001226*1.89</f>
         <v>5.6654073</v>
       </c>
-      <c r="I248" s="25">
+      <c r="I248" s="362">
         <f>H248*0.704</f>
         <v>3.9884467391999996</v>
       </c>
-      <c r="J248" s="25">
+      <c r="J248" s="362">
         <f>H248+I248</f>
         <v>9.6538540391999987</v>
       </c>
@@ -10374,7 +10376,7 @@
       <c r="L248" s="25"/>
     </row>
     <row r="249" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A249" s="226"/>
+      <c r="A249" s="241"/>
       <c r="B249" s="25"/>
       <c r="C249" s="25"/>
       <c r="D249" s="25">
@@ -10384,23 +10386,23 @@
       <c r="E249" s="25"/>
       <c r="F249" s="25"/>
       <c r="G249" s="25"/>
-      <c r="H249" s="25">
+      <c r="H249" s="362">
         <f t="shared" ref="H249:J249" si="128">H248*$D249</f>
         <v>19.358696744100001</v>
       </c>
-      <c r="I249" s="25">
+      <c r="I249" s="362">
         <f t="shared" si="128"/>
         <v>13.6285225078464</v>
       </c>
-      <c r="J249" s="25">
+      <c r="J249" s="362">
         <f t="shared" si="128"/>
         <v>32.987219251946399</v>
       </c>
       <c r="K249" s="25"/>
       <c r="L249" s="25"/>
     </row>
-    <row r="250" spans="1:12" s="132" customFormat="1" ht="26.25">
-      <c r="A250" s="226"/>
+    <row r="250" spans="1:12" s="132" customFormat="1" ht="27">
+      <c r="A250" s="241"/>
       <c r="B250" s="23" t="s">
         <v>87</v>
       </c>
@@ -10413,15 +10415,15 @@
       <c r="E250" s="25"/>
       <c r="F250" s="25"/>
       <c r="G250" s="25"/>
-      <c r="H250" s="25">
+      <c r="H250" s="362">
         <f>(6829-5)*0.001226*((89*100)/400)</f>
         <v>186.14848400000002</v>
       </c>
-      <c r="I250" s="25">
+      <c r="I250" s="362">
         <f>H250*0.704</f>
         <v>131.048532736</v>
       </c>
-      <c r="J250" s="25">
+      <c r="J250" s="362">
         <f>H250+I250</f>
         <v>317.19701673600002</v>
       </c>
@@ -10429,7 +10431,7 @@
       <c r="L250" s="25"/>
     </row>
     <row r="251" spans="1:12" s="132" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A251" s="227"/>
+      <c r="A251" s="232"/>
       <c r="B251" s="205"/>
       <c r="C251" s="205"/>
       <c r="D251" s="205">
@@ -10438,23 +10440,23 @@
       <c r="E251" s="205"/>
       <c r="F251" s="205"/>
       <c r="G251" s="205"/>
-      <c r="H251" s="205">
+      <c r="H251" s="363">
         <f t="shared" ref="H251:J251" si="129">H250*$D251</f>
         <v>52.121575520000015</v>
       </c>
-      <c r="I251" s="205">
+      <c r="I251" s="363">
         <f t="shared" si="129"/>
         <v>36.693589166080002</v>
       </c>
-      <c r="J251" s="205">
+      <c r="J251" s="363">
         <f t="shared" si="129"/>
         <v>88.81516468608001</v>
       </c>
       <c r="K251" s="205"/>
       <c r="L251" s="205"/>
     </row>
-    <row r="252" spans="1:12" ht="57">
-      <c r="A252" s="268">
+    <row r="252" spans="1:12" ht="90">
+      <c r="A252" s="250">
         <v>2</v>
       </c>
       <c r="B252" s="202" t="s">
@@ -10489,7 +10491,7 @@
       </c>
     </row>
     <row r="253" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A253" s="229"/>
+      <c r="A253" s="239"/>
       <c r="B253" s="129"/>
       <c r="C253" s="129"/>
       <c r="D253" s="128">
@@ -10523,7 +10525,7 @@
       </c>
     </row>
     <row r="254" spans="1:12" ht="44.25" customHeight="1">
-      <c r="A254" s="229"/>
+      <c r="A254" s="239"/>
       <c r="B254" s="193" t="s">
         <v>67</v>
       </c>
@@ -10536,14 +10538,14 @@
       <c r="E254" s="21"/>
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
-      <c r="H254" s="21">
+      <c r="H254" s="122">
         <v>2940</v>
       </c>
-      <c r="I254" s="21">
+      <c r="I254" s="122">
         <f>H254*0.0704</f>
         <v>206.976</v>
       </c>
-      <c r="J254" s="21">
+      <c r="J254" s="122">
         <f>H254+I254</f>
         <v>3146.9760000000001</v>
       </c>
@@ -10551,7 +10553,7 @@
       <c r="L254" s="21"/>
     </row>
     <row r="255" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A255" s="229"/>
+      <c r="A255" s="239"/>
       <c r="B255" s="141"/>
       <c r="C255" s="137"/>
       <c r="D255" s="128">
@@ -10561,23 +10563,23 @@
       <c r="E255" s="21"/>
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
-      <c r="H255" s="21">
+      <c r="H255" s="122">
         <f t="shared" ref="H255:J255" si="132">H254*$D255</f>
         <v>24.262056000000001</v>
       </c>
-      <c r="I255" s="21">
+      <c r="I255" s="122">
         <f t="shared" si="132"/>
         <v>1.7080487423999999</v>
       </c>
-      <c r="J255" s="21">
+      <c r="J255" s="122">
         <f t="shared" si="132"/>
         <v>25.9701047424</v>
       </c>
       <c r="K255" s="21"/>
       <c r="L255" s="21"/>
     </row>
-    <row r="256" spans="1:12" ht="26.45" customHeight="1">
-      <c r="A256" s="229"/>
+    <row r="256" spans="1:12" ht="26.4" customHeight="1">
+      <c r="A256" s="239"/>
       <c r="B256" s="193" t="s">
         <v>41</v>
       </c>
@@ -10590,14 +10592,14 @@
       <c r="E256" s="21"/>
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
-      <c r="H256" s="21">
+      <c r="H256" s="122">
         <v>2.81</v>
       </c>
-      <c r="I256" s="21">
+      <c r="I256" s="122">
         <f>H256*0.0704</f>
         <v>0.19782400000000003</v>
       </c>
-      <c r="J256" s="21">
+      <c r="J256" s="122">
         <f>H256+I256</f>
         <v>3.0078240000000003</v>
       </c>
@@ -10605,7 +10607,7 @@
       <c r="L256" s="21"/>
     </row>
     <row r="257" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A257" s="229"/>
+      <c r="A257" s="239"/>
       <c r="B257" s="141"/>
       <c r="C257" s="137"/>
       <c r="D257" s="128">
@@ -10615,15 +10617,15 @@
       <c r="E257" s="21"/>
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
-      <c r="H257" s="21">
+      <c r="H257" s="122">
         <f t="shared" ref="H257:J257" si="133">H256*$D257</f>
         <v>1.189192</v>
       </c>
-      <c r="I257" s="21">
+      <c r="I257" s="122">
         <f t="shared" si="133"/>
         <v>8.3719116800000021E-2</v>
       </c>
-      <c r="J257" s="21">
+      <c r="J257" s="122">
         <f t="shared" si="133"/>
         <v>1.2729111168000002</v>
       </c>
@@ -10631,7 +10633,7 @@
       <c r="L257" s="21"/>
     </row>
     <row r="258" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A258" s="229"/>
+      <c r="A258" s="239"/>
       <c r="B258" s="193" t="s">
         <v>69</v>
       </c>
@@ -10644,14 +10646,14 @@
       <c r="E258" s="21"/>
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
-      <c r="H258" s="21">
+      <c r="H258" s="122">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I258" s="21">
+      <c r="I258" s="122">
         <f>H258*0.0704</f>
         <v>3.9424000000000008E-2</v>
       </c>
-      <c r="J258" s="21">
+      <c r="J258" s="122">
         <f>H258+I258</f>
         <v>0.59942400000000007</v>
       </c>
@@ -10659,7 +10661,7 @@
       <c r="L258" s="21"/>
     </row>
     <row r="259" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A259" s="229"/>
+      <c r="A259" s="239"/>
       <c r="B259" s="141"/>
       <c r="C259" s="137"/>
       <c r="D259" s="128">
@@ -10669,15 +10671,15 @@
       <c r="E259" s="21"/>
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
-      <c r="H259" s="21">
+      <c r="H259" s="122">
         <f t="shared" ref="H259:J259" si="134">H258*$D259</f>
         <v>29.624000000000002</v>
       </c>
-      <c r="I259" s="21">
+      <c r="I259" s="122">
         <f t="shared" si="134"/>
         <v>2.0855296000000005</v>
       </c>
-      <c r="J259" s="21">
+      <c r="J259" s="122">
         <f t="shared" si="134"/>
         <v>31.709529600000003</v>
       </c>
@@ -10685,7 +10687,7 @@
       <c r="L259" s="21"/>
     </row>
     <row r="260" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A260" s="229"/>
+      <c r="A260" s="239"/>
       <c r="B260" s="193" t="s">
         <v>71</v>
       </c>
@@ -10698,14 +10700,14 @@
       <c r="E260" s="21"/>
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
-      <c r="H260" s="21">
+      <c r="H260" s="122">
         <v>1.2</v>
       </c>
-      <c r="I260" s="21">
+      <c r="I260" s="122">
         <f>H260*0.0704</f>
         <v>8.448E-2</v>
       </c>
-      <c r="J260" s="21">
+      <c r="J260" s="122">
         <f>H260+I260</f>
         <v>1.2844799999999998</v>
       </c>
@@ -10713,7 +10715,7 @@
       <c r="L260" s="21"/>
     </row>
     <row r="261" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A261" s="229"/>
+      <c r="A261" s="239"/>
       <c r="B261" s="141"/>
       <c r="C261" s="137"/>
       <c r="D261" s="128">
@@ -10723,15 +10725,15 @@
       <c r="E261" s="21"/>
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
-      <c r="H261" s="21">
+      <c r="H261" s="122">
         <f t="shared" ref="H261:J261" si="135">H260*$D261</f>
         <v>0.25391999999999998</v>
       </c>
-      <c r="I261" s="21">
+      <c r="I261" s="122">
         <f t="shared" si="135"/>
         <v>1.7875968000000002E-2</v>
       </c>
-      <c r="J261" s="21">
+      <c r="J261" s="122">
         <f t="shared" si="135"/>
         <v>0.271795968</v>
       </c>
@@ -10739,7 +10741,7 @@
       <c r="L261" s="21"/>
     </row>
     <row r="262" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A262" s="229"/>
+      <c r="A262" s="239"/>
       <c r="B262" s="193" t="s">
         <v>73</v>
       </c>
@@ -10752,14 +10754,14 @@
       <c r="E262" s="21"/>
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
-      <c r="H262" s="21">
+      <c r="H262" s="122">
         <v>3.53</v>
       </c>
-      <c r="I262" s="21">
+      <c r="I262" s="122">
         <f>H262*0.0704</f>
         <v>0.24851200000000001</v>
       </c>
-      <c r="J262" s="21">
+      <c r="J262" s="122">
         <f>H262+I262</f>
         <v>3.7785119999999996</v>
       </c>
@@ -10767,7 +10769,7 @@
       <c r="L262" s="21"/>
     </row>
     <row r="263" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A263" s="229"/>
+      <c r="A263" s="239"/>
       <c r="B263" s="141"/>
       <c r="C263" s="137"/>
       <c r="D263" s="128">
@@ -10777,15 +10779,15 @@
       <c r="E263" s="21"/>
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
-      <c r="H263" s="21">
+      <c r="H263" s="122">
         <f t="shared" ref="H263:J263" si="136">H262*$D263</f>
         <v>44.816879999999998</v>
       </c>
-      <c r="I263" s="21">
+      <c r="I263" s="122">
         <f t="shared" si="136"/>
         <v>3.1551083520000001</v>
       </c>
-      <c r="J263" s="21">
+      <c r="J263" s="122">
         <f t="shared" si="136"/>
         <v>47.971988351999997</v>
       </c>
@@ -10793,7 +10795,7 @@
       <c r="L263" s="21"/>
     </row>
     <row r="264" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A264" s="229"/>
+      <c r="A264" s="239"/>
       <c r="B264" s="193" t="s">
         <v>75</v>
       </c>
@@ -10806,14 +10808,14 @@
       <c r="E264" s="21"/>
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
-      <c r="H264" s="21">
+      <c r="H264" s="122">
         <v>11.46</v>
       </c>
-      <c r="I264" s="21">
+      <c r="I264" s="122">
         <f>H264*0.0704</f>
         <v>0.80678400000000006</v>
       </c>
-      <c r="J264" s="21">
+      <c r="J264" s="122">
         <f>H264+I264</f>
         <v>12.266784000000001</v>
       </c>
@@ -10821,7 +10823,7 @@
       <c r="L264" s="21"/>
     </row>
     <row r="265" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A265" s="229"/>
+      <c r="A265" s="239"/>
       <c r="B265" s="141"/>
       <c r="C265" s="137"/>
       <c r="D265" s="128">
@@ -10831,15 +10833,15 @@
       <c r="E265" s="21"/>
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
-      <c r="H265" s="21">
+      <c r="H265" s="122">
         <f t="shared" ref="H265:J265" si="137">H264*$D265</f>
         <v>11.46</v>
       </c>
-      <c r="I265" s="21">
+      <c r="I265" s="122">
         <f t="shared" si="137"/>
         <v>0.80678400000000006</v>
       </c>
-      <c r="J265" s="21">
+      <c r="J265" s="122">
         <f t="shared" si="137"/>
         <v>12.266784000000001</v>
       </c>
@@ -10847,7 +10849,7 @@
       <c r="L265" s="21"/>
     </row>
     <row r="266" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A266" s="229"/>
+      <c r="A266" s="239"/>
       <c r="B266" s="193" t="s">
         <v>77</v>
       </c>
@@ -10860,14 +10862,14 @@
       <c r="E266" s="21"/>
       <c r="F266" s="21"/>
       <c r="G266" s="21"/>
-      <c r="H266" s="21">
+      <c r="H266" s="122">
         <v>13.34</v>
       </c>
-      <c r="I266" s="21">
+      <c r="I266" s="122">
         <f>H266*0.0704</f>
         <v>0.93913600000000008</v>
       </c>
-      <c r="J266" s="21">
+      <c r="J266" s="122">
         <f>H266+I266</f>
         <v>14.279135999999999</v>
       </c>
@@ -10875,7 +10877,7 @@
       <c r="L266" s="21"/>
     </row>
     <row r="267" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A267" s="229"/>
+      <c r="A267" s="239"/>
       <c r="B267" s="141"/>
       <c r="C267" s="137"/>
       <c r="D267" s="128">
@@ -10885,15 +10887,15 @@
       <c r="E267" s="21"/>
       <c r="F267" s="21"/>
       <c r="G267" s="21"/>
-      <c r="H267" s="21">
+      <c r="H267" s="122">
         <f t="shared" ref="H267:J267" si="138">H266*$D267</f>
         <v>13.34</v>
       </c>
-      <c r="I267" s="21">
+      <c r="I267" s="122">
         <f t="shared" si="138"/>
         <v>0.93913600000000008</v>
       </c>
-      <c r="J267" s="21">
+      <c r="J267" s="122">
         <f t="shared" si="138"/>
         <v>14.279135999999999</v>
       </c>
@@ -10901,7 +10903,7 @@
       <c r="L267" s="21"/>
     </row>
     <row r="268" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A268" s="229"/>
+      <c r="A268" s="239"/>
       <c r="B268" s="193" t="s">
         <v>44</v>
       </c>
@@ -10914,14 +10916,14 @@
       <c r="E268" s="21"/>
       <c r="F268" s="21"/>
       <c r="G268" s="21"/>
-      <c r="H268" s="21">
+      <c r="H268" s="122">
         <v>1.26</v>
       </c>
-      <c r="I268" s="21">
+      <c r="I268" s="122">
         <f>H268*0.0704</f>
         <v>8.8704000000000005E-2</v>
       </c>
-      <c r="J268" s="21">
+      <c r="J268" s="122">
         <f>H268+I268</f>
         <v>1.3487040000000001</v>
       </c>
@@ -10929,7 +10931,7 @@
       <c r="L268" s="21"/>
     </row>
     <row r="269" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A269" s="229"/>
+      <c r="A269" s="239"/>
       <c r="B269" s="141"/>
       <c r="C269" s="141"/>
       <c r="D269" s="128">
@@ -10939,15 +10941,15 @@
       <c r="E269" s="21"/>
       <c r="F269" s="21"/>
       <c r="G269" s="21"/>
-      <c r="H269" s="21">
+      <c r="H269" s="122">
         <f t="shared" ref="H269:J269" si="139">H268*$D269</f>
         <v>0.13330800000000001</v>
       </c>
-      <c r="I269" s="21">
+      <c r="I269" s="122">
         <f t="shared" si="139"/>
         <v>9.384883200000001E-3</v>
       </c>
-      <c r="J269" s="21">
+      <c r="J269" s="122">
         <f t="shared" si="139"/>
         <v>0.14269288320000001</v>
       </c>
@@ -10955,7 +10957,7 @@
       <c r="L269" s="21"/>
     </row>
     <row r="270" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A270" s="229"/>
+      <c r="A270" s="239"/>
       <c r="B270" s="194" t="s">
         <v>79</v>
       </c>
@@ -10968,15 +10970,15 @@
       <c r="E270" s="25"/>
       <c r="F270" s="25"/>
       <c r="G270" s="25"/>
-      <c r="H270" s="25">
+      <c r="H270" s="362">
         <f>(240813-333)*0.001226</f>
         <v>294.82848000000001</v>
       </c>
-      <c r="I270" s="25">
+      <c r="I270" s="362">
         <f>H270*0.704</f>
         <v>207.55924991999998</v>
       </c>
-      <c r="J270" s="25">
+      <c r="J270" s="362">
         <f>H270+I270</f>
         <v>502.38772991999997</v>
       </c>
@@ -10984,7 +10986,7 @@
       <c r="L270" s="25"/>
     </row>
     <row r="271" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A271" s="229"/>
+      <c r="A271" s="239"/>
       <c r="B271" s="194"/>
       <c r="C271" s="194"/>
       <c r="D271" s="191">
@@ -10993,23 +10995,23 @@
       <c r="E271" s="25"/>
       <c r="F271" s="25"/>
       <c r="G271" s="25"/>
-      <c r="H271" s="25">
+      <c r="H271" s="362">
         <f t="shared" ref="H271:J271" si="140">H270*$D271</f>
         <v>294.82848000000001</v>
       </c>
-      <c r="I271" s="25">
+      <c r="I271" s="362">
         <f t="shared" si="140"/>
         <v>207.55924991999998</v>
       </c>
-      <c r="J271" s="25">
+      <c r="J271" s="362">
         <f t="shared" si="140"/>
         <v>502.38772991999997</v>
       </c>
       <c r="K271" s="25"/>
       <c r="L271" s="25"/>
     </row>
-    <row r="272" spans="1:12" ht="45">
-      <c r="A272" s="229"/>
+    <row r="272" spans="1:12" ht="43.2">
+      <c r="A272" s="239"/>
       <c r="B272" s="141" t="s">
         <v>81</v>
       </c>
@@ -11022,15 +11024,15 @@
       <c r="E272" s="25"/>
       <c r="F272" s="25"/>
       <c r="G272" s="25"/>
-      <c r="H272" s="25">
+      <c r="H272" s="362">
         <f>(120161-416)*0.001226</f>
         <v>146.80737000000002</v>
       </c>
-      <c r="I272" s="25">
+      <c r="I272" s="362">
         <f>H272*0.704</f>
         <v>103.35238848</v>
       </c>
-      <c r="J272" s="25">
+      <c r="J272" s="362">
         <f>H272+I272</f>
         <v>250.15975848000002</v>
       </c>
@@ -11038,7 +11040,7 @@
       <c r="L272" s="25"/>
     </row>
     <row r="273" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A273" s="229"/>
+      <c r="A273" s="239"/>
       <c r="B273" s="194"/>
       <c r="C273" s="194"/>
       <c r="D273" s="191">
@@ -11047,15 +11049,15 @@
       <c r="E273" s="25"/>
       <c r="F273" s="25"/>
       <c r="G273" s="25"/>
-      <c r="H273" s="25">
+      <c r="H273" s="362">
         <f t="shared" ref="H273:J273" si="141">H272*$D273</f>
         <v>146.80737000000002</v>
       </c>
-      <c r="I273" s="25">
+      <c r="I273" s="362">
         <f t="shared" si="141"/>
         <v>103.35238848</v>
       </c>
-      <c r="J273" s="25">
+      <c r="J273" s="362">
         <f t="shared" si="141"/>
         <v>250.15975848000002</v>
       </c>
@@ -11063,7 +11065,7 @@
       <c r="L273" s="25"/>
     </row>
     <row r="274" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A274" s="229"/>
+      <c r="A274" s="239"/>
       <c r="B274" s="194" t="s">
         <v>83</v>
       </c>
@@ -11076,15 +11078,15 @@
       <c r="E274" s="25"/>
       <c r="F274" s="25"/>
       <c r="G274" s="25"/>
-      <c r="H274" s="25">
+      <c r="H274" s="362">
         <f>(2153-12)*0.001226*1.89</f>
         <v>4.9609967400000006</v>
       </c>
-      <c r="I274" s="25">
+      <c r="I274" s="362">
         <f>H274*0.704</f>
         <v>3.4925417049600003</v>
       </c>
-      <c r="J274" s="25">
+      <c r="J274" s="362">
         <f>H274+I274</f>
         <v>8.4535384449600013</v>
       </c>
@@ -11092,7 +11094,7 @@
       <c r="L274" s="25"/>
     </row>
     <row r="275" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A275" s="229"/>
+      <c r="A275" s="239"/>
       <c r="B275" s="194"/>
       <c r="C275" s="194"/>
       <c r="D275" s="191">
@@ -11101,15 +11103,15 @@
       <c r="E275" s="25"/>
       <c r="F275" s="25"/>
       <c r="G275" s="25"/>
-      <c r="H275" s="25">
+      <c r="H275" s="362">
         <f t="shared" ref="H275:J275" si="142">H274*$D275</f>
         <v>4.9609967400000006</v>
       </c>
-      <c r="I275" s="25">
+      <c r="I275" s="362">
         <f t="shared" si="142"/>
         <v>3.4925417049600003</v>
       </c>
-      <c r="J275" s="25">
+      <c r="J275" s="362">
         <f t="shared" si="142"/>
         <v>8.4535384449600013</v>
       </c>
@@ -11117,7 +11119,7 @@
       <c r="L275" s="25"/>
     </row>
     <row r="276" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A276" s="229"/>
+      <c r="A276" s="239"/>
       <c r="B276" s="194" t="s">
         <v>85</v>
       </c>
@@ -11130,15 +11132,15 @@
       <c r="E276" s="25"/>
       <c r="F276" s="25"/>
       <c r="G276" s="25"/>
-      <c r="H276" s="25">
+      <c r="H276" s="362">
         <f>(2450-5)*0.001226*1.89</f>
         <v>5.6654073</v>
       </c>
-      <c r="I276" s="25">
+      <c r="I276" s="362">
         <f>H276*0.704</f>
         <v>3.9884467391999996</v>
       </c>
-      <c r="J276" s="25">
+      <c r="J276" s="362">
         <f>H276+I276</f>
         <v>9.6538540391999987</v>
       </c>
@@ -11146,7 +11148,7 @@
       <c r="L276" s="25"/>
     </row>
     <row r="277" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A277" s="226"/>
+      <c r="A277" s="241"/>
       <c r="B277" s="192"/>
       <c r="C277" s="192"/>
       <c r="D277" s="25">
@@ -11156,15 +11158,15 @@
       <c r="E277" s="25"/>
       <c r="F277" s="25"/>
       <c r="G277" s="25"/>
-      <c r="H277" s="25">
+      <c r="H277" s="362">
         <f t="shared" ref="H277:J277" si="143">H276*$D277</f>
         <v>61.138809418680005</v>
       </c>
-      <c r="I277" s="25">
+      <c r="I277" s="362">
         <f t="shared" si="143"/>
         <v>43.041721830750717</v>
       </c>
-      <c r="J277" s="25">
+      <c r="J277" s="362">
         <f t="shared" si="143"/>
         <v>104.18053124943071</v>
       </c>
@@ -11172,7 +11174,7 @@
       <c r="L277" s="25"/>
     </row>
     <row r="278" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A278" s="226"/>
+      <c r="A278" s="241"/>
       <c r="B278" s="189" t="s">
         <v>87</v>
       </c>
@@ -11185,15 +11187,15 @@
       <c r="E278" s="25"/>
       <c r="F278" s="25"/>
       <c r="G278" s="25"/>
-      <c r="H278" s="25">
+      <c r="H278" s="362">
         <f>(6829-5)*0.001226*((89*100)/400)</f>
         <v>186.14848400000002</v>
       </c>
-      <c r="I278" s="25">
+      <c r="I278" s="362">
         <f>H278*0.704</f>
         <v>131.048532736</v>
       </c>
-      <c r="J278" s="25">
+      <c r="J278" s="362">
         <f>H278+I278</f>
         <v>317.19701673600002</v>
       </c>
@@ -11201,7 +11203,7 @@
       <c r="L278" s="25"/>
     </row>
     <row r="279" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A279" s="227"/>
+      <c r="A279" s="232"/>
       <c r="B279" s="25"/>
       <c r="C279" s="25"/>
       <c r="D279" s="25">
@@ -11210,15 +11212,15 @@
       <c r="E279" s="25"/>
       <c r="F279" s="25"/>
       <c r="G279" s="25"/>
-      <c r="H279" s="25">
+      <c r="H279" s="362">
         <f t="shared" ref="H279:J279" si="144">H278*$D279</f>
         <v>70.736423920000007</v>
       </c>
-      <c r="I279" s="25">
+      <c r="I279" s="362">
         <f t="shared" si="144"/>
         <v>49.798442439680002</v>
       </c>
-      <c r="J279" s="25">
+      <c r="J279" s="362">
         <f t="shared" si="144"/>
         <v>120.53486635968001</v>
       </c>
@@ -11226,11 +11228,11 @@
       <c r="L279" s="25"/>
     </row>
     <row r="280" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A280" s="222" t="s">
+      <c r="A280" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="B280" s="223"/>
-      <c r="C280" s="224"/>
+      <c r="B280" s="234"/>
+      <c r="C280" s="235"/>
       <c r="D280" s="13"/>
       <c r="E280" s="111">
         <f>E225+E253</f>
@@ -11266,11 +11268,11 @@
       </c>
     </row>
     <row r="281" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A281" s="219" t="s">
+      <c r="A281" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="B281" s="220"/>
-      <c r="C281" s="221"/>
+      <c r="B281" s="248"/>
+      <c r="C281" s="249"/>
       <c r="D281" s="15"/>
       <c r="E281" s="112"/>
       <c r="F281" s="112"/>
@@ -11285,11 +11287,11 @@
       <c r="L281" s="113"/>
     </row>
     <row r="282" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A282" s="219" t="s">
+      <c r="A282" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="B282" s="220"/>
-      <c r="C282" s="221"/>
+      <c r="B282" s="248"/>
+      <c r="C282" s="249"/>
       <c r="D282" s="15"/>
       <c r="E282" s="112"/>
       <c r="F282" s="112"/>
@@ -11304,11 +11306,11 @@
       <c r="L282" s="113"/>
     </row>
     <row r="283" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A283" s="219" t="s">
+      <c r="A283" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="B283" s="220"/>
-      <c r="C283" s="221"/>
+      <c r="B283" s="248"/>
+      <c r="C283" s="249"/>
       <c r="D283" s="15"/>
       <c r="E283" s="112"/>
       <c r="F283" s="112"/>
@@ -11323,11 +11325,11 @@
       <c r="L283" s="113"/>
     </row>
     <row r="284" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A284" s="219" t="s">
+      <c r="A284" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="B284" s="220"/>
-      <c r="C284" s="221"/>
+      <c r="B284" s="248"/>
+      <c r="C284" s="249"/>
       <c r="D284" s="15"/>
       <c r="E284" s="112"/>
       <c r="F284" s="112"/>
@@ -11342,11 +11344,11 @@
       <c r="L284" s="113"/>
     </row>
     <row r="285" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A285" s="239" t="s">
+      <c r="A285" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="B285" s="240"/>
-      <c r="C285" s="241"/>
+      <c r="B285" s="226"/>
+      <c r="C285" s="227"/>
       <c r="D285" s="18"/>
       <c r="E285" s="114"/>
       <c r="F285" s="114"/>
@@ -11361,23 +11363,23 @@
       <c r="L285" s="115"/>
     </row>
     <row r="286" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A286" s="267" t="s">
+      <c r="A286" s="228" t="s">
         <v>89</v>
       </c>
-      <c r="B286" s="265"/>
-      <c r="C286" s="265"/>
-      <c r="D286" s="265"/>
-      <c r="E286" s="265"/>
-      <c r="F286" s="265"/>
-      <c r="G286" s="265"/>
-      <c r="H286" s="265"/>
-      <c r="I286" s="265"/>
-      <c r="J286" s="265"/>
-      <c r="K286" s="265"/>
-      <c r="L286" s="266"/>
-    </row>
-    <row r="287" spans="1:12" ht="29.25" thickBot="1">
-      <c r="A287" s="225">
+      <c r="B286" s="229"/>
+      <c r="C286" s="229"/>
+      <c r="D286" s="229"/>
+      <c r="E286" s="229"/>
+      <c r="F286" s="229"/>
+      <c r="G286" s="229"/>
+      <c r="H286" s="229"/>
+      <c r="I286" s="229"/>
+      <c r="J286" s="229"/>
+      <c r="K286" s="229"/>
+      <c r="L286" s="230"/>
+    </row>
+    <row r="287" spans="1:12" ht="45.6" thickBot="1">
+      <c r="A287" s="244">
         <v>1</v>
       </c>
       <c r="B287" s="22" t="s">
@@ -11412,7 +11414,7 @@
       </c>
     </row>
     <row r="288" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A288" s="226"/>
+      <c r="A288" s="241"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
       <c r="D288" s="122">
@@ -11446,7 +11448,7 @@
       </c>
     </row>
     <row r="289" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A289" s="226"/>
+      <c r="A289" s="241"/>
       <c r="B289" s="35" t="s">
         <v>92</v>
       </c>
@@ -11474,7 +11476,7 @@
       <c r="L289" s="21"/>
     </row>
     <row r="290" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A290" s="226"/>
+      <c r="A290" s="241"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
       <c r="D290" s="121">
@@ -11500,7 +11502,7 @@
       <c r="L290" s="21"/>
     </row>
     <row r="291" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A291" s="226"/>
+      <c r="A291" s="241"/>
       <c r="B291" s="35" t="s">
         <v>44</v>
       </c>
@@ -11528,7 +11530,7 @@
       <c r="L291" s="21"/>
     </row>
     <row r="292" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A292" s="227"/>
+      <c r="A292" s="232"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
       <c r="D292" s="21">
@@ -11554,11 +11556,11 @@
       <c r="L292" s="21"/>
     </row>
     <row r="293" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A293" s="222" t="s">
+      <c r="A293" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="B293" s="223"/>
-      <c r="C293" s="224"/>
+      <c r="B293" s="234"/>
+      <c r="C293" s="235"/>
       <c r="D293" s="13"/>
       <c r="E293" s="111">
         <f t="shared" ref="E293:G293" si="151">E288</f>
@@ -11594,11 +11596,11 @@
       </c>
     </row>
     <row r="294" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A294" s="219" t="s">
+      <c r="A294" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="B294" s="220"/>
-      <c r="C294" s="221"/>
+      <c r="B294" s="248"/>
+      <c r="C294" s="249"/>
       <c r="D294" s="15"/>
       <c r="E294" s="16"/>
       <c r="F294" s="16"/>
@@ -11613,11 +11615,11 @@
       <c r="L294" s="17"/>
     </row>
     <row r="295" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A295" s="219" t="s">
+      <c r="A295" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="B295" s="220"/>
-      <c r="C295" s="221"/>
+      <c r="B295" s="248"/>
+      <c r="C295" s="249"/>
       <c r="D295" s="15"/>
       <c r="E295" s="16"/>
       <c r="F295" s="16"/>
@@ -11632,11 +11634,11 @@
       <c r="L295" s="17"/>
     </row>
     <row r="296" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A296" s="219" t="s">
+      <c r="A296" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="B296" s="220"/>
-      <c r="C296" s="221"/>
+      <c r="B296" s="248"/>
+      <c r="C296" s="249"/>
       <c r="D296" s="15"/>
       <c r="E296" s="16"/>
       <c r="F296" s="16"/>
@@ -11651,11 +11653,11 @@
       <c r="L296" s="17"/>
     </row>
     <row r="297" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A297" s="219" t="s">
+      <c r="A297" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="B297" s="220"/>
-      <c r="C297" s="221"/>
+      <c r="B297" s="248"/>
+      <c r="C297" s="249"/>
       <c r="D297" s="15"/>
       <c r="E297" s="16"/>
       <c r="F297" s="16"/>
@@ -11670,11 +11672,11 @@
       <c r="L297" s="17"/>
     </row>
     <row r="298" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A298" s="239" t="s">
+      <c r="A298" s="225" t="s">
         <v>37</v>
       </c>
-      <c r="B298" s="240"/>
-      <c r="C298" s="241"/>
+      <c r="B298" s="226"/>
+      <c r="C298" s="227"/>
       <c r="D298" s="18"/>
       <c r="E298" s="19"/>
       <c r="F298" s="19"/>
@@ -11694,11 +11696,11 @@
     <row r="302" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="303" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="304" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A304" s="251" t="s">
+      <c r="A304" s="267" t="s">
         <v>33</v>
       </c>
-      <c r="B304" s="223"/>
-      <c r="C304" s="224"/>
+      <c r="B304" s="234"/>
+      <c r="C304" s="235"/>
       <c r="D304" s="37"/>
       <c r="E304" s="116">
         <f t="shared" ref="E304:J304" si="153">E293+E280+E217+E24</f>
@@ -11734,11 +11736,11 @@
       </c>
     </row>
     <row r="305" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A305" s="252" t="s">
+      <c r="A305" s="268" t="s">
         <v>34</v>
       </c>
-      <c r="B305" s="220"/>
-      <c r="C305" s="221"/>
+      <c r="B305" s="248"/>
+      <c r="C305" s="249"/>
       <c r="D305" s="38"/>
       <c r="E305" s="117"/>
       <c r="F305" s="117"/>
@@ -11753,11 +11755,11 @@
       <c r="L305" s="118"/>
     </row>
     <row r="306" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A306" s="252" t="s">
+      <c r="A306" s="268" t="s">
         <v>35</v>
       </c>
-      <c r="B306" s="220"/>
-      <c r="C306" s="221"/>
+      <c r="B306" s="248"/>
+      <c r="C306" s="249"/>
       <c r="D306" s="38"/>
       <c r="E306" s="117"/>
       <c r="F306" s="117"/>
@@ -11772,11 +11774,11 @@
       <c r="L306" s="118"/>
     </row>
     <row r="307" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A307" s="252" t="s">
+      <c r="A307" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="B307" s="220"/>
-      <c r="C307" s="221"/>
+      <c r="B307" s="248"/>
+      <c r="C307" s="249"/>
       <c r="D307" s="38"/>
       <c r="E307" s="117"/>
       <c r="F307" s="117"/>
@@ -11791,11 +11793,11 @@
       <c r="L307" s="118"/>
     </row>
     <row r="308" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A308" s="252" t="s">
+      <c r="A308" s="268" t="s">
         <v>5</v>
       </c>
-      <c r="B308" s="220"/>
-      <c r="C308" s="221"/>
+      <c r="B308" s="248"/>
+      <c r="C308" s="249"/>
       <c r="D308" s="38"/>
       <c r="E308" s="117"/>
       <c r="F308" s="117"/>
@@ -11810,11 +11812,11 @@
       <c r="L308" s="118"/>
     </row>
     <row r="309" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A309" s="250" t="s">
+      <c r="A309" s="266" t="s">
         <v>37</v>
       </c>
-      <c r="B309" s="240"/>
-      <c r="C309" s="241"/>
+      <c r="B309" s="226"/>
+      <c r="C309" s="227"/>
       <c r="D309" s="39"/>
       <c r="E309" s="119"/>
       <c r="F309" s="119"/>
@@ -12696,6 +12698,85 @@
     <row r="1170" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="A220:C220"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A217:C217"/>
+    <mergeCell ref="A201:A216"/>
+    <mergeCell ref="A103:A126"/>
+    <mergeCell ref="A127:A152"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A79:A102"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="A287:A292"/>
+    <mergeCell ref="A293:C293"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A295:C295"/>
+    <mergeCell ref="A296:C296"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A298:C298"/>
+    <mergeCell ref="A304:C304"/>
+    <mergeCell ref="A305:C305"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A307:C307"/>
+    <mergeCell ref="A308:C308"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A286:L286"/>
+    <mergeCell ref="A252:A279"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="A281:C281"/>
+    <mergeCell ref="A282:C282"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A284:C284"/>
     <mergeCell ref="A222:C222"/>
     <mergeCell ref="A223:L223"/>
     <mergeCell ref="C22:C23"/>
@@ -12712,85 +12793,6 @@
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="A218:C218"/>
     <mergeCell ref="A219:C219"/>
-    <mergeCell ref="A286:L286"/>
-    <mergeCell ref="A252:A279"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="A281:C281"/>
-    <mergeCell ref="A282:C282"/>
-    <mergeCell ref="A283:C283"/>
-    <mergeCell ref="A284:C284"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="A287:A292"/>
-    <mergeCell ref="A293:C293"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A295:C295"/>
-    <mergeCell ref="A296:C296"/>
-    <mergeCell ref="A297:C297"/>
-    <mergeCell ref="A298:C298"/>
-    <mergeCell ref="A304:C304"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A307:C307"/>
-    <mergeCell ref="A308:C308"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A79:A102"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A220:C220"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A217:C217"/>
-    <mergeCell ref="A201:A216"/>
-    <mergeCell ref="A103:A126"/>
-    <mergeCell ref="A127:A152"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="B103:B104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12805,19 +12807,19 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="26" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.8984375" customWidth="1"/>
+    <col min="3" max="4" width="14.8984375" customWidth="1"/>
+    <col min="5" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="275" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="281" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="276"/>
+      <c r="B1" s="282"/>
       <c r="C1" s="40" t="s">
         <v>95</v>
       </c>
@@ -12825,11 +12827,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="277">
+    <row r="2" spans="1:4" ht="17.399999999999999">
+      <c r="A2" s="283">
         <v>1</v>
       </c>
-      <c r="B2" s="278"/>
+      <c r="B2" s="284"/>
       <c r="C2" s="42">
         <v>2</v>
       </c>
@@ -12838,10 +12840,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="280"/>
+      <c r="B3" s="286"/>
       <c r="C3" s="44">
         <f>смета!J24</f>
         <v>89924.997452907613</v>
@@ -12851,11 +12853,11 @@
         <v>8.6625820108240532</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
-      <c r="A4" s="272" t="s">
+    <row r="4" spans="1:4" ht="17.399999999999999">
+      <c r="A4" s="278" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="273"/>
+      <c r="B4" s="279"/>
       <c r="C4" s="45">
         <f>смета!J280</f>
         <v>2059.1137082274572</v>
@@ -12865,11 +12867,11 @@
         <v>1.7558872348360359</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18">
-      <c r="A5" s="272" t="s">
+    <row r="5" spans="1:4" ht="17.399999999999999">
+      <c r="A5" s="278" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="273"/>
+      <c r="B5" s="279"/>
       <c r="C5" s="45">
         <f>смета!J217</f>
         <v>1235479.3229216493</v>
@@ -12879,11 +12881,11 @@
         <v>87.229555237372708</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="272" t="s">
+    <row r="6" spans="1:4" ht="17.399999999999999">
+      <c r="A6" s="278" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="273"/>
+      <c r="B6" s="279"/>
       <c r="C6" s="45">
         <f>смета!J293</f>
         <v>21788.7952560544</v>
@@ -12893,13 +12895,13 @@
         <v>2.351975516967217</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="274"/>
-      <c r="B7" s="273"/>
+    <row r="7" spans="1:4" ht="14.4">
+      <c r="A7" s="280"/>
+      <c r="B7" s="279"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="18">
+    <row r="8" spans="1:4" ht="17.399999999999999">
       <c r="C8" s="46" t="s">
         <v>98</v>
       </c>
@@ -13907,52 +13909,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView topLeftCell="G58" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="26" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" customWidth="1"/>
+    <col min="13" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25">
-      <c r="A1" s="307" t="s">
+    <row r="1" spans="1:11" ht="13.8">
+      <c r="A1" s="336" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="307" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="336" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="238"/>
-      <c r="E1" s="314" t="s">
+      <c r="D1" s="275"/>
+      <c r="E1" s="343" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="265"/>
-      <c r="K1" s="266"/>
-    </row>
-    <row r="2" spans="1:11" ht="47.25">
-      <c r="A2" s="309"/>
-      <c r="B2" s="310"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="315" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="230"/>
+    </row>
+    <row r="2" spans="1:11" ht="46.8">
+      <c r="A2" s="338"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="344" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="48" t="s">
@@ -13964,22 +13966,22 @@
       <c r="H2" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="344" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="315" t="s">
+      <c r="J2" s="344" t="s">
         <v>107</v>
       </c>
       <c r="K2" s="51" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.5">
-      <c r="A3" s="288"/>
-      <c r="B3" s="311"/>
-      <c r="C3" s="288"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="255"/>
+    <row r="3" spans="1:11" ht="31.2">
+      <c r="A3" s="324"/>
+      <c r="B3" s="340"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="253"/>
       <c r="F3" s="48" t="s">
         <v>109</v>
       </c>
@@ -13989,21 +13991,21 @@
       <c r="H3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
       <c r="K3" s="51" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="316">
+    <row r="4" spans="1:11" ht="15.6">
+      <c r="A4" s="345">
         <v>1</v>
       </c>
-      <c r="B4" s="276"/>
-      <c r="C4" s="317">
+      <c r="B4" s="282"/>
+      <c r="C4" s="346">
         <v>2</v>
       </c>
-      <c r="D4" s="276"/>
+      <c r="D4" s="282"/>
       <c r="E4" s="53">
         <v>3</v>
       </c>
@@ -14026,31 +14028,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25">
-      <c r="A5" s="318" t="s">
+    <row r="5" spans="1:11" ht="13.8">
+      <c r="A5" s="347" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="265"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="265"/>
-      <c r="J5" s="265"/>
-      <c r="K5" s="266"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="319" t="s">
+      <c r="B5" s="229"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="230"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6">
+      <c r="A6" s="327" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="287"/>
-      <c r="C6" s="320" t="s">
+      <c r="B6" s="317"/>
+      <c r="C6" s="328" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="287"/>
-      <c r="E6" s="321">
+      <c r="D6" s="317"/>
+      <c r="E6" s="329">
         <f>K6*12.8/100</f>
         <v>1.0298923725423306</v>
       </c>
@@ -14066,19 +14068,19 @@
         <f>K6*14.1/100</f>
         <v>1.1344908166286607</v>
       </c>
-      <c r="I6" s="321"/>
-      <c r="J6" s="321"/>
+      <c r="I6" s="329"/>
+      <c r="J6" s="329"/>
       <c r="K6" s="56">
         <f>K11*0.5/100</f>
         <v>8.0460341604869559</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="288"/>
-      <c r="B7" s="289"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="289"/>
-      <c r="E7" s="227"/>
+    <row r="7" spans="1:11" ht="15.6">
+      <c r="A7" s="324"/>
+      <c r="B7" s="318"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="318"/>
+      <c r="E7" s="232"/>
       <c r="F7" s="57">
         <f>K6*1.26/100</f>
         <v>0.10138003042213564</v>
@@ -14091,21 +14093,21 @@
         <f>K6*23.4/100</f>
         <v>1.8827719935539475</v>
       </c>
-      <c r="I7" s="227"/>
-      <c r="J7" s="227"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="232"/>
       <c r="K7" s="58">
         <f>K12*2/100</f>
         <v>629.34161163203999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="319"/>
-      <c r="B8" s="287"/>
-      <c r="C8" s="320" t="s">
+    <row r="8" spans="1:11" ht="15.6">
+      <c r="A8" s="327"/>
+      <c r="B8" s="317"/>
+      <c r="C8" s="328" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="287"/>
-      <c r="E8" s="321">
+      <c r="D8" s="317"/>
+      <c r="E8" s="329">
         <f t="shared" ref="E8:H8" si="0">E6</f>
         <v>1.0298923725423306</v>
       </c>
@@ -14121,19 +14123,19 @@
         <f t="shared" si="0"/>
         <v>1.1344908166286607</v>
       </c>
-      <c r="I8" s="321"/>
-      <c r="J8" s="321"/>
+      <c r="I8" s="329"/>
+      <c r="J8" s="329"/>
       <c r="K8" s="56">
         <f t="shared" ref="K8:K9" si="1">K6</f>
         <v>8.0460341604869559</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="288"/>
-      <c r="B9" s="289"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="227"/>
+    <row r="9" spans="1:11" ht="15.6">
+      <c r="A9" s="324"/>
+      <c r="B9" s="318"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="232"/>
       <c r="F9" s="57">
         <f t="shared" ref="F9:H9" si="2">F7</f>
         <v>0.10138003042213564</v>
@@ -14146,38 +14148,38 @@
         <f t="shared" si="2"/>
         <v>1.8827719935539475</v>
       </c>
-      <c r="I9" s="227"/>
-      <c r="J9" s="227"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="232"/>
       <c r="K9" s="58">
         <f t="shared" si="1"/>
         <v>629.34161163203999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25">
-      <c r="A10" s="323" t="s">
+    <row r="10" spans="1:11" ht="13.8">
+      <c r="A10" s="330" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="324"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
-      <c r="H10" s="324"/>
-      <c r="I10" s="324"/>
-      <c r="J10" s="324"/>
-      <c r="K10" s="325"/>
+      <c r="B10" s="331"/>
+      <c r="C10" s="331"/>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="331"/>
+      <c r="H10" s="331"/>
+      <c r="I10" s="331"/>
+      <c r="J10" s="331"/>
+      <c r="K10" s="332"/>
     </row>
     <row r="11" spans="1:11" ht="36.75" customHeight="1">
-      <c r="A11" s="326" t="s">
+      <c r="A11" s="333" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="287"/>
-      <c r="C11" s="328" t="s">
+      <c r="B11" s="317"/>
+      <c r="C11" s="334" t="s">
         <v>312</v>
       </c>
-      <c r="D11" s="287"/>
-      <c r="E11" s="322">
+      <c r="D11" s="317"/>
+      <c r="E11" s="335">
         <f>смета!E304/1000</f>
         <v>159.85742968272996</v>
       </c>
@@ -14193,19 +14195,19 @@
         <f>смета!J305/1000</f>
         <v>123.46877017486037</v>
       </c>
-      <c r="I11" s="322"/>
-      <c r="J11" s="322"/>
+      <c r="I11" s="335"/>
+      <c r="J11" s="335"/>
       <c r="K11" s="60">
         <f>смета!J307/1000</f>
         <v>1609.2068320973913</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="51" customHeight="1">
-      <c r="A12" s="288"/>
-      <c r="B12" s="289"/>
-      <c r="C12" s="248"/>
-      <c r="D12" s="289"/>
-      <c r="E12" s="227"/>
+      <c r="A12" s="324"/>
+      <c r="B12" s="318"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="232"/>
       <c r="F12" s="61">
         <f>смета!G304/1000</f>
         <v>54.945580363999994</v>
@@ -14218,21 +14220,21 @@
         <f>смета!J306/1000</f>
         <v>136.48583258369223</v>
       </c>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="232"/>
       <c r="K12" s="62">
         <f>смета!J308+смета!J309</f>
         <v>31467.080581602</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="286"/>
-      <c r="B13" s="287"/>
-      <c r="C13" s="290" t="s">
+    <row r="13" spans="1:11" ht="15.6">
+      <c r="A13" s="323"/>
+      <c r="B13" s="317"/>
+      <c r="C13" s="316" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="287"/>
-      <c r="E13" s="285">
+      <c r="D13" s="317"/>
+      <c r="E13" s="319">
         <f t="shared" ref="E13:H13" si="3">E11</f>
         <v>159.85742968272996</v>
       </c>
@@ -14248,19 +14250,19 @@
         <f t="shared" si="3"/>
         <v>123.46877017486037</v>
       </c>
-      <c r="I13" s="285"/>
-      <c r="J13" s="285"/>
+      <c r="I13" s="319"/>
+      <c r="J13" s="319"/>
       <c r="K13" s="64">
         <f t="shared" ref="K13" si="4">K11</f>
         <v>1609.2068320973913</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="288"/>
-      <c r="B14" s="289"/>
-      <c r="C14" s="248"/>
-      <c r="D14" s="289"/>
-      <c r="E14" s="227"/>
+    <row r="14" spans="1:11" ht="15.6">
+      <c r="A14" s="324"/>
+      <c r="B14" s="318"/>
+      <c r="C14" s="272"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="232"/>
       <c r="F14" s="65">
         <f t="shared" ref="F14:H14" si="5">F12</f>
         <v>54.945580363999994</v>
@@ -14273,38 +14275,38 @@
         <f t="shared" si="5"/>
         <v>136.48583258369223</v>
       </c>
-      <c r="I14" s="227"/>
-      <c r="J14" s="227"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
       <c r="K14" s="66">
         <f>K12</f>
         <v>31467.080581602</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25">
-      <c r="A15" s="327" t="s">
+    <row r="15" spans="1:11" ht="13.8">
+      <c r="A15" s="315" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="265"/>
-      <c r="C15" s="265"/>
-      <c r="D15" s="265"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="265"/>
-      <c r="G15" s="265"/>
-      <c r="H15" s="265"/>
-      <c r="I15" s="265"/>
-      <c r="J15" s="265"/>
-      <c r="K15" s="266"/>
+      <c r="B15" s="229"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
+      <c r="E15" s="229"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="229"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="230"/>
     </row>
     <row r="16" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A16" s="286" t="s">
+      <c r="A16" s="323" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="287"/>
-      <c r="C16" s="290" t="s">
+      <c r="B16" s="317"/>
+      <c r="C16" s="316" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="287"/>
-      <c r="E16" s="285">
+      <c r="D16" s="317"/>
+      <c r="E16" s="319">
         <f>E11*12.8%</f>
         <v>20.461750999389434</v>
       </c>
@@ -14320,19 +14322,19 @@
         <f>H11*14.1%</f>
         <v>17.40909659465531</v>
       </c>
-      <c r="I16" s="285"/>
-      <c r="J16" s="285"/>
+      <c r="I16" s="319"/>
+      <c r="J16" s="319"/>
       <c r="K16" s="64">
         <f t="shared" ref="K16:K17" si="6">K11*5/100</f>
         <v>80.460341604869569</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="98.25" customHeight="1">
-      <c r="A17" s="288"/>
-      <c r="B17" s="289"/>
-      <c r="C17" s="248"/>
-      <c r="D17" s="289"/>
-      <c r="E17" s="227"/>
+      <c r="A17" s="324"/>
+      <c r="B17" s="318"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="232"/>
       <c r="F17" s="65">
         <f>F12*1.26%</f>
         <v>0.69231431258639997</v>
@@ -14345,21 +14347,21 @@
         <f>H12*23.4%</f>
         <v>31.937684824583979</v>
       </c>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="232"/>
       <c r="K17" s="66">
         <f t="shared" si="6"/>
         <v>1573.3540290801</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="286"/>
-      <c r="B18" s="287"/>
-      <c r="C18" s="290" t="s">
+    <row r="18" spans="1:11" ht="15.6">
+      <c r="A18" s="323"/>
+      <c r="B18" s="317"/>
+      <c r="C18" s="316" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="287"/>
-      <c r="E18" s="285">
+      <c r="D18" s="317"/>
+      <c r="E18" s="319">
         <f t="shared" ref="E18:H18" si="7">E16</f>
         <v>20.461750999389434</v>
       </c>
@@ -14375,19 +14377,19 @@
         <f t="shared" si="7"/>
         <v>17.40909659465531</v>
       </c>
-      <c r="I18" s="285"/>
-      <c r="J18" s="285"/>
+      <c r="I18" s="319"/>
+      <c r="J18" s="319"/>
       <c r="K18" s="64">
         <f t="shared" ref="K18:K19" si="8">K16</f>
         <v>80.460341604869569</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="288"/>
-      <c r="B19" s="289"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="227"/>
+    <row r="19" spans="1:11" ht="15.6">
+      <c r="A19" s="324"/>
+      <c r="B19" s="318"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="232"/>
       <c r="F19" s="65">
         <f t="shared" ref="F19:H19" si="9">F17</f>
         <v>0.69231431258639997</v>
@@ -14400,38 +14402,38 @@
         <f t="shared" si="9"/>
         <v>31.937684824583979</v>
       </c>
-      <c r="I19" s="227"/>
-      <c r="J19" s="227"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="232"/>
       <c r="K19" s="66">
         <f t="shared" si="8"/>
         <v>1573.3540290801</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25">
-      <c r="A20" s="327" t="s">
+    <row r="20" spans="1:11" ht="13.8">
+      <c r="A20" s="315" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="265"/>
-      <c r="I20" s="265"/>
-      <c r="J20" s="265"/>
-      <c r="K20" s="266"/>
+      <c r="B20" s="229"/>
+      <c r="C20" s="229"/>
+      <c r="D20" s="229"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="229"/>
+      <c r="G20" s="229"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="229"/>
+      <c r="K20" s="230"/>
     </row>
     <row r="21" spans="1:11" ht="45" customHeight="1">
-      <c r="A21" s="286" t="s">
+      <c r="A21" s="323" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="287"/>
-      <c r="C21" s="290" t="s">
+      <c r="B21" s="317"/>
+      <c r="C21" s="316" t="s">
         <v>126</v>
       </c>
-      <c r="D21" s="287"/>
-      <c r="E21" s="285">
+      <c r="D21" s="317"/>
+      <c r="E21" s="319">
         <f>K21*12.8/100</f>
         <v>8.2391389803386446</v>
       </c>
@@ -14447,19 +14449,19 @@
         <f>K21*14.1/100</f>
         <v>9.0759265330292855</v>
       </c>
-      <c r="I21" s="285"/>
-      <c r="J21" s="285"/>
+      <c r="I21" s="319"/>
+      <c r="J21" s="319"/>
       <c r="K21" s="64">
         <f t="shared" ref="K21:K22" si="10">4/100*K11</f>
         <v>64.368273283895647</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A22" s="288"/>
-      <c r="B22" s="289"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="289"/>
-      <c r="E22" s="227"/>
+      <c r="A22" s="324"/>
+      <c r="B22" s="318"/>
+      <c r="C22" s="272"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="232"/>
       <c r="F22" s="65">
         <f>K21*1.26/100</f>
         <v>0.81104024337708513</v>
@@ -14472,21 +14474,21 @@
         <f>K21*23.4/100</f>
         <v>15.06217594843158</v>
       </c>
-      <c r="I22" s="227"/>
-      <c r="J22" s="227"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="232"/>
       <c r="K22" s="66">
         <f t="shared" si="10"/>
         <v>1258.68322326408</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A23" s="286"/>
-      <c r="B23" s="287"/>
-      <c r="C23" s="290" t="s">
+      <c r="A23" s="323"/>
+      <c r="B23" s="317"/>
+      <c r="C23" s="316" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="287"/>
-      <c r="E23" s="285">
+      <c r="D23" s="317"/>
+      <c r="E23" s="319">
         <f t="shared" ref="E23:H23" si="11">E21</f>
         <v>8.2391389803386446</v>
       </c>
@@ -14502,19 +14504,19 @@
         <f t="shared" si="11"/>
         <v>9.0759265330292855</v>
       </c>
-      <c r="I23" s="285"/>
-      <c r="J23" s="285"/>
+      <c r="I23" s="319"/>
+      <c r="J23" s="319"/>
       <c r="K23" s="64">
         <f t="shared" ref="K23:K24" si="12">K21</f>
         <v>64.368273283895647</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A24" s="288"/>
-      <c r="B24" s="289"/>
-      <c r="C24" s="248"/>
-      <c r="D24" s="289"/>
-      <c r="E24" s="227"/>
+      <c r="A24" s="324"/>
+      <c r="B24" s="318"/>
+      <c r="C24" s="272"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="232"/>
       <c r="F24" s="65">
         <f t="shared" ref="F24:H24" si="13">F22</f>
         <v>0.81104024337708513</v>
@@ -14527,21 +14529,21 @@
         <f t="shared" si="13"/>
         <v>15.06217594843158</v>
       </c>
-      <c r="I24" s="227"/>
-      <c r="J24" s="227"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="232"/>
       <c r="K24" s="66">
         <f t="shared" si="12"/>
         <v>1258.68322326408</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A25" s="286"/>
-      <c r="B25" s="287"/>
-      <c r="C25" s="290" t="s">
+      <c r="A25" s="323"/>
+      <c r="B25" s="317"/>
+      <c r="C25" s="316" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="287"/>
-      <c r="E25" s="285">
+      <c r="D25" s="317"/>
+      <c r="E25" s="319">
         <f t="shared" ref="E25:H25" si="14">E23+E18+E13+E8</f>
         <v>189.58821203500037</v>
       </c>
@@ -14557,19 +14559,19 @@
         <f t="shared" si="14"/>
         <v>151.08828411917364</v>
       </c>
-      <c r="I25" s="285"/>
-      <c r="J25" s="285"/>
+      <c r="I25" s="319"/>
+      <c r="J25" s="319"/>
       <c r="K25" s="63">
         <f t="shared" ref="K25" si="15">K23+K18+K13+K8</f>
         <v>1762.0814811466435</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A26" s="288"/>
-      <c r="B26" s="289"/>
-      <c r="C26" s="248"/>
-      <c r="D26" s="289"/>
-      <c r="E26" s="227"/>
+      <c r="A26" s="324"/>
+      <c r="B26" s="318"/>
+      <c r="C26" s="272"/>
+      <c r="D26" s="318"/>
+      <c r="E26" s="232"/>
       <c r="F26" s="63">
         <f t="shared" ref="F26:H26" si="16">F24+F19+F14+F9</f>
         <v>56.550314950385612</v>
@@ -14582,38 +14584,38 @@
         <f t="shared" si="16"/>
         <v>185.36846535026172</v>
       </c>
-      <c r="I26" s="227"/>
-      <c r="J26" s="227"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="232"/>
       <c r="K26" s="63">
         <f>K24+K19+K14+K9</f>
         <v>34928.459445578213</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="306" t="s">
+      <c r="A27" s="352" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="265"/>
-      <c r="C27" s="265"/>
-      <c r="D27" s="265"/>
-      <c r="E27" s="265"/>
-      <c r="F27" s="265"/>
-      <c r="G27" s="265"/>
-      <c r="H27" s="265"/>
-      <c r="I27" s="265"/>
-      <c r="J27" s="265"/>
-      <c r="K27" s="266"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="230"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="298" t="s">
+      <c r="A28" s="348" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="299"/>
-      <c r="C28" s="300" t="s">
+      <c r="B28" s="349"/>
+      <c r="C28" s="350" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="299"/>
-      <c r="E28" s="284">
+      <c r="D28" s="349"/>
+      <c r="E28" s="351">
         <f>K28*0.3/100</f>
         <v>4.5781766019281786E-2</v>
       </c>
@@ -14626,74 +14628,74 @@
         <v>9.1563532038563569</v>
       </c>
       <c r="H28" s="67"/>
-      <c r="I28" s="284"/>
-      <c r="J28" s="284"/>
+      <c r="I28" s="351"/>
+      <c r="J28" s="351"/>
       <c r="K28" s="67">
         <f>(E25+F26)*6.2/100</f>
         <v>15.260588673093929</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="296"/>
-      <c r="B29" s="280"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="280"/>
-      <c r="E29" s="246"/>
+      <c r="A29" s="290"/>
+      <c r="B29" s="286"/>
+      <c r="C29" s="290"/>
+      <c r="D29" s="286"/>
+      <c r="E29" s="270"/>
       <c r="F29" s="68">
         <f>F28*0.2</f>
         <v>3.0521177346187864E-3</v>
       </c>
       <c r="G29" s="68"/>
       <c r="H29" s="68"/>
-      <c r="I29" s="246"/>
-      <c r="J29" s="246"/>
+      <c r="I29" s="270"/>
+      <c r="J29" s="270"/>
       <c r="K29" s="68">
         <f>K28*0.031</f>
         <v>0.47307824886591182</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="297"/>
-      <c r="B30" s="295"/>
-      <c r="C30" s="297" t="s">
+      <c r="A30" s="293"/>
+      <c r="B30" s="289"/>
+      <c r="C30" s="293" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="295"/>
-      <c r="E30" s="282"/>
+      <c r="D30" s="289"/>
+      <c r="E30" s="321"/>
       <c r="F30" s="68">
         <f>K28*15%</f>
         <v>2.2890883009640892</v>
       </c>
       <c r="G30" s="68"/>
       <c r="H30" s="68"/>
-      <c r="I30" s="282"/>
-      <c r="J30" s="282"/>
+      <c r="I30" s="321"/>
+      <c r="J30" s="321"/>
       <c r="K30" s="68">
         <f>K28*15%</f>
         <v>2.2890883009640892</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A31" s="229"/>
-      <c r="B31" s="304"/>
-      <c r="C31" s="229"/>
-      <c r="D31" s="304"/>
-      <c r="E31" s="283"/>
+      <c r="A31" s="239"/>
+      <c r="B31" s="320"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="320"/>
+      <c r="E31" s="322"/>
       <c r="F31" s="69"/>
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="283"/>
+      <c r="I31" s="322"/>
+      <c r="J31" s="322"/>
       <c r="K31" s="69"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A32" s="286"/>
-      <c r="B32" s="287"/>
-      <c r="C32" s="290" t="s">
+      <c r="A32" s="323"/>
+      <c r="B32" s="317"/>
+      <c r="C32" s="316" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="287"/>
-      <c r="E32" s="285">
+      <c r="D32" s="317"/>
+      <c r="E32" s="319">
         <f>E28</f>
         <v>4.5781766019281786E-2</v>
       </c>
@@ -14706,40 +14708,40 @@
         <v>9.1563532038563569</v>
       </c>
       <c r="H32" s="63"/>
-      <c r="I32" s="285"/>
-      <c r="J32" s="285"/>
+      <c r="I32" s="319"/>
+      <c r="J32" s="319"/>
       <c r="K32" s="64">
         <f>K28+K30</f>
         <v>17.54967697405802</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="288"/>
-      <c r="B33" s="289"/>
-      <c r="C33" s="248"/>
-      <c r="D33" s="289"/>
-      <c r="E33" s="227"/>
+      <c r="A33" s="324"/>
+      <c r="B33" s="318"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="318"/>
+      <c r="E33" s="232"/>
       <c r="F33" s="65">
         <f>F29</f>
         <v>3.0521177346187864E-3</v>
       </c>
       <c r="G33" s="65"/>
       <c r="H33" s="65"/>
-      <c r="I33" s="227"/>
-      <c r="J33" s="227"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="232"/>
       <c r="K33" s="66">
         <f>K29</f>
         <v>0.47307824886591182</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="286"/>
-      <c r="B34" s="287"/>
-      <c r="C34" s="290" t="s">
+      <c r="A34" s="323"/>
+      <c r="B34" s="317"/>
+      <c r="C34" s="316" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="287"/>
-      <c r="E34" s="285">
+      <c r="D34" s="317"/>
+      <c r="E34" s="319">
         <f t="shared" ref="E34:H34" si="17">E32+E25</f>
         <v>189.63399380101964</v>
       </c>
@@ -14755,19 +14757,19 @@
         <f t="shared" si="17"/>
         <v>151.08828411917364</v>
       </c>
-      <c r="I34" s="285"/>
-      <c r="J34" s="285"/>
+      <c r="I34" s="319"/>
+      <c r="J34" s="319"/>
       <c r="K34" s="64">
         <f>K32+K25</f>
         <v>1779.6311581207015</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="288"/>
-      <c r="B35" s="289"/>
-      <c r="C35" s="248"/>
-      <c r="D35" s="289"/>
-      <c r="E35" s="227"/>
+      <c r="A35" s="324"/>
+      <c r="B35" s="318"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="318"/>
+      <c r="E35" s="232"/>
       <c r="F35" s="65">
         <f t="shared" ref="F35:H35" si="18">F26+F33</f>
         <v>56.553367068120231</v>
@@ -14780,38 +14782,38 @@
         <f t="shared" si="18"/>
         <v>185.36846535026172</v>
       </c>
-      <c r="I35" s="227"/>
-      <c r="J35" s="227"/>
+      <c r="I35" s="232"/>
+      <c r="J35" s="232"/>
       <c r="K35" s="66">
         <f>K26+K33</f>
         <v>34928.932523827076</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="291" t="s">
+      <c r="A36" s="325" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="292"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="292"/>
-      <c r="E36" s="292"/>
-      <c r="F36" s="292"/>
-      <c r="G36" s="292"/>
-      <c r="H36" s="292"/>
-      <c r="I36" s="292"/>
-      <c r="J36" s="292"/>
-      <c r="K36" s="293"/>
+      <c r="B36" s="326"/>
+      <c r="C36" s="326"/>
+      <c r="D36" s="326"/>
+      <c r="E36" s="326"/>
+      <c r="F36" s="326"/>
+      <c r="G36" s="326"/>
+      <c r="H36" s="326"/>
+      <c r="I36" s="326"/>
+      <c r="J36" s="326"/>
+      <c r="K36" s="301"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="294" t="s">
+      <c r="A37" s="295" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="295"/>
-      <c r="C37" s="297" t="s">
+      <c r="B37" s="289"/>
+      <c r="C37" s="293" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="295"/>
-      <c r="E37" s="282">
+      <c r="D37" s="289"/>
+      <c r="E37" s="321">
         <f>K37*0.458</f>
         <v>4.3773620233018828</v>
       </c>
@@ -14824,47 +14826,47 @@
         <v>1.3093855833894279</v>
       </c>
       <c r="H37" s="68"/>
-      <c r="I37" s="282"/>
-      <c r="J37" s="282"/>
+      <c r="I37" s="321"/>
+      <c r="J37" s="321"/>
       <c r="K37" s="68">
         <f>(E25+F26)*3.53/100*1.1</f>
         <v>9.5575590028425381</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="296"/>
-      <c r="B38" s="280"/>
-      <c r="C38" s="296"/>
-      <c r="D38" s="280"/>
-      <c r="E38" s="246"/>
+      <c r="A38" s="290"/>
+      <c r="B38" s="286"/>
+      <c r="C38" s="290"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="270"/>
       <c r="F38" s="68">
         <f>K37*0.14</f>
         <v>1.3380582603979554</v>
       </c>
       <c r="G38" s="68"/>
       <c r="H38" s="68"/>
-      <c r="I38" s="246"/>
-      <c r="J38" s="246"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="270"/>
       <c r="K38" s="68">
         <f>K37</f>
         <v>9.5575590028425381</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="294" t="s">
+      <c r="A39" s="295" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="295"/>
-      <c r="C39" s="297" t="s">
+      <c r="B39" s="289"/>
+      <c r="C39" s="293" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="295"/>
-      <c r="E39" s="282"/>
+      <c r="D39" s="289"/>
+      <c r="E39" s="321"/>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
       <c r="H39" s="68"/>
-      <c r="I39" s="282"/>
-      <c r="J39" s="282">
+      <c r="I39" s="321"/>
+      <c r="J39" s="321">
         <f>K39</f>
         <v>83.687099175031236</v>
       </c>
@@ -14874,33 +14876,33 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="296"/>
-      <c r="B40" s="280"/>
-      <c r="C40" s="296"/>
-      <c r="D40" s="280"/>
-      <c r="E40" s="246"/>
+      <c r="A40" s="290"/>
+      <c r="B40" s="286"/>
+      <c r="C40" s="290"/>
+      <c r="D40" s="286"/>
+      <c r="E40" s="270"/>
       <c r="F40" s="68"/>
       <c r="G40" s="68"/>
       <c r="H40" s="68"/>
-      <c r="I40" s="246"/>
-      <c r="J40" s="246"/>
+      <c r="I40" s="270"/>
+      <c r="J40" s="270"/>
       <c r="K40" s="68"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="294" t="s">
+      <c r="A41" s="295" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="295"/>
-      <c r="C41" s="297" t="s">
+      <c r="B41" s="289"/>
+      <c r="C41" s="293" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="295"/>
-      <c r="E41" s="282"/>
+      <c r="D41" s="289"/>
+      <c r="E41" s="321"/>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
       <c r="H41" s="68"/>
-      <c r="I41" s="282"/>
-      <c r="J41" s="282">
+      <c r="I41" s="321"/>
+      <c r="J41" s="321">
         <f>K41</f>
         <v>5.4456713438493463</v>
       </c>
@@ -14910,26 +14912,26 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="229"/>
-      <c r="B42" s="304"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="304"/>
-      <c r="E42" s="283"/>
+      <c r="A42" s="239"/>
+      <c r="B42" s="320"/>
+      <c r="C42" s="239"/>
+      <c r="D42" s="320"/>
+      <c r="E42" s="322"/>
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
-      <c r="I42" s="283"/>
-      <c r="J42" s="283"/>
+      <c r="I42" s="322"/>
+      <c r="J42" s="322"/>
       <c r="K42" s="69"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="286"/>
-      <c r="B43" s="287"/>
-      <c r="C43" s="290" t="s">
+      <c r="A43" s="323"/>
+      <c r="B43" s="317"/>
+      <c r="C43" s="316" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="287"/>
-      <c r="E43" s="285">
+      <c r="D43" s="317"/>
+      <c r="E43" s="319">
         <f t="shared" ref="E43:G43" si="19">E37</f>
         <v>4.3773620233018828</v>
       </c>
@@ -14942,8 +14944,8 @@
         <v>1.3093855833894279</v>
       </c>
       <c r="H43" s="63"/>
-      <c r="I43" s="285"/>
-      <c r="J43" s="285">
+      <c r="I43" s="319"/>
+      <c r="J43" s="319">
         <f>J41+J39</f>
         <v>89.132770518880577</v>
       </c>
@@ -14953,19 +14955,19 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="288"/>
-      <c r="B44" s="289"/>
-      <c r="C44" s="248"/>
-      <c r="D44" s="289"/>
-      <c r="E44" s="227"/>
+      <c r="A44" s="324"/>
+      <c r="B44" s="318"/>
+      <c r="C44" s="272"/>
+      <c r="D44" s="318"/>
+      <c r="E44" s="232"/>
       <c r="F44" s="65">
         <f>F38</f>
         <v>1.3380582603979554</v>
       </c>
       <c r="G44" s="65"/>
       <c r="H44" s="65"/>
-      <c r="I44" s="227"/>
-      <c r="J44" s="227"/>
+      <c r="I44" s="232"/>
+      <c r="J44" s="232"/>
       <c r="K44" s="66">
         <f>K38</f>
         <v>9.5575590028425381</v>
@@ -14976,13 +14978,13 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="286"/>
-      <c r="B45" s="287"/>
-      <c r="C45" s="290" t="s">
+      <c r="A45" s="323"/>
+      <c r="B45" s="317"/>
+      <c r="C45" s="316" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="287"/>
-      <c r="E45" s="285">
+      <c r="D45" s="317"/>
+      <c r="E45" s="319">
         <f t="shared" ref="E45:F45" si="20">E43+E34</f>
         <v>194.01135582432153</v>
       </c>
@@ -14998,8 +15000,8 @@
         <f>H34</f>
         <v>151.08828411917364</v>
       </c>
-      <c r="I45" s="285"/>
-      <c r="J45" s="285">
+      <c r="I45" s="319"/>
+      <c r="J45" s="319">
         <f>J43</f>
         <v>89.132770518880577</v>
       </c>
@@ -15013,11 +15015,11 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="288"/>
-      <c r="B46" s="289"/>
-      <c r="C46" s="248"/>
-      <c r="D46" s="289"/>
-      <c r="E46" s="227"/>
+      <c r="A46" s="324"/>
+      <c r="B46" s="318"/>
+      <c r="C46" s="272"/>
+      <c r="D46" s="318"/>
+      <c r="E46" s="232"/>
       <c r="F46" s="65">
         <f>F44+F35</f>
         <v>57.891425328518189</v>
@@ -15030,8 +15032,8 @@
         <f t="shared" si="22"/>
         <v>185.36846535026172</v>
       </c>
-      <c r="I46" s="227"/>
-      <c r="J46" s="227"/>
+      <c r="I46" s="232"/>
+      <c r="J46" s="232"/>
       <c r="K46" s="66">
         <f>K44+K35</f>
         <v>34938.490082829921</v>
@@ -15042,35 +15044,35 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="291" t="s">
+      <c r="A47" s="325" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="292"/>
-      <c r="C47" s="292"/>
-      <c r="D47" s="292"/>
-      <c r="E47" s="292"/>
-      <c r="F47" s="292"/>
-      <c r="G47" s="292"/>
-      <c r="H47" s="292"/>
-      <c r="I47" s="292"/>
-      <c r="J47" s="292"/>
-      <c r="K47" s="293"/>
+      <c r="B47" s="326"/>
+      <c r="C47" s="326"/>
+      <c r="D47" s="326"/>
+      <c r="E47" s="326"/>
+      <c r="F47" s="326"/>
+      <c r="G47" s="326"/>
+      <c r="H47" s="326"/>
+      <c r="I47" s="326"/>
+      <c r="J47" s="326"/>
+      <c r="K47" s="301"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="294" t="s">
+      <c r="A48" s="295" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="295"/>
-      <c r="C48" s="297" t="s">
+      <c r="B48" s="289"/>
+      <c r="C48" s="293" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="295"/>
-      <c r="E48" s="282"/>
+      <c r="D48" s="289"/>
+      <c r="E48" s="321"/>
       <c r="F48" s="68"/>
       <c r="G48" s="68"/>
       <c r="H48" s="68"/>
-      <c r="I48" s="282"/>
-      <c r="J48" s="282">
+      <c r="I48" s="321"/>
+      <c r="J48" s="321">
         <f>K48</f>
         <v>33.809786777563644</v>
       </c>
@@ -15080,33 +15082,33 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A49" s="296"/>
-      <c r="B49" s="280"/>
-      <c r="C49" s="296"/>
-      <c r="D49" s="280"/>
-      <c r="E49" s="246"/>
+      <c r="A49" s="290"/>
+      <c r="B49" s="286"/>
+      <c r="C49" s="290"/>
+      <c r="D49" s="286"/>
+      <c r="E49" s="270"/>
       <c r="F49" s="68"/>
       <c r="G49" s="68"/>
       <c r="H49" s="68"/>
-      <c r="I49" s="246"/>
-      <c r="J49" s="246"/>
+      <c r="I49" s="270"/>
+      <c r="J49" s="270"/>
       <c r="K49" s="68"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="294" t="s">
+      <c r="A50" s="295" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="295"/>
-      <c r="C50" s="297" t="s">
+      <c r="B50" s="289"/>
+      <c r="C50" s="293" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="295"/>
-      <c r="E50" s="282"/>
+      <c r="D50" s="289"/>
+      <c r="E50" s="321"/>
       <c r="F50" s="68"/>
       <c r="G50" s="68"/>
       <c r="H50" s="68"/>
-      <c r="I50" s="282"/>
-      <c r="J50" s="282">
+      <c r="I50" s="321"/>
+      <c r="J50" s="321">
         <f>K50</f>
         <v>2.4473552448075639</v>
       </c>
@@ -15116,33 +15118,33 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="296"/>
-      <c r="B51" s="280"/>
-      <c r="C51" s="296"/>
-      <c r="D51" s="280"/>
-      <c r="E51" s="246"/>
+      <c r="A51" s="290"/>
+      <c r="B51" s="286"/>
+      <c r="C51" s="290"/>
+      <c r="D51" s="286"/>
+      <c r="E51" s="270"/>
       <c r="F51" s="68"/>
       <c r="G51" s="68"/>
       <c r="H51" s="68"/>
-      <c r="I51" s="246"/>
-      <c r="J51" s="246"/>
+      <c r="I51" s="270"/>
+      <c r="J51" s="270"/>
       <c r="K51" s="68"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="294" t="s">
+      <c r="A52" s="295" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="295"/>
-      <c r="C52" s="297" t="s">
+      <c r="B52" s="289"/>
+      <c r="C52" s="293" t="s">
         <v>150</v>
       </c>
-      <c r="D52" s="295"/>
-      <c r="E52" s="282"/>
+      <c r="D52" s="289"/>
+      <c r="E52" s="321"/>
       <c r="F52" s="68"/>
       <c r="G52" s="68"/>
       <c r="H52" s="68"/>
-      <c r="I52" s="282"/>
-      <c r="J52" s="282">
+      <c r="I52" s="321"/>
+      <c r="J52" s="321">
         <f>K52</f>
         <v>5.2765964980275335</v>
       </c>
@@ -15152,33 +15154,33 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="296"/>
-      <c r="B53" s="280"/>
-      <c r="C53" s="296"/>
-      <c r="D53" s="280"/>
-      <c r="E53" s="246"/>
+      <c r="A53" s="290"/>
+      <c r="B53" s="286"/>
+      <c r="C53" s="290"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="270"/>
       <c r="F53" s="68"/>
       <c r="G53" s="68"/>
       <c r="H53" s="68"/>
-      <c r="I53" s="246"/>
-      <c r="J53" s="246"/>
+      <c r="I53" s="270"/>
+      <c r="J53" s="270"/>
       <c r="K53" s="68"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A54" s="294" t="s">
+      <c r="A54" s="295" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="295"/>
-      <c r="C54" s="297" t="s">
+      <c r="B54" s="289"/>
+      <c r="C54" s="293" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="295"/>
-      <c r="E54" s="282"/>
+      <c r="D54" s="289"/>
+      <c r="E54" s="321"/>
       <c r="F54" s="68"/>
       <c r="G54" s="68"/>
       <c r="H54" s="68"/>
-      <c r="I54" s="282"/>
-      <c r="J54" s="282">
+      <c r="I54" s="321"/>
+      <c r="J54" s="321">
         <f>K54</f>
         <v>93.916074382121224</v>
       </c>
@@ -15188,33 +15190,33 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A55" s="296"/>
-      <c r="B55" s="280"/>
-      <c r="C55" s="296"/>
-      <c r="D55" s="280"/>
-      <c r="E55" s="246"/>
+      <c r="A55" s="290"/>
+      <c r="B55" s="286"/>
+      <c r="C55" s="290"/>
+      <c r="D55" s="286"/>
+      <c r="E55" s="270"/>
       <c r="F55" s="68"/>
       <c r="G55" s="68"/>
       <c r="H55" s="68"/>
-      <c r="I55" s="246"/>
-      <c r="J55" s="246"/>
+      <c r="I55" s="270"/>
+      <c r="J55" s="270"/>
       <c r="K55" s="68"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="294" t="s">
+      <c r="A56" s="295" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="295"/>
-      <c r="C56" s="297" t="s">
+      <c r="B56" s="289"/>
+      <c r="C56" s="293" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="295"/>
-      <c r="E56" s="282"/>
+      <c r="D56" s="289"/>
+      <c r="E56" s="321"/>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
       <c r="H56" s="68"/>
-      <c r="I56" s="282"/>
-      <c r="J56" s="282">
+      <c r="I56" s="321"/>
+      <c r="J56" s="321">
         <f>K56</f>
         <v>15.026571901139397</v>
       </c>
@@ -15224,33 +15226,33 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A57" s="229"/>
-      <c r="B57" s="304"/>
-      <c r="C57" s="229"/>
-      <c r="D57" s="304"/>
-      <c r="E57" s="283"/>
+      <c r="A57" s="239"/>
+      <c r="B57" s="320"/>
+      <c r="C57" s="239"/>
+      <c r="D57" s="320"/>
+      <c r="E57" s="322"/>
       <c r="F57" s="69"/>
       <c r="G57" s="69"/>
       <c r="H57" s="69"/>
-      <c r="I57" s="283"/>
-      <c r="J57" s="283"/>
+      <c r="I57" s="322"/>
+      <c r="J57" s="322"/>
       <c r="K57" s="69"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A58" s="301" t="s">
+      <c r="A58" s="292" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="295"/>
-      <c r="C58" s="297" t="s">
+      <c r="B58" s="289"/>
+      <c r="C58" s="293" t="s">
         <v>156</v>
       </c>
-      <c r="D58" s="295"/>
-      <c r="E58" s="282"/>
+      <c r="D58" s="289"/>
+      <c r="E58" s="321"/>
       <c r="F58" s="68"/>
       <c r="G58" s="68"/>
       <c r="H58" s="68"/>
-      <c r="I58" s="282"/>
-      <c r="J58" s="282">
+      <c r="I58" s="321"/>
+      <c r="J58" s="321">
         <f>K58</f>
         <v>4.0809709348925995</v>
       </c>
@@ -15260,33 +15262,33 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A59" s="296"/>
-      <c r="B59" s="280"/>
-      <c r="C59" s="296"/>
-      <c r="D59" s="280"/>
-      <c r="E59" s="246"/>
+      <c r="A59" s="290"/>
+      <c r="B59" s="286"/>
+      <c r="C59" s="290"/>
+      <c r="D59" s="286"/>
+      <c r="E59" s="270"/>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
       <c r="H59" s="68"/>
-      <c r="I59" s="246"/>
-      <c r="J59" s="246"/>
+      <c r="I59" s="270"/>
+      <c r="J59" s="270"/>
       <c r="K59" s="68"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A60" s="302" t="s">
+      <c r="A60" s="353" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="299"/>
-      <c r="C60" s="300" t="s">
+      <c r="B60" s="349"/>
+      <c r="C60" s="350" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="299"/>
-      <c r="E60" s="284"/>
+      <c r="D60" s="349"/>
+      <c r="E60" s="351"/>
       <c r="F60" s="67"/>
       <c r="G60" s="67"/>
       <c r="H60" s="67"/>
-      <c r="I60" s="284"/>
-      <c r="J60" s="284">
+      <c r="I60" s="351"/>
+      <c r="J60" s="351">
         <f>J56+J54+J52+J50+J48+J58</f>
         <v>154.55735573855196</v>
       </c>
@@ -15296,28 +15298,28 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A61" s="288"/>
-      <c r="B61" s="289"/>
-      <c r="C61" s="248"/>
-      <c r="D61" s="289"/>
-      <c r="E61" s="227"/>
+      <c r="A61" s="324"/>
+      <c r="B61" s="318"/>
+      <c r="C61" s="272"/>
+      <c r="D61" s="318"/>
+      <c r="E61" s="232"/>
       <c r="F61" s="65"/>
       <c r="G61" s="65"/>
       <c r="H61" s="65"/>
-      <c r="I61" s="227"/>
-      <c r="J61" s="227"/>
+      <c r="I61" s="232"/>
+      <c r="J61" s="232"/>
       <c r="K61" s="66"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A62" s="303" t="s">
+      <c r="A62" s="354" t="s">
         <v>157</v>
       </c>
-      <c r="B62" s="287"/>
-      <c r="C62" s="290" t="s">
+      <c r="B62" s="317"/>
+      <c r="C62" s="316" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="287"/>
-      <c r="E62" s="285">
+      <c r="D62" s="317"/>
+      <c r="E62" s="319">
         <f t="shared" ref="E62:H62" si="23">E45</f>
         <v>194.01135582432153</v>
       </c>
@@ -15333,8 +15335,8 @@
         <f t="shared" si="23"/>
         <v>151.08828411917364</v>
       </c>
-      <c r="I62" s="285"/>
-      <c r="J62" s="285">
+      <c r="I62" s="319"/>
+      <c r="J62" s="319">
         <f t="shared" ref="J62:K62" si="24">J60+J45</f>
         <v>243.69012625743255</v>
       </c>
@@ -15344,11 +15346,11 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A63" s="288"/>
-      <c r="B63" s="289"/>
-      <c r="C63" s="248"/>
-      <c r="D63" s="289"/>
-      <c r="E63" s="227"/>
+      <c r="A63" s="324"/>
+      <c r="B63" s="318"/>
+      <c r="C63" s="272"/>
+      <c r="D63" s="318"/>
+      <c r="E63" s="232"/>
       <c r="F63" s="65">
         <f t="shared" ref="F63:H63" si="25">F46</f>
         <v>57.891425328518189</v>
@@ -15361,23 +15363,23 @@
         <f t="shared" si="25"/>
         <v>185.36846535026172</v>
       </c>
-      <c r="I63" s="227"/>
-      <c r="J63" s="227"/>
+      <c r="I63" s="232"/>
+      <c r="J63" s="232"/>
       <c r="K63" s="66">
         <f>K46</f>
         <v>34938.490082829921</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A64" s="298" t="s">
+      <c r="A64" s="348" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="299"/>
-      <c r="C64" s="300" t="s">
+      <c r="B64" s="349"/>
+      <c r="C64" s="350" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="299"/>
-      <c r="E64" s="284">
+      <c r="D64" s="349"/>
+      <c r="E64" s="351">
         <f t="shared" ref="E64:H64" si="26">E62*1.5%</f>
         <v>2.9101703373648227</v>
       </c>
@@ -15393,8 +15395,8 @@
         <f t="shared" si="26"/>
         <v>2.2663242617876045</v>
       </c>
-      <c r="I64" s="284"/>
-      <c r="J64" s="284">
+      <c r="I64" s="351"/>
+      <c r="J64" s="351">
         <f t="shared" ref="J64:K64" si="27">J62*1.5%</f>
         <v>3.655351893861488</v>
       </c>
@@ -15404,11 +15406,11 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="296"/>
-      <c r="B65" s="280"/>
-      <c r="C65" s="296"/>
-      <c r="D65" s="280"/>
-      <c r="E65" s="246"/>
+      <c r="A65" s="290"/>
+      <c r="B65" s="286"/>
+      <c r="C65" s="290"/>
+      <c r="D65" s="286"/>
+      <c r="E65" s="270"/>
       <c r="F65" s="68">
         <f t="shared" ref="F65:H65" si="28">F63*1.5%</f>
         <v>0.8683713799277728</v>
@@ -15421,21 +15423,21 @@
         <f t="shared" si="28"/>
         <v>2.7805269802539256</v>
       </c>
-      <c r="I65" s="246"/>
-      <c r="J65" s="246"/>
+      <c r="I65" s="270"/>
+      <c r="J65" s="270"/>
       <c r="K65" s="68">
         <f>K63*1.5%</f>
         <v>524.0773512424488</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A66" s="301"/>
-      <c r="B66" s="295"/>
-      <c r="C66" s="297" t="s">
+      <c r="A66" s="292"/>
+      <c r="B66" s="289"/>
+      <c r="C66" s="293" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="295"/>
-      <c r="E66" s="281">
+      <c r="D66" s="289"/>
+      <c r="E66" s="294">
         <f t="shared" ref="E66:H66" si="29">E64+E62</f>
         <v>196.92152616168636</v>
       </c>
@@ -15451,8 +15453,8 @@
         <f t="shared" si="29"/>
         <v>153.35460838096125</v>
       </c>
-      <c r="I66" s="281"/>
-      <c r="J66" s="281">
+      <c r="I66" s="294"/>
+      <c r="J66" s="294">
         <f t="shared" ref="J66:K66" si="30">J64+J62</f>
         <v>247.34547815129403</v>
       </c>
@@ -15462,11 +15464,11 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A67" s="296"/>
-      <c r="B67" s="280"/>
-      <c r="C67" s="296"/>
-      <c r="D67" s="280"/>
-      <c r="E67" s="246"/>
+      <c r="A67" s="290"/>
+      <c r="B67" s="286"/>
+      <c r="C67" s="290"/>
+      <c r="D67" s="286"/>
+      <c r="E67" s="270"/>
       <c r="F67" s="73">
         <f t="shared" ref="F67:H67" si="31">F65+F63</f>
         <v>58.759796708445961</v>
@@ -15479,21 +15481,21 @@
         <f t="shared" si="31"/>
         <v>188.14899233051565</v>
       </c>
-      <c r="I67" s="246"/>
-      <c r="J67" s="246"/>
+      <c r="I67" s="270"/>
+      <c r="J67" s="270"/>
       <c r="K67" s="73">
         <f>K65+K63</f>
         <v>35462.567434072371</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="301"/>
-      <c r="B68" s="295"/>
-      <c r="C68" s="297" t="s">
+      <c r="A68" s="292"/>
+      <c r="B68" s="289"/>
+      <c r="C68" s="293" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="295"/>
-      <c r="E68" s="281">
+      <c r="D68" s="289"/>
+      <c r="E68" s="294">
         <f t="shared" ref="E68:H68" si="32">E66</f>
         <v>196.92152616168636</v>
       </c>
@@ -15509,8 +15511,8 @@
         <f t="shared" si="32"/>
         <v>153.35460838096125</v>
       </c>
-      <c r="I68" s="281"/>
-      <c r="J68" s="281">
+      <c r="I68" s="294"/>
+      <c r="J68" s="294">
         <f t="shared" ref="J68:K68" si="33">J66</f>
         <v>247.34547815129403</v>
       </c>
@@ -15520,11 +15522,11 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A69" s="296"/>
-      <c r="B69" s="280"/>
-      <c r="C69" s="296"/>
-      <c r="D69" s="280"/>
-      <c r="E69" s="246"/>
+      <c r="A69" s="290"/>
+      <c r="B69" s="286"/>
+      <c r="C69" s="290"/>
+      <c r="D69" s="286"/>
+      <c r="E69" s="270"/>
       <c r="F69" s="73">
         <f t="shared" ref="F69:H69" si="34">F67</f>
         <v>58.759796708445961</v>
@@ -15537,28 +15539,28 @@
         <f t="shared" si="34"/>
         <v>188.14899233051565</v>
       </c>
-      <c r="I69" s="246"/>
-      <c r="J69" s="246"/>
+      <c r="I69" s="270"/>
+      <c r="J69" s="270"/>
       <c r="K69" s="73">
         <f>K67</f>
         <v>35462.567434072371</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="294" t="s">
+      <c r="A70" s="295" t="s">
         <v>164</v>
       </c>
-      <c r="B70" s="295"/>
-      <c r="C70" s="297" t="s">
+      <c r="B70" s="289"/>
+      <c r="C70" s="293" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="295"/>
-      <c r="E70" s="281"/>
+      <c r="D70" s="289"/>
+      <c r="E70" s="294"/>
       <c r="F70" s="73"/>
       <c r="G70" s="73"/>
       <c r="H70" s="73"/>
-      <c r="I70" s="281"/>
-      <c r="J70" s="281">
+      <c r="I70" s="294"/>
+      <c r="J70" s="294">
         <f>K70</f>
         <v>31.351997710647993</v>
       </c>
@@ -15568,26 +15570,26 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A71" s="296"/>
-      <c r="B71" s="280"/>
-      <c r="C71" s="296"/>
-      <c r="D71" s="280"/>
-      <c r="E71" s="246"/>
+      <c r="A71" s="290"/>
+      <c r="B71" s="286"/>
+      <c r="C71" s="290"/>
+      <c r="D71" s="286"/>
+      <c r="E71" s="270"/>
       <c r="F71" s="73"/>
       <c r="G71" s="73"/>
       <c r="H71" s="73"/>
-      <c r="I71" s="246"/>
-      <c r="J71" s="246"/>
+      <c r="I71" s="270"/>
+      <c r="J71" s="270"/>
       <c r="K71" s="73"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A72" s="294"/>
-      <c r="B72" s="295"/>
-      <c r="C72" s="297" t="s">
+      <c r="A72" s="295"/>
+      <c r="B72" s="289"/>
+      <c r="C72" s="293" t="s">
         <v>166</v>
       </c>
-      <c r="D72" s="295"/>
-      <c r="E72" s="281">
+      <c r="D72" s="289"/>
+      <c r="E72" s="294">
         <f t="shared" ref="E72:H72" si="35">E68</f>
         <v>196.92152616168636</v>
       </c>
@@ -15603,8 +15605,8 @@
         <f t="shared" si="35"/>
         <v>153.35460838096125</v>
       </c>
-      <c r="I72" s="281"/>
-      <c r="J72" s="281">
+      <c r="I72" s="294"/>
+      <c r="J72" s="294">
         <f t="shared" ref="J72:K72" si="36">J70+J68</f>
         <v>278.69747586194205</v>
       </c>
@@ -15614,11 +15616,11 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="296"/>
-      <c r="B73" s="280"/>
-      <c r="C73" s="296"/>
-      <c r="D73" s="280"/>
-      <c r="E73" s="246"/>
+      <c r="A73" s="290"/>
+      <c r="B73" s="286"/>
+      <c r="C73" s="290"/>
+      <c r="D73" s="286"/>
+      <c r="E73" s="270"/>
       <c r="F73" s="73">
         <f t="shared" ref="F73:H73" si="37">F69</f>
         <v>58.759796708445961</v>
@@ -15631,28 +15633,28 @@
         <f t="shared" si="37"/>
         <v>188.14899233051565</v>
       </c>
-      <c r="I73" s="246"/>
-      <c r="J73" s="246"/>
+      <c r="I73" s="270"/>
+      <c r="J73" s="270"/>
       <c r="K73" s="73">
         <f>K69</f>
         <v>35462.567434072371</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="294" t="s">
+      <c r="A74" s="295" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="295"/>
-      <c r="C74" s="297" t="s">
+      <c r="B74" s="289"/>
+      <c r="C74" s="293" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="295"/>
-      <c r="E74" s="281"/>
+      <c r="D74" s="289"/>
+      <c r="E74" s="294"/>
       <c r="F74" s="73"/>
       <c r="G74" s="73"/>
       <c r="H74" s="73"/>
-      <c r="I74" s="281"/>
-      <c r="J74" s="281">
+      <c r="I74" s="294"/>
+      <c r="J74" s="294">
         <f>L109</f>
         <v>40.515435845180917</v>
       </c>
@@ -15662,26 +15664,26 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="296"/>
-      <c r="B75" s="280"/>
-      <c r="C75" s="296"/>
-      <c r="D75" s="280"/>
-      <c r="E75" s="246"/>
+      <c r="A75" s="290"/>
+      <c r="B75" s="286"/>
+      <c r="C75" s="290"/>
+      <c r="D75" s="286"/>
+      <c r="E75" s="270"/>
       <c r="F75" s="73"/>
       <c r="G75" s="73"/>
       <c r="H75" s="73"/>
-      <c r="I75" s="246"/>
-      <c r="J75" s="246"/>
+      <c r="I75" s="270"/>
+      <c r="J75" s="270"/>
       <c r="K75" s="73"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A76" s="339"/>
-      <c r="B76" s="295"/>
-      <c r="C76" s="347" t="s">
+      <c r="A76" s="298"/>
+      <c r="B76" s="289"/>
+      <c r="C76" s="288" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="295"/>
-      <c r="E76" s="305">
+      <c r="D76" s="289"/>
+      <c r="E76" s="291">
         <f t="shared" ref="E76:H76" si="38">E66</f>
         <v>196.92152616168636</v>
       </c>
@@ -15697,8 +15699,8 @@
         <f t="shared" si="38"/>
         <v>153.35460838096125</v>
       </c>
-      <c r="I76" s="305"/>
-      <c r="J76" s="305">
+      <c r="I76" s="291"/>
+      <c r="J76" s="291">
         <f>J74+J72</f>
         <v>319.212911707123</v>
       </c>
@@ -15708,11 +15710,11 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A77" s="296"/>
-      <c r="B77" s="280"/>
-      <c r="C77" s="296"/>
-      <c r="D77" s="280"/>
-      <c r="E77" s="246"/>
+      <c r="A77" s="290"/>
+      <c r="B77" s="286"/>
+      <c r="C77" s="290"/>
+      <c r="D77" s="286"/>
+      <c r="E77" s="270"/>
       <c r="F77" s="74">
         <f t="shared" ref="F77:H77" si="39">F67</f>
         <v>58.759796708445961</v>
@@ -15725,8 +15727,8 @@
         <f t="shared" si="39"/>
         <v>188.14899233051565</v>
       </c>
-      <c r="I77" s="246"/>
-      <c r="J77" s="246"/>
+      <c r="I77" s="270"/>
+      <c r="J77" s="270"/>
       <c r="K77" s="74">
         <f>K67</f>
         <v>35462.567434072371</v>
@@ -15737,20 +15739,20 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A78" s="294" t="s">
+      <c r="A78" s="295" t="s">
         <v>170</v>
       </c>
-      <c r="B78" s="295"/>
-      <c r="C78" s="297" t="s">
+      <c r="B78" s="289"/>
+      <c r="C78" s="293" t="s">
         <v>171</v>
       </c>
-      <c r="D78" s="295"/>
-      <c r="E78" s="281"/>
+      <c r="D78" s="289"/>
+      <c r="E78" s="294"/>
       <c r="F78" s="73"/>
       <c r="G78" s="73"/>
       <c r="H78" s="73"/>
-      <c r="I78" s="281"/>
-      <c r="J78" s="281">
+      <c r="I78" s="294"/>
+      <c r="J78" s="294">
         <f>F30</f>
         <v>2.2890883009640892</v>
       </c>
@@ -15760,16 +15762,16 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A79" s="296"/>
-      <c r="B79" s="280"/>
-      <c r="C79" s="296"/>
-      <c r="D79" s="280"/>
-      <c r="E79" s="246"/>
+      <c r="A79" s="290"/>
+      <c r="B79" s="286"/>
+      <c r="C79" s="290"/>
+      <c r="D79" s="286"/>
+      <c r="E79" s="270"/>
       <c r="F79" s="73"/>
       <c r="G79" s="73"/>
       <c r="H79" s="73"/>
-      <c r="I79" s="246"/>
-      <c r="J79" s="246"/>
+      <c r="I79" s="270"/>
+      <c r="J79" s="270"/>
       <c r="K79" s="73"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1"/>
@@ -15780,284 +15782,284 @@
     <row r="85" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="86" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="87" spans="1:12" ht="60.6" customHeight="1">
-      <c r="A87" s="345" t="s">
+      <c r="A87" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="220"/>
-      <c r="C87" s="220"/>
-      <c r="D87" s="220"/>
-      <c r="E87" s="273"/>
-      <c r="F87" s="346">
+      <c r="B87" s="248"/>
+      <c r="C87" s="248"/>
+      <c r="D87" s="248"/>
+      <c r="E87" s="279"/>
+      <c r="F87" s="304">
         <f>F101-F100</f>
         <v>31.351997710647993</v>
       </c>
-      <c r="G87" s="220"/>
-      <c r="H87" s="220"/>
-      <c r="I87" s="220"/>
-      <c r="J87" s="220"/>
-      <c r="K87" s="273"/>
+      <c r="G87" s="248"/>
+      <c r="H87" s="248"/>
+      <c r="I87" s="248"/>
+      <c r="J87" s="248"/>
+      <c r="K87" s="279"/>
       <c r="L87" s="70"/>
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A88" s="340" t="s">
+      <c r="A88" s="287" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="220"/>
-      <c r="C88" s="220"/>
-      <c r="D88" s="220"/>
-      <c r="E88" s="273"/>
-      <c r="F88" s="329"/>
-      <c r="G88" s="220"/>
-      <c r="H88" s="220"/>
-      <c r="I88" s="220"/>
-      <c r="J88" s="220"/>
-      <c r="K88" s="273"/>
+      <c r="B88" s="248"/>
+      <c r="C88" s="248"/>
+      <c r="D88" s="248"/>
+      <c r="E88" s="279"/>
+      <c r="F88" s="305"/>
+      <c r="G88" s="248"/>
+      <c r="H88" s="248"/>
+      <c r="I88" s="248"/>
+      <c r="J88" s="248"/>
+      <c r="K88" s="279"/>
       <c r="L88" s="70"/>
     </row>
     <row r="89" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A89" s="340" t="s">
+      <c r="A89" s="287" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="220"/>
-      <c r="C89" s="220"/>
-      <c r="D89" s="220"/>
-      <c r="E89" s="273"/>
-      <c r="F89" s="329" t="s">
+      <c r="B89" s="248"/>
+      <c r="C89" s="248"/>
+      <c r="D89" s="248"/>
+      <c r="E89" s="279"/>
+      <c r="F89" s="305" t="s">
         <v>175</v>
       </c>
-      <c r="G89" s="220"/>
-      <c r="H89" s="220"/>
-      <c r="I89" s="220"/>
-      <c r="J89" s="220"/>
-      <c r="K89" s="273"/>
+      <c r="G89" s="248"/>
+      <c r="H89" s="248"/>
+      <c r="I89" s="248"/>
+      <c r="J89" s="248"/>
+      <c r="K89" s="279"/>
       <c r="L89" s="70"/>
     </row>
     <row r="90" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A90" s="340" t="s">
+      <c r="A90" s="287" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="220"/>
-      <c r="C90" s="220"/>
-      <c r="D90" s="220"/>
-      <c r="E90" s="273"/>
-      <c r="F90" s="329" t="s">
+      <c r="B90" s="248"/>
+      <c r="C90" s="248"/>
+      <c r="D90" s="248"/>
+      <c r="E90" s="279"/>
+      <c r="F90" s="305" t="s">
         <v>177</v>
       </c>
-      <c r="G90" s="220"/>
-      <c r="H90" s="220"/>
-      <c r="I90" s="220"/>
-      <c r="J90" s="220"/>
-      <c r="K90" s="273"/>
+      <c r="G90" s="248"/>
+      <c r="H90" s="248"/>
+      <c r="I90" s="248"/>
+      <c r="J90" s="248"/>
+      <c r="K90" s="279"/>
       <c r="L90" s="70"/>
     </row>
     <row r="91" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A91" s="340" t="s">
+      <c r="A91" s="287" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="220"/>
-      <c r="C91" s="220"/>
-      <c r="D91" s="220"/>
-      <c r="E91" s="273"/>
-      <c r="F91" s="330">
+      <c r="B91" s="248"/>
+      <c r="C91" s="248"/>
+      <c r="D91" s="248"/>
+      <c r="E91" s="279"/>
+      <c r="F91" s="306">
         <v>43833</v>
       </c>
-      <c r="G91" s="220"/>
-      <c r="H91" s="220"/>
-      <c r="I91" s="220"/>
-      <c r="J91" s="220"/>
-      <c r="K91" s="273"/>
+      <c r="G91" s="248"/>
+      <c r="H91" s="248"/>
+      <c r="I91" s="248"/>
+      <c r="J91" s="248"/>
+      <c r="K91" s="279"/>
       <c r="L91" s="70"/>
     </row>
     <row r="92" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A92" s="340" t="s">
+      <c r="A92" s="287" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="220"/>
-      <c r="C92" s="220"/>
-      <c r="D92" s="220"/>
-      <c r="E92" s="273"/>
-      <c r="F92" s="332" t="s">
+      <c r="B92" s="248"/>
+      <c r="C92" s="248"/>
+      <c r="D92" s="248"/>
+      <c r="E92" s="279"/>
+      <c r="F92" s="308" t="s">
         <v>254</v>
       </c>
-      <c r="G92" s="333"/>
-      <c r="H92" s="333"/>
-      <c r="I92" s="333"/>
-      <c r="J92" s="333"/>
-      <c r="K92" s="334"/>
+      <c r="G92" s="309"/>
+      <c r="H92" s="309"/>
+      <c r="I92" s="309"/>
+      <c r="J92" s="309"/>
+      <c r="K92" s="310"/>
       <c r="L92" s="70"/>
     </row>
     <row r="93" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A93" s="340" t="s">
+      <c r="A93" s="287" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="220"/>
-      <c r="C93" s="220"/>
-      <c r="D93" s="220"/>
-      <c r="E93" s="273"/>
-      <c r="F93" s="332" t="s">
+      <c r="B93" s="248"/>
+      <c r="C93" s="248"/>
+      <c r="D93" s="248"/>
+      <c r="E93" s="279"/>
+      <c r="F93" s="308" t="s">
         <v>255</v>
       </c>
-      <c r="G93" s="335"/>
-      <c r="H93" s="335"/>
-      <c r="I93" s="335"/>
-      <c r="J93" s="335"/>
-      <c r="K93" s="336"/>
+      <c r="G93" s="311"/>
+      <c r="H93" s="311"/>
+      <c r="I93" s="311"/>
+      <c r="J93" s="311"/>
+      <c r="K93" s="312"/>
       <c r="L93" s="70"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A94" s="340" t="s">
+      <c r="A94" s="287" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="220"/>
-      <c r="C94" s="220"/>
-      <c r="D94" s="220"/>
-      <c r="E94" s="273"/>
-      <c r="F94" s="331">
+      <c r="B94" s="248"/>
+      <c r="C94" s="248"/>
+      <c r="D94" s="248"/>
+      <c r="E94" s="279"/>
+      <c r="F94" s="307">
         <v>13934</v>
       </c>
-      <c r="G94" s="220"/>
-      <c r="H94" s="220"/>
-      <c r="I94" s="220"/>
-      <c r="J94" s="220"/>
-      <c r="K94" s="273"/>
+      <c r="G94" s="248"/>
+      <c r="H94" s="248"/>
+      <c r="I94" s="248"/>
+      <c r="J94" s="248"/>
+      <c r="K94" s="279"/>
       <c r="L94" s="70"/>
     </row>
     <row r="95" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A95" s="340" t="s">
+      <c r="A95" s="287" t="s">
         <v>182</v>
       </c>
-      <c r="B95" s="220"/>
-      <c r="C95" s="220"/>
-      <c r="D95" s="220"/>
-      <c r="E95" s="273"/>
-      <c r="F95" s="337" t="s">
+      <c r="B95" s="248"/>
+      <c r="C95" s="248"/>
+      <c r="D95" s="248"/>
+      <c r="E95" s="279"/>
+      <c r="F95" s="313" t="s">
         <v>311</v>
       </c>
-      <c r="G95" s="220"/>
-      <c r="H95" s="220"/>
-      <c r="I95" s="220"/>
-      <c r="J95" s="220"/>
-      <c r="K95" s="273"/>
+      <c r="G95" s="248"/>
+      <c r="H95" s="248"/>
+      <c r="I95" s="248"/>
+      <c r="J95" s="248"/>
+      <c r="K95" s="279"/>
       <c r="L95" s="70"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A96" s="348" t="s">
+      <c r="A96" s="297" t="s">
         <v>183</v>
       </c>
-      <c r="B96" s="220"/>
-      <c r="C96" s="220"/>
-      <c r="D96" s="220"/>
-      <c r="E96" s="273"/>
-      <c r="F96" s="338" t="s">
+      <c r="B96" s="248"/>
+      <c r="C96" s="248"/>
+      <c r="D96" s="248"/>
+      <c r="E96" s="279"/>
+      <c r="F96" s="314" t="s">
         <v>184</v>
       </c>
-      <c r="G96" s="220"/>
-      <c r="H96" s="220"/>
-      <c r="I96" s="220"/>
-      <c r="J96" s="220"/>
-      <c r="K96" s="273"/>
+      <c r="G96" s="248"/>
+      <c r="H96" s="248"/>
+      <c r="I96" s="248"/>
+      <c r="J96" s="248"/>
+      <c r="K96" s="279"/>
       <c r="L96" s="70"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A97" s="340" t="s">
+      <c r="A97" s="287" t="s">
         <v>185</v>
       </c>
-      <c r="B97" s="220"/>
-      <c r="C97" s="220"/>
-      <c r="D97" s="220"/>
-      <c r="E97" s="273"/>
-      <c r="F97" s="331">
+      <c r="B97" s="248"/>
+      <c r="C97" s="248"/>
+      <c r="D97" s="248"/>
+      <c r="E97" s="279"/>
+      <c r="F97" s="307">
         <f>K66</f>
         <v>2063.3720260316909</v>
       </c>
-      <c r="G97" s="220"/>
-      <c r="H97" s="220"/>
-      <c r="I97" s="220"/>
-      <c r="J97" s="220"/>
-      <c r="K97" s="273"/>
+      <c r="G97" s="248"/>
+      <c r="H97" s="248"/>
+      <c r="I97" s="248"/>
+      <c r="J97" s="248"/>
+      <c r="K97" s="279"/>
       <c r="L97" s="70"/>
     </row>
     <row r="98" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A98" s="340" t="s">
+      <c r="A98" s="287" t="s">
         <v>186</v>
       </c>
-      <c r="B98" s="220"/>
-      <c r="C98" s="220"/>
-      <c r="D98" s="220"/>
-      <c r="E98" s="273"/>
-      <c r="F98" s="331">
+      <c r="B98" s="248"/>
+      <c r="C98" s="248"/>
+      <c r="D98" s="248"/>
+      <c r="E98" s="279"/>
+      <c r="F98" s="307">
         <f>K54</f>
         <v>93.916074382121224</v>
       </c>
-      <c r="G98" s="220"/>
-      <c r="H98" s="220"/>
-      <c r="I98" s="220"/>
-      <c r="J98" s="220"/>
-      <c r="K98" s="273"/>
+      <c r="G98" s="248"/>
+      <c r="H98" s="248"/>
+      <c r="I98" s="248"/>
+      <c r="J98" s="248"/>
+      <c r="K98" s="279"/>
       <c r="L98" s="70"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A99" s="340" t="s">
+      <c r="A99" s="287" t="s">
         <v>187</v>
       </c>
-      <c r="B99" s="220"/>
-      <c r="C99" s="220"/>
-      <c r="D99" s="220"/>
-      <c r="E99" s="273"/>
-      <c r="F99" s="331">
+      <c r="B99" s="248"/>
+      <c r="C99" s="248"/>
+      <c r="D99" s="248"/>
+      <c r="E99" s="279"/>
+      <c r="F99" s="307">
         <f>K8</f>
         <v>8.0460341604869559</v>
       </c>
-      <c r="G99" s="220"/>
-      <c r="H99" s="220"/>
-      <c r="I99" s="220"/>
-      <c r="J99" s="220"/>
-      <c r="K99" s="273"/>
+      <c r="G99" s="248"/>
+      <c r="H99" s="248"/>
+      <c r="I99" s="248"/>
+      <c r="J99" s="248"/>
+      <c r="K99" s="279"/>
       <c r="L99" s="70"/>
     </row>
     <row r="100" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A100" s="340" t="s">
+      <c r="A100" s="287" t="s">
         <v>188</v>
       </c>
-      <c r="B100" s="220"/>
-      <c r="C100" s="220"/>
-      <c r="D100" s="220"/>
-      <c r="E100" s="273"/>
-      <c r="F100" s="331">
+      <c r="B100" s="248"/>
+      <c r="C100" s="248"/>
+      <c r="D100" s="248"/>
+      <c r="E100" s="279"/>
+      <c r="F100" s="307">
         <f>F97-F98-F99</f>
         <v>1961.4099174890828</v>
       </c>
-      <c r="G100" s="220"/>
-      <c r="H100" s="220"/>
-      <c r="I100" s="220"/>
-      <c r="J100" s="220"/>
-      <c r="K100" s="273"/>
+      <c r="G100" s="248"/>
+      <c r="H100" s="248"/>
+      <c r="I100" s="248"/>
+      <c r="J100" s="248"/>
+      <c r="K100" s="279"/>
       <c r="L100" s="70"/>
     </row>
     <row r="101" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A101" s="341" t="s">
+      <c r="A101" s="299" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="220"/>
-      <c r="C101" s="220"/>
-      <c r="D101" s="220"/>
-      <c r="E101" s="273"/>
-      <c r="F101" s="344">
+      <c r="B101" s="248"/>
+      <c r="C101" s="248"/>
+      <c r="D101" s="248"/>
+      <c r="E101" s="279"/>
+      <c r="F101" s="303">
         <f>F100*POWER(C104,3)</f>
         <v>1992.7619151997308</v>
       </c>
-      <c r="G101" s="220"/>
-      <c r="H101" s="220"/>
-      <c r="I101" s="220"/>
-      <c r="J101" s="220"/>
-      <c r="K101" s="273"/>
+      <c r="G101" s="248"/>
+      <c r="H101" s="248"/>
+      <c r="I101" s="248"/>
+      <c r="J101" s="248"/>
+      <c r="K101" s="279"/>
       <c r="L101" s="70"/>
     </row>
-    <row r="102" spans="1:12" ht="60">
-      <c r="A102" s="342" t="s">
+    <row r="102" spans="1:12" ht="57.6">
+      <c r="A102" s="300" t="s">
         <v>190</v>
       </c>
-      <c r="B102" s="293"/>
+      <c r="B102" s="301"/>
       <c r="C102" s="76" t="s">
         <v>191</v>
       </c>
@@ -16085,11 +16087,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="343" t="s">
+    <row r="103" spans="1:12" ht="14.4">
+      <c r="A103" s="302" t="s">
         <v>195</v>
       </c>
-      <c r="B103" s="273"/>
+      <c r="B103" s="279"/>
       <c r="C103" s="79">
         <f>L103*C107/100</f>
         <v>99.638095759986541</v>
@@ -16125,11 +16127,11 @@
         <v>1992.7619151997308</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="343" t="s">
+    <row r="104" spans="1:12" ht="14.4">
+      <c r="A104" s="302" t="s">
         <v>196</v>
       </c>
-      <c r="B104" s="273"/>
+      <c r="B104" s="279"/>
       <c r="C104" s="81">
         <v>1.0053000000000001</v>
       </c>
@@ -16155,11 +16157,11 @@
       <c r="K104" s="82"/>
       <c r="L104" s="83"/>
     </row>
-    <row r="105" spans="1:12" ht="64.900000000000006" customHeight="1">
-      <c r="A105" s="343" t="s">
+    <row r="105" spans="1:12" ht="64.95" customHeight="1">
+      <c r="A105" s="302" t="s">
         <v>197</v>
       </c>
-      <c r="B105" s="273"/>
+      <c r="B105" s="279"/>
       <c r="C105" s="84">
         <v>1.0053000000000001</v>
       </c>
@@ -16206,10 +16208,10 @@
       <c r="L106" s="89"/>
     </row>
     <row r="107" spans="1:12" ht="48.6" customHeight="1">
-      <c r="A107" s="345" t="s">
+      <c r="A107" s="296" t="s">
         <v>198</v>
       </c>
-      <c r="B107" s="273"/>
+      <c r="B107" s="279"/>
       <c r="C107" s="90">
         <v>5</v>
       </c>
@@ -16236,16 +16238,16 @@
       <c r="L107" s="90"/>
     </row>
     <row r="108" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A108" s="340" t="s">
+      <c r="A108" s="287" t="s">
         <v>199</v>
       </c>
-      <c r="B108" s="273"/>
+      <c r="B108" s="279"/>
       <c r="C108" s="79">
         <f>(C103*C105)-C103</f>
         <v>0.52808190752793394</v>
       </c>
       <c r="D108" s="79">
-        <f t="shared" ref="C108:I108" si="42">(D103*D105)-D103</f>
+        <f t="shared" ref="D108:H108" si="42">(D103*D105)-D103</f>
         <v>4.8712281861625684</v>
       </c>
       <c r="E108" s="79">
@@ -16273,36 +16275,36 @@
       <c r="L108" s="90"/>
     </row>
     <row r="109" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A109" s="340" t="s">
+      <c r="A109" s="287" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="220"/>
-      <c r="C109" s="220"/>
-      <c r="D109" s="220"/>
-      <c r="E109" s="220"/>
-      <c r="F109" s="220"/>
-      <c r="G109" s="220"/>
-      <c r="H109" s="220"/>
-      <c r="I109" s="220"/>
-      <c r="J109" s="220"/>
-      <c r="K109" s="273"/>
+      <c r="B109" s="248"/>
+      <c r="C109" s="248"/>
+      <c r="D109" s="248"/>
+      <c r="E109" s="248"/>
+      <c r="F109" s="248"/>
+      <c r="G109" s="248"/>
+      <c r="H109" s="248"/>
+      <c r="I109" s="248"/>
+      <c r="J109" s="248"/>
+      <c r="K109" s="279"/>
       <c r="L109" s="92">
         <f>C108+D108+E108+F108+G108+H108+I108+J108+K108</f>
         <v>40.515435845180917</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A110" s="340"/>
-      <c r="B110" s="220"/>
-      <c r="C110" s="220"/>
-      <c r="D110" s="220"/>
-      <c r="E110" s="220"/>
-      <c r="F110" s="220"/>
-      <c r="G110" s="220"/>
-      <c r="H110" s="220"/>
-      <c r="I110" s="220"/>
-      <c r="J110" s="220"/>
-      <c r="K110" s="273"/>
+      <c r="A110" s="287"/>
+      <c r="B110" s="248"/>
+      <c r="C110" s="248"/>
+      <c r="D110" s="248"/>
+      <c r="E110" s="248"/>
+      <c r="F110" s="248"/>
+      <c r="G110" s="248"/>
+      <c r="H110" s="248"/>
+      <c r="I110" s="248"/>
+      <c r="J110" s="248"/>
+      <c r="K110" s="279"/>
       <c r="L110" s="90"/>
     </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1"/>
@@ -17202,6 +17204,205 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="223">
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="F88:K88"/>
+    <mergeCell ref="F89:K89"/>
+    <mergeCell ref="F90:K90"/>
+    <mergeCell ref="F91:K91"/>
+    <mergeCell ref="F99:K99"/>
+    <mergeCell ref="F100:K100"/>
+    <mergeCell ref="F92:K92"/>
+    <mergeCell ref="F93:K93"/>
+    <mergeCell ref="F94:K94"/>
+    <mergeCell ref="F95:K95"/>
+    <mergeCell ref="F96:K96"/>
+    <mergeCell ref="F97:K97"/>
+    <mergeCell ref="F98:K98"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="A78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A110:K110"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="F101:K101"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:K109"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="F87:K87"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="C76:D77"/>
@@ -17226,205 +17427,6 @@
     <mergeCell ref="A96:E96"/>
     <mergeCell ref="A72:B73"/>
     <mergeCell ref="C72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:B75"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="A78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A110:K110"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="F101:K101"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:K109"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="F87:K87"/>
-    <mergeCell ref="F88:K88"/>
-    <mergeCell ref="F89:K89"/>
-    <mergeCell ref="F90:K90"/>
-    <mergeCell ref="F91:K91"/>
-    <mergeCell ref="F99:K99"/>
-    <mergeCell ref="F100:K100"/>
-    <mergeCell ref="F92:K92"/>
-    <mergeCell ref="F93:K93"/>
-    <mergeCell ref="F94:K94"/>
-    <mergeCell ref="F95:K95"/>
-    <mergeCell ref="F96:K96"/>
-    <mergeCell ref="F97:K97"/>
-    <mergeCell ref="F98:K98"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17435,95 +17437,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="33.125" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="33.09765625" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="14.3984375" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="13.3984375" customWidth="1"/>
     <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="26" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="22.69921875" customWidth="1"/>
+    <col min="13" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="132" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="263" t="s">
+      <c r="B1" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="263" t="s">
+      <c r="C1" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="263" t="s">
+      <c r="D1" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="264" t="s">
+      <c r="E1" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="266"/>
-      <c r="K1" s="253" t="s">
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="253" t="s">
+      <c r="L1" s="251" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="132" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="254"/>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="244" t="s">
+      <c r="A2" s="252"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="264" t="s">
+      <c r="F2" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="244" t="s">
+      <c r="G2" s="230"/>
+      <c r="H2" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="253" t="s">
+      <c r="I2" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="253" t="s">
+      <c r="J2" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
     </row>
     <row r="3" spans="1:12" s="132" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="255"/>
-      <c r="B3" s="255"/>
-      <c r="C3" s="255"/>
-      <c r="D3" s="255"/>
-      <c r="E3" s="245"/>
+      <c r="A3" s="253"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="265"/>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="245"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="255"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
     </row>
     <row r="4" spans="1:12" s="132" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="4">
@@ -17563,14 +17565,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A5" s="228">
+    <row r="5" spans="1:12" thickTop="1">
+      <c r="A5" s="240">
         <v>5</v>
       </c>
-      <c r="B5" s="230" t="s">
+      <c r="B5" s="245" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="232" t="s">
+      <c r="C5" s="236" t="s">
         <v>295</v>
       </c>
       <c r="D5" s="133" t="s">
@@ -17599,9 +17601,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A6" s="226"/>
-      <c r="B6" s="231"/>
-      <c r="C6" s="233"/>
+      <c r="A6" s="241"/>
+      <c r="B6" s="246"/>
+      <c r="C6" s="237"/>
       <c r="D6" s="135">
         <v>10.58</v>
       </c>
@@ -17632,8 +17634,8 @@
         <v>2225.3971999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31.5">
-      <c r="A7" s="229"/>
+    <row r="7" spans="1:12" ht="31.2">
+      <c r="A7" s="239"/>
       <c r="B7" s="159" t="s">
         <v>257</v>
       </c>
@@ -17660,8 +17662,8 @@
       <c r="K7" s="135"/>
       <c r="L7" s="135"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="229"/>
+    <row r="8" spans="1:12" ht="15.6">
+      <c r="A8" s="239"/>
       <c r="B8" s="158"/>
       <c r="C8" s="158"/>
       <c r="D8" s="138">
@@ -17687,7 +17689,7 @@
       <c r="L8" s="135"/>
     </row>
     <row r="9" spans="1:12" ht="45" customHeight="1">
-      <c r="A9" s="229"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="159" t="s">
         <v>258</v>
       </c>
@@ -17715,7 +17717,7 @@
       <c r="L9" s="161"/>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A10" s="229"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="158"/>
       <c r="C10" s="170"/>
       <c r="D10" s="138">
@@ -17740,8 +17742,8 @@
       <c r="K10" s="135"/>
       <c r="L10" s="135"/>
     </row>
-    <row r="11" spans="1:12" ht="31.5">
-      <c r="A11" s="229"/>
+    <row r="11" spans="1:12" ht="31.2">
+      <c r="A11" s="239"/>
       <c r="B11" s="159" t="s">
         <v>41</v>
       </c>
@@ -17768,8 +17770,8 @@
       <c r="K11" s="161"/>
       <c r="L11" s="161"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="229"/>
+    <row r="12" spans="1:12" ht="15.6">
+      <c r="A12" s="239"/>
       <c r="B12" s="158"/>
       <c r="C12" s="170"/>
       <c r="D12" s="138">
@@ -17794,8 +17796,8 @@
       <c r="K12" s="135"/>
       <c r="L12" s="135"/>
     </row>
-    <row r="13" spans="1:12" ht="31.5">
-      <c r="A13" s="229"/>
+    <row r="13" spans="1:12" ht="31.2">
+      <c r="A13" s="239"/>
       <c r="B13" s="159" t="s">
         <v>260</v>
       </c>
@@ -17822,8 +17824,8 @@
       <c r="K13" s="161"/>
       <c r="L13" s="161"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="229"/>
+    <row r="14" spans="1:12" ht="15.6">
+      <c r="A14" s="239"/>
       <c r="B14" s="158"/>
       <c r="C14" s="170"/>
       <c r="D14" s="138">
@@ -17848,8 +17850,8 @@
       <c r="K14" s="135"/>
       <c r="L14" s="135"/>
     </row>
-    <row r="15" spans="1:12" ht="31.5">
-      <c r="A15" s="229"/>
+    <row r="15" spans="1:12" ht="31.2">
+      <c r="A15" s="239"/>
       <c r="B15" s="159" t="s">
         <v>266</v>
       </c>
@@ -17876,8 +17878,8 @@
       <c r="K15" s="161"/>
       <c r="L15" s="161"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="229"/>
+    <row r="16" spans="1:12" ht="15.6">
+      <c r="A16" s="239"/>
       <c r="B16" s="158"/>
       <c r="C16" s="170"/>
       <c r="D16" s="138">
@@ -17902,8 +17904,8 @@
       <c r="K16" s="135"/>
       <c r="L16" s="135"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="229"/>
+    <row r="17" spans="1:12" ht="15.6">
+      <c r="A17" s="239"/>
       <c r="B17" s="160" t="s">
         <v>44</v>
       </c>
@@ -17930,8 +17932,8 @@
       <c r="K17" s="161"/>
       <c r="L17" s="161"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="229"/>
+    <row r="18" spans="1:12" ht="15.6">
+      <c r="A18" s="239"/>
       <c r="B18" s="158"/>
       <c r="C18" s="170"/>
       <c r="D18" s="138">
@@ -17956,8 +17958,8 @@
       <c r="K18" s="135"/>
       <c r="L18" s="135"/>
     </row>
-    <row r="19" spans="1:12" ht="47.25">
-      <c r="A19" s="229"/>
+    <row r="19" spans="1:12" ht="46.8">
+      <c r="A19" s="239"/>
       <c r="B19" s="159" t="s">
         <v>262</v>
       </c>
@@ -17984,8 +17986,8 @@
       <c r="K19" s="161"/>
       <c r="L19" s="161"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="229"/>
+    <row r="20" spans="1:12" ht="15.6">
+      <c r="A20" s="239"/>
       <c r="B20" s="158"/>
       <c r="C20" s="170"/>
       <c r="D20" s="138">
@@ -18010,8 +18012,8 @@
       <c r="K20" s="135"/>
       <c r="L20" s="135"/>
     </row>
-    <row r="21" spans="1:12" ht="31.5">
-      <c r="A21" s="229"/>
+    <row r="21" spans="1:12" ht="31.2">
+      <c r="A21" s="239"/>
       <c r="B21" s="159" t="s">
         <v>270</v>
       </c>
@@ -18039,8 +18041,8 @@
       <c r="K21" s="161"/>
       <c r="L21" s="161"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
-      <c r="A22" s="229"/>
+    <row r="22" spans="1:12" ht="15.6">
+      <c r="A22" s="239"/>
       <c r="B22" s="158"/>
       <c r="C22" s="170"/>
       <c r="D22" s="138">
@@ -18065,8 +18067,8 @@
       <c r="K22" s="135"/>
       <c r="L22" s="135"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
-      <c r="A23" s="229"/>
+    <row r="23" spans="1:12" ht="15.6">
+      <c r="A23" s="239"/>
       <c r="B23" s="159" t="s">
         <v>274</v>
       </c>
@@ -18093,8 +18095,8 @@
       <c r="K23" s="161"/>
       <c r="L23" s="161"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
-      <c r="A24" s="229"/>
+    <row r="24" spans="1:12" ht="15.6">
+      <c r="A24" s="239"/>
       <c r="B24" s="158"/>
       <c r="C24" s="170"/>
       <c r="D24" s="138">
@@ -18120,7 +18122,7 @@
       <c r="L24" s="135"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="229"/>
+      <c r="A25" s="239"/>
       <c r="B25" s="159" t="s">
         <v>273</v>
       </c>
@@ -18149,7 +18151,7 @@
       <c r="L25" s="161"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="229"/>
+      <c r="A26" s="239"/>
       <c r="B26" s="158"/>
       <c r="C26" s="170"/>
       <c r="D26" s="138">
@@ -18174,7 +18176,7 @@
       <c r="L26" s="135"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="229"/>
+      <c r="A27" s="239"/>
       <c r="B27" s="159" t="s">
         <v>272</v>
       </c>
@@ -18203,7 +18205,7 @@
       <c r="L27" s="163"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="229"/>
+      <c r="A28" s="239"/>
       <c r="B28" s="158"/>
       <c r="C28" s="170"/>
       <c r="D28" s="174">
@@ -18228,7 +18230,7 @@
       <c r="L28" s="164"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="229"/>
+      <c r="A29" s="239"/>
       <c r="B29" s="159" t="s">
         <v>276</v>
       </c>
@@ -18257,7 +18259,7 @@
       <c r="L29" s="164"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="283"/>
+      <c r="A30" s="322"/>
       <c r="B30" s="140"/>
       <c r="C30" s="207"/>
       <c r="D30" s="140">
@@ -18283,11 +18285,11 @@
       <c r="L30" s="163"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="353" t="s">
+      <c r="A31" s="355" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="354"/>
-      <c r="C31" s="354"/>
+      <c r="B31" s="356"/>
+      <c r="C31" s="356"/>
       <c r="D31" s="208"/>
       <c r="E31" s="208">
         <f>E6</f>
@@ -18323,11 +18325,11 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="355" t="s">
+      <c r="A32" s="357" t="s">
         <v>313</v>
       </c>
-      <c r="B32" s="350"/>
-      <c r="C32" s="350"/>
+      <c r="B32" s="358"/>
+      <c r="C32" s="358"/>
       <c r="D32" s="210"/>
       <c r="E32" s="211">
         <f>E5</f>
@@ -18363,11 +18365,11 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="349" t="s">
+      <c r="A33" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="350"/>
-      <c r="C33" s="350"/>
+      <c r="B33" s="358"/>
+      <c r="C33" s="358"/>
       <c r="D33" s="210"/>
       <c r="E33" s="210"/>
       <c r="F33" s="210"/>
@@ -18382,11 +18384,11 @@
       <c r="L33" s="214"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="349" t="s">
+      <c r="A34" s="359" t="s">
         <v>201</v>
       </c>
-      <c r="B34" s="350"/>
-      <c r="C34" s="350"/>
+      <c r="B34" s="358"/>
+      <c r="C34" s="358"/>
       <c r="D34" s="210"/>
       <c r="E34" s="210"/>
       <c r="F34" s="210"/>
@@ -18401,11 +18403,11 @@
       <c r="L34" s="214"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="349" t="s">
+      <c r="A35" s="359" t="s">
         <v>202</v>
       </c>
-      <c r="B35" s="350"/>
-      <c r="C35" s="350"/>
+      <c r="B35" s="358"/>
+      <c r="C35" s="358"/>
       <c r="D35" s="210"/>
       <c r="E35" s="210"/>
       <c r="F35" s="210"/>
@@ -18420,11 +18422,11 @@
       <c r="L35" s="214"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="349" t="s">
+      <c r="A36" s="359" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="350"/>
-      <c r="C36" s="350"/>
+      <c r="B36" s="358"/>
+      <c r="C36" s="358"/>
       <c r="D36" s="210"/>
       <c r="E36" s="210"/>
       <c r="F36" s="210"/>
@@ -18439,11 +18441,11 @@
       <c r="L36" s="214"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="351" t="s">
+      <c r="A37" s="360" t="s">
         <v>204</v>
       </c>
-      <c r="B37" s="352"/>
-      <c r="C37" s="352"/>
+      <c r="B37" s="361"/>
+      <c r="C37" s="361"/>
       <c r="D37" s="215"/>
       <c r="E37" s="215"/>
       <c r="F37" s="215"/>
@@ -18486,74 +18488,74 @@
       <c r="L39" s="96"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="253" t="s">
+      <c r="A40" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="263" t="s">
+      <c r="B40" s="262" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="263" t="s">
+      <c r="C40" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="263" t="s">
+      <c r="D40" s="262" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="264" t="s">
+      <c r="E40" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="265"/>
-      <c r="G40" s="265"/>
-      <c r="H40" s="265"/>
-      <c r="I40" s="265"/>
-      <c r="J40" s="266"/>
-      <c r="K40" s="253" t="s">
+      <c r="F40" s="229"/>
+      <c r="G40" s="229"/>
+      <c r="H40" s="229"/>
+      <c r="I40" s="229"/>
+      <c r="J40" s="230"/>
+      <c r="K40" s="251" t="s">
         <v>5</v>
       </c>
-      <c r="L40" s="253" t="s">
+      <c r="L40" s="251" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="254"/>
-      <c r="B41" s="254"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="254"/>
-      <c r="E41" s="244" t="s">
+      <c r="A41" s="252"/>
+      <c r="B41" s="252"/>
+      <c r="C41" s="252"/>
+      <c r="D41" s="252"/>
+      <c r="E41" s="264" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="264" t="s">
+      <c r="F41" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="266"/>
-      <c r="H41" s="244" t="s">
+      <c r="G41" s="230"/>
+      <c r="H41" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="253" t="s">
+      <c r="I41" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="253" t="s">
+      <c r="J41" s="251" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="254"/>
-      <c r="L41" s="254"/>
+      <c r="K41" s="252"/>
+      <c r="L41" s="252"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="255"/>
-      <c r="B42" s="255"/>
-      <c r="C42" s="255"/>
-      <c r="D42" s="255"/>
-      <c r="E42" s="245"/>
+      <c r="A42" s="253"/>
+      <c r="B42" s="253"/>
+      <c r="C42" s="253"/>
+      <c r="D42" s="253"/>
+      <c r="E42" s="265"/>
       <c r="F42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="245"/>
-      <c r="I42" s="255"/>
-      <c r="J42" s="255"/>
-      <c r="K42" s="255"/>
-      <c r="L42" s="255"/>
+      <c r="H42" s="265"/>
+      <c r="I42" s="253"/>
+      <c r="J42" s="253"/>
+      <c r="K42" s="253"/>
+      <c r="L42" s="253"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="4">
@@ -18594,13 +18596,13 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A44" s="228">
+      <c r="A44" s="240">
         <v>5</v>
       </c>
-      <c r="B44" s="230" t="s">
+      <c r="B44" s="245" t="s">
         <v>294</v>
       </c>
-      <c r="C44" s="232" t="s">
+      <c r="C44" s="236" t="s">
         <v>295</v>
       </c>
       <c r="D44" s="133" t="s">
@@ -18629,9 +18631,9 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="38.25" customHeight="1">
-      <c r="A45" s="226"/>
-      <c r="B45" s="231"/>
-      <c r="C45" s="233"/>
+      <c r="A45" s="241"/>
+      <c r="B45" s="246"/>
+      <c r="C45" s="237"/>
       <c r="D45" s="135">
         <v>10.58</v>
       </c>
@@ -18663,7 +18665,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="229"/>
+      <c r="A46" s="239"/>
       <c r="B46" s="159" t="s">
         <v>257</v>
       </c>
@@ -18691,7 +18693,7 @@
       <c r="L46" s="135"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="229"/>
+      <c r="A47" s="239"/>
       <c r="B47" s="158"/>
       <c r="C47" s="158"/>
       <c r="D47" s="138">
@@ -18716,8 +18718,8 @@
       <c r="K47" s="135"/>
       <c r="L47" s="135"/>
     </row>
-    <row r="48" spans="1:12" ht="34.15" customHeight="1">
-      <c r="A48" s="229"/>
+    <row r="48" spans="1:12" ht="34.200000000000003" customHeight="1">
+      <c r="A48" s="239"/>
       <c r="B48" s="159" t="s">
         <v>258</v>
       </c>
@@ -18744,8 +18746,8 @@
       <c r="K48" s="161"/>
       <c r="L48" s="161"/>
     </row>
-    <row r="49" spans="1:12" ht="43.15" customHeight="1">
-      <c r="A49" s="229"/>
+    <row r="49" spans="1:12" ht="43.2" customHeight="1">
+      <c r="A49" s="239"/>
       <c r="B49" s="158"/>
       <c r="C49" s="170"/>
       <c r="D49" s="138">
@@ -18771,7 +18773,7 @@
       <c r="L49" s="135"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A50" s="229"/>
+      <c r="A50" s="239"/>
       <c r="B50" s="159" t="s">
         <v>41</v>
       </c>
@@ -18799,7 +18801,7 @@
       <c r="L50" s="161"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A51" s="229"/>
+      <c r="A51" s="239"/>
       <c r="B51" s="158"/>
       <c r="C51" s="170"/>
       <c r="D51" s="138">
@@ -18825,7 +18827,7 @@
       <c r="L51" s="135"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="229"/>
+      <c r="A52" s="239"/>
       <c r="B52" s="159" t="s">
         <v>260</v>
       </c>
@@ -18853,7 +18855,7 @@
       <c r="L52" s="161"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A53" s="229"/>
+      <c r="A53" s="239"/>
       <c r="B53" s="158"/>
       <c r="C53" s="170"/>
       <c r="D53" s="138">
@@ -18879,7 +18881,7 @@
       <c r="L53" s="135"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A54" s="229"/>
+      <c r="A54" s="239"/>
       <c r="B54" s="159" t="s">
         <v>266</v>
       </c>
@@ -18907,7 +18909,7 @@
       <c r="L54" s="161"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A55" s="229"/>
+      <c r="A55" s="239"/>
       <c r="B55" s="158"/>
       <c r="C55" s="170"/>
       <c r="D55" s="138">
@@ -18933,7 +18935,7 @@
       <c r="L55" s="135"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A56" s="229"/>
+      <c r="A56" s="239"/>
       <c r="B56" s="160" t="s">
         <v>44</v>
       </c>
@@ -18961,7 +18963,7 @@
       <c r="L56" s="161"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A57" s="229"/>
+      <c r="A57" s="239"/>
       <c r="B57" s="158"/>
       <c r="C57" s="170"/>
       <c r="D57" s="138">
@@ -18987,7 +18989,7 @@
       <c r="L57" s="135"/>
     </row>
     <row r="58" spans="1:12" ht="39" customHeight="1">
-      <c r="A58" s="229"/>
+      <c r="A58" s="239"/>
       <c r="B58" s="159" t="s">
         <v>262</v>
       </c>
@@ -19015,7 +19017,7 @@
       <c r="L58" s="161"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A59" s="229"/>
+      <c r="A59" s="239"/>
       <c r="B59" s="158"/>
       <c r="C59" s="170"/>
       <c r="D59" s="138">
@@ -19041,7 +19043,7 @@
       <c r="L59" s="135"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A60" s="229"/>
+      <c r="A60" s="239"/>
       <c r="B60" s="159" t="s">
         <v>316</v>
       </c>
@@ -19070,7 +19072,7 @@
       <c r="L60" s="161"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A61" s="229"/>
+      <c r="A61" s="239"/>
       <c r="B61" s="158"/>
       <c r="C61" s="170"/>
       <c r="D61" s="138">
@@ -19096,7 +19098,7 @@
       <c r="L61" s="135"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A62" s="229"/>
+      <c r="A62" s="239"/>
       <c r="B62" s="159" t="s">
         <v>274</v>
       </c>
@@ -19124,7 +19126,7 @@
       <c r="L62" s="161"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A63" s="229"/>
+      <c r="A63" s="239"/>
       <c r="B63" s="158"/>
       <c r="C63" s="170"/>
       <c r="D63" s="138">
@@ -19150,7 +19152,7 @@
       <c r="L63" s="135"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A64" s="229"/>
+      <c r="A64" s="239"/>
       <c r="B64" s="159" t="s">
         <v>273</v>
       </c>
@@ -19179,7 +19181,7 @@
       <c r="L64" s="161"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A65" s="229"/>
+      <c r="A65" s="239"/>
       <c r="B65" s="158"/>
       <c r="C65" s="170"/>
       <c r="D65" s="138">
@@ -19204,7 +19206,7 @@
       <c r="L65" s="135"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A66" s="229"/>
+      <c r="A66" s="239"/>
       <c r="B66" s="159" t="s">
         <v>272</v>
       </c>
@@ -19233,7 +19235,7 @@
       <c r="L66" s="163"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A67" s="229"/>
+      <c r="A67" s="239"/>
       <c r="B67" s="158"/>
       <c r="C67" s="170"/>
       <c r="D67" s="174">
@@ -19258,7 +19260,7 @@
       <c r="L67" s="164"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A68" s="229"/>
+      <c r="A68" s="239"/>
       <c r="B68" s="159" t="s">
         <v>276</v>
       </c>
@@ -19287,7 +19289,7 @@
       <c r="L68" s="164"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A69" s="283"/>
+      <c r="A69" s="322"/>
       <c r="B69" s="140"/>
       <c r="C69" s="207"/>
       <c r="D69" s="140">
@@ -19313,11 +19315,11 @@
       <c r="L69" s="163"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A70" s="353" t="s">
+      <c r="A70" s="355" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="354"/>
-      <c r="C70" s="354"/>
+      <c r="B70" s="356"/>
+      <c r="C70" s="356"/>
       <c r="D70" s="208"/>
       <c r="E70" s="208">
         <f>E45</f>
@@ -19353,11 +19355,11 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A71" s="355" t="s">
+      <c r="A71" s="357" t="s">
         <v>313</v>
       </c>
-      <c r="B71" s="350"/>
-      <c r="C71" s="350"/>
+      <c r="B71" s="358"/>
+      <c r="C71" s="358"/>
       <c r="D71" s="210"/>
       <c r="E71" s="211">
         <f>E44</f>
@@ -19393,11 +19395,11 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A72" s="349" t="s">
+      <c r="A72" s="359" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="350"/>
-      <c r="C72" s="350"/>
+      <c r="B72" s="358"/>
+      <c r="C72" s="358"/>
       <c r="D72" s="210"/>
       <c r="E72" s="210"/>
       <c r="F72" s="210"/>
@@ -19412,11 +19414,11 @@
       <c r="L72" s="214"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="349" t="s">
+      <c r="A73" s="359" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="350"/>
-      <c r="C73" s="350"/>
+      <c r="B73" s="358"/>
+      <c r="C73" s="358"/>
       <c r="D73" s="210"/>
       <c r="E73" s="210"/>
       <c r="F73" s="210"/>
@@ -19431,11 +19433,11 @@
       <c r="L73" s="214"/>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="349" t="s">
+      <c r="A74" s="359" t="s">
         <v>202</v>
       </c>
-      <c r="B74" s="350"/>
-      <c r="C74" s="350"/>
+      <c r="B74" s="358"/>
+      <c r="C74" s="358"/>
       <c r="D74" s="210"/>
       <c r="E74" s="210"/>
       <c r="F74" s="210"/>
@@ -19450,11 +19452,11 @@
       <c r="L74" s="214"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A75" s="349" t="s">
+      <c r="A75" s="359" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="350"/>
-      <c r="C75" s="350"/>
+      <c r="B75" s="358"/>
+      <c r="C75" s="358"/>
       <c r="D75" s="210"/>
       <c r="E75" s="210"/>
       <c r="F75" s="210"/>
@@ -19469,11 +19471,11 @@
       <c r="L75" s="214"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="351" t="s">
+      <c r="A76" s="360" t="s">
         <v>204</v>
       </c>
-      <c r="B76" s="352"/>
-      <c r="C76" s="352"/>
+      <c r="B76" s="361"/>
+      <c r="C76" s="361"/>
       <c r="D76" s="215"/>
       <c r="E76" s="215"/>
       <c r="F76" s="215"/>
@@ -19488,7 +19490,7 @@
       <c r="L76" s="217"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="78" spans="1:12" ht="47.25">
+    <row r="78" spans="1:12" ht="46.8">
       <c r="C78" s="218" t="s">
         <v>314</v>
       </c>
@@ -20516,6 +20518,35 @@
     <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A44:A69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A5:A30"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -20531,35 +20562,6 @@
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A44:A69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -20571,19 +20573,19 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.25" customWidth="1"/>
+    <col min="1" max="1" width="43.19921875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="26" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
+    <col min="5" max="26" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.4">
       <c r="A1" s="99" t="s">
         <v>217</v>
       </c>
@@ -20597,7 +20599,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.4">
       <c r="A2" s="102" t="s">
         <v>221</v>
       </c>
@@ -20613,7 +20615,7 @@
       </c>
       <c r="E2" s="97"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="14.4">
       <c r="A3" s="102" t="s">
         <v>224</v>
       </c>
@@ -20628,7 +20630,7 @@
         <v>1789.1887171235439</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="14.4">
       <c r="A4" s="102" t="s">
         <v>227</v>
       </c>
@@ -20643,7 +20645,7 @@
         <v>98.690329521723115</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="14.4">
       <c r="A5" s="102" t="s">
         <v>229</v>
       </c>
@@ -20657,7 +20659,7 @@
         <v>13934</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="28.8">
       <c r="A6" s="102" t="s">
         <v>232</v>
       </c>
@@ -20676,7 +20678,7 @@
         <v>139.34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="102" t="s">
         <v>235</v>
       </c>
@@ -20691,7 +20693,7 @@
         <v>0.12840452972036343</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="102" t="s">
         <v>237</v>
       </c>
@@ -20706,7 +20708,7 @@
         <v>4432.8209292590464</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="14.4">
       <c r="A9" s="102" t="s">
         <v>240</v>
       </c>
@@ -20721,7 +20723,7 @@
         <v>0.48168863431720638</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="14.4">
       <c r="A10" s="102" t="s">
         <v>243</v>
       </c>
@@ -20736,7 +20738,7 @@
         <v>354.37165239185543</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="14.4">
       <c r="A11" s="102" t="s">
         <v>245</v>
       </c>
@@ -20751,7 +20753,7 @@
         <v>7.6942695192762783E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="14.4">
       <c r="A12" s="102" t="s">
         <v>247</v>
       </c>
@@ -20765,7 +20767,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="14.4">
       <c r="A13" s="102" t="s">
         <v>250</v>
       </c>
@@ -20779,7 +20781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="14.4">
       <c r="A14" s="106" t="s">
         <v>252</v>
       </c>
